--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27804"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C737B7-B9AA-4EAB-B476-7D63847F93F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\C&amp;B\proyectos\angular\AppWedding\src\assets\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257444CC-6F52-4A41-95A9-856F1E3A8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>invitado</t>
   </si>
@@ -82,13 +76,16 @@
   </si>
   <si>
     <t>Arielita</t>
+  </si>
+  <si>
+    <t>numCelularConfirmacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,20 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +475,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -487,8 +489,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -498,8 +503,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -509,8 +517,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -520,8 +531,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -531,8 +545,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -542,8 +559,11 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -553,8 +573,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>968238218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -563,6 +586,9 @@
       </c>
       <c r="C9" t="s">
         <v>15</v>
+      </c>
+      <c r="D9">
+        <v>968238218</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\C&amp;B\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257444CC-6F52-4A41-95A9-856F1E3A8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC840B02-6B04-4C7B-9F20-8E10FBD3FBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="aleatorios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="163">
   <si>
     <t>invitado</t>
   </si>
@@ -60,9 +62,6 @@
     <t>BC0000004</t>
   </si>
   <si>
-    <t>Alexis Maldonado Vasquez</t>
-  </si>
-  <si>
     <t>Alvaro Torres Mimbela</t>
   </si>
   <si>
@@ -79,16 +78,460 @@
   </si>
   <si>
     <t>numCelularConfirmacion</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>BC0000007</t>
+  </si>
+  <si>
+    <t>BC0000008</t>
+  </si>
+  <si>
+    <t>BC0000009</t>
+  </si>
+  <si>
+    <t>BC0000010</t>
+  </si>
+  <si>
+    <t>BC0000011</t>
+  </si>
+  <si>
+    <t>BC0000012</t>
+  </si>
+  <si>
+    <t>BC0000013</t>
+  </si>
+  <si>
+    <t>BC0000014</t>
+  </si>
+  <si>
+    <t>BC0000015</t>
+  </si>
+  <si>
+    <t>BC0000016</t>
+  </si>
+  <si>
+    <t>BC0000017</t>
+  </si>
+  <si>
+    <t>BC0000018</t>
+  </si>
+  <si>
+    <t>BC0000019</t>
+  </si>
+  <si>
+    <t>BC0000020</t>
+  </si>
+  <si>
+    <t>BC0000021</t>
+  </si>
+  <si>
+    <t>BC0000022</t>
+  </si>
+  <si>
+    <t>BC0000023</t>
+  </si>
+  <si>
+    <t>BC0000024</t>
+  </si>
+  <si>
+    <t>BC0000025</t>
+  </si>
+  <si>
+    <t>BC0000026</t>
+  </si>
+  <si>
+    <t>BC0000027</t>
+  </si>
+  <si>
+    <t>BC0000028</t>
+  </si>
+  <si>
+    <t>BC0000029</t>
+  </si>
+  <si>
+    <t>BC0000030</t>
+  </si>
+  <si>
+    <t>BC0000031</t>
+  </si>
+  <si>
+    <t>BC0000032</t>
+  </si>
+  <si>
+    <t>BC0000033</t>
+  </si>
+  <si>
+    <t>BC0000034</t>
+  </si>
+  <si>
+    <t>BC0000035</t>
+  </si>
+  <si>
+    <t>BC0000036</t>
+  </si>
+  <si>
+    <t>BC0000037</t>
+  </si>
+  <si>
+    <t>BC0000038</t>
+  </si>
+  <si>
+    <t>BC0000039</t>
+  </si>
+  <si>
+    <t>BC0000040</t>
+  </si>
+  <si>
+    <t>BC0000041</t>
+  </si>
+  <si>
+    <t>BC0000042</t>
+  </si>
+  <si>
+    <t>BC0000043</t>
+  </si>
+  <si>
+    <t>BC0000044</t>
+  </si>
+  <si>
+    <t>BC0000045</t>
+  </si>
+  <si>
+    <t>BC0000046</t>
+  </si>
+  <si>
+    <t>BC0000047</t>
+  </si>
+  <si>
+    <t>BC0000048</t>
+  </si>
+  <si>
+    <t>BC0000049</t>
+  </si>
+  <si>
+    <t>BC0000050</t>
+  </si>
+  <si>
+    <t>BC0000051</t>
+  </si>
+  <si>
+    <t>BC0000052</t>
+  </si>
+  <si>
+    <t>BC0000053</t>
+  </si>
+  <si>
+    <t>BC0000054</t>
+  </si>
+  <si>
+    <t>BC0000055</t>
+  </si>
+  <si>
+    <t>BC0000056</t>
+  </si>
+  <si>
+    <t>BC0000057</t>
+  </si>
+  <si>
+    <t>BC0000058</t>
+  </si>
+  <si>
+    <t>BC0000059</t>
+  </si>
+  <si>
+    <t>BC0000060</t>
+  </si>
+  <si>
+    <t>BC0000061</t>
+  </si>
+  <si>
+    <t>BC0000062</t>
+  </si>
+  <si>
+    <t>BC0000063</t>
+  </si>
+  <si>
+    <t>BC0000064</t>
+  </si>
+  <si>
+    <t>BC0000065</t>
+  </si>
+  <si>
+    <t>BC0000066</t>
+  </si>
+  <si>
+    <t>BC0000067</t>
+  </si>
+  <si>
+    <t>BC0000068</t>
+  </si>
+  <si>
+    <t>BC0000069</t>
+  </si>
+  <si>
+    <t>BC0000070</t>
+  </si>
+  <si>
+    <t>BC0000071</t>
+  </si>
+  <si>
+    <t>BC0000072</t>
+  </si>
+  <si>
+    <t>BC0000073</t>
+  </si>
+  <si>
+    <t>BC0000074</t>
+  </si>
+  <si>
+    <t>BC0000075</t>
+  </si>
+  <si>
+    <t>BC0000076</t>
+  </si>
+  <si>
+    <t>BC0000077</t>
+  </si>
+  <si>
+    <t>BC0000078</t>
+  </si>
+  <si>
+    <t>BC0000079</t>
+  </si>
+  <si>
+    <t>BC0000080</t>
+  </si>
+  <si>
+    <t>BC0000081</t>
+  </si>
+  <si>
+    <t>BC0000082</t>
+  </si>
+  <si>
+    <t>BC0000083</t>
+  </si>
+  <si>
+    <t>BC0000084</t>
+  </si>
+  <si>
+    <t>BC0000085</t>
+  </si>
+  <si>
+    <t>BC0000086</t>
+  </si>
+  <si>
+    <t>BC0000087</t>
+  </si>
+  <si>
+    <t>BC0000088</t>
+  </si>
+  <si>
+    <t>BC0000089</t>
+  </si>
+  <si>
+    <t>BC0000090</t>
+  </si>
+  <si>
+    <t>BC0000091</t>
+  </si>
+  <si>
+    <t>BC0000092</t>
+  </si>
+  <si>
+    <t>BC0000093</t>
+  </si>
+  <si>
+    <t>BC0000094</t>
+  </si>
+  <si>
+    <t>BC0000095</t>
+  </si>
+  <si>
+    <t>BC0000096</t>
+  </si>
+  <si>
+    <t>BC0000097</t>
+  </si>
+  <si>
+    <t>BC0000098</t>
+  </si>
+  <si>
+    <t>BC0000099</t>
+  </si>
+  <si>
+    <t>BC0000100</t>
+  </si>
+  <si>
+    <t>BC0000101</t>
+  </si>
+  <si>
+    <t>BC0000102</t>
+  </si>
+  <si>
+    <t>BC0000103</t>
+  </si>
+  <si>
+    <t>BC0000104</t>
+  </si>
+  <si>
+    <t>BC0000105</t>
+  </si>
+  <si>
+    <t>BC0000106</t>
+  </si>
+  <si>
+    <t>BC0000107</t>
+  </si>
+  <si>
+    <t>BC0000108</t>
+  </si>
+  <si>
+    <t>BC0000109</t>
+  </si>
+  <si>
+    <t>BC0000110</t>
+  </si>
+  <si>
+    <t>BC0000111</t>
+  </si>
+  <si>
+    <t>BC0000112</t>
+  </si>
+  <si>
+    <t>BC0000113</t>
+  </si>
+  <si>
+    <t>BC0000114</t>
+  </si>
+  <si>
+    <t>BC0000115</t>
+  </si>
+  <si>
+    <t>BC0000116</t>
+  </si>
+  <si>
+    <t>BC0000117</t>
+  </si>
+  <si>
+    <t>BC0000118</t>
+  </si>
+  <si>
+    <t>BC0000119</t>
+  </si>
+  <si>
+    <t>BC0000120</t>
+  </si>
+  <si>
+    <t>BC0000121</t>
+  </si>
+  <si>
+    <t>BC0000122</t>
+  </si>
+  <si>
+    <t>BC0000123</t>
+  </si>
+  <si>
+    <t>BC0000124</t>
+  </si>
+  <si>
+    <t>BC0000125</t>
+  </si>
+  <si>
+    <t>BC0000126</t>
+  </si>
+  <si>
+    <t>BC0000127</t>
+  </si>
+  <si>
+    <t>BC0000128</t>
+  </si>
+  <si>
+    <t>BC0000129</t>
+  </si>
+  <si>
+    <t>BC0000130</t>
+  </si>
+  <si>
+    <t>BC0000131</t>
+  </si>
+  <si>
+    <t>BC0000132</t>
+  </si>
+  <si>
+    <t>BC0000133</t>
+  </si>
+  <si>
+    <t>BC0000134</t>
+  </si>
+  <si>
+    <t>BC0000135</t>
+  </si>
+  <si>
+    <t>BC0000136</t>
+  </si>
+  <si>
+    <t>BC0000137</t>
+  </si>
+  <si>
+    <t>BC0000138</t>
+  </si>
+  <si>
+    <t>BC0000139</t>
+  </si>
+  <si>
+    <t>BC0000140</t>
+  </si>
+  <si>
+    <t>BC0000141</t>
+  </si>
+  <si>
+    <t>BC0000142</t>
+  </si>
+  <si>
+    <t>BC0000143</t>
+  </si>
+  <si>
+    <t>BC0000144</t>
+  </si>
+  <si>
+    <t>BC0000145</t>
+  </si>
+  <si>
+    <t>BC0000146</t>
+  </si>
+  <si>
+    <t>BC0000147</t>
+  </si>
+  <si>
+    <t>BC0000148</t>
+  </si>
+  <si>
+    <t>BC0000149</t>
+  </si>
+  <si>
+    <t>BC0000150</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,145 +893,3976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>968238218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>968238218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>968238218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>968238218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>968238218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>968238218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>968238218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>968238219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DCEF5-9B3A-473F-9084-F55B2DB8432F}">
+  <dimension ref="A1:D150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>82092.119045661166</v>
+      </c>
+      <c r="C1">
+        <f>TRUNC(B1,0)</f>
+        <v>82092</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1,C1)</f>
+        <v>BC000000182092</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>968238218</v>
+        <v>38454.990005160704</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">TRUNC(B2,0)</f>
+        <v>38454</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D16" si="1">CONCATENATE(A2,C2)</f>
+        <v>BC000000238454</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>968238218</v>
+        <v>51920.461522200138</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>51920</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000000351920</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>968238218</v>
+        <v>22767.870756892127</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>22767</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000000422767</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>968238218</v>
+        <v>47412.902578167093</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>47412</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000000547412</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>968238218</v>
+        <v>22592.004454763515</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>22592</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000000622592</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>968238218</v>
+        <v>35328.499935582782</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>35328</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000000735328</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>968238218</v>
+        <v>7206.4700278210439</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7206</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>BC00000087206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>968238218</v>
+        <v>96668.465696584593</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>96668</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000000996668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>60951.822871818185</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>60951</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001060951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>23083.884575571868</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>23083</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001123083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>47383.848889064553</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>47383</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001247383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10506.823954282607</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10506</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001310506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>22371.64229051306</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>22371</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001422371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>40431.689478173605</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>40431</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001540431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>19115.922095231075</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>19115</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>BC000001619115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>12596.49959401673</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>12596</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17" si="2">CONCATENATE(A17,C17)</f>
+        <v>BC000001712596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>43023.910132407917</v>
+      </c>
+      <c r="C18">
+        <f>TRUNC(B18,0)</f>
+        <v>43023</v>
+      </c>
+      <c r="D18" t="str">
+        <f>CONCATENATE(A18,C18)</f>
+        <v>BC000001843023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>34923.318318144004</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>34923</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D22" si="3">CONCATENATE(A19,C19)</f>
+        <v>BC000001934923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>87843.353958334177</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>87843</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000002087843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>2233.0309706612315</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2233</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>BC00000212233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>24207.225712730095</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>24207</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000002224207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>34224.380881131292</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>34224</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:D86" si="4">CONCATENATE(A23,C23)</f>
+        <v>BC000002334224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>37047.085126035781</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>37047</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000002437047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>22676.672898951321</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>22676</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000002522676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>37439.946256121446</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>37439</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000002637439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>40107.987186589875</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>40107</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000002740107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>592.70831029257783</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>592</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="4"/>
+        <v>BC0000028592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>11503.767711444902</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>11503</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000002911503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>4531.1682736216108</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>4531</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000304531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>31022.883718242811</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>31022</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003131022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>5500.2661247964825</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000325500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>49648.872476951219</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>49648</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003349648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>98252.112251997605</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>98252</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003498252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>3139.9912623538808</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3139</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000353139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>78135.777907232245</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>78135</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003678135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>85793.453595743325</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>85793</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003785793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>66007.044944109555</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>66007</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003866007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>23767.444293527817</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>23767</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000003923767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>63374.809653966004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>63374</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004063374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>90051.072635407079</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>90051</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004190051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>13796.578578329943</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>13796</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004213796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>78033.199412549191</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>78033</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004378033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>33101.591470232837</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>33101</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004433101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>1437.9545370294288</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1437</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000451437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>42741.579674504159</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>42741</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004642741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>12857.037173101471</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>12857</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004712857</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>73743.52552434364</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>73743</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004873743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>24510.342498341408</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>24510</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000004924510</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>62376.296051004661</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>62376</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005062376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>39750.303561931541</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>39750</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005139750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>29710.955846147892</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>29710</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005229710</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>39480.917499950876</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>39480</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005339480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>76569.059555590022</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>76569</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005476569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>71349.354283821958</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>71349</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005571349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>60458.387376145081</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>60458</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005660458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>78189.888506494593</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>78189</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005778189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>85498.477889615082</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>85498</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005885498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>66043.065100235021</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>66043</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000005966043</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>70856.296120489787</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>70856</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006070856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>22543.975093974088</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>22543</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006122543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>79696.530762009192</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>79696</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006279696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>70478.322267228825</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>70478</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006370478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>46394.72009549517</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>46394</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006446394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>56335.512838551374</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>56335</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006556335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>90432.288960818711</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C129" si="5">TRUNC(B66,0)</f>
+        <v>90432</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006690432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>88901.117859862614</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>88901</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006788901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>6521.9547824597603</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>6521</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000686521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>63725.63075161256</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>63725</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000006963725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>11480.88133127081</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>11480</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007011480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>28765.972153615836</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>28765</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007128765</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>82468.712860131011</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>82468</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007282468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>5290.9945947984597</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>5290</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000735290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74">
+        <v>46397.123138884192</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>46397</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007446397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>16931.411273109075</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>16931</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007516931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>225.9145367951798</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="4"/>
+        <v>BC0000076225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>15800.51457009819</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>15800</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007715800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>66624.152852007755</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>66624</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007866624</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>19560.456932446523</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>19560</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000007919560</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>43945.827556043674</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>43945</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000008043945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>34399.333917990982</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>34399</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000008134399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>83058.203234461253</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>83058</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000008283058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>91301.233109313951</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>91301</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000008391301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>70240.900075467332</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>70240</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000008470240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>6265.455310990742</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>6265</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="4"/>
+        <v>BC00000856265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>17262.557599099226</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>17262</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="4"/>
+        <v>BC000008617262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>66606.384020697762</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>66606</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" ref="D87:D150" si="6">CONCATENATE(A87,C87)</f>
+        <v>BC000008766606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>1596.6728721932611</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>1596</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="6"/>
+        <v>BC00000881596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>14375.067816877396</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>14375</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000008914375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>76164.972341849862</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>76164</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009076164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>16425.53140713623</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>16425</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009116425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>41068.234463477536</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>41068</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009241068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>18390.550714771092</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>18390</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009318390</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94">
+        <v>26874.218135670359</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>26874</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009426874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95">
+        <v>76456.323613982197</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>76456</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009576456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96">
+        <v>89626.919374176752</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>89626</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009689626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>57359.122079126966</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>57359</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009757359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98">
+        <v>33323.918369541992</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>33323</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009833323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99">
+        <v>68984.749689598757</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>68984</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000009968984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>23826.562467190692</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>23826</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010023826</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101">
+        <v>16228.312754515728</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>16228</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010116228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102">
+        <v>53979.160208971945</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>53979</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010253979</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103">
+        <v>8985.5122414877369</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="5"/>
+        <v>8985</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="6"/>
+        <v>BC00001038985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104">
+        <v>59145.112478821597</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="5"/>
+        <v>59145</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010459145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>88512.550123760419</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="5"/>
+        <v>88512</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010588512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106">
+        <v>69607.956597640048</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="5"/>
+        <v>69607</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010669607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107">
+        <v>40015.445573491117</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="5"/>
+        <v>40015</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010740015</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>1962.7536894815223</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="5"/>
+        <v>1962</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="6"/>
+        <v>BC00001081962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109">
+        <v>55908.102422705429</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="5"/>
+        <v>55908</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000010955908</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>19528.196933671228</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="5"/>
+        <v>19528</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011019528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111">
+        <v>56355.640591303221</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="5"/>
+        <v>56355</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011156355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112">
+        <v>48506.583290616887</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="5"/>
+        <v>48506</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011248506</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113">
+        <v>68103.711964290109</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="5"/>
+        <v>68103</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011368103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>39531.925370249402</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="5"/>
+        <v>39531</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011439531</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115">
+        <v>74367.851205540399</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="5"/>
+        <v>74367</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011574367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116">
+        <v>23776.927629760692</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="5"/>
+        <v>23776</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011623776</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117">
+        <v>21078.168946552702</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="5"/>
+        <v>21078</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011721078</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>57557.721318131429</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="5"/>
+        <v>57557</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011857557</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119">
+        <v>77491.476986226669</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="5"/>
+        <v>77491</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000011977491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120">
+        <v>37043.581664247671</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="5"/>
+        <v>37043</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012037043</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121">
+        <v>75576.656859504743</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="5"/>
+        <v>75576</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012175576</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122">
+        <v>54528.282405528997</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="5"/>
+        <v>54528</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012254528</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123">
+        <v>20147.437855061744</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="5"/>
+        <v>20147</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012320147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124">
+        <v>6644.5406937072457</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="5"/>
+        <v>6644</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="6"/>
+        <v>BC00001246644</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125">
+        <v>425.44298481095313</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="6"/>
+        <v>BC0000125425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126">
+        <v>57113.995141346109</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="5"/>
+        <v>57113</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012657113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127">
+        <v>14110.994371555085</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="5"/>
+        <v>14110</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012714110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>16948.286106717223</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="5"/>
+        <v>16948</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012816948</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>10969.524715580981</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="5"/>
+        <v>10969</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000012910969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>95536.934029179334</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C150" si="7">TRUNC(B130,0)</f>
+        <v>95536</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013095536</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131">
+        <v>22956.727279347942</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="7"/>
+        <v>22956</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013122956</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <v>4676.8698283262356</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="7"/>
+        <v>4676</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="6"/>
+        <v>BC00001324676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133">
+        <v>43918.931561986981</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="7"/>
+        <v>43918</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013343918</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134">
+        <v>64380.889397040555</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="7"/>
+        <v>64380</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013464380</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135">
+        <v>70442.924125865597</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="7"/>
+        <v>70442</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013570442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>45366.976808258165</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="7"/>
+        <v>45366</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013645366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137">
+        <v>15677.437036970143</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="7"/>
+        <v>15677</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013715677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>55984.768735723643</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="7"/>
+        <v>55984</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013855984</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>23703.625346139466</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="7"/>
+        <v>23703</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000013923703</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140">
+        <v>69028.392784297161</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="7"/>
+        <v>69028</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014069028</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>69167.6215414443</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="7"/>
+        <v>69167</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014169167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142">
+        <v>23715.73552676649</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="7"/>
+        <v>23715</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014223715</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143">
+        <v>77620.914280144832</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="7"/>
+        <v>77620</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014377620</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>28674.360500277297</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="7"/>
+        <v>28674</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014428674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145">
+        <v>20655.942840934273</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="7"/>
+        <v>20655</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014520655</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146">
+        <v>87140.448681917173</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="7"/>
+        <v>87140</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014687140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147">
+        <v>73976.293368193685</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="7"/>
+        <v>73976</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014773976</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>54932.020162227192</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="7"/>
+        <v>54932</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014854932</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>48314.579022673941</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="7"/>
+        <v>48314</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000014948314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150">
+        <v>56103.797179811132</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="7"/>
+        <v>56103</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="6"/>
+        <v>BC000015056103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D416062-A28C-4B15-870A-55B7BC004C78}">
+  <dimension ref="A1:A228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">RAND()*100000</f>
+        <v>75606.597140942205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
+        <v>97503.158023989527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89086.339008089737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>64543.92971609041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>72459.239597936379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>13776.684119563464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>74449.449956156604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>73524.759044750812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>41942.566675710899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>47985.082666442111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>91805.793482272013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6564.6546081058914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>91544.369681121127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>27479.289682117869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>34792.884040757002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>87759.680817783184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>52958.477128846003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>93606.095501866337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f ca="1">RAND()*100000</f>
+        <v>51457.887593435269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>40404.064963006284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>60490.272270140988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>35841.714429966974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>5054.1391130795701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>55003.457848213235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3918.7650828293895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>74782.269447486309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>79681.900334304853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>83784.508008044315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>29951.375635709475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>54179.725168690798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>19603.94185435733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>63740.659303715016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>42946.606513785431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>39715.84109059316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>72245.077501181004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>69962.694736602643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>17571.775430453861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>22714.826816409117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>86219.618121663036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>65531.087181744231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>18005.582285464829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>88056.444140446969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>91552.950537886747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>56518.565795470975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>88356.305657749035</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>40222.355327938429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>30860.890741249503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>37343.850848621449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>20264.939139739647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>55449.057572402191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>29047.945457917991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>75654.43273195166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>34319.094369630053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>34128.685689154961</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>57017.629209593346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>16426.185071347012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>21091.298744061383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>29544.41702802114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>11953.119446918181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>76955.178664222491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>93084.793191746125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>73049.003341593183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>58197.667093528129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>34844.163062544445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>75032.033804201841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
+        <v>42060.621226101117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ca="1" si="1"/>
+        <v>95801.326403104977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ca="1" si="1"/>
+        <v>27844.416170249075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ca="1" si="1"/>
+        <v>73563.57472891084</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" ca="1" si="1"/>
+        <v>82779.982865580852</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" ca="1" si="1"/>
+        <v>47476.446869927822</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" ca="1" si="1"/>
+        <v>52067.729285620342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ca="1" si="1"/>
+        <v>84118.282962480589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ca="1" si="1"/>
+        <v>75926.128660596252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ca="1" si="1"/>
+        <v>54607.704832056872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" ca="1" si="1"/>
+        <v>44719.279517456634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" ca="1" si="1"/>
+        <v>15074.993439412199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" ca="1" si="1"/>
+        <v>1395.3726153760449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" ca="1" si="1"/>
+        <v>80996.373121998637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" ca="1" si="1"/>
+        <v>68373.38405634083</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" ca="1" si="1"/>
+        <v>99137.575971992614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" ca="1" si="1"/>
+        <v>92266.266793184172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" ca="1" si="1"/>
+        <v>73083.602111909189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" ca="1" si="1"/>
+        <v>60323.712906030036</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ca="1" si="1"/>
+        <v>84260.261764537863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" ca="1" si="1"/>
+        <v>13537.150350760563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" ca="1" si="1"/>
+        <v>18018.255085735658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" ca="1" si="1"/>
+        <v>88800.223898233948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" ca="1" si="1"/>
+        <v>28426.351416414185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" ca="1" si="1"/>
+        <v>46201.874215915217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ca="1" si="1"/>
+        <v>28785.344253803534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" ca="1" si="1"/>
+        <v>96510.232311687985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" ca="1" si="1"/>
+        <v>818.02937448984812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" ca="1" si="1"/>
+        <v>14444.978567037069</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3954526607881128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" ca="1" si="1"/>
+        <v>26646.829055371589</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ca="1" si="1"/>
+        <v>23841.517405983959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ca="1" si="1"/>
+        <v>78212.334596082641</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ca="1" si="1"/>
+        <v>87513.752485549718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" ca="1" si="1"/>
+        <v>37828.210412462817</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" ca="1" si="1"/>
+        <v>4900.2825066324367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" ca="1" si="1"/>
+        <v>7296.9405260878584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" ca="1" si="1"/>
+        <v>69723.400897855448</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" ca="1" si="1"/>
+        <v>68929.757345534599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" ca="1" si="1"/>
+        <v>22618.303950652764</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" ca="1" si="1"/>
+        <v>19874.134471168869</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" ca="1" si="1"/>
+        <v>69534.415559159752</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" ca="1" si="1"/>
+        <v>21868.520213008647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ca="1" si="1"/>
+        <v>17379.879193757864</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" ca="1" si="1"/>
+        <v>56354.573378829307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" ca="1" si="1"/>
+        <v>41266.478031786661</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" ca="1" si="1"/>
+        <v>4630.5908547253475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" ca="1" si="1"/>
+        <v>51043.891969383396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" ca="1" si="1"/>
+        <v>32341.432270645142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" ca="1" si="1"/>
+        <v>69936.677381820482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" ca="1" si="1"/>
+        <v>71656.446932001476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" ca="1" si="1"/>
+        <v>93220.56970199119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" ca="1" si="1"/>
+        <v>10244.092230664204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" ca="1" si="1"/>
+        <v>4762.4837642618486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" ca="1" si="1"/>
+        <v>47918.872576028727</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ca="1" si="1"/>
+        <v>19901.457208582873</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" ca="1" si="1"/>
+        <v>76091.730561800068</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" ca="1" si="1"/>
+        <v>71324.532779789166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" ca="1" si="1"/>
+        <v>37760.918349117768</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" ca="1" si="1"/>
+        <v>18725.636316313965</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" ca="1" si="1"/>
+        <v>42044.85280193678</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" ca="1" si="1"/>
+        <v>99648.498147630948</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" ca="1" si="1"/>
+        <v>16265.117106301463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" ca="1" si="1"/>
+        <v>7521.0910667131811</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
+        <v>30438.714299111623</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ca="1" si="2"/>
+        <v>58535.168763475478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ca="1" si="2"/>
+        <v>86095.928381962425</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ca="1" si="2"/>
+        <v>48127.204562703788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" ca="1" si="2"/>
+        <v>24778.084362838938</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" ca="1" si="2"/>
+        <v>59857.625671219808</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" ca="1" si="2"/>
+        <v>89853.1522666854</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" ca="1" si="2"/>
+        <v>62773.072995682647</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" ca="1" si="2"/>
+        <v>42142.628946188575</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" ca="1" si="2"/>
+        <v>17710.384762364396</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" ca="1" si="2"/>
+        <v>80826.775962539992</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" ca="1" si="2"/>
+        <v>39332.553228288758</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" ca="1" si="2"/>
+        <v>97888.741106780217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" ca="1" si="2"/>
+        <v>47621.759148453515</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" ca="1" si="2"/>
+        <v>18604.294341601981</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ca="1" si="2"/>
+        <v>98722.390142959179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" ca="1" si="2"/>
+        <v>22745.259911955163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" ca="1" si="2"/>
+        <v>25670.190246466394</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" ca="1" si="2"/>
+        <v>60593.942369719342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" ca="1" si="2"/>
+        <v>6295.4651604003038</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" ca="1" si="2"/>
+        <v>24238.77300843046</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" ca="1" si="2"/>
+        <v>80352.234679707806</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" ca="1" si="2"/>
+        <v>20590.804907742087</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" ca="1" si="2"/>
+        <v>98343.423637081243</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" ca="1" si="2"/>
+        <v>85602.210496801184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" ca="1" si="2"/>
+        <v>97005.751340875489</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" ca="1" si="2"/>
+        <v>95829.238905381295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ca="1" si="2"/>
+        <v>71736.68645093964</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" ca="1" si="2"/>
+        <v>21004.778888398712</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" ca="1" si="2"/>
+        <v>45886.810690344937</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" ca="1" si="2"/>
+        <v>98946.347522455908</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ca="1" si="2"/>
+        <v>14595.64242075091</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" ca="1" si="2"/>
+        <v>34509.641087957876</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" ca="1" si="2"/>
+        <v>45635.052183943182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" ca="1" si="2"/>
+        <v>76921.328367251102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" ca="1" si="2"/>
+        <v>9061.9147260183381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" ca="1" si="2"/>
+        <v>38122.45045727367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" ca="1" si="2"/>
+        <v>84163.570048100228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" ca="1" si="2"/>
+        <v>42560.913554837862</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ca="1" si="2"/>
+        <v>47412.660199844504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" ca="1" si="2"/>
+        <v>1556.338344346342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" ca="1" si="2"/>
+        <v>43188.978111025448</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" ca="1" si="2"/>
+        <v>83910.877001010886</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" ca="1" si="2"/>
+        <v>33999.230412217927</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" ca="1" si="2"/>
+        <v>10854.372935413003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" ca="1" si="2"/>
+        <v>322.12560360713735</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" ca="1" si="2"/>
+        <v>3367.6023721276206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" ca="1" si="2"/>
+        <v>13467.162490427676</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" ca="1" si="2"/>
+        <v>25859.96297548341</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" ca="1" si="2"/>
+        <v>92957.13289386715</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" ca="1" si="2"/>
+        <v>70218.39348111974</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ca="1" si="2"/>
+        <v>69578.090610354062</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" ca="1" si="2"/>
+        <v>96675.496607445675</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" ca="1" si="2"/>
+        <v>39014.635828454338</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" ca="1" si="2"/>
+        <v>72092.063480225203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" ca="1" si="2"/>
+        <v>86739.82978829919</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009.4689147582167</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" ca="1" si="2"/>
+        <v>88436.966978784811</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" ca="1" si="2"/>
+        <v>52334.2340387316</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" ca="1" si="2"/>
+        <v>38787.528181891881</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" ca="1" si="2"/>
+        <v>76338.19083931866</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" ca="1" si="2"/>
+        <v>76893.765429069055</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" ca="1" si="2"/>
+        <v>81924.340712373829</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ca="1" si="2"/>
+        <v>65169.875270793164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" ref="A194:A228" ca="1" si="3">RAND()*100000</f>
+        <v>22298.095295949028</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ca="1" si="3"/>
+        <v>32031.394205374174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" ca="1" si="3"/>
+        <v>71936.725173762374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" ca="1" si="3"/>
+        <v>28145.675649628065</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" ca="1" si="3"/>
+        <v>44723.642113332171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" ca="1" si="3"/>
+        <v>67314.005264361112</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" ca="1" si="3"/>
+        <v>30733.148404313171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" ca="1" si="3"/>
+        <v>48805.774457719621</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" ca="1" si="3"/>
+        <v>9954.8658386385596</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" ca="1" si="3"/>
+        <v>45923.74121418791</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" ca="1" si="3"/>
+        <v>88426.89072589323</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ca="1" si="3"/>
+        <v>96139.833040214377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" ca="1" si="3"/>
+        <v>86823.880370709812</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" ca="1" si="3"/>
+        <v>40874.682777488459</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" ca="1" si="3"/>
+        <v>2173.527247829521</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" ca="1" si="3"/>
+        <v>93780.759718960544</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" ca="1" si="3"/>
+        <v>61730.637048049241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" ca="1" si="3"/>
+        <v>65901.152501468969</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" ca="1" si="3"/>
+        <v>28763.481284349622</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" ca="1" si="3"/>
+        <v>99452.265627000539</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" ca="1" si="3"/>
+        <v>88542.104618988422</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" ca="1" si="3"/>
+        <v>50112.377723666803</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" ca="1" si="3"/>
+        <v>46551.783599053379</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" ca="1" si="3"/>
+        <v>16439.910950310499</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" ca="1" si="3"/>
+        <v>29891.195798052016</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" ca="1" si="3"/>
+        <v>30095.118560275623</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" ca="1" si="3"/>
+        <v>27014.275856986202</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" ca="1" si="3"/>
+        <v>57712.319011287917</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" ca="1" si="3"/>
+        <v>42081.835017527272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" ca="1" si="3"/>
+        <v>17554.503262275834</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" ca="1" si="3"/>
+        <v>18602.056063951812</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" ca="1" si="3"/>
+        <v>33543.122526497718</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" ca="1" si="3"/>
+        <v>87252.253293650749</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" ca="1" si="3"/>
+        <v>58650.005163557318</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" ca="1" si="3"/>
+        <v>21861.580876524877</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\C&amp;B\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D81FE8B-3ED7-4045-9918-CD210469C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C1382-A717-450B-ABAE-38E9F756BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,28 +17,17 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="aleatorios" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>invitado</t>
   </si>
@@ -64,50 +53,317 @@
     <t>BC0000001</t>
   </si>
   <si>
-    <t>Geronimo Pastor Guevara</t>
-  </si>
-  <si>
     <t>BC0000002</t>
   </si>
   <si>
-    <t>Rogger Tume Samame</t>
-  </si>
-  <si>
     <t>BC0000003</t>
   </si>
   <si>
-    <t>Diana Montenegro Risco</t>
-  </si>
-  <si>
     <t>BC0000004</t>
   </si>
   <si>
-    <t>Alvaro Torres Mimbela</t>
-  </si>
-  <si>
     <t>BC0000005</t>
   </si>
   <si>
-    <t>Joel Zamora</t>
-  </si>
-  <si>
     <t>BC0000006</t>
   </si>
   <si>
-    <t>Arielita</t>
-  </si>
-  <si>
-    <t>Lucy</t>
-  </si>
-  <si>
     <t>BC0000007</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>BC0000008</t>
+  </si>
+  <si>
+    <t>BC0000009</t>
+  </si>
+  <si>
+    <t>BC0000010</t>
+  </si>
+  <si>
+    <t>BC0000011</t>
+  </si>
+  <si>
+    <t>BC0000012</t>
+  </si>
+  <si>
+    <t>BC0000013</t>
+  </si>
+  <si>
+    <t>BC0000014</t>
+  </si>
+  <si>
+    <t>BC0000015</t>
+  </si>
+  <si>
+    <t>BC0000016</t>
+  </si>
+  <si>
+    <t>BC0000017</t>
+  </si>
+  <si>
+    <t>BC0000018</t>
+  </si>
+  <si>
+    <t>BC0000019</t>
+  </si>
+  <si>
+    <t>BC0000020</t>
+  </si>
+  <si>
+    <t>BC0000021</t>
+  </si>
+  <si>
+    <t>BC0000022</t>
+  </si>
+  <si>
+    <t>BC0000024</t>
+  </si>
+  <si>
+    <t>BC0000025</t>
+  </si>
+  <si>
+    <t>BC0000026</t>
+  </si>
+  <si>
+    <t>BC0000027</t>
+  </si>
+  <si>
+    <t>BC0000028</t>
+  </si>
+  <si>
+    <t>BC0000029</t>
+  </si>
+  <si>
+    <t>BC0000030</t>
+  </si>
+  <si>
+    <t>BC0000031</t>
+  </si>
+  <si>
+    <t>BC0000032</t>
+  </si>
+  <si>
+    <t>BC0000033</t>
+  </si>
+  <si>
+    <t>BC0000034</t>
+  </si>
+  <si>
+    <t>BC0000035</t>
+  </si>
+  <si>
+    <t>BC0000036</t>
+  </si>
+  <si>
+    <t>BC0000037</t>
+  </si>
+  <si>
+    <t>BC0000038</t>
+  </si>
+  <si>
+    <t>BC0000039</t>
+  </si>
+  <si>
+    <t>BC0000040</t>
+  </si>
+  <si>
+    <t>BC0000041</t>
+  </si>
+  <si>
+    <t>BC0000042</t>
+  </si>
+  <si>
+    <t>BC0000043</t>
+  </si>
+  <si>
+    <t>BC0000044</t>
+  </si>
+  <si>
+    <t>BC0000045</t>
+  </si>
+  <si>
+    <t>BC0000046</t>
+  </si>
+  <si>
+    <t>BC0000047</t>
+  </si>
+  <si>
+    <t>BC0000048</t>
+  </si>
+  <si>
+    <t>BC0000049</t>
+  </si>
+  <si>
+    <t>BC0000050</t>
+  </si>
+  <si>
+    <t>BC0000051</t>
+  </si>
+  <si>
+    <t>BC0000052</t>
+  </si>
+  <si>
+    <t>Rogger Alberto Tume Samamé</t>
+  </si>
+  <si>
+    <t>Diana Carolina Montenegro Risco</t>
+  </si>
+  <si>
+    <t>Giancarlos Sanginez Chero</t>
+  </si>
+  <si>
+    <t>Ronald Díaz Idrogo</t>
+  </si>
+  <si>
+    <t>Oscar Uceda Gonzales</t>
+  </si>
+  <si>
+    <t>Dany Dandy León Tesén</t>
+  </si>
+  <si>
+    <t>John Anthony Villanueva Garcia</t>
+  </si>
+  <si>
+    <t>Tony Anderson Palomino Zamora</t>
+  </si>
+  <si>
+    <t>Victor Hugo Acosta García</t>
+  </si>
+  <si>
+    <t>Fiorella Del Pilar Seclen Falen</t>
+  </si>
+  <si>
+    <t>Gerónimo Maximiliano Pastor Guevara</t>
+  </si>
+  <si>
+    <t>Alvaro Humberto Torres Mimbela</t>
+  </si>
+  <si>
+    <t>Saul Alberto Carlos Gonzales</t>
+  </si>
+  <si>
+    <t>Joel Alfredo Zamora Granados</t>
+  </si>
+  <si>
+    <t>David Jose Miguel Paico Marin</t>
+  </si>
+  <si>
+    <t>Freddy Chafloque Rojas</t>
+  </si>
+  <si>
+    <t>Elvis Pintado Damian</t>
+  </si>
+  <si>
+    <t>Jose David Zeña Valdera</t>
+  </si>
+  <si>
+    <t>Alan Javier Montenegro Yzquierdo</t>
+  </si>
+  <si>
+    <t>Erick Tejada Mena</t>
+  </si>
+  <si>
+    <t>Liliam Liseth Mechán Effio</t>
+  </si>
+  <si>
+    <t>Shirley Prado Vásquez</t>
+  </si>
+  <si>
+    <t>Fam. Lozano Mendoza</t>
+  </si>
+  <si>
+    <t>Mirtha Zapata García</t>
+  </si>
+  <si>
+    <t>Margarita García Barragán</t>
+  </si>
+  <si>
+    <t>Jessica Sarita Cava Alarcón</t>
+  </si>
+  <si>
+    <t>Tia Maria Nazario cumpa</t>
+  </si>
+  <si>
+    <t>Tía Rosa Vásquez García</t>
+  </si>
+  <si>
+    <t>Tía Karina Vásquez Prado</t>
+  </si>
+  <si>
+    <t>Tía Ruth Carolina Vásquez Prado</t>
+  </si>
+  <si>
+    <t>Tía Teodora Vásquez Gómez</t>
+  </si>
+  <si>
+    <t>Tía Vilma Pozo Vásquez</t>
+  </si>
+  <si>
+    <t>Tío Arturo Pozo Vásquez</t>
+  </si>
+  <si>
+    <t>Lesly Vásquez Alarcón</t>
+  </si>
+  <si>
+    <t>Tía Georgina Vásquez Fernández</t>
+  </si>
+  <si>
+    <t>Deysi Rodríguez Vásquez</t>
+  </si>
+  <si>
+    <t>Tío Gonzalo Vásquez Fernández</t>
+  </si>
+  <si>
+    <t>Deysi Vásquez Alarcón</t>
+  </si>
+  <si>
+    <t>Naidé Vásquez Alarcón</t>
+  </si>
+  <si>
+    <t>Tía Violeta Vásquez Fernández</t>
+  </si>
+  <si>
+    <t>Tía Rosa Irigorin</t>
+  </si>
+  <si>
+    <t>Lesly Vásquez García</t>
+  </si>
+  <si>
+    <t>Irma Tirado Mori</t>
+  </si>
+  <si>
+    <t>Lilia Echeverry Arbildo</t>
+  </si>
+  <si>
+    <t>Tia Rosa Lozano Portocarrero</t>
+  </si>
+  <si>
+    <t>Kathleen Lozano Ubillus</t>
+  </si>
+  <si>
+    <t>Tia Flor Vallejos</t>
+  </si>
+  <si>
+    <t>Haruko Harumy Bernal Vallejos</t>
+  </si>
+  <si>
+    <t>Willy Zapata García</t>
+  </si>
+  <si>
+    <t>James Jean Pieer Guevara Vásquez</t>
+  </si>
+  <si>
+    <t>http://localhost:4200/?id=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +373,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,13 +403,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,22 +745,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,9 +782,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -534,13 +803,20 @@
         <f>Hoja2!B1</f>
         <v>8168</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(G2,C2)</f>
+        <v>http://localhost:4200/?id=BC00000018168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">CONCATENATE(E3,F3)</f>
@@ -550,16 +826,23 @@
         <v>968238218</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <f>Hoja2!B2</f>
         <v>93449</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H53" si="1">CONCATENATE(G3,C3)</f>
+        <v>http://localhost:4200/?id=BC000000293449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -572,19 +855,26 @@
         <v>968238218</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <f>Hoja2!B3</f>
         <v>42061</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000000342061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -594,16 +884,23 @@
         <v>968238218</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <f>Hoja2!B4</f>
         <v>6724</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC00000046724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -616,19 +913,26 @@
         <v>968238218</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <f>Hoja2!B5</f>
         <v>73060</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000000573060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -638,19 +942,26 @@
         <v>968238218</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <f>Hoja2!B6</f>
         <v>52561</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000000652561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -660,19 +971,26 @@
         <v>968238218</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <f>Hoja2!B7</f>
         <v>31054</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000000631054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -682,17 +1000,1354 @@
         <v>968238219</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <f>Hoja2!B8</f>
         <v>58366</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000000758366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C53" si="2">CONCATENATE(E10,F10)</f>
+        <v>BC000000852835</v>
+      </c>
+      <c r="D10">
+        <v>968238220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <f>Hoja2!B9</f>
+        <v>52835</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000000852835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>BC00000092707</v>
+      </c>
+      <c r="D11">
+        <v>968238221</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <f>Hoja2!B10</f>
+        <v>2707</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC00000092707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001081870</v>
+      </c>
+      <c r="D12">
+        <v>968238222</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <f>Hoja2!B11</f>
+        <v>81870</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001081870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001117455</v>
+      </c>
+      <c r="D13">
+        <v>968238223</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <f>Hoja2!B12</f>
+        <v>17455</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001117455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001280664</v>
+      </c>
+      <c r="D14">
+        <v>968238224</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <f>Hoja2!B13</f>
+        <v>80664</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001280664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001331978</v>
+      </c>
+      <c r="D15">
+        <v>968238225</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f>Hoja2!B14</f>
+        <v>31978</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001331978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001441969</v>
+      </c>
+      <c r="D16">
+        <v>968238226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <f>Hoja2!B15</f>
+        <v>41969</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001441969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001511886</v>
+      </c>
+      <c r="D17">
+        <v>968238227</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <f>Hoja2!B16</f>
+        <v>11886</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001511886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001681637</v>
+      </c>
+      <c r="D18">
+        <v>968238228</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <f>Hoja2!B17</f>
+        <v>81637</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001681637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001735508</v>
+      </c>
+      <c r="D19">
+        <v>968238229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <f>Hoja2!B18</f>
+        <v>35508</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001735508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001893353</v>
+      </c>
+      <c r="D20">
+        <v>968238230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <f>Hoja2!B19</f>
+        <v>93353</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001893353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000001967100</v>
+      </c>
+      <c r="D21">
+        <v>968238231</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <f>Hoja2!B20</f>
+        <v>67100</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000001967100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002035044</v>
+      </c>
+      <c r="D22">
+        <v>968238232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f>Hoja2!B21</f>
+        <v>35044</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002035044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002187483</v>
+      </c>
+      <c r="D23">
+        <v>968238233</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <f>Hoja2!B22</f>
+        <v>87483</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002187483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002255469</v>
+      </c>
+      <c r="D24">
+        <v>968238234</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <f>Hoja2!B23</f>
+        <v>55469</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002255469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002497274</v>
+      </c>
+      <c r="D25">
+        <v>968238236</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <f>Hoja2!B25</f>
+        <v>97274</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002497274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002569659</v>
+      </c>
+      <c r="D26">
+        <v>968238237</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <f>Hoja2!B26</f>
+        <v>69659</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002569659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002613240</v>
+      </c>
+      <c r="D27">
+        <v>968238238</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <f>Hoja2!B27</f>
+        <v>13240</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002613240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002749663</v>
+      </c>
+      <c r="D28">
+        <v>968238239</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28">
+        <f>Hoja2!B28</f>
+        <v>49663</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002749663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>BC00000286946</v>
+      </c>
+      <c r="D29">
+        <v>968238240</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <f>Hoja2!B29</f>
+        <v>6946</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC00000286946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000002953321</v>
+      </c>
+      <c r="D30">
+        <v>968238241</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <f>Hoja2!B30</f>
+        <v>53321</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000002953321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>BC00000302682</v>
+      </c>
+      <c r="D31">
+        <v>968238242</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <f>Hoja2!B31</f>
+        <v>2682</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC00000302682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003150557</v>
+      </c>
+      <c r="D32">
+        <v>968238243</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <f>Hoja2!B32</f>
+        <v>50557</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003150557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003266019</v>
+      </c>
+      <c r="D33">
+        <v>968238244</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <f>Hoja2!B33</f>
+        <v>66019</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003266019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003358197</v>
+      </c>
+      <c r="D34">
+        <v>968238245</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34">
+        <f>Hoja2!B34</f>
+        <v>58197</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003358197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>BC00000343483</v>
+      </c>
+      <c r="D35">
+        <v>968238246</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <f>Hoja2!B35</f>
+        <v>3483</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC00000343483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003578768</v>
+      </c>
+      <c r="D36">
+        <v>968238247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36">
+        <f>Hoja2!B36</f>
+        <v>78768</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003578768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003678971</v>
+      </c>
+      <c r="D37">
+        <v>968238248</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <f>Hoja2!B37</f>
+        <v>78971</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003678971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003773969</v>
+      </c>
+      <c r="D38">
+        <v>968238249</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <f>Hoja2!B38</f>
+        <v>73969</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003773969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003882002</v>
+      </c>
+      <c r="D39">
+        <v>968238250</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <f>Hoja2!B39</f>
+        <v>82002</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003882002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000003988521</v>
+      </c>
+      <c r="D40">
+        <v>968238251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <f>Hoja2!B40</f>
+        <v>88521</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000003988521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000004034273</v>
+      </c>
+      <c r="D41">
+        <v>968238252</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <f>Hoja2!B41</f>
+        <v>34273</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004034273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000004168827</v>
+      </c>
+      <c r="D42">
+        <v>968238253</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <f>Hoja2!B42</f>
+        <v>68827</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004168827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="2"/>
+        <v>BC000004211456</v>
+      </c>
+      <c r="D43">
+        <v>968238254</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <f>Hoja2!B43</f>
+        <v>11456</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004211456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" ref="C44:C53" si="3">CONCATENATE(E44,F44)</f>
+        <v>BC000004321086</v>
+      </c>
+      <c r="D44">
+        <v>968238255</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44">
+        <f>Hoja2!B44</f>
+        <v>21086</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004321086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000004442434</v>
+      </c>
+      <c r="D45">
+        <v>968238256</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <f>Hoja2!B45</f>
+        <v>42434</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004442434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000004545410</v>
+      </c>
+      <c r="D46">
+        <v>968238257</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46">
+        <f>Hoja2!B46</f>
+        <v>45410</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004545410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000004677065</v>
+      </c>
+      <c r="D47">
+        <v>968238258</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47">
+        <f>Hoja2!B47</f>
+        <v>77065</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004677065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000004735311</v>
+      </c>
+      <c r="D48">
+        <v>968238259</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48">
+        <f>Hoja2!B48</f>
+        <v>35311</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004735311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000004868122</v>
+      </c>
+      <c r="D49">
+        <v>968238260</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49">
+        <f>Hoja2!B49</f>
+        <v>68122</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004868122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000004995186</v>
+      </c>
+      <c r="D50">
+        <v>968238261</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <f>Hoja2!B50</f>
+        <v>95186</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000004995186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000005017658</v>
+      </c>
+      <c r="D51">
+        <v>968238262</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <f>Hoja2!B51</f>
+        <v>17658</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000005017658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000005173400</v>
+      </c>
+      <c r="D52">
+        <v>968238263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52">
+        <f>Hoja2!B52</f>
+        <v>73400</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000005173400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="3"/>
+        <v>BC000005258013</v>
+      </c>
+      <c r="D53">
+        <v>968238264</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <f>Hoja2!B53</f>
+        <v>58013</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:4200/?id=BC000005258013</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{13788AC9-6D19-49A5-9426-2415D075C294}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{7A9AC3D8-52FD-467F-8ED6-F7AF48BF29AE}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{729F9BF5-5A2B-43B5-804E-531F55A4DB42}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{514FE4CA-F276-424C-8859-1D915A3F2D34}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{47ACE95D-59A9-45C6-8DF6-9653B93996EC}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{C138EEA1-2B1A-4D5C-B7A4-3CE98494B625}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{744530D6-287D-4AC7-9655-37A0EBD224BB}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{23A30D53-63FB-4622-9F2B-728DCBDC1548}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{3E944F3E-50F4-450C-A8DB-4043663AC256}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{98FE80B3-3340-4E1A-91EC-37EFF216A683}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{17DD7A79-148C-4C0B-8DC2-9B3FC8E7E6EF}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{A036A47A-189B-47F0-A722-0F06841F512F}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{7D05A865-AAE9-4645-9021-FB5E1FCE2F08}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{41582040-C0A6-4D4D-9B46-6AAA62EAFF98}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{06CD4315-D557-47BB-8261-7724CBC9AA71}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{28C14900-D5C0-496F-A585-6FA2239DBD13}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{AD8FF956-8F90-4DE8-AB7A-1B443C46CC4F}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{BBDC693C-3DDC-444C-9E79-A314D01CA2AA}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{E465BF29-EF3F-436D-87A1-A33D865DAB1F}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{5D2C394A-419C-4715-9254-DD4CB1A4CCD3}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{F9D737F0-7AEA-482A-932C-3231048FC598}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{CA258E07-E382-4E78-86DD-69CBE83ED852}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{38D4F914-B515-426A-8D3D-9079F2FEDDDB}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{B1790D89-D79F-4E71-A300-B6F7952E8587}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{E6F5581C-4FB1-49FD-81A9-5D196D01F81D}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{A73B89B5-00DB-43F8-8441-B33A6F188D42}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{E954B864-444A-41E5-ADED-4C550B6189EE}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{619CEDD2-5011-497B-88FC-A037549DCE58}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{C132C285-4E42-4B4A-9B89-03C27899B41F}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{CCC74D18-8D72-4B4E-998C-7E3A406A0FCD}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{DD2C9843-AD25-49D8-9D90-324BF0D283A5}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{F8BC1C5A-A09F-49CA-8E16-EA2F2BBC0A46}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{8CA08E1B-5374-4543-9CF9-A230984C6D63}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{506251F8-DB92-40B5-AFDE-5C8EA8C49C36}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{2D1AFAE1-9DAD-4694-BD9F-B4F776EF2AD5}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{2E4DA1EF-9C5B-489A-89D7-39465D1E2A93}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{58228986-B5DB-4827-A95E-6EF8FE6D863A}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{C0AF5D87-AF03-4084-81FE-077A2A42BCAA}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{2EAD9283-3A3F-469E-967C-5BC6779ADB30}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{E3E3AEF8-C949-4CA5-AA16-7DE8EB0342B6}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{997B5185-EE61-4591-A45C-702091E8F841}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{EC0EE859-F7D7-49BA-A967-1999AA3D24C1}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{ADCEECB9-7B5F-4585-8A62-B53BAE6B7206}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{E02FC4A4-8F11-4C15-8CD4-50A689B1FCBE}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{7E840B41-F4F5-4744-A3C4-36957DDC3E83}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{8C72F5A2-E1B9-47D9-A2A0-A3657A4B7E8C}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{B41A925D-2466-493D-B234-A53BB8A96AD3}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{74B5762C-E59B-4FCF-BEBA-DE4456135120}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{12DC3EBE-D4B0-437F-8AC6-2A543F515E90}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{923629F9-1DEE-4A1E-A39B-EDFA5736B0A5}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{6B94012D-131A-4843-A744-181A08B0CB9F}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{E9C58F5B-BE93-44DC-B3FA-34480D554DF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -704,9 +2359,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>8168.3485240182545</v>
       </c>
@@ -715,7 +2370,7 @@
         <v>8168</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>93449.354664475584</v>
       </c>
@@ -724,7 +2379,7 @@
         <v>93449</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42061.96796295626</v>
       </c>
@@ -733,7 +2388,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6724.2476308272408</v>
       </c>
@@ -742,7 +2397,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>73060.697586128881</v>
       </c>
@@ -751,7 +2406,7 @@
         <v>73060</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>52561.098482830974</v>
       </c>
@@ -760,7 +2415,7 @@
         <v>52561</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31054.29950014751</v>
       </c>
@@ -769,7 +2424,7 @@
         <v>31054</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58366.070119267722</v>
       </c>
@@ -778,7 +2433,7 @@
         <v>58366</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52835.87950085575</v>
       </c>
@@ -787,7 +2442,7 @@
         <v>52835</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2707.4937856843339</v>
       </c>
@@ -796,7 +2451,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>81870.428405890052</v>
       </c>
@@ -805,7 +2460,7 @@
         <v>81870</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17455.894686556716</v>
       </c>
@@ -814,7 +2469,7 @@
         <v>17455</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80664.575211607138</v>
       </c>
@@ -823,7 +2478,7 @@
         <v>80664</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31978.395395672855</v>
       </c>
@@ -832,7 +2487,7 @@
         <v>31978</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41969.242365545244</v>
       </c>
@@ -841,7 +2496,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11886.740686911013</v>
       </c>
@@ -850,7 +2505,7 @@
         <v>11886</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>81637.447549290388</v>
       </c>
@@ -859,7 +2514,7 @@
         <v>81637</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35508.10675570499</v>
       </c>
@@ -868,7 +2523,7 @@
         <v>35508</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>93353.088497874152</v>
       </c>
@@ -877,7 +2532,7 @@
         <v>93353</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67100.091845483868</v>
       </c>
@@ -886,7 +2541,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>35044.968792871841</v>
       </c>
@@ -895,7 +2550,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>87483.819411290126</v>
       </c>
@@ -904,7 +2559,7 @@
         <v>87483</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>55469.550479018966</v>
       </c>
@@ -913,7 +2568,7 @@
         <v>55469</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27807.356482751631</v>
       </c>
@@ -922,7 +2577,7 @@
         <v>27807</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>97274.341356017219</v>
       </c>
@@ -931,7 +2586,7 @@
         <v>97274</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>69659.187541342297</v>
       </c>
@@ -940,7 +2595,7 @@
         <v>69659</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13240.101312183549</v>
       </c>
@@ -949,7 +2604,7 @@
         <v>13240</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>49663.07073348554</v>
       </c>
@@ -958,7 +2613,7 @@
         <v>49663</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6946.0988850038484</v>
       </c>
@@ -967,7 +2622,7 @@
         <v>6946</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>53321.723095800357</v>
       </c>
@@ -976,7 +2631,7 @@
         <v>53321</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2682.8072269258428</v>
       </c>
@@ -985,7 +2640,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50557.223781149143</v>
       </c>
@@ -994,7 +2649,7 @@
         <v>50557</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66019.869522744513</v>
       </c>
@@ -1003,7 +2658,7 @@
         <v>66019</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>58197.202731915197</v>
       </c>
@@ -1012,7 +2667,7 @@
         <v>58197</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3483.9405402674274</v>
       </c>
@@ -1021,7 +2676,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78768.72806449249</v>
       </c>
@@ -1030,7 +2685,7 @@
         <v>78768</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>78971.006056597151</v>
       </c>
@@ -1039,7 +2694,7 @@
         <v>78971</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>73969.752842252463</v>
       </c>
@@ -1048,7 +2703,7 @@
         <v>73969</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>82002.473041275021</v>
       </c>
@@ -1057,7 +2712,7 @@
         <v>82002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>88521.014906963333</v>
       </c>
@@ -1066,7 +2721,7 @@
         <v>88521</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34273.404224349892</v>
       </c>
@@ -1075,7 +2730,7 @@
         <v>34273</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>68827.420437515684</v>
       </c>
@@ -1084,7 +2739,7 @@
         <v>68827</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11456.863898470559</v>
       </c>
@@ -1093,7 +2748,7 @@
         <v>11456</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21086.94642121709</v>
       </c>
@@ -1102,7 +2757,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42434.157172146646</v>
       </c>
@@ -1111,7 +2766,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45410.843240051632</v>
       </c>
@@ -1120,7 +2775,7 @@
         <v>45410</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>77065.786319969964</v>
       </c>
@@ -1129,7 +2784,7 @@
         <v>77065</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>35311.951335648264</v>
       </c>
@@ -1138,7 +2793,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>68122.090698059008</v>
       </c>
@@ -1147,7 +2802,7 @@
         <v>68122</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>95186.935707224649</v>
       </c>
@@ -1156,7 +2811,7 @@
         <v>95186</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17658.63544284043</v>
       </c>
@@ -1165,7 +2820,7 @@
         <v>17658</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>73400.283152674892</v>
       </c>
@@ -1174,7 +2829,7 @@
         <v>73400</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58013.297615519856</v>
       </c>
@@ -1183,7 +2838,7 @@
         <v>58013</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>87126.20322121105</v>
       </c>
@@ -1192,7 +2847,7 @@
         <v>87126</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>81029.709534846101</v>
       </c>
@@ -1201,7 +2856,7 @@
         <v>81029</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>45168.788882390676</v>
       </c>
@@ -1210,7 +2865,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>42456.005191033604</v>
       </c>
@@ -1219,7 +2874,7 @@
         <v>42456</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7410.3229234455002</v>
       </c>
@@ -1228,7 +2883,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>82829.411503642143</v>
       </c>
@@ -1237,7 +2892,7 @@
         <v>82829</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>75877.983480683586</v>
       </c>
@@ -1246,7 +2901,7 @@
         <v>75877</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>44300.117384276586</v>
       </c>
@@ -1255,7 +2910,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10415.032462143126</v>
       </c>
@@ -1264,7 +2919,7 @@
         <v>10415</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61425.936850676844</v>
       </c>
@@ -1273,7 +2928,7 @@
         <v>61425</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82687.266789440022</v>
       </c>
@@ -1282,7 +2937,7 @@
         <v>82687</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>53817.987462931153</v>
       </c>
@@ -1291,7 +2946,7 @@
         <v>53817</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>48878.523104463413</v>
       </c>
@@ -1300,7 +2955,7 @@
         <v>48878</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>97579.76223590989</v>
       </c>
@@ -1309,7 +2964,7 @@
         <v>97579</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>36006.25854982937</v>
       </c>
@@ -1318,7 +2973,7 @@
         <v>36006</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>43215.9508324216</v>
       </c>
@@ -1327,7 +2982,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>51042.266231453446</v>
       </c>
@@ -1336,7 +2991,7 @@
         <v>51042</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>58601.803163187418</v>
       </c>
@@ -1345,7 +3000,7 @@
         <v>58601</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2690.4289856906294</v>
       </c>
@@ -1354,7 +3009,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>97005.121363360813</v>
       </c>
@@ -1363,7 +3018,7 @@
         <v>97005</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13427.909733494504</v>
       </c>
@@ -1372,7 +3027,7 @@
         <v>13427</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6182.6796464555018</v>
       </c>
@@ -1381,7 +3036,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>90587.794264711178</v>
       </c>
@@ -1390,7 +3045,7 @@
         <v>90587</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>97586.235789263446</v>
       </c>
@@ -1399,7 +3054,7 @@
         <v>97586</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>24886.634720023103</v>
       </c>
@@ -1408,7 +3063,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>52887.569310359395</v>
       </c>
@@ -1417,7 +3072,7 @@
         <v>52887</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>34590.811866865821</v>
       </c>
@@ -1426,7 +3081,7 @@
         <v>34590</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74588.507872948045</v>
       </c>
@@ -1435,7 +3090,7 @@
         <v>74588</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>97325.159893339049</v>
       </c>
@@ -1444,7 +3099,7 @@
         <v>97325</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>77965.223248994429</v>
       </c>
@@ -1453,7 +3108,7 @@
         <v>77965</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>66102.929812011833</v>
       </c>
@@ -1462,7 +3117,7 @@
         <v>66102</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>65782.623508516117</v>
       </c>
@@ -1471,7 +3126,7 @@
         <v>65782</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>23144.45655015279</v>
       </c>
@@ -1480,7 +3135,7 @@
         <v>23144</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>75623.135161035476</v>
       </c>
@@ -1489,7 +3144,7 @@
         <v>75623</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17564.594911488475</v>
       </c>
@@ -1498,7 +3153,7 @@
         <v>17564</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>94888.874314319546</v>
       </c>
@@ -1507,7 +3162,7 @@
         <v>94888</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>51540.25894593721</v>
       </c>
@@ -1516,7 +3171,7 @@
         <v>51540</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14226.594343313836</v>
       </c>
@@ -1525,7 +3180,7 @@
         <v>14226</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>71833.82269655852</v>
       </c>
@@ -1534,7 +3189,7 @@
         <v>71833</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>78013.057277116794</v>
       </c>
@@ -1543,7 +3198,7 @@
         <v>78013</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>77439.767728020277</v>
       </c>
@@ -1552,7 +3207,7 @@
         <v>77439</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4960.5035406993902</v>
       </c>
@@ -1561,7 +3216,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>87984.682006818417</v>
       </c>
@@ -1570,7 +3225,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>80321.569296470392</v>
       </c>
@@ -1579,7 +3234,7 @@
         <v>80321</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96912.665672617091</v>
       </c>
@@ -1588,7 +3243,7 @@
         <v>96912</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14910.917910514332</v>
       </c>
@@ -1597,7 +3252,7 @@
         <v>14910</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14131.036129819329</v>
       </c>
@@ -1606,7 +3261,7 @@
         <v>14131</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>84384.844646975922</v>
       </c>
@@ -1615,7 +3270,7 @@
         <v>84384</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>70442.041604390281</v>
       </c>
@@ -1624,7 +3279,7 @@
         <v>70442</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>22288.263003134824</v>
       </c>
@@ -1633,7 +3288,7 @@
         <v>22288</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>67109.733146048005</v>
       </c>
@@ -1642,7 +3297,7 @@
         <v>67109</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>36935.130324631995</v>
       </c>
@@ -1651,7 +3306,7 @@
         <v>36935</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>54265.428673078721</v>
       </c>
@@ -1660,7 +3315,7 @@
         <v>54265</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7430.5101295809473</v>
       </c>
@@ -1669,7 +3324,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>25310.753281827812</v>
       </c>
@@ -1678,7 +3333,7 @@
         <v>25310</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>30156.858989299973</v>
       </c>
@@ -1687,7 +3342,7 @@
         <v>30156</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>34030.380057736664</v>
       </c>
@@ -1696,7 +3351,7 @@
         <v>34030</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16839.155173732401</v>
       </c>
@@ -1705,7 +3360,7 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>75674.20126657837</v>
       </c>
@@ -1714,7 +3369,7 @@
         <v>75674</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>58625.102814172569</v>
       </c>
@@ -1723,7 +3378,7 @@
         <v>58625</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>93926.965779132268</v>
       </c>
@@ -1732,7 +3387,7 @@
         <v>93926</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>88764.497619739399</v>
       </c>
@@ -1741,7 +3396,7 @@
         <v>88764</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24792.759050075729</v>
       </c>
@@ -1750,7 +3405,7 @@
         <v>24792</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10059.314834122857</v>
       </c>
@@ -1759,7 +3414,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>86624.468310217955</v>
       </c>
@@ -1768,7 +3423,7 @@
         <v>86624</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13908.15808844349</v>
       </c>
@@ -1777,7 +3432,7 @@
         <v>13908</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>50152.946027322752</v>
       </c>
@@ -1786,7 +3441,7 @@
         <v>50152</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11700.283823209335</v>
       </c>
@@ -1795,7 +3450,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>45898.397375675093</v>
       </c>
@@ -1804,7 +3459,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>83131.516901777766</v>
       </c>
@@ -1813,7 +3468,7 @@
         <v>83131</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14127.75341290209</v>
       </c>
@@ -1822,7 +3477,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>80057.111039240466</v>
       </c>
@@ -1831,7 +3486,7 @@
         <v>80057</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>69296.127400885525</v>
       </c>
@@ -1840,7 +3495,7 @@
         <v>69296</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23421.686166829848</v>
       </c>
@@ -1849,7 +3504,7 @@
         <v>23421</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7815.4060207746843</v>
       </c>
@@ -1858,7 +3513,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>74632.255946479781</v>
       </c>
@@ -1867,7 +3522,7 @@
         <v>74632</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9935.5728990786811</v>
       </c>
@@ -1876,7 +3531,7 @@
         <v>9935</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>50400.091548418546</v>
       </c>
@@ -1885,7 +3540,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2075.6327693410294</v>
       </c>
@@ -1894,7 +3549,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>63861.660695589184</v>
       </c>
@@ -1903,7 +3558,7 @@
         <v>63861</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>34243.397646681326</v>
       </c>
@@ -1912,7 +3567,7 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>69249.179075456675</v>
       </c>
@@ -1921,7 +3576,7 @@
         <v>69249</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>80723.059347231654</v>
       </c>
@@ -1930,7 +3585,7 @@
         <v>80723</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>80547.5124360388</v>
       </c>
@@ -1939,7 +3594,7 @@
         <v>80547</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>41246.104020660692</v>
       </c>
@@ -1948,7 +3603,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>58619.069425412781</v>
       </c>
@@ -1957,7 +3612,7 @@
         <v>58619</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>94525.713028868835</v>
       </c>
@@ -1966,7 +3621,7 @@
         <v>94525</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16718.727013399304</v>
       </c>
@@ -1975,7 +3630,7 @@
         <v>16718</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>80809.887586923185</v>
       </c>
@@ -1984,7 +3639,7 @@
         <v>80809</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15034.709451022565</v>
       </c>
@@ -1993,7 +3648,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>63692.752994289294</v>
       </c>
@@ -2002,7 +3657,7 @@
         <v>63692</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>28827.689524382404</v>
       </c>
@@ -2011,7 +3666,7 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>43368.179297381685</v>
       </c>
@@ -2020,7 +3675,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>39198.449992319853</v>
       </c>
@@ -2029,7 +3684,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6854.6273491659094</v>
       </c>
@@ -2038,7 +3693,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>17025.408993917245</v>
       </c>
@@ -2047,7 +3702,7 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1287.1296753693696</v>
       </c>
@@ -2056,7 +3711,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>45561.448648873338</v>
       </c>
@@ -2065,7 +3720,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>30191.84490753747</v>
       </c>
@@ -2074,7 +3729,7 @@
         <v>30191</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>723.65443190238739</v>
       </c>
@@ -2083,7 +3738,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>31725.365197473609</v>
       </c>
@@ -2092,7 +3747,7 @@
         <v>31725</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>90412.273994321949</v>
       </c>
@@ -2101,7 +3756,7 @@
         <v>90412</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>15537.954717696379</v>
       </c>
@@ -2110,7 +3765,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15965.010411784875</v>
       </c>
@@ -2119,7 +3774,7 @@
         <v>15965</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>26650.709793042792</v>
       </c>
@@ -2128,7 +3783,7 @@
         <v>26650</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5348.7686809852612</v>
       </c>
@@ -2137,7 +3792,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>92679.114926423543</v>
       </c>
@@ -2146,7 +3801,7 @@
         <v>92679</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>36036.550215470255</v>
       </c>
@@ -2155,7 +3810,7 @@
         <v>36036</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25918.715552727412</v>
       </c>
@@ -2164,7 +3819,7 @@
         <v>25918</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>36771.430152066554</v>
       </c>
@@ -2173,7 +3828,7 @@
         <v>36771</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>34063.26860984823</v>
       </c>
@@ -2182,7 +3837,7 @@
         <v>34063</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>77110.997318459238</v>
       </c>
@@ -2191,7 +3846,7 @@
         <v>77110</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>49619.076552038896</v>
       </c>
@@ -2200,7 +3855,7 @@
         <v>49619</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8602.3956957278497</v>
       </c>
@@ -2209,7 +3864,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>73901.313529055231</v>
       </c>
@@ -2218,7 +3873,7 @@
         <v>73901</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33119.201669857823</v>
       </c>
@@ -2227,7 +3882,7 @@
         <v>33119</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>12425.036633837493</v>
       </c>
@@ -2236,7 +3891,7 @@
         <v>12425</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>68275.026412995896</v>
       </c>
@@ -2245,7 +3900,7 @@
         <v>68275</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>71936.333754470572</v>
       </c>
@@ -2254,7 +3909,7 @@
         <v>71936</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>26983.298178496163</v>
       </c>
@@ -2263,7 +3918,7 @@
         <v>26983</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17644.139096527655</v>
       </c>
@@ -2272,7 +3927,7 @@
         <v>17644</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>91428.238696271015</v>
       </c>
@@ -2281,7 +3936,7 @@
         <v>91428</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>97630.113595432544</v>
       </c>
@@ -2290,7 +3945,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>32314.77970899922</v>
       </c>
@@ -2299,7 +3954,7 @@
         <v>32314</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>22826.538446651302</v>
       </c>
@@ -2308,7 +3963,7 @@
         <v>22826</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>36649.81319769226</v>
       </c>
@@ -2317,7 +3972,7 @@
         <v>36649</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>25554.118455385942</v>
       </c>
@@ -2326,7 +3981,7 @@
         <v>25554</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>27950.948397941822</v>
       </c>
@@ -2335,7 +3990,7 @@
         <v>27950</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>46951.960596533128</v>
       </c>
@@ -2344,7 +3999,7 @@
         <v>46951</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>98393.108847915384</v>
       </c>
@@ -2353,7 +4008,7 @@
         <v>98393</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19285.99226999862</v>
       </c>
@@ -2362,7 +4017,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>90056.90103649201</v>
       </c>
@@ -2371,7 +4026,7 @@
         <v>90056</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>58278.447137101517</v>
       </c>
@@ -2380,7 +4035,7 @@
         <v>58278</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>55295.888371070265</v>
       </c>
@@ -2389,7 +4044,7 @@
         <v>55295</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20869.390204355874</v>
       </c>
@@ -2398,7 +4053,7 @@
         <v>20869</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>44110.966332042924</v>
       </c>
@@ -2407,7 +4062,7 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>74275.268667415425</v>
       </c>
@@ -2416,7 +4071,7 @@
         <v>74275</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>23836.502703941333</v>
       </c>
@@ -2425,7 +4080,7 @@
         <v>23836</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>83625.662905051533</v>
       </c>
@@ -2434,7 +4089,7 @@
         <v>83625</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>41800.652907886259</v>
       </c>
@@ -2443,7 +4098,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13720.06253475686</v>
       </c>
@@ -2452,7 +4107,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>34189.616291840422</v>
       </c>
@@ -2461,7 +4116,7 @@
         <v>34189</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>45918.533751532472</v>
       </c>
@@ -2470,7 +4125,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>22319.956434137923</v>
       </c>
@@ -2479,7 +4134,7 @@
         <v>22319</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>79623.773262822142</v>
       </c>
@@ -2488,7 +4143,7 @@
         <v>79623</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>17592.563157581899</v>
       </c>
@@ -2497,7 +4152,7 @@
         <v>17592</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>52233.614548238562</v>
       </c>
@@ -2506,7 +4161,7 @@
         <v>52233</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>23833.036027939757</v>
       </c>
@@ -2515,7 +4170,7 @@
         <v>23833</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10320.315243259947</v>
       </c>
@@ -2524,7 +4179,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2865.9539273261812</v>
       </c>
@@ -2533,7 +4188,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>58655.534068860885</v>
       </c>
@@ -2542,7 +4197,7 @@
         <v>58655</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5577.5282291355306</v>
       </c>
@@ -2551,7 +4206,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>87992.820492776096</v>
       </c>
@@ -2560,7 +4215,7 @@
         <v>87992</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7773.6344232263718</v>
       </c>
@@ -2569,7 +4224,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>99733.451136215022</v>
       </c>
@@ -2578,7 +4233,7 @@
         <v>99733</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>73215.497533033573</v>
       </c>
@@ -2587,7 +4242,7 @@
         <v>73215</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20003.548188428187</v>
       </c>
@@ -2596,7 +4251,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>42074.421487865329</v>
       </c>
@@ -2605,7 +4260,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>49992.65689436144</v>
       </c>
@@ -2614,7 +4269,7 @@
         <v>49992</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28811.186250378607</v>
       </c>
@@ -2623,7 +4278,7 @@
         <v>28811</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>37629.29652922196</v>
       </c>
@@ -2632,7 +4287,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>18597.958689155203</v>
       </c>
@@ -2641,7 +4296,7 @@
         <v>18597</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>74771.743967124465</v>
       </c>
@@ -2650,7 +4305,7 @@
         <v>74771</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>18505.157022629537</v>
       </c>
@@ -2659,7 +4314,7 @@
         <v>18505</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>40837.838489180409</v>
       </c>
@@ -2668,7 +4323,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>36857.810670374689</v>
       </c>
@@ -2677,7 +4332,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>71043.593278018641</v>
       </c>
@@ -2686,7 +4341,7 @@
         <v>71043</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>41147.906864462078</v>
       </c>
@@ -2695,7 +4350,7 @@
         <v>41147</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>91796.858657704506</v>
       </c>
@@ -2704,7 +4359,7 @@
         <v>91796</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>11938.644574370815</v>
       </c>
@@ -2713,7 +4368,7 @@
         <v>11938</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>6003.3101379928567</v>
       </c>
@@ -2722,7 +4377,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>95965.014660441011</v>
       </c>
@@ -2731,7 +4386,7 @@
         <v>95965</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>68490.848299633784</v>
       </c>
@@ -2740,7 +4395,7 @@
         <v>68490</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>90741.745359525172</v>
       </c>
@@ -2749,7 +4404,7 @@
         <v>90741</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>68062.781646417119</v>
       </c>
@@ -2758,7 +4413,7 @@
         <v>68062</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>55836.217319100404</v>
       </c>
@@ -2767,7 +4422,7 @@
         <v>55836</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>59871.156294423388</v>
       </c>
@@ -2776,7 +4431,7 @@
         <v>59871</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>40977.126475243895</v>
       </c>
@@ -2785,7 +4440,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>92523.482789148504</v>
       </c>
@@ -2794,7 +4449,7 @@
         <v>92523</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>51926.606007173745</v>
       </c>
@@ -2803,7 +4458,7 @@
         <v>51926</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>75879.254526608522</v>
       </c>
@@ -2812,7 +4467,7 @@
         <v>75879</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>66565.020178455467</v>
       </c>
@@ -2821,7 +4476,7 @@
         <v>66565</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>88703.913962080507</v>
       </c>
@@ -2830,7 +4485,7 @@
         <v>88703</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>17351.203406346995</v>
       </c>
@@ -2839,7 +4494,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>77762.702272033668</v>
       </c>
@@ -2848,7 +4503,7 @@
         <v>77762</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>23815.453213098281</v>
       </c>
@@ -2857,7 +4512,7 @@
         <v>23815</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>7995.2506402675817</v>
       </c>
@@ -2866,7 +4521,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>85516.319690385761</v>
       </c>
@@ -2875,7 +4530,7 @@
         <v>85516</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>48146.661430983062</v>
       </c>
@@ -2884,7 +4539,7 @@
         <v>48146</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>23621.589310040214</v>
       </c>
@@ -2893,7 +4548,7 @@
         <v>23621</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>12129.127820619213</v>
       </c>
@@ -2902,7 +4557,7 @@
         <v>12129</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>44334.79571943971</v>
       </c>
@@ -2911,7 +4566,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>38688.113542402338</v>
       </c>
@@ -2920,7 +4575,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>37594.625542838112</v>
       </c>
@@ -2929,7 +4584,7 @@
         <v>37594</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>23875.688489806678</v>
       </c>
@@ -2938,7 +4593,7 @@
         <v>23875</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18114.750561363657</v>
       </c>
@@ -2947,7 +4602,7 @@
         <v>18114</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>66649.39552351326</v>
       </c>
@@ -2956,7 +4611,7 @@
         <v>66649</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>60100.229387221603</v>
       </c>
@@ -2965,7 +4620,7 @@
         <v>60100</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>27274.369603890547</v>
       </c>
@@ -2974,7 +4629,7 @@
         <v>27274</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>95584.308704601659</v>
       </c>
@@ -2983,7 +4638,7 @@
         <v>95584</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>50957.273668741502</v>
       </c>
@@ -2992,7 +4647,7 @@
         <v>50957</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>96182.890675666829</v>
       </c>
@@ -3001,7 +4656,7 @@
         <v>96182</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>22314.490397255726</v>
       </c>
@@ -3010,7 +4665,7 @@
         <v>22314</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>56931.606290704374</v>
       </c>
@@ -3019,7 +4674,7 @@
         <v>56931</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>26763.54488862769</v>
       </c>
@@ -3028,7 +4683,7 @@
         <v>26763</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>53172.480528133034</v>
       </c>
@@ -3037,7 +4692,7 @@
         <v>53172</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>18276.100351476933</v>
       </c>
@@ -3046,7 +4701,7 @@
         <v>18276</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>88546.062447151213</v>
       </c>
@@ -3055,7 +4710,7 @@
         <v>88546</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>41890.814592036033</v>
       </c>
@@ -3064,7 +4719,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1015.8693269247232</v>
       </c>
@@ -3073,7 +4728,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>88456.372300393865</v>
       </c>
@@ -3082,7 +4737,7 @@
         <v>88456</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>5899.506621627459</v>
       </c>
@@ -3091,7 +4746,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>41669.910873002671</v>
       </c>
@@ -3100,7 +4755,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6809.2519445362432</v>
       </c>
@@ -3109,7 +4764,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>77530.764231503519</v>
       </c>
@@ -3118,7 +4773,7 @@
         <v>77530</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>77969.917463902966</v>
       </c>
@@ -3127,7 +4782,7 @@
         <v>77969</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>9305.6326264232212</v>
       </c>
@@ -3136,7 +4791,7 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>20191.389690264437</v>
       </c>
@@ -3145,7 +4800,7 @@
         <v>20191</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>25698.182383066247</v>
       </c>
@@ -3154,7 +4809,7 @@
         <v>25698</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>38005.373507335629</v>
       </c>
@@ -3163,7 +4818,7 @@
         <v>38005</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>12720.923371527293</v>
       </c>
@@ -3172,7 +4827,7 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>85789.567744955129</v>
       </c>
@@ -3181,7 +4836,7 @@
         <v>85789</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>83968.936756557843</v>
       </c>
@@ -3190,7 +4845,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>41297.236019242104</v>
       </c>
@@ -3199,7 +4854,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>73460.027936654078</v>
       </c>
@@ -3208,7 +4863,7 @@
         <v>73460</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>55530.250225802811</v>
       </c>
@@ -3217,7 +4872,7 @@
         <v>55530</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>93474.37991250513</v>
       </c>
@@ -3226,7 +4881,7 @@
         <v>93474</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8706.9564363371774</v>
       </c>
@@ -3235,7 +4890,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>71873.417734068396</v>
       </c>
@@ -3244,7 +4899,7 @@
         <v>71873</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>57132.501048461636</v>
       </c>
@@ -3253,7 +4908,7 @@
         <v>57132</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>32395.034137952571</v>
       </c>
@@ -3262,7 +4917,7 @@
         <v>32395</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>49924.6673711533</v>
       </c>
@@ -3271,7 +4926,7 @@
         <v>49924</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>88913.772796400066</v>
       </c>
@@ -3280,7 +4935,7 @@
         <v>88913</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>67901.72473364092</v>
       </c>
@@ -3289,7 +4944,7 @@
         <v>67901</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>92105.732727758324</v>
       </c>
@@ -3298,7 +4953,7 @@
         <v>92105</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>7335.2100433925598</v>
       </c>
@@ -3307,7 +4962,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>93581.517117100753</v>
       </c>
@@ -3316,7 +4971,7 @@
         <v>93581</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>65908.355032312727</v>
       </c>
@@ -3325,7 +4980,7 @@
         <v>65908</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>32978.494497995605</v>
       </c>
@@ -3334,7 +4989,7 @@
         <v>32978</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>19942.376500342129</v>
       </c>
@@ -3343,7 +4998,7 @@
         <v>19942</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>9852.6389863571876</v>
       </c>
@@ -3352,7 +5007,7 @@
         <v>9852</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>63631.541357357368</v>
       </c>
@@ -3361,7 +5016,7 @@
         <v>63631</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>37734.315372340512</v>
       </c>
@@ -3370,7 +5025,7 @@
         <v>37734</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>24072.038686568285</v>
       </c>
@@ -3379,7 +5034,7 @@
         <v>24072</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>76146.190106123555</v>
       </c>
@@ -3388,7 +5043,7 @@
         <v>76146</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>6775.3630394586371</v>
       </c>
@@ -3397,7 +5052,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>36531.791413839928</v>
       </c>
@@ -3416,1810 +5071,1810 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D416062-A28C-4B15-870A-55B7BC004C78}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
+    <sheetView topLeftCell="A284" workbookViewId="0">
       <selection sqref="A1:A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>20431.945064882373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>27959.163592873792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>12267.54778646838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>54724.143750161056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>46169.672114953042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>21898.119742719315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>29126.353384164104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5369.6193809468659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>45687.483255384221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>74052.05054613683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>15877.353769860525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>17841.459268615647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>91105.669277673092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>28367.717664395786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>18927.051269625783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8142.5325292703628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>80657.327099794289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>15548.267716772978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>29380.821256366664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>48812.378058389586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>23315.574189596853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>10590.29669655237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>51170.440847595943</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>81061.859660468763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>60826.717249868459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>26765.2364961821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>73585.063821430813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>64614.144997530435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>5541.749183997269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>5324.2939958147435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>80804.719396329179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>84147.202111988488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>59443.151711151957</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>70108.129338107421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>10057.920731194003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>40197.882417715584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>8180.7503006669504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>70702.09845336125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>41229.775023291659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>85513.413736427785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>29449.447966955478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>28378.650675325356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>66144.009853433425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>37428.622419751155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>31122.726078256524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>61193.940247219834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>27383.915327215323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>90587.45557377761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>55374.263101608965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>71602.443517393083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>25124.743419460316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>9022.1335793348007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>51306.915378784433</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>37021.957122509993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>79728.443602348096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>20953.530224167473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>88489.143954358355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>76475.153253130324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>37962.93345612337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>98383.553495900356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>81544.42474157887</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>58686.740197042964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>85852.762516665869</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>87934.98826074785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>87091.530961050128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>69207.932484662684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>30477.859110331741</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>47793.954744460607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>80020.217390826961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>75203.198410789977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>70488.697837832806</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>9629.6854215720541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>58361.841218262482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>83257.78072076464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>17690.299468208625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>67592.293718512548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>54032.527487473417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>20702.240308229313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>61695.861334702327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>43755.746480289592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>86193.678912621923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>92502.556367990313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>94903.500571003708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>42141.902628114221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>70305.931898179551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>10763.381924440773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>94446.974503526042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>73630.456322920392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>76053.082229607651</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45691.258979478342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>5190.5266710581709</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>3623.1239587933951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>26640.429781899089</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>47506.235387363115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>43855.970119504949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>66627.276292685841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>95190.379216177505</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>28575.917901777713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>51763.717272694055</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>54817.731597995153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>38184.031255800699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>48410.553141571989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>25839.201802552801</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>74204.546366843977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>83066.931039919247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>16380.140813367228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>49867.755582716636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>21762.281856482168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>92141.831854851815</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>26730.530012917152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>11601.558756198838</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>61089.142696173571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>73010.162968281322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>30643.753524524996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>38689.290089631235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>22613.642066489858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>62710.605854342757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>46165.961824171929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>89506.928818877379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>13283.035684410526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>13622.307239884791</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>83034.342080489383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>56756.204094475135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>67186.206869522139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>40606.224696139296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>27676.023087131009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>12027.20349764136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>67936.000778694826</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>99120.160780312042</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>59532.196031930573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>30485.161265899686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>51700.739751100235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>16866.070951827951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>46165.978714112367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>6083.0045536803382</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>6002.0675515013108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>27373.760367897616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>85702.946813266288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>70243.325102898263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>74779.690551515203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>70085.099687952403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>71623.39745909613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>7877.2221103693419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>12318.285676855312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>68521.120209120287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>67468.004163899634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>47976.695783016556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>27163.577526131401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>80363.007558613972</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>91933.232417853622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>91570.768818877375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>23676.245013016516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>2898.4160019043247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>55325.094349435152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>2682.5625672629803</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>25091.176121607452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>18429.562785318576</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>75489.728601576484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>13667.786887446266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>80077.617370788212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>56460.825793860648</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>14186.824961286204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>74033.080578363049</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>8486.8525930195447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>84603.211855365778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>96803.019609531184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>33672.852608311085</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>53761.564766847812</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>13473.521712759506</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>28452.022074991968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>46227.870957725878</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>36417.841937188045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>27088.849444655592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>38199.306829214489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>60650.06790951256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>50581.568720619449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>93312.302067498909</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>20789.483295451428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>6548.2232976542427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>96090.330639096006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>84796.373248053875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>27095.430109035045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>7294.9188889632978</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>87625.003660851959</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>15696.138370236979</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>10249.470901592005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>53318.184977741432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>86629.250668558278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>73301.406191368689</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>82965.092270462803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>71449.688917008418</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>37029.553333154145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>61588.35514264481</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>15606.785782228893</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>39651.77533235016</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>36147.727876046512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>50173.771697762459</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>94293.530065002968</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>15267.236968206054</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>40527.392208180143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>81130.037292048481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>8045.1363012036263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>41024.812066532155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>1192.7670542502101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>13539.230324269691</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>33364.24880061514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>7775.8450797729247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>21009.650902699384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>17821.59823666143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>92507.950778522791</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>25959.468555458821</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>51659.780104546917</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>98312.985182041783</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>1496.8520175622557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>96228.257089335209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>35831.487149492023</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>1881.2212906457514</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>82694.584506735409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>9552.9180739304938</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>54783.934325348724</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>49347.862835626336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>5487.2475318396009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>7608.801083757744</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>54152.359580060016</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>94254.476220584882</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>84536.605691524397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>96082.542216683869</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>53492.987674932279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>43460.728818817595</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>40791.58148616102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>41839.270462065928</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>44156.811185839906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>42133.469636829432</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>31445.085310687395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>34210.242406443613</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>16235.216794140295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>23995.13497891539</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>16313.458966024331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>4745.8185159339419</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>19066.494253753674</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>83546.504672873285</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>40594.559785886893</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>248.00541392107078</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>91490.243828920109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>50656.728860738098</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>24907.686817820973</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>277.1276953986046</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>87909.374942861541</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>92207.613918384101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>24544.052564981244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>75376.525921629844</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>73782.925373158054</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>54397.103999776264</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>24347.972486659197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>68689.78915595288</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>7190.5508661264994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>11962.80361551092</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>19849.602425839119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>96580.629298514177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>90352.007261759965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>93945.268154336809</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>93783.936851605147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>20606.408374153551</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>97767.144961790691</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>4401.062967649028</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>38745.177213313618</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>53057.651889493798</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>50133.699243041483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>96455.450535067139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>52877.461347921664</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>54233.663495279136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>48342.55241020368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>25854.777420580998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>40539.509311823953</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>8812.9070863442576</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>44601.618808648782</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>20360.142803442504</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>1894.226232365226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>37078.974141832732</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>12282.125697037749</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>28125.153955808924</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>83459.14397676455</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>88219.813685496789</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>72128.671305258336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>23223.710823888854</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>74740.012896533342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>22833.862299211429</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>28191.760786007759</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>82197.985414002222</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>50814.834839045317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>5099.2368873596706</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>545.53908024402858</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>56603.983546782067</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>34678.491301407899</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>75735.593153973372</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>72085.82249988</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>44079.423774033552</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>11223.023725891124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>72545.587025380053</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>43038.190371337514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>29645.691033331055</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>63617.172271880205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>24.433536750367857</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>4150.196986742927</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>47293.084246635241</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>26131.338908947611</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>91674.821325737299</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>92843.524871311165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>70749.045701706709</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>49248.126053222317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>52033.373986487728</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>32969.975665625403</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>20927.60640858391</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>20020.557702125985</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>45619.511138436319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>30500.070775018539</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>43650.819412589582</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>8409.2625465690071</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>67871.48435187836</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>93508.851126097259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>18618.260727636371</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>29741.440920000172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>58850.721697436522</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>57603.745610350299</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>21880.842950621347</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>39352.400489723441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>62373.595432310743</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>64780.591595949634</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>52809.442931742335</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>38090.899829072601</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>93732.240735886371</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>89268.467335829802</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>10150.476267433194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>44974.471039277421</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>44982.935701581773</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>32748.413631349093</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>10748.382565127167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>12639.266768017798</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>4796.1623616066154</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>24272.569063970128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>29259.438991996656</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>66206.232821512807</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>37790.268316972622</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>29944.218692027815</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>39534.170131356062</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>85787.792253849868</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>45996.978404309652</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>28416.415965078133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>23528.093739730048</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>76253.850052568378</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>87948.092832747658</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>88233.117139462876</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>91639.463428212781</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>64125.148652297525</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>22974.801008803504</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>41475.010191922593</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>72922.400173640563</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>10255.745586034314</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>55007.961865862279</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>30820.298986782789</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>83694.067835702823</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>16448.733265677718</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>13882.791173600574</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>12776.909722953911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>22606.172446424844</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>92942.266161899039</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>50650.105008028026</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>45909.050521715391</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>79255.812086209582</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>66517.790613819554</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>32011.142214025524</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>95344.203059730047</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>14635.653016508642</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>80257.175466052111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>26620.804054043136</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>9071.7343380149359</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>49291.881963638218</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>23210.08730570845</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>22294.251724954396</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>73963.691084359758</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>3628.6962621920884</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>43053.313725757129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>15396.503720757804</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>63086.773124761101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>26634.19835260684</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>36051.616006381257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>67879.739970227471</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>32626.794099565039</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>26281.339757403199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>83634.057402819861</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>17263.337310707906</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>69703.11329424927</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>14044.430254988227</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>51912.046586876248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>33271.543863363964</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>62511.795207046482</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>27555.762456434295</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>18499.648087316102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>47563.997113326521</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>65401.787429895739</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>74160.574031402633</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>76668.630888465123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>50420.114423804444</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>76504.221565516127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>56983.315303324998</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>53246.317013946311</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>12242.603732651569</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>9299.6827226529695</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>84156.574312265569</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>4482.5273555166632</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>91682.441458121131</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>57320.974817872127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>70722.352556682628</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>84957.977336320619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>18005.521203000797</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>29538.308444896877</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>66762.797955041067</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>93502.803407629195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>34220.75061632297</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>14740.418777218278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>36540.57812251649</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>45973.127737185714</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>27345.363869303364</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>94337.982177411905</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>70479.572274198305</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>23456.862685125503</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>78775.65640683299</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>24315.817236239913</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>76632.253377231144</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>822.5704834615932</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>25547.078878000219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>95038.991119942977</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>67056.218925108231</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>12113.543671718018</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>26017.3385376523</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>52872.605331406288</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>96187.803666711479</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>34118.474494681315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>86281.76332834721</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>4246.2932809429922</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>62629.020201184081</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>57178.361109058038</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>82564.735803095595</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>95920.735875721875</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>10701.10764525185</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>21491.175628593573</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>80104.97339719595</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>1930.7317549741465</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>28542.662300432585</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>81338.369076502189</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>66011.666501361862</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>40498.678556471423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>45604.837767555975</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>68550.847057771607</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>31756.00835501976</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>39044.892218373796</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>91940.1543482587</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>88121.208518842264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>57058.171930153148</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>32059.155006471585</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>55307.560456518477</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>31264.888421321924</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>62914.672521204629</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>52249.374183260188</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>60457.973302118997</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>44864.407365384104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>98436.729631886337</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>65807.291525372944</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>36083.275832613537</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>74517.383981239254</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>11868.701929214376</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>38217.909256515712</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>9159.1803004485209</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>77443.008261393115</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>56781.853994163037</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>85700.034868911505</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>78468.78868153342</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>28576.067084781531</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>22692.19374621546</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>54733.845109490794</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>89446.441928660046</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>57908.005211776566</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>83029.82262581824</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>11855.598454876515</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>29392.532104456259</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>36987.772829107322</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>12739.452942637441</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>41702.783428721326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>80397.489002152957</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>2369.2134137073272</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>42959.445555549915</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>79494.004808605328</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>30525.433810825696</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>75894.724337628388</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>74522.828737373784</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>85636.699361087827</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>76874.706607280736</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>74605.386431712992</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>98131.432747760948</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>78244.442626282995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>87897.738389547303</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>72648.530152216335</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>19520.457408736791</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>19711.885375743899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>22559.296317598597</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>85481.312272962066</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>16723.953201621498</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>23542.243680758966</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>596.58088721059596</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>73203.949905453308</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>65950.646338564504</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>47563.608297780549</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>31620.441709358904</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>67788.359111293219</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>73343.013509636963</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>79129.501020157637</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>23394.013105513368</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>23364.591156245897</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>29599.818087253228</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>24900.074135226168</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>71476.392892109812</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>4221.9496463746564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>30201.489157097782</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>6405.8976423220229</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>19135.981046949757</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>66099.356934815281</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>81357.337103419253</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>50688.26390920821</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>64483.548038369066</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>29933.527612562571</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>53825.485258789529</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>68960.029184359431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>32100.985892011278</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>708.17644961465032</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>69715.305832980885</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>46280.732080477574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>22060.879936069599</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>80439.945442314216</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>32187.478835509719</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>37219.283198935613</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>4200.3162053448341</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
+        <v>22467.255103339445</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>56292.742131224615</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>44052.322132136556</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>45072.290350563591</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>57440.462439468611</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>958.11230350018036</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>98597.908114882463</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>73816.733337470694</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
+        <v>58891.399521361389</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>58652.725894246592</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+        <v>81090.580627988369</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>14382.906472105749</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
+        <v>54228.579947481405</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>4653.4415210474635</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
+        <v>6184.6110970422478</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>7534.4989688641781</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>23298.213333541175</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>63221.232645087242</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>97450.645411168705</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>4479.1257962959244</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
+        <v>8153.6206689144965</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>32202.589488569676</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>20419.531581702387</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>81917.285433468467</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>15324.877672803861</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>2852.4470291431571</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>36579.134439462468</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>88480.265630620386</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>77885.603878820824</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>20715.286901761832</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>17207.006695115368</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>83513.826892700599</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>49318.870000455703</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>84007.639928304387</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>99609.701438015836</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>20786.74472714146</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>89399.099523418699</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>21569.517184619181</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
+        <v>9443.4082195230967</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>12792.928243411694</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>88089.418125556214</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>95528.818281106724</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>2053.7126469839627</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>6106.8729060679507</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>7552.8072215694683</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>2864.4968101352974</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>52437.606944096115</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>40119.642195123262</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>71351.148830537495</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>80723.758685067398</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>8083.2815792102438</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>15139.238516825881</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>69704.860278328269</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>92130.252463764133</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>1036.2231108153153</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>38050.677657773791</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>81597.933466012342</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>85428.958609985595</v>
+        <v>48448.449820777198</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\C&amp;B\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C1382-A717-450B-ABAE-38E9F756BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45E58C5-6360-427A-ACF3-E9AD2B925791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,21 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="aleatorios" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,323 +58,323 @@
     <t>aleatorio</t>
   </si>
   <si>
+    <t>Rogger Alberto Tume Samamé</t>
+  </si>
+  <si>
+    <t>BC0000001</t>
+  </si>
+  <si>
+    <t>https://bvasquez-code.github.io/AppWedding/?id=</t>
+  </si>
+  <si>
+    <t>Diana Carolina Montenegro Risco</t>
+  </si>
+  <si>
+    <t>BC0000002</t>
+  </si>
+  <si>
+    <t>Giancarlos Sanginez Chero</t>
+  </si>
+  <si>
+    <t>BC0000003</t>
+  </si>
+  <si>
+    <t>Victor Hugo Acosta García</t>
+  </si>
+  <si>
+    <t>BC0000004</t>
+  </si>
+  <si>
+    <t>Ronald Díaz Idrogo</t>
+  </si>
+  <si>
+    <t>BC0000005</t>
+  </si>
+  <si>
+    <t>John Anthony Villanueva Garcia</t>
+  </si>
+  <si>
+    <t>BC0000006</t>
+  </si>
+  <si>
+    <t>Oscar Uceda Gonzales</t>
+  </si>
+  <si>
+    <t>Dany Dandy León Tesén</t>
+  </si>
+  <si>
+    <t>BC0000007</t>
+  </si>
+  <si>
+    <t>Tony Anderson Palomino Zamora</t>
+  </si>
+  <si>
+    <t>BC0000008</t>
+  </si>
+  <si>
+    <t>Fiorella Del Pilar Seclen Falen</t>
+  </si>
+  <si>
+    <t>BC0000009</t>
+  </si>
+  <si>
+    <t>Liliam Liseth Mechán Effio</t>
+  </si>
+  <si>
+    <t>BC0000010</t>
+  </si>
+  <si>
+    <t>Gerónimo Maximiliano Pastor Guevara</t>
+  </si>
+  <si>
+    <t>BC0000011</t>
+  </si>
+  <si>
     <t>Alex Rodrigo Rodriguez</t>
   </si>
   <si>
-    <t>BC0000001</t>
-  </si>
-  <si>
-    <t>BC0000002</t>
-  </si>
-  <si>
-    <t>BC0000003</t>
-  </si>
-  <si>
-    <t>BC0000004</t>
-  </si>
-  <si>
-    <t>BC0000005</t>
-  </si>
-  <si>
-    <t>BC0000006</t>
-  </si>
-  <si>
-    <t>BC0000007</t>
+    <t>BC0000012</t>
+  </si>
+  <si>
+    <t>Alvaro Humberto Torres Mimbela</t>
+  </si>
+  <si>
+    <t>BC0000013</t>
+  </si>
+  <si>
+    <t>James Jean Pieer Guevara Vásquez</t>
+  </si>
+  <si>
+    <t>BC0000014</t>
+  </si>
+  <si>
+    <t>Saul Alberto Carlos Gonzales</t>
+  </si>
+  <si>
+    <t>BC0000015</t>
+  </si>
+  <si>
+    <t>Joel Alfredo Zamora Granados</t>
+  </si>
+  <si>
+    <t>BC0000016</t>
+  </si>
+  <si>
+    <t>David Jose Miguel Paico Marin</t>
+  </si>
+  <si>
+    <t>BC0000017</t>
+  </si>
+  <si>
+    <t>Freddy Chafloque Rojas</t>
+  </si>
+  <si>
+    <t>BC0000018</t>
+  </si>
+  <si>
+    <t>Elvis Pintado Damian</t>
+  </si>
+  <si>
+    <t>BC0000019</t>
+  </si>
+  <si>
+    <t>Jose David Zeña Valdera</t>
+  </si>
+  <si>
+    <t>BC0000020</t>
+  </si>
+  <si>
+    <t>Alan Javier Montenegro Yzquierdo</t>
+  </si>
+  <si>
+    <t>BC0000021</t>
+  </si>
+  <si>
+    <t>Erick Tejada Mena</t>
+  </si>
+  <si>
+    <t>BC0000022</t>
+  </si>
+  <si>
+    <t>Tía Rosa Vásquez García</t>
+  </si>
+  <si>
+    <t>BC0000024</t>
+  </si>
+  <si>
+    <t>Shirley Prado Vásquez</t>
+  </si>
+  <si>
+    <t>BC0000025</t>
+  </si>
+  <si>
+    <t>Tía Karina Vásquez Prado</t>
+  </si>
+  <si>
+    <t>BC0000026</t>
+  </si>
+  <si>
+    <t>Tía Ruth Carolina Vásquez Prado</t>
+  </si>
+  <si>
+    <t>BC0000027</t>
+  </si>
+  <si>
+    <t>Tía Teodora Vásquez Gómez</t>
+  </si>
+  <si>
+    <t>BC0000028</t>
+  </si>
+  <si>
+    <t>Tía Vilma Pozo Vásquez</t>
+  </si>
+  <si>
+    <t>BC0000029</t>
+  </si>
+  <si>
+    <t>Tío Arturo Pozo Vásquez</t>
+  </si>
+  <si>
+    <t>BC0000030</t>
+  </si>
+  <si>
+    <t>Lesly Vásquez Alarcón</t>
+  </si>
+  <si>
+    <t>BC0000031</t>
+  </si>
+  <si>
+    <t>Tía Georgina Vásquez Fernández</t>
+  </si>
+  <si>
+    <t>BC0000032</t>
+  </si>
+  <si>
+    <t>Deysi Rodríguez Vásquez</t>
+  </si>
+  <si>
+    <t>BC0000033</t>
+  </si>
+  <si>
+    <t>Tío Gonzalo Vásquez Fernández</t>
+  </si>
+  <si>
+    <t>BC0000034</t>
+  </si>
+  <si>
+    <t>Deysi Vásquez Alarcón</t>
+  </si>
+  <si>
+    <t>BC0000035</t>
+  </si>
+  <si>
+    <t>Naidé Vásquez Alarcón</t>
+  </si>
+  <si>
+    <t>BC0000036</t>
+  </si>
+  <si>
+    <t>Tía Violeta Vásquez Fernández</t>
+  </si>
+  <si>
+    <t>BC0000037</t>
+  </si>
+  <si>
+    <t>Tía Rosa Irigorin</t>
+  </si>
+  <si>
+    <t>BC0000038</t>
+  </si>
+  <si>
+    <t>Lesly Vásquez García</t>
+  </si>
+  <si>
+    <t>BC0000039</t>
+  </si>
+  <si>
+    <t>Irma Tirado Mori</t>
+  </si>
+  <si>
+    <t>BC0000040</t>
+  </si>
+  <si>
+    <t>Lilia Echeverry Arbildo</t>
+  </si>
+  <si>
+    <t>BC0000041</t>
+  </si>
+  <si>
+    <t>Fam. Lozano Mendoza</t>
+  </si>
+  <si>
+    <t>BC0000042</t>
+  </si>
+  <si>
+    <t>Jessica Sarita Cava Alarcón</t>
+  </si>
+  <si>
+    <t>BC0000043</t>
+  </si>
+  <si>
+    <t>Tia Maria Nazario cumpa</t>
+  </si>
+  <si>
+    <t>BC0000044</t>
+  </si>
+  <si>
+    <t>Margarita García Barragán</t>
+  </si>
+  <si>
+    <t>BC0000045</t>
+  </si>
+  <si>
+    <t>Mirtha Zapata García</t>
+  </si>
+  <si>
+    <t>BC0000046</t>
+  </si>
+  <si>
+    <t>Tia Rosa Lozano Portocarrero</t>
+  </si>
+  <si>
+    <t>BC0000047</t>
+  </si>
+  <si>
+    <t>Kathleen Lozano Ubillus</t>
+  </si>
+  <si>
+    <t>BC0000048</t>
+  </si>
+  <si>
+    <t>Tia Flor Vallejos</t>
+  </si>
+  <si>
+    <t>BC0000049</t>
+  </si>
+  <si>
+    <t>Haruko Harumy Bernal Vallejos</t>
+  </si>
+  <si>
+    <t>BC0000050</t>
+  </si>
+  <si>
+    <t>Willy Zapata García</t>
+  </si>
+  <si>
+    <t>BC0000051</t>
   </si>
   <si>
     <t>Lucía</t>
   </si>
   <si>
-    <t>BC0000008</t>
-  </si>
-  <si>
-    <t>BC0000009</t>
-  </si>
-  <si>
-    <t>BC0000010</t>
-  </si>
-  <si>
-    <t>BC0000011</t>
-  </si>
-  <si>
-    <t>BC0000012</t>
-  </si>
-  <si>
-    <t>BC0000013</t>
-  </si>
-  <si>
-    <t>BC0000014</t>
-  </si>
-  <si>
-    <t>BC0000015</t>
-  </si>
-  <si>
-    <t>BC0000016</t>
-  </si>
-  <si>
-    <t>BC0000017</t>
-  </si>
-  <si>
-    <t>BC0000018</t>
-  </si>
-  <si>
-    <t>BC0000019</t>
-  </si>
-  <si>
-    <t>BC0000020</t>
-  </si>
-  <si>
-    <t>BC0000021</t>
-  </si>
-  <si>
-    <t>BC0000022</t>
-  </si>
-  <si>
-    <t>BC0000024</t>
-  </si>
-  <si>
-    <t>BC0000025</t>
-  </si>
-  <si>
-    <t>BC0000026</t>
-  </si>
-  <si>
-    <t>BC0000027</t>
-  </si>
-  <si>
-    <t>BC0000028</t>
-  </si>
-  <si>
-    <t>BC0000029</t>
-  </si>
-  <si>
-    <t>BC0000030</t>
-  </si>
-  <si>
-    <t>BC0000031</t>
-  </si>
-  <si>
-    <t>BC0000032</t>
-  </si>
-  <si>
-    <t>BC0000033</t>
-  </si>
-  <si>
-    <t>BC0000034</t>
-  </si>
-  <si>
-    <t>BC0000035</t>
-  </si>
-  <si>
-    <t>BC0000036</t>
-  </si>
-  <si>
-    <t>BC0000037</t>
-  </si>
-  <si>
-    <t>BC0000038</t>
-  </si>
-  <si>
-    <t>BC0000039</t>
-  </si>
-  <si>
-    <t>BC0000040</t>
-  </si>
-  <si>
-    <t>BC0000041</t>
-  </si>
-  <si>
-    <t>BC0000042</t>
-  </si>
-  <si>
-    <t>BC0000043</t>
-  </si>
-  <si>
-    <t>BC0000044</t>
-  </si>
-  <si>
-    <t>BC0000045</t>
-  </si>
-  <si>
-    <t>BC0000046</t>
-  </si>
-  <si>
-    <t>BC0000047</t>
-  </si>
-  <si>
-    <t>BC0000048</t>
-  </si>
-  <si>
-    <t>BC0000049</t>
-  </si>
-  <si>
-    <t>BC0000050</t>
-  </si>
-  <si>
-    <t>BC0000051</t>
-  </si>
-  <si>
     <t>BC0000052</t>
-  </si>
-  <si>
-    <t>Rogger Alberto Tume Samamé</t>
-  </si>
-  <si>
-    <t>Diana Carolina Montenegro Risco</t>
-  </si>
-  <si>
-    <t>Giancarlos Sanginez Chero</t>
-  </si>
-  <si>
-    <t>Ronald Díaz Idrogo</t>
-  </si>
-  <si>
-    <t>Oscar Uceda Gonzales</t>
-  </si>
-  <si>
-    <t>Dany Dandy León Tesén</t>
-  </si>
-  <si>
-    <t>John Anthony Villanueva Garcia</t>
-  </si>
-  <si>
-    <t>Tony Anderson Palomino Zamora</t>
-  </si>
-  <si>
-    <t>Victor Hugo Acosta García</t>
-  </si>
-  <si>
-    <t>Fiorella Del Pilar Seclen Falen</t>
-  </si>
-  <si>
-    <t>Gerónimo Maximiliano Pastor Guevara</t>
-  </si>
-  <si>
-    <t>Alvaro Humberto Torres Mimbela</t>
-  </si>
-  <si>
-    <t>Saul Alberto Carlos Gonzales</t>
-  </si>
-  <si>
-    <t>Joel Alfredo Zamora Granados</t>
-  </si>
-  <si>
-    <t>David Jose Miguel Paico Marin</t>
-  </si>
-  <si>
-    <t>Freddy Chafloque Rojas</t>
-  </si>
-  <si>
-    <t>Elvis Pintado Damian</t>
-  </si>
-  <si>
-    <t>Jose David Zeña Valdera</t>
-  </si>
-  <si>
-    <t>Alan Javier Montenegro Yzquierdo</t>
-  </si>
-  <si>
-    <t>Erick Tejada Mena</t>
-  </si>
-  <si>
-    <t>Liliam Liseth Mechán Effio</t>
-  </si>
-  <si>
-    <t>Shirley Prado Vásquez</t>
-  </si>
-  <si>
-    <t>Fam. Lozano Mendoza</t>
-  </si>
-  <si>
-    <t>Mirtha Zapata García</t>
-  </si>
-  <si>
-    <t>Margarita García Barragán</t>
-  </si>
-  <si>
-    <t>Jessica Sarita Cava Alarcón</t>
-  </si>
-  <si>
-    <t>Tia Maria Nazario cumpa</t>
-  </si>
-  <si>
-    <t>Tía Rosa Vásquez García</t>
-  </si>
-  <si>
-    <t>Tía Karina Vásquez Prado</t>
-  </si>
-  <si>
-    <t>Tía Ruth Carolina Vásquez Prado</t>
-  </si>
-  <si>
-    <t>Tía Teodora Vásquez Gómez</t>
-  </si>
-  <si>
-    <t>Tía Vilma Pozo Vásquez</t>
-  </si>
-  <si>
-    <t>Tío Arturo Pozo Vásquez</t>
-  </si>
-  <si>
-    <t>Lesly Vásquez Alarcón</t>
-  </si>
-  <si>
-    <t>Tía Georgina Vásquez Fernández</t>
-  </si>
-  <si>
-    <t>Deysi Rodríguez Vásquez</t>
-  </si>
-  <si>
-    <t>Tío Gonzalo Vásquez Fernández</t>
-  </si>
-  <si>
-    <t>Deysi Vásquez Alarcón</t>
-  </si>
-  <si>
-    <t>Naidé Vásquez Alarcón</t>
-  </si>
-  <si>
-    <t>Tía Violeta Vásquez Fernández</t>
-  </si>
-  <si>
-    <t>Tía Rosa Irigorin</t>
-  </si>
-  <si>
-    <t>Lesly Vásquez García</t>
-  </si>
-  <si>
-    <t>Irma Tirado Mori</t>
-  </si>
-  <si>
-    <t>Lilia Echeverry Arbildo</t>
-  </si>
-  <si>
-    <t>Tia Rosa Lozano Portocarrero</t>
-  </si>
-  <si>
-    <t>Kathleen Lozano Ubillus</t>
-  </si>
-  <si>
-    <t>Tia Flor Vallejos</t>
-  </si>
-  <si>
-    <t>Haruko Harumy Bernal Vallejos</t>
-  </si>
-  <si>
-    <t>Willy Zapata García</t>
-  </si>
-  <si>
-    <t>James Jean Pieer Guevara Vásquez</t>
-  </si>
-  <si>
-    <t>http://localhost:4200/?id=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -762,7 +773,7 @@
     <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,9 +793,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -804,16 +815,16 @@
         <v>8168</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(G2,C2)</f>
-        <v>http://localhost:4200/?id=BC00000018168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000018168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -826,23 +837,23 @@
         <v>968238218</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f>Hoja2!B2</f>
         <v>93449</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H53" si="1">CONCATENATE(G3,C3)</f>
-        <v>http://localhost:4200/?id=BC000000293449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000293449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -855,23 +866,23 @@
         <v>968238218</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <f>Hoja2!B3</f>
         <v>42061</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000000342061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000342061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -884,23 +895,23 @@
         <v>968238218</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <f>Hoja2!B4</f>
         <v>6724</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC00000046724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000046724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -913,23 +924,23 @@
         <v>968238218</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <f>Hoja2!B5</f>
         <v>73060</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000000573060</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000573060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -942,23 +953,23 @@
         <v>968238218</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <f>Hoja2!B6</f>
         <v>52561</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000000652561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000652561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -971,23 +982,23 @@
         <v>968238218</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <f>Hoja2!B7</f>
         <v>31054</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000000631054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000631054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1000,23 +1011,23 @@
         <v>968238219</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <f>Hoja2!B8</f>
         <v>58366</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000000758366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000758366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1029,23 +1040,23 @@
         <v>968238220</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <f>Hoja2!B9</f>
         <v>52835</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000000852835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000852835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1058,23 +1069,23 @@
         <v>968238221</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <f>Hoja2!B10</f>
         <v>2707</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC00000092707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000092707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1087,23 +1098,23 @@
         <v>968238222</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <f>Hoja2!B11</f>
         <v>81870</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001081870</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001081870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1116,23 +1127,23 @@
         <v>968238223</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <f>Hoja2!B12</f>
         <v>17455</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001117455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001117455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1145,23 +1156,23 @@
         <v>968238224</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <f>Hoja2!B13</f>
         <v>80664</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001280664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001280664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1174,23 +1185,23 @@
         <v>968238225</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <f>Hoja2!B14</f>
         <v>31978</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001331978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001331978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1203,23 +1214,23 @@
         <v>968238226</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <f>Hoja2!B15</f>
         <v>41969</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001441969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001441969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1232,23 +1243,23 @@
         <v>968238227</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <f>Hoja2!B16</f>
         <v>11886</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001511886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001511886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1261,23 +1272,23 @@
         <v>968238228</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <f>Hoja2!B17</f>
         <v>81637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001681637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001681637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1290,23 +1301,23 @@
         <v>968238229</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <f>Hoja2!B18</f>
         <v>35508</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001735508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001735508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1319,23 +1330,23 @@
         <v>968238230</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <f>Hoja2!B19</f>
         <v>93353</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001893353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001893353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1348,23 +1359,23 @@
         <v>968238231</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <f>Hoja2!B20</f>
         <v>67100</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000001967100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001967100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1377,23 +1388,23 @@
         <v>968238232</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <f>Hoja2!B21</f>
         <v>35044</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002035044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002035044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1406,23 +1417,23 @@
         <v>968238233</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <f>Hoja2!B22</f>
         <v>87483</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002187483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002187483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1435,23 +1446,23 @@
         <v>968238234</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F24">
         <f>Hoja2!B23</f>
         <v>55469</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002255469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002255469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1464,23 +1475,23 @@
         <v>968238236</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <f>Hoja2!B25</f>
         <v>97274</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002497274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002497274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1493,23 +1504,23 @@
         <v>968238237</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <f>Hoja2!B26</f>
         <v>69659</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002569659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002569659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1522,23 +1533,23 @@
         <v>968238238</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F27">
         <f>Hoja2!B27</f>
         <v>13240</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002613240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002613240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1551,23 +1562,23 @@
         <v>968238239</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F28">
         <f>Hoja2!B28</f>
         <v>49663</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002749663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002749663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1580,23 +1591,23 @@
         <v>968238240</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <f>Hoja2!B29</f>
         <v>6946</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC00000286946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000286946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1609,23 +1620,23 @@
         <v>968238241</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F30">
         <f>Hoja2!B30</f>
         <v>53321</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000002953321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002953321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1638,23 +1649,23 @@
         <v>968238242</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <f>Hoja2!B31</f>
         <v>2682</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC00000302682</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000302682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1667,23 +1678,23 @@
         <v>968238243</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <f>Hoja2!B32</f>
         <v>50557</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003150557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003150557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1696,23 +1707,23 @@
         <v>968238244</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <f>Hoja2!B33</f>
         <v>66019</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003266019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003266019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1725,23 +1736,23 @@
         <v>968238245</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F34">
         <f>Hoja2!B34</f>
         <v>58197</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003358197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003358197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1754,23 +1765,23 @@
         <v>968238246</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F35">
         <f>Hoja2!B35</f>
         <v>3483</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC00000343483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000343483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1783,23 +1794,23 @@
         <v>968238247</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <f>Hoja2!B36</f>
         <v>78768</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003578768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003578768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1812,23 +1823,23 @@
         <v>968238248</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F37">
         <f>Hoja2!B37</f>
         <v>78971</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003678971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003678971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1841,23 +1852,23 @@
         <v>968238249</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F38">
         <f>Hoja2!B38</f>
         <v>73969</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003773969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003773969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1870,23 +1881,23 @@
         <v>968238250</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F39">
         <f>Hoja2!B39</f>
         <v>82002</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003882002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003882002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1899,23 +1910,23 @@
         <v>968238251</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F40">
         <f>Hoja2!B40</f>
         <v>88521</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000003988521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003988521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1928,23 +1939,23 @@
         <v>968238252</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F41">
         <f>Hoja2!B41</f>
         <v>34273</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004034273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004034273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1957,23 +1968,23 @@
         <v>968238253</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F42">
         <f>Hoja2!B42</f>
         <v>68827</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004168827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004168827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1986,23 +1997,23 @@
         <v>968238254</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F43">
         <f>Hoja2!B43</f>
         <v>11456</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004211456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004211456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2015,23 +2026,23 @@
         <v>968238255</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F44">
         <f>Hoja2!B44</f>
         <v>21086</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004321086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004321086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2044,23 +2055,23 @@
         <v>968238256</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F45">
         <f>Hoja2!B45</f>
         <v>42434</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004442434</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004442434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2073,23 +2084,23 @@
         <v>968238257</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F46">
         <f>Hoja2!B46</f>
         <v>45410</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004545410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004545410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2102,23 +2113,23 @@
         <v>968238258</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F47">
         <f>Hoja2!B47</f>
         <v>77065</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004677065</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004677065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2131,23 +2142,23 @@
         <v>968238259</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F48">
         <f>Hoja2!B48</f>
         <v>35311</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004735311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004735311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2160,23 +2171,23 @@
         <v>968238260</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F49">
         <f>Hoja2!B49</f>
         <v>68122</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004868122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004868122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2189,23 +2200,23 @@
         <v>968238261</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <f>Hoja2!B50</f>
         <v>95186</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000004995186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004995186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2218,23 +2229,23 @@
         <v>968238262</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F51">
         <f>Hoja2!B51</f>
         <v>17658</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000005017658</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005017658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -2247,23 +2258,23 @@
         <v>968238263</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F52">
         <f>Hoja2!B52</f>
         <v>73400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000005173400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005173400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2276,78 +2287,28 @@
         <v>968238264</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F53">
         <f>Hoja2!B53</f>
         <v>58013</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:4200/?id=BC000005258013</v>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005258013</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{13788AC9-6D19-49A5-9426-2415D075C294}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{7A9AC3D8-52FD-467F-8ED6-F7AF48BF29AE}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{729F9BF5-5A2B-43B5-804E-531F55A4DB42}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{514FE4CA-F276-424C-8859-1D915A3F2D34}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{47ACE95D-59A9-45C6-8DF6-9653B93996EC}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{C138EEA1-2B1A-4D5C-B7A4-3CE98494B625}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{744530D6-287D-4AC7-9655-37A0EBD224BB}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{23A30D53-63FB-4622-9F2B-728DCBDC1548}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{3E944F3E-50F4-450C-A8DB-4043663AC256}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{98FE80B3-3340-4E1A-91EC-37EFF216A683}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{17DD7A79-148C-4C0B-8DC2-9B3FC8E7E6EF}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{A036A47A-189B-47F0-A722-0F06841F512F}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{7D05A865-AAE9-4645-9021-FB5E1FCE2F08}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{41582040-C0A6-4D4D-9B46-6AAA62EAFF98}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{06CD4315-D557-47BB-8261-7724CBC9AA71}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{28C14900-D5C0-496F-A585-6FA2239DBD13}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{AD8FF956-8F90-4DE8-AB7A-1B443C46CC4F}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{BBDC693C-3DDC-444C-9E79-A314D01CA2AA}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{E465BF29-EF3F-436D-87A1-A33D865DAB1F}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{5D2C394A-419C-4715-9254-DD4CB1A4CCD3}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{F9D737F0-7AEA-482A-932C-3231048FC598}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{CA258E07-E382-4E78-86DD-69CBE83ED852}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{38D4F914-B515-426A-8D3D-9079F2FEDDDB}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{B1790D89-D79F-4E71-A300-B6F7952E8587}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{E6F5581C-4FB1-49FD-81A9-5D196D01F81D}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{A73B89B5-00DB-43F8-8441-B33A6F188D42}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{E954B864-444A-41E5-ADED-4C550B6189EE}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{619CEDD2-5011-497B-88FC-A037549DCE58}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{C132C285-4E42-4B4A-9B89-03C27899B41F}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{CCC74D18-8D72-4B4E-998C-7E3A406A0FCD}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{DD2C9843-AD25-49D8-9D90-324BF0D283A5}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{F8BC1C5A-A09F-49CA-8E16-EA2F2BBC0A46}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{8CA08E1B-5374-4543-9CF9-A230984C6D63}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{506251F8-DB92-40B5-AFDE-5C8EA8C49C36}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{2D1AFAE1-9DAD-4694-BD9F-B4F776EF2AD5}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{2E4DA1EF-9C5B-489A-89D7-39465D1E2A93}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{58228986-B5DB-4827-A95E-6EF8FE6D863A}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{C0AF5D87-AF03-4084-81FE-077A2A42BCAA}"/>
-    <hyperlink ref="G40" r:id="rId39" xr:uid="{2EAD9283-3A3F-469E-967C-5BC6779ADB30}"/>
-    <hyperlink ref="G41" r:id="rId40" xr:uid="{E3E3AEF8-C949-4CA5-AA16-7DE8EB0342B6}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{997B5185-EE61-4591-A45C-702091E8F841}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{EC0EE859-F7D7-49BA-A967-1999AA3D24C1}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{ADCEECB9-7B5F-4585-8A62-B53BAE6B7206}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{E02FC4A4-8F11-4C15-8CD4-50A689B1FCBE}"/>
-    <hyperlink ref="G46" r:id="rId45" xr:uid="{7E840B41-F4F5-4744-A3C4-36957DDC3E83}"/>
-    <hyperlink ref="G47" r:id="rId46" xr:uid="{8C72F5A2-E1B9-47D9-A2A0-A3657A4B7E8C}"/>
-    <hyperlink ref="G48" r:id="rId47" xr:uid="{B41A925D-2466-493D-B234-A53BB8A96AD3}"/>
-    <hyperlink ref="G49" r:id="rId48" xr:uid="{74B5762C-E59B-4FCF-BEBA-DE4456135120}"/>
-    <hyperlink ref="G50" r:id="rId49" xr:uid="{12DC3EBE-D4B0-437F-8AC6-2A543F515E90}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{923629F9-1DEE-4A1E-A39B-EDFA5736B0A5}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{6B94012D-131A-4843-A744-181A08B0CB9F}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{E9C58F5B-BE93-44DC-B3FA-34480D554DF4}"/>
+    <hyperlink ref="G3:G53" r:id="rId2" display="https://bvasquez-code.github.io/AppWedding/?id=" xr:uid="{D11B3EBB-EBFB-4F3F-9B0C-7B65325CA175}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2359,9 +2320,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>8168.3485240182545</v>
       </c>
@@ -2370,7 +2331,7 @@
         <v>8168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>93449.354664475584</v>
       </c>
@@ -2379,7 +2340,7 @@
         <v>93449</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>42061.96796295626</v>
       </c>
@@ -2388,7 +2349,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>6724.2476308272408</v>
       </c>
@@ -2397,7 +2358,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>73060.697586128881</v>
       </c>
@@ -2406,7 +2367,7 @@
         <v>73060</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>52561.098482830974</v>
       </c>
@@ -2415,7 +2376,7 @@
         <v>52561</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>31054.29950014751</v>
       </c>
@@ -2424,7 +2385,7 @@
         <v>31054</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>58366.070119267722</v>
       </c>
@@ -2433,7 +2394,7 @@
         <v>58366</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>52835.87950085575</v>
       </c>
@@ -2442,7 +2403,7 @@
         <v>52835</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2707.4937856843339</v>
       </c>
@@ -2451,7 +2412,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>81870.428405890052</v>
       </c>
@@ -2460,7 +2421,7 @@
         <v>81870</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>17455.894686556716</v>
       </c>
@@ -2469,7 +2430,7 @@
         <v>17455</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>80664.575211607138</v>
       </c>
@@ -2478,7 +2439,7 @@
         <v>80664</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>31978.395395672855</v>
       </c>
@@ -2487,7 +2448,7 @@
         <v>31978</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>41969.242365545244</v>
       </c>
@@ -2496,7 +2457,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>11886.740686911013</v>
       </c>
@@ -2505,7 +2466,7 @@
         <v>11886</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>81637.447549290388</v>
       </c>
@@ -2514,7 +2475,7 @@
         <v>81637</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>35508.10675570499</v>
       </c>
@@ -2523,7 +2484,7 @@
         <v>35508</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>93353.088497874152</v>
       </c>
@@ -2532,7 +2493,7 @@
         <v>93353</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>67100.091845483868</v>
       </c>
@@ -2541,7 +2502,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>35044.968792871841</v>
       </c>
@@ -2550,7 +2511,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>87483.819411290126</v>
       </c>
@@ -2559,7 +2520,7 @@
         <v>87483</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>55469.550479018966</v>
       </c>
@@ -2568,7 +2529,7 @@
         <v>55469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>27807.356482751631</v>
       </c>
@@ -2577,7 +2538,7 @@
         <v>27807</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>97274.341356017219</v>
       </c>
@@ -2586,7 +2547,7 @@
         <v>97274</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>69659.187541342297</v>
       </c>
@@ -2595,7 +2556,7 @@
         <v>69659</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>13240.101312183549</v>
       </c>
@@ -2604,7 +2565,7 @@
         <v>13240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>49663.07073348554</v>
       </c>
@@ -2613,7 +2574,7 @@
         <v>49663</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>6946.0988850038484</v>
       </c>
@@ -2622,7 +2583,7 @@
         <v>6946</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>53321.723095800357</v>
       </c>
@@ -2631,7 +2592,7 @@
         <v>53321</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2682.8072269258428</v>
       </c>
@@ -2640,7 +2601,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>50557.223781149143</v>
       </c>
@@ -2649,7 +2610,7 @@
         <v>50557</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>66019.869522744513</v>
       </c>
@@ -2658,7 +2619,7 @@
         <v>66019</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>58197.202731915197</v>
       </c>
@@ -2667,7 +2628,7 @@
         <v>58197</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>3483.9405402674274</v>
       </c>
@@ -2676,7 +2637,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>78768.72806449249</v>
       </c>
@@ -2685,7 +2646,7 @@
         <v>78768</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>78971.006056597151</v>
       </c>
@@ -2694,7 +2655,7 @@
         <v>78971</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>73969.752842252463</v>
       </c>
@@ -2703,7 +2664,7 @@
         <v>73969</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>82002.473041275021</v>
       </c>
@@ -2712,7 +2673,7 @@
         <v>82002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>88521.014906963333</v>
       </c>
@@ -2721,7 +2682,7 @@
         <v>88521</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>34273.404224349892</v>
       </c>
@@ -2730,7 +2691,7 @@
         <v>34273</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>68827.420437515684</v>
       </c>
@@ -2739,7 +2700,7 @@
         <v>68827</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>11456.863898470559</v>
       </c>
@@ -2748,7 +2709,7 @@
         <v>11456</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>21086.94642121709</v>
       </c>
@@ -2757,7 +2718,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>42434.157172146646</v>
       </c>
@@ -2766,7 +2727,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45410.843240051632</v>
       </c>
@@ -2775,7 +2736,7 @@
         <v>45410</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>77065.786319969964</v>
       </c>
@@ -2784,7 +2745,7 @@
         <v>77065</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>35311.951335648264</v>
       </c>
@@ -2793,7 +2754,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>68122.090698059008</v>
       </c>
@@ -2802,7 +2763,7 @@
         <v>68122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>95186.935707224649</v>
       </c>
@@ -2811,7 +2772,7 @@
         <v>95186</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>17658.63544284043</v>
       </c>
@@ -2820,7 +2781,7 @@
         <v>17658</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>73400.283152674892</v>
       </c>
@@ -2829,7 +2790,7 @@
         <v>73400</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>58013.297615519856</v>
       </c>
@@ -2838,7 +2799,7 @@
         <v>58013</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>87126.20322121105</v>
       </c>
@@ -2847,7 +2808,7 @@
         <v>87126</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>81029.709534846101</v>
       </c>
@@ -2856,7 +2817,7 @@
         <v>81029</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>45168.788882390676</v>
       </c>
@@ -2865,7 +2826,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>42456.005191033604</v>
       </c>
@@ -2874,7 +2835,7 @@
         <v>42456</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>7410.3229234455002</v>
       </c>
@@ -2883,7 +2844,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>82829.411503642143</v>
       </c>
@@ -2892,7 +2853,7 @@
         <v>82829</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>75877.983480683586</v>
       </c>
@@ -2901,7 +2862,7 @@
         <v>75877</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>44300.117384276586</v>
       </c>
@@ -2910,7 +2871,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>10415.032462143126</v>
       </c>
@@ -2919,7 +2880,7 @@
         <v>10415</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>61425.936850676844</v>
       </c>
@@ -2928,7 +2889,7 @@
         <v>61425</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>82687.266789440022</v>
       </c>
@@ -2937,7 +2898,7 @@
         <v>82687</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>53817.987462931153</v>
       </c>
@@ -2946,7 +2907,7 @@
         <v>53817</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>48878.523104463413</v>
       </c>
@@ -2955,7 +2916,7 @@
         <v>48878</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>97579.76223590989</v>
       </c>
@@ -2964,7 +2925,7 @@
         <v>97579</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>36006.25854982937</v>
       </c>
@@ -2973,7 +2934,7 @@
         <v>36006</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>43215.9508324216</v>
       </c>
@@ -2982,7 +2943,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>51042.266231453446</v>
       </c>
@@ -2991,7 +2952,7 @@
         <v>51042</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>58601.803163187418</v>
       </c>
@@ -3000,7 +2961,7 @@
         <v>58601</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>2690.4289856906294</v>
       </c>
@@ -3009,7 +2970,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>97005.121363360813</v>
       </c>
@@ -3018,7 +2979,7 @@
         <v>97005</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>13427.909733494504</v>
       </c>
@@ -3027,7 +2988,7 @@
         <v>13427</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>6182.6796464555018</v>
       </c>
@@ -3036,7 +2997,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>90587.794264711178</v>
       </c>
@@ -3045,7 +3006,7 @@
         <v>90587</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>97586.235789263446</v>
       </c>
@@ -3054,7 +3015,7 @@
         <v>97586</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>24886.634720023103</v>
       </c>
@@ -3063,7 +3024,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>52887.569310359395</v>
       </c>
@@ -3072,7 +3033,7 @@
         <v>52887</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>34590.811866865821</v>
       </c>
@@ -3081,7 +3042,7 @@
         <v>34590</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>74588.507872948045</v>
       </c>
@@ -3090,7 +3051,7 @@
         <v>74588</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>97325.159893339049</v>
       </c>
@@ -3099,7 +3060,7 @@
         <v>97325</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>77965.223248994429</v>
       </c>
@@ -3108,7 +3069,7 @@
         <v>77965</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>66102.929812011833</v>
       </c>
@@ -3117,7 +3078,7 @@
         <v>66102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>65782.623508516117</v>
       </c>
@@ -3126,7 +3087,7 @@
         <v>65782</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>23144.45655015279</v>
       </c>
@@ -3135,7 +3096,7 @@
         <v>23144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>75623.135161035476</v>
       </c>
@@ -3144,7 +3105,7 @@
         <v>75623</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>17564.594911488475</v>
       </c>
@@ -3153,7 +3114,7 @@
         <v>17564</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>94888.874314319546</v>
       </c>
@@ -3162,7 +3123,7 @@
         <v>94888</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>51540.25894593721</v>
       </c>
@@ -3171,7 +3132,7 @@
         <v>51540</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>14226.594343313836</v>
       </c>
@@ -3180,7 +3141,7 @@
         <v>14226</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>71833.82269655852</v>
       </c>
@@ -3189,7 +3150,7 @@
         <v>71833</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>78013.057277116794</v>
       </c>
@@ -3198,7 +3159,7 @@
         <v>78013</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>77439.767728020277</v>
       </c>
@@ -3207,7 +3168,7 @@
         <v>77439</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>4960.5035406993902</v>
       </c>
@@ -3216,7 +3177,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>87984.682006818417</v>
       </c>
@@ -3225,7 +3186,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>80321.569296470392</v>
       </c>
@@ -3234,7 +3195,7 @@
         <v>80321</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>96912.665672617091</v>
       </c>
@@ -3243,7 +3204,7 @@
         <v>96912</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>14910.917910514332</v>
       </c>
@@ -3252,7 +3213,7 @@
         <v>14910</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>14131.036129819329</v>
       </c>
@@ -3261,7 +3222,7 @@
         <v>14131</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>84384.844646975922</v>
       </c>
@@ -3270,7 +3231,7 @@
         <v>84384</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>70442.041604390281</v>
       </c>
@@ -3279,7 +3240,7 @@
         <v>70442</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>22288.263003134824</v>
       </c>
@@ -3288,7 +3249,7 @@
         <v>22288</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>67109.733146048005</v>
       </c>
@@ -3297,7 +3258,7 @@
         <v>67109</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>36935.130324631995</v>
       </c>
@@ -3306,7 +3267,7 @@
         <v>36935</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>54265.428673078721</v>
       </c>
@@ -3315,7 +3276,7 @@
         <v>54265</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>7430.5101295809473</v>
       </c>
@@ -3324,7 +3285,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>25310.753281827812</v>
       </c>
@@ -3333,7 +3294,7 @@
         <v>25310</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>30156.858989299973</v>
       </c>
@@ -3342,7 +3303,7 @@
         <v>30156</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>34030.380057736664</v>
       </c>
@@ -3351,7 +3312,7 @@
         <v>34030</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>16839.155173732401</v>
       </c>
@@ -3360,7 +3321,7 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>75674.20126657837</v>
       </c>
@@ -3369,7 +3330,7 @@
         <v>75674</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>58625.102814172569</v>
       </c>
@@ -3378,7 +3339,7 @@
         <v>58625</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>93926.965779132268</v>
       </c>
@@ -3387,7 +3348,7 @@
         <v>93926</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>88764.497619739399</v>
       </c>
@@ -3396,7 +3357,7 @@
         <v>88764</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>24792.759050075729</v>
       </c>
@@ -3405,7 +3366,7 @@
         <v>24792</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>10059.314834122857</v>
       </c>
@@ -3414,7 +3375,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>86624.468310217955</v>
       </c>
@@ -3423,7 +3384,7 @@
         <v>86624</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>13908.15808844349</v>
       </c>
@@ -3432,7 +3393,7 @@
         <v>13908</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>50152.946027322752</v>
       </c>
@@ -3441,7 +3402,7 @@
         <v>50152</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>11700.283823209335</v>
       </c>
@@ -3450,7 +3411,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>45898.397375675093</v>
       </c>
@@ -3459,7 +3420,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>83131.516901777766</v>
       </c>
@@ -3468,7 +3429,7 @@
         <v>83131</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>14127.75341290209</v>
       </c>
@@ -3477,7 +3438,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>80057.111039240466</v>
       </c>
@@ -3486,7 +3447,7 @@
         <v>80057</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>69296.127400885525</v>
       </c>
@@ -3495,7 +3456,7 @@
         <v>69296</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>23421.686166829848</v>
       </c>
@@ -3504,7 +3465,7 @@
         <v>23421</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>7815.4060207746843</v>
       </c>
@@ -3513,7 +3474,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>74632.255946479781</v>
       </c>
@@ -3522,7 +3483,7 @@
         <v>74632</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>9935.5728990786811</v>
       </c>
@@ -3531,7 +3492,7 @@
         <v>9935</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>50400.091548418546</v>
       </c>
@@ -3540,7 +3501,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2075.6327693410294</v>
       </c>
@@ -3549,7 +3510,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>63861.660695589184</v>
       </c>
@@ -3558,7 +3519,7 @@
         <v>63861</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>34243.397646681326</v>
       </c>
@@ -3567,7 +3528,7 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>69249.179075456675</v>
       </c>
@@ -3576,7 +3537,7 @@
         <v>69249</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>80723.059347231654</v>
       </c>
@@ -3585,7 +3546,7 @@
         <v>80723</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>80547.5124360388</v>
       </c>
@@ -3594,7 +3555,7 @@
         <v>80547</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>41246.104020660692</v>
       </c>
@@ -3603,7 +3564,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>58619.069425412781</v>
       </c>
@@ -3612,7 +3573,7 @@
         <v>58619</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>94525.713028868835</v>
       </c>
@@ -3621,7 +3582,7 @@
         <v>94525</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>16718.727013399304</v>
       </c>
@@ -3630,7 +3591,7 @@
         <v>16718</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>80809.887586923185</v>
       </c>
@@ -3639,7 +3600,7 @@
         <v>80809</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>15034.709451022565</v>
       </c>
@@ -3648,7 +3609,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>63692.752994289294</v>
       </c>
@@ -3657,7 +3618,7 @@
         <v>63692</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>28827.689524382404</v>
       </c>
@@ -3666,7 +3627,7 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>43368.179297381685</v>
       </c>
@@ -3675,7 +3636,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>39198.449992319853</v>
       </c>
@@ -3684,7 +3645,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>6854.6273491659094</v>
       </c>
@@ -3693,7 +3654,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>17025.408993917245</v>
       </c>
@@ -3702,7 +3663,7 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>1287.1296753693696</v>
       </c>
@@ -3711,7 +3672,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>45561.448648873338</v>
       </c>
@@ -3720,7 +3681,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>30191.84490753747</v>
       </c>
@@ -3729,7 +3690,7 @@
         <v>30191</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>723.65443190238739</v>
       </c>
@@ -3738,7 +3699,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>31725.365197473609</v>
       </c>
@@ -3747,7 +3708,7 @@
         <v>31725</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>90412.273994321949</v>
       </c>
@@ -3756,7 +3717,7 @@
         <v>90412</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>15537.954717696379</v>
       </c>
@@ -3765,7 +3726,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>15965.010411784875</v>
       </c>
@@ -3774,7 +3735,7 @@
         <v>15965</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>26650.709793042792</v>
       </c>
@@ -3783,7 +3744,7 @@
         <v>26650</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>5348.7686809852612</v>
       </c>
@@ -3792,7 +3753,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>92679.114926423543</v>
       </c>
@@ -3801,7 +3762,7 @@
         <v>92679</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>36036.550215470255</v>
       </c>
@@ -3810,7 +3771,7 @@
         <v>36036</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>25918.715552727412</v>
       </c>
@@ -3819,7 +3780,7 @@
         <v>25918</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>36771.430152066554</v>
       </c>
@@ -3828,7 +3789,7 @@
         <v>36771</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>34063.26860984823</v>
       </c>
@@ -3837,7 +3798,7 @@
         <v>34063</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>77110.997318459238</v>
       </c>
@@ -3846,7 +3807,7 @@
         <v>77110</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>49619.076552038896</v>
       </c>
@@ -3855,7 +3816,7 @@
         <v>49619</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>8602.3956957278497</v>
       </c>
@@ -3864,7 +3825,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>73901.313529055231</v>
       </c>
@@ -3873,7 +3834,7 @@
         <v>73901</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>33119.201669857823</v>
       </c>
@@ -3882,7 +3843,7 @@
         <v>33119</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>12425.036633837493</v>
       </c>
@@ -3891,7 +3852,7 @@
         <v>12425</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>68275.026412995896</v>
       </c>
@@ -3900,7 +3861,7 @@
         <v>68275</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>71936.333754470572</v>
       </c>
@@ -3909,7 +3870,7 @@
         <v>71936</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>26983.298178496163</v>
       </c>
@@ -3918,7 +3879,7 @@
         <v>26983</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>17644.139096527655</v>
       </c>
@@ -3927,7 +3888,7 @@
         <v>17644</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>91428.238696271015</v>
       </c>
@@ -3936,7 +3897,7 @@
         <v>91428</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>97630.113595432544</v>
       </c>
@@ -3945,7 +3906,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>32314.77970899922</v>
       </c>
@@ -3954,7 +3915,7 @@
         <v>32314</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>22826.538446651302</v>
       </c>
@@ -3963,7 +3924,7 @@
         <v>22826</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>36649.81319769226</v>
       </c>
@@ -3972,7 +3933,7 @@
         <v>36649</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>25554.118455385942</v>
       </c>
@@ -3981,7 +3942,7 @@
         <v>25554</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>27950.948397941822</v>
       </c>
@@ -3990,7 +3951,7 @@
         <v>27950</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>46951.960596533128</v>
       </c>
@@ -3999,7 +3960,7 @@
         <v>46951</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>98393.108847915384</v>
       </c>
@@ -4008,7 +3969,7 @@
         <v>98393</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>19285.99226999862</v>
       </c>
@@ -4017,7 +3978,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>90056.90103649201</v>
       </c>
@@ -4026,7 +3987,7 @@
         <v>90056</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>58278.447137101517</v>
       </c>
@@ -4035,7 +3996,7 @@
         <v>58278</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>55295.888371070265</v>
       </c>
@@ -4044,7 +4005,7 @@
         <v>55295</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>20869.390204355874</v>
       </c>
@@ -4053,7 +4014,7 @@
         <v>20869</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>44110.966332042924</v>
       </c>
@@ -4062,7 +4023,7 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>74275.268667415425</v>
       </c>
@@ -4071,7 +4032,7 @@
         <v>74275</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>23836.502703941333</v>
       </c>
@@ -4080,7 +4041,7 @@
         <v>23836</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>83625.662905051533</v>
       </c>
@@ -4089,7 +4050,7 @@
         <v>83625</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>41800.652907886259</v>
       </c>
@@ -4098,7 +4059,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>13720.06253475686</v>
       </c>
@@ -4107,7 +4068,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>34189.616291840422</v>
       </c>
@@ -4116,7 +4077,7 @@
         <v>34189</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>45918.533751532472</v>
       </c>
@@ -4125,7 +4086,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>22319.956434137923</v>
       </c>
@@ -4134,7 +4095,7 @@
         <v>22319</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>79623.773262822142</v>
       </c>
@@ -4143,7 +4104,7 @@
         <v>79623</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>17592.563157581899</v>
       </c>
@@ -4152,7 +4113,7 @@
         <v>17592</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>52233.614548238562</v>
       </c>
@@ -4161,7 +4122,7 @@
         <v>52233</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>23833.036027939757</v>
       </c>
@@ -4170,7 +4131,7 @@
         <v>23833</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>10320.315243259947</v>
       </c>
@@ -4179,7 +4140,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>2865.9539273261812</v>
       </c>
@@ -4188,7 +4149,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>58655.534068860885</v>
       </c>
@@ -4197,7 +4158,7 @@
         <v>58655</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>5577.5282291355306</v>
       </c>
@@ -4206,7 +4167,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>87992.820492776096</v>
       </c>
@@ -4215,7 +4176,7 @@
         <v>87992</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>7773.6344232263718</v>
       </c>
@@ -4224,7 +4185,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>99733.451136215022</v>
       </c>
@@ -4233,7 +4194,7 @@
         <v>99733</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>73215.497533033573</v>
       </c>
@@ -4242,7 +4203,7 @@
         <v>73215</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>20003.548188428187</v>
       </c>
@@ -4251,7 +4212,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>42074.421487865329</v>
       </c>
@@ -4260,7 +4221,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>49992.65689436144</v>
       </c>
@@ -4269,7 +4230,7 @@
         <v>49992</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>28811.186250378607</v>
       </c>
@@ -4278,7 +4239,7 @@
         <v>28811</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>37629.29652922196</v>
       </c>
@@ -4287,7 +4248,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>18597.958689155203</v>
       </c>
@@ -4296,7 +4257,7 @@
         <v>18597</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>74771.743967124465</v>
       </c>
@@ -4305,7 +4266,7 @@
         <v>74771</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>18505.157022629537</v>
       </c>
@@ -4314,7 +4275,7 @@
         <v>18505</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>40837.838489180409</v>
       </c>
@@ -4323,7 +4284,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>36857.810670374689</v>
       </c>
@@ -4332,7 +4293,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>71043.593278018641</v>
       </c>
@@ -4341,7 +4302,7 @@
         <v>71043</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>41147.906864462078</v>
       </c>
@@ -4350,7 +4311,7 @@
         <v>41147</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>91796.858657704506</v>
       </c>
@@ -4359,7 +4320,7 @@
         <v>91796</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>11938.644574370815</v>
       </c>
@@ -4368,7 +4329,7 @@
         <v>11938</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>6003.3101379928567</v>
       </c>
@@ -4377,7 +4338,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>95965.014660441011</v>
       </c>
@@ -4386,7 +4347,7 @@
         <v>95965</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>68490.848299633784</v>
       </c>
@@ -4395,7 +4356,7 @@
         <v>68490</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>90741.745359525172</v>
       </c>
@@ -4404,7 +4365,7 @@
         <v>90741</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>68062.781646417119</v>
       </c>
@@ -4413,7 +4374,7 @@
         <v>68062</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>55836.217319100404</v>
       </c>
@@ -4422,7 +4383,7 @@
         <v>55836</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>59871.156294423388</v>
       </c>
@@ -4431,7 +4392,7 @@
         <v>59871</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>40977.126475243895</v>
       </c>
@@ -4440,7 +4401,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>92523.482789148504</v>
       </c>
@@ -4449,7 +4410,7 @@
         <v>92523</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>51926.606007173745</v>
       </c>
@@ -4458,7 +4419,7 @@
         <v>51926</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>75879.254526608522</v>
       </c>
@@ -4467,7 +4428,7 @@
         <v>75879</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>66565.020178455467</v>
       </c>
@@ -4476,7 +4437,7 @@
         <v>66565</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>88703.913962080507</v>
       </c>
@@ -4485,7 +4446,7 @@
         <v>88703</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>17351.203406346995</v>
       </c>
@@ -4494,7 +4455,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>77762.702272033668</v>
       </c>
@@ -4503,7 +4464,7 @@
         <v>77762</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>23815.453213098281</v>
       </c>
@@ -4512,7 +4473,7 @@
         <v>23815</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>7995.2506402675817</v>
       </c>
@@ -4521,7 +4482,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>85516.319690385761</v>
       </c>
@@ -4530,7 +4491,7 @@
         <v>85516</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>48146.661430983062</v>
       </c>
@@ -4539,7 +4500,7 @@
         <v>48146</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>23621.589310040214</v>
       </c>
@@ -4548,7 +4509,7 @@
         <v>23621</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>12129.127820619213</v>
       </c>
@@ -4557,7 +4518,7 @@
         <v>12129</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>44334.79571943971</v>
       </c>
@@ -4566,7 +4527,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>38688.113542402338</v>
       </c>
@@ -4575,7 +4536,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>37594.625542838112</v>
       </c>
@@ -4584,7 +4545,7 @@
         <v>37594</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>23875.688489806678</v>
       </c>
@@ -4593,7 +4554,7 @@
         <v>23875</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>18114.750561363657</v>
       </c>
@@ -4602,7 +4563,7 @@
         <v>18114</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>66649.39552351326</v>
       </c>
@@ -4611,7 +4572,7 @@
         <v>66649</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>60100.229387221603</v>
       </c>
@@ -4620,7 +4581,7 @@
         <v>60100</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>27274.369603890547</v>
       </c>
@@ -4629,7 +4590,7 @@
         <v>27274</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>95584.308704601659</v>
       </c>
@@ -4638,7 +4599,7 @@
         <v>95584</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>50957.273668741502</v>
       </c>
@@ -4647,7 +4608,7 @@
         <v>50957</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>96182.890675666829</v>
       </c>
@@ -4656,7 +4617,7 @@
         <v>96182</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>22314.490397255726</v>
       </c>
@@ -4665,7 +4626,7 @@
         <v>22314</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>56931.606290704374</v>
       </c>
@@ -4674,7 +4635,7 @@
         <v>56931</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2">
       <c r="A258">
         <v>26763.54488862769</v>
       </c>
@@ -4683,7 +4644,7 @@
         <v>26763</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2">
       <c r="A259">
         <v>53172.480528133034</v>
       </c>
@@ -4692,7 +4653,7 @@
         <v>53172</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2">
       <c r="A260">
         <v>18276.100351476933</v>
       </c>
@@ -4701,7 +4662,7 @@
         <v>18276</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2">
       <c r="A261">
         <v>88546.062447151213</v>
       </c>
@@ -4710,7 +4671,7 @@
         <v>88546</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2">
       <c r="A262">
         <v>41890.814592036033</v>
       </c>
@@ -4719,7 +4680,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2">
       <c r="A263">
         <v>1015.8693269247232</v>
       </c>
@@ -4728,7 +4689,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2">
       <c r="A264">
         <v>88456.372300393865</v>
       </c>
@@ -4737,7 +4698,7 @@
         <v>88456</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2">
       <c r="A265">
         <v>5899.506621627459</v>
       </c>
@@ -4746,7 +4707,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2">
       <c r="A266">
         <v>41669.910873002671</v>
       </c>
@@ -4755,7 +4716,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2">
       <c r="A267">
         <v>6809.2519445362432</v>
       </c>
@@ -4764,7 +4725,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268">
         <v>77530.764231503519</v>
       </c>
@@ -4773,7 +4734,7 @@
         <v>77530</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2">
       <c r="A269">
         <v>77969.917463902966</v>
       </c>
@@ -4782,7 +4743,7 @@
         <v>77969</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2">
       <c r="A270">
         <v>9305.6326264232212</v>
       </c>
@@ -4791,7 +4752,7 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2">
       <c r="A271">
         <v>20191.389690264437</v>
       </c>
@@ -4800,7 +4761,7 @@
         <v>20191</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2">
       <c r="A272">
         <v>25698.182383066247</v>
       </c>
@@ -4809,7 +4770,7 @@
         <v>25698</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2">
       <c r="A273">
         <v>38005.373507335629</v>
       </c>
@@ -4818,7 +4779,7 @@
         <v>38005</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2">
       <c r="A274">
         <v>12720.923371527293</v>
       </c>
@@ -4827,7 +4788,7 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2">
       <c r="A275">
         <v>85789.567744955129</v>
       </c>
@@ -4836,7 +4797,7 @@
         <v>85789</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2">
       <c r="A276">
         <v>83968.936756557843</v>
       </c>
@@ -4845,7 +4806,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2">
       <c r="A277">
         <v>41297.236019242104</v>
       </c>
@@ -4854,7 +4815,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2">
       <c r="A278">
         <v>73460.027936654078</v>
       </c>
@@ -4863,7 +4824,7 @@
         <v>73460</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2">
       <c r="A279">
         <v>55530.250225802811</v>
       </c>
@@ -4872,7 +4833,7 @@
         <v>55530</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2">
       <c r="A280">
         <v>93474.37991250513</v>
       </c>
@@ -4881,7 +4842,7 @@
         <v>93474</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2">
       <c r="A281">
         <v>8706.9564363371774</v>
       </c>
@@ -4890,7 +4851,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2">
       <c r="A282">
         <v>71873.417734068396</v>
       </c>
@@ -4899,7 +4860,7 @@
         <v>71873</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2">
       <c r="A283">
         <v>57132.501048461636</v>
       </c>
@@ -4908,7 +4869,7 @@
         <v>57132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2">
       <c r="A284">
         <v>32395.034137952571</v>
       </c>
@@ -4917,7 +4878,7 @@
         <v>32395</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2">
       <c r="A285">
         <v>49924.6673711533</v>
       </c>
@@ -4926,7 +4887,7 @@
         <v>49924</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2">
       <c r="A286">
         <v>88913.772796400066</v>
       </c>
@@ -4935,7 +4896,7 @@
         <v>88913</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2">
       <c r="A287">
         <v>67901.72473364092</v>
       </c>
@@ -4944,7 +4905,7 @@
         <v>67901</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2">
       <c r="A288">
         <v>92105.732727758324</v>
       </c>
@@ -4953,7 +4914,7 @@
         <v>92105</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2">
       <c r="A289">
         <v>7335.2100433925598</v>
       </c>
@@ -4962,7 +4923,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2">
       <c r="A290">
         <v>93581.517117100753</v>
       </c>
@@ -4971,7 +4932,7 @@
         <v>93581</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2">
       <c r="A291">
         <v>65908.355032312727</v>
       </c>
@@ -4980,7 +4941,7 @@
         <v>65908</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2">
       <c r="A292">
         <v>32978.494497995605</v>
       </c>
@@ -4989,7 +4950,7 @@
         <v>32978</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2">
       <c r="A293">
         <v>19942.376500342129</v>
       </c>
@@ -4998,7 +4959,7 @@
         <v>19942</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2">
       <c r="A294">
         <v>9852.6389863571876</v>
       </c>
@@ -5007,7 +4968,7 @@
         <v>9852</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2">
       <c r="A295">
         <v>63631.541357357368</v>
       </c>
@@ -5016,7 +4977,7 @@
         <v>63631</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2">
       <c r="A296">
         <v>37734.315372340512</v>
       </c>
@@ -5025,7 +4986,7 @@
         <v>37734</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2">
       <c r="A297">
         <v>24072.038686568285</v>
       </c>
@@ -5034,7 +4995,7 @@
         <v>24072</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2">
       <c r="A298">
         <v>76146.190106123555</v>
       </c>
@@ -5043,7 +5004,7 @@
         <v>76146</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2">
       <c r="A299">
         <v>6775.3630394586371</v>
       </c>
@@ -5052,7 +5013,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2">
       <c r="A300">
         <v>36531.791413839928</v>
       </c>
@@ -5075,1806 +5036,1806 @@
       <selection sqref="A1:A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>27959.163592873792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78558.262248540108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>54724.143750161056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66419.035097510132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>21898.119742719315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36460.764584287921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>5369.6193809468659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56948.213590803629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>74052.05054613683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78851.507649586798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>17841.459268615647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32425.960254589048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>28367.717664395786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38634.421309827369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>8142.5325292703628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7426.6793215688294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>15548.267716772978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65306.474955072634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>48812.378058389586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11797.409617897692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>10590.29669655237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16553.522856839052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>81061.859660468763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43214.072326500507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>26765.2364961821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2267.5084239924813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>64614.144997530435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36227.59067163174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>5324.2939958147435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38101.622559571755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>84147.202111988488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82733.139218919576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>70108.129338107421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29060.301118521304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>40197.882417715584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47844.941201940419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>70702.09845336125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47670.529391042772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>85513.413736427785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74976.678416577153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>28378.650675325356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99873.260210260458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>37428.622419751155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95093.251872774505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>61193.940247219834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10285.696772043795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>90587.45557377761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8301.9917674718054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>71602.443517393083</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3718.054208969168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>9022.1335793348007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78248.860198566064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>37021.957122509993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92092.684139384641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>20953.530224167473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4147.8649913892496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>76475.153253130324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95780.161898298684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>98383.553495900356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44790.198484137189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>58686.740197042964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52081.001841738042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>87934.98826074785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65995.696990797427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>69207.932484662684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6463.9151347552161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>47793.954744460607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6417.7618827255146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>75203.198410789977</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>821.30490560855526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>9629.6854215720541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27622.344923172746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>83257.78072076464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98620.031301621741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>67592.293718512548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70158.929017461502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>20702.240308229313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90297.991774542112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>43755.746480289592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67257.893707415642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>92502.556367990313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12923.542220790485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>42141.902628114221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52485.143336500951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>10763.381924440773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89426.123615589677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>73630.456322920392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66553.063391894131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>45691.258979478342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54720.489796093476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>3623.1239587933951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77833.979909188565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>47506.235387363115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40187.680891163269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>66627.276292685841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29622.543723286297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>28575.917901777713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96187.802074633044</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>54817.731597995153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30369.100896164648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>48410.553141571989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65205.983732406101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>74204.546366843977</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7849.5518645068432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>16380.140813367228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7330.7945562313344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>21762.281856482168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10548.636075032602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>26730.530012917152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41089.06479034682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>61089.142696173571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89427.277964015637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>30643.753524524996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37131.958009671464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>22613.642066489858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10630.857146951599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>46165.961824171929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39818.491020849578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>13283.035684410526</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48185.762037409666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>83034.342080489383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59099.371413770961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>67186.206869522139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88860.775978866775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>27676.023087131009</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83516.980359059919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>67936.000778694826</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95424.499010749016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>59532.196031930573</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22364.118008446287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>51700.739751100235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40425.709825883823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>46165.978714112367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78430.916503366971</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>6002.0675515013108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42787.215708237592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>85702.946813266288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87376.372898384041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>74779.690551515203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58786.11225825594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>71623.39745909613</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30777.330649799074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>12318.285676855312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97170.225007401939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>67468.004163899634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1219.8380646126107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>27163.577526131401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95995.826624788548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>91933.232417853622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22381.565694034867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>23676.245013016516</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55005.647916765185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>55325.094349435152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76568.601382129142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>25091.176121607452</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36371.550379053027</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>75489.728601576484</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82030.092709438453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>80077.617370788212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93279.62195853889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>14186.824961286204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69008.115130830425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>8486.8525930195447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97089.758114178243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>96803.019609531184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24382.6660749769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>53761.564766847812</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20494.942923253424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>28452.022074991968</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65986.3839611437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>36417.841937188045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93775.715302741664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>38199.306829214489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36482.621060839992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>50581.568720619449</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>719.11641826072344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>20789.483295451428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24758.263220263954</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>96090.330639096006</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83787.54982299087</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>27095.430109035045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20043.496692719396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>87625.003660851959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30607.928960011333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>10249.470901592005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77582.33994031763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>86629.250668558278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57490.939988811886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>82965.092270462803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2416.7811845417832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>37029.553333154145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7410.6901125338572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>15606.785782228893</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1105.5243479452415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>36147.727876046512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95516.828887970478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>94293.530065002968</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23445.608761919368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>40527.392208180143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73729.467036582675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>8045.1363012036263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80795.429716487764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>1192.7670542502101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86425.903767013049</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>33364.24880061514</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22653.348746265921</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>21009.650902699384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17183.838763527627</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>92507.950778522791</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57440.546250180356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>51659.780104546917</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70296.579874039773</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>1496.8520175622557</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3960.659364916397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>35831.487149492023</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83559.183932462649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>82694.584506735409</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83386.45551273071</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>54783.934325348724</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2745.4438140487646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>5487.2475318396009</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55934.419053327081</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>54152.359580060016</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16455.075982129863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>84536.605691524397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50298.14338066677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>53492.987674932279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43537.591047773691</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>40791.58148616102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34204.659744380784</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>44156.811185839906</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80906.535078649031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>31445.085310687395</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15931.378402214046</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>16235.216794140295</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95595.808511084586</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>16313.458966024331</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97667.954551012634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>19066.494253753674</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35626.16617165957</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>40594.559785886893</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6263.9712296897133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>91490.243828920109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13026.22127484796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>24907.686817820973</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24442.955579762682</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>87909.374942861541</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55626.127477617338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>24544.052564981244</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70842.040665722801</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>73782.925373158054</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65841.539836457159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>24347.972486659197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73031.797794168378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>7190.5508661264994</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95345.821773678064</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>19849.602425839119</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20384.449517122815</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>90352.007261759965</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82883.642470714098</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>93783.936851605147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63944.771202319629</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>97767.144961790691</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+        <v>75343.586534667513</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>38745.177213313618</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94575.515955817376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>50133.699243041483</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48275.711875276284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>52877.461347921664</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86761.673782457947</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>48342.55241020368</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38712.123006189489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>40539.509311823953</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+        <v>75898.506612019904</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>44601.618808648782</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40383.190873830688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>1894.226232365226</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16125.718592273752</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>12282.125697037749</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33439.546535590925</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>83459.14397676455</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64499.452680265458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>72128.671305258336</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94468.878297486517</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>74740.012896533342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38886.319284955309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>28191.760786007759</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3278.6663548669217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>50814.834839045317</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2272.033678931673</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>545.53908024402858</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7714.0938485990682</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>34678.491301407899</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32596.9760035006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>72085.82249988</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18468.709956239647</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>11223.023725891124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88666.734477637481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>43038.190371337514</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67943.59415329757</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>63617.172271880205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5405.2299493573482</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>4150.196986742927</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66912.649823850166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>26131.338908947611</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88984.885408216505</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>92843.524871311165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28594.910756705249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>49248.126053222317</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93377.035222500228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>32969.975665625403</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94846.987601795103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>20020.557702125985</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53784.173087989519</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>30500.070775018539</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35184.020068796475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>8409.2625465690071</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44554.20496231578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>93508.851126097259</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30833.604533577796</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>29741.440920000172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38334.208754228217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>57603.745610350299</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86120.511249203963</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>39352.400489723441</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93620.418222865701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>64780.591595949634</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29204.436716774839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>38090.899829072601</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92208.471351607019</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>89268.467335829802</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37326.837135116963</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>44974.471039277421</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30922.367885515177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>32748.413631349093</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1108.1699990932891</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>12639.266768017798</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17625.017934638243</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>24272.569063970128</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29981.668794020956</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>66206.232821512807</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6819.4003564979512</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>29944.218692027815</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27154.299073035814</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>85787.792253849868</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65073.630434357532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>28416.415965078133</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16615.701476384304</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>76253.850052568378</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18240.047730008137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>88233.117139462876</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87683.204002877523</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>64125.148652297525</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95319.797774436738</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>41475.010191922593</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57797.810239395651</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>10255.745586034314</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14791.971978738728</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>30820.298986782789</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54064.312205476672</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>16448.733265677718</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98599.018338386319</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>12776.909722953911</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86702.729374597911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>92942.266161899039</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64408.369743850344</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>45909.050521715391</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6977.1288565989908</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>66517.790613819554</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53541.262531670844</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>95344.203059730047</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90629.724953598852</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>80257.175466052111</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29296.698888294224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>9071.7343380149359</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66820.271734708775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>23210.08730570845</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21503.923706081805</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>73963.691084359758</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45594.357196199395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>43053.313725757129</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40620.700507316229</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>63086.773124761101</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44223.042614164151</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>36051.616006381257</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28634.473378857729</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>32626.794099565039</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66101.819005269062</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>83634.057402819861</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44938.038209089704</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>69703.11329424927</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98268.955836415174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>51912.046586876248</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25126.689903226008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>62511.795207046482</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38121.152418289319</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>18499.648087316102</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54230.51686926563</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>65401.787429895739</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7945.4466570610839</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>76668.630888465123</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40561.577635887261</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>76504.221565516127</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+        <v>91355.455164157713</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>53246.317013946311</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38078.000987480496</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>9299.6827226529695</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55572.409178564354</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>4482.5273555166632</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77329.938410868213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>57320.974817872127</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84451.483624737593</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>84957.977336320619</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17412.637536633923</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>29538.308444896877</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30869.144564450533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>93502.803407629195</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47664.377431118999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>14740.418777218278</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51829.871382963363</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>45973.127737185714</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93891.678528466073</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>94337.982177411905</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95737.028381173135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>23456.862685125503</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88800.523486757214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>24315.817236239913</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98080.890396313305</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>822.5704834615932</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84185.389113308964</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>95038.991119942977</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55162.987966996705</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>12113.543671718018</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9274.1945419422045</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>52872.605331406288</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89169.7549177404</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>34118.474494681315</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23113.587936383283</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>4246.2932809429922</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14952.891653340394</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>57178.361109058038</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20808.457751904374</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>95920.735875721875</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41096.276592261172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>21491.175628593573</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66350.600795571809</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>1930.7317549741465</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52247.686238020273</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>81338.369076502189</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68695.880910878346</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>40498.678556471423</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59257.165554094383</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>68550.847057771607</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39557.778603891828</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>39044.892218373796</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56558.984621262302</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>88121.208518842264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42018.764342529816</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>32059.155006471585</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78464.130362054857</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>31264.888421321924</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81378.687708905098</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>52249.374183260188</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29987.957326693791</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>44864.407365384104</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97600.854416940347</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>65807.291525372944</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68011.74532877517</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>74517.383981239254</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39354.643573677116</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>38217.909256515712</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86119.402545445249</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>77443.008261393115</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67590.286200148199</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>85700.034868911505</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19735.765403744819</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>28576.067084781531</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1850.0063421065693</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>54733.845109490794</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33092.817266437734</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>57908.005211776566</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87762.542093142984</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>11855.598454876515</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66199.637642447022</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>36987.772829107322</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74728.743597001041</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>41702.783428721326</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87712.507760874374</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>2369.2134137073272</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82828.619695688089</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>79494.004808605328</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27505.34558327603</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>75894.724337628388</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44987.122857024544</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>85636.699361087827</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43780.252352903844</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>74605.386431712992</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35505.039594276153</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>78244.442626282995</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95691.813922617439</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>72648.530152216335</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60001.221414101325</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>19711.885375743899</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74668.052826472893</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>85481.312272962066</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92684.039666177036</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>23542.243680758966</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87726.101814555877</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>73203.949905453308</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15458.372804300079</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>47563.608297780549</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94584.086207966742</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>67788.359111293219</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72708.942774064402</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>79129.501020157637</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87229.294539890107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>23364.591156245897</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31341.719610897766</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>24900.074135226168</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14786.840688019742</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>4221.9496463746564</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66944.399384420714</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>6405.8976423220229</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84695.994723291064</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>66099.356934815281</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19207.807951573264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>50688.26390920821</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44711.782805171497</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>29933.527612562571</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61189.429455317433</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>68960.029184359431</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28078.5047951167</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>708.17644961465032</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18837.187619819262</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>46280.732080477574</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94533.683892258981</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>80439.945442314216</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27989.717187332462</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>37219.283198935613</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12852.314370803586</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>22467.255103339445</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62229.720976642522</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>44052.322132136556</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29085.293786420818</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>57440.462439468611</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94562.114485969039</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>98597.908114882463</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24012.243457380235</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>58891.399521361389</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42673.553529361794</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>81090.580627988369</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83784.770246450731</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>54228.579947481405</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4768.0479426757347</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>6184.6110970422478</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47125.84252261003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>23298.213333541175</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82948.046295896915</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>97450.645411168705</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21451.129944866454</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>8153.6206689144965</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67927.732247084801</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>20419.531581702387</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67449.017852623147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>15324.877672803861</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51336.054769044269</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>36579.134439462468</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98922.012411751391</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>77885.603878820824</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18749.287988108277</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>17207.006695115368</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41239.307924402005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>49318.870000455703</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60744.566998569651</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>99609.701438015836</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52533.841085553926</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>89399.099523418699</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59364.527762008067</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>9443.4082195230967</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97717.403844202898</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>88089.418125556214</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32801.542528909609</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>2053.7126469839627</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59781.415387863337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>7552.8072215694683</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>137.4524848039793</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>52437.606944096115</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45979.617331793655</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>71351.148830537495</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31540.348483764625</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>8083.2815792102438</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70979.676896423043</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>69704.860278328269</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50871.31049835185</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>1036.2231108153153</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70387.442647539865</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>81597.933466012342</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24501.387199704761</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>48448.449820777198</v>
+        <v>1591.2543738997642</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\C&amp;B\proyectos\angular\AppWedding\src\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccloz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45E58C5-6360-427A-ACF3-E9AD2B925791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650DA23D-D619-4E6F-844F-C7BB24A443C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,28 +17,20 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="aleatorios" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$53</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
   <si>
     <t>invitado</t>
   </si>
@@ -148,9 +140,6 @@
     <t>BC0000014</t>
   </si>
   <si>
-    <t>Saul Alberto Carlos Gonzales</t>
-  </si>
-  <si>
     <t>BC0000015</t>
   </si>
   <si>
@@ -184,7 +173,7 @@
     <t>BC0000020</t>
   </si>
   <si>
-    <t>Alan Javier Montenegro Yzquierdo</t>
+    <t>Fiorella Torres</t>
   </si>
   <si>
     <t>BC0000021</t>
@@ -368,13 +357,40 @@
   </si>
   <si>
     <t>BC0000052</t>
+  </si>
+  <si>
+    <t>link_base</t>
+  </si>
+  <si>
+    <t>link_invitacion</t>
+  </si>
+  <si>
+    <t>dato</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Braulio</t>
+  </si>
+  <si>
+    <t>Amigos</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Tío Antonio Fernández Marrufo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,13 +772,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -773,7 +790,7 @@
     <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,8 +809,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -821,8 +850,14 @@
         <f>CONCATENATE(G2,C2)</f>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000018168</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -850,8 +885,14 @@
         <f t="shared" ref="H3:H53" si="1">CONCATENATE(G3,C3)</f>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000293449</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -879,8 +920,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000342061</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -908,8 +955,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000046724</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -937,8 +990,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000573060</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -966,8 +1025,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000652561</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -995,8 +1060,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000631054</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1024,8 +1095,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000758366</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C53" si="2">CONCATENATE(E10,F10)</f>
+        <f t="shared" ref="C10:C43" si="2">CONCATENATE(E10,F10)</f>
         <v>BC000000852835</v>
       </c>
       <c r="D10">
@@ -1053,8 +1130,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000852835</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1082,8 +1165,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000092707</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1111,8 +1200,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001081870</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1140,8 +1235,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001117455</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1169,8 +1270,14 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001280664</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1198,13 +1305,19 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001331978</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="2"/>
@@ -1227,13 +1340,19 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001441969</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
@@ -1243,7 +1362,7 @@
         <v>968238227</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <f>Hoja2!B16</f>
@@ -1256,10 +1375,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001511886</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1272,7 +1397,7 @@
         <v>968238228</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <f>Hoja2!B17</f>
@@ -1285,10 +1410,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001681637</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1301,7 +1432,7 @@
         <v>968238229</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <f>Hoja2!B18</f>
@@ -1314,10 +1445,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001735508</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1330,7 +1467,7 @@
         <v>968238230</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
         <f>Hoja2!B19</f>
@@ -1343,10 +1480,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001893353</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1359,7 +1502,7 @@
         <v>968238231</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <f>Hoja2!B20</f>
@@ -1372,10 +1515,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001967100</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1388,7 +1537,7 @@
         <v>968238232</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22">
         <f>Hoja2!B21</f>
@@ -1401,10 +1550,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002035044</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1417,7 +1572,7 @@
         <v>968238233</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <f>Hoja2!B22</f>
@@ -1430,10 +1585,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002187483</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1446,7 +1607,7 @@
         <v>968238234</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <f>Hoja2!B23</f>
@@ -1459,10 +1620,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002255469</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1475,7 +1642,7 @@
         <v>968238236</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <f>Hoja2!B25</f>
@@ -1488,10 +1655,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002497274</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1504,7 +1677,7 @@
         <v>968238237</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <f>Hoja2!B26</f>
@@ -1517,10 +1690,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002569659</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1533,7 +1712,7 @@
         <v>968238238</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <f>Hoja2!B27</f>
@@ -1546,10 +1725,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002613240</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1562,7 +1747,7 @@
         <v>968238239</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <f>Hoja2!B28</f>
@@ -1575,10 +1760,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002749663</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1591,7 +1782,7 @@
         <v>968238240</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <f>Hoja2!B29</f>
@@ -1604,10 +1795,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000286946</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1620,7 +1817,7 @@
         <v>968238241</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30">
         <f>Hoja2!B30</f>
@@ -1633,10 +1830,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002953321</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1649,7 +1852,7 @@
         <v>968238242</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31">
         <f>Hoja2!B31</f>
@@ -1662,10 +1865,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000302682</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1678,7 +1887,7 @@
         <v>968238243</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <f>Hoja2!B32</f>
@@ -1691,10 +1900,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003150557</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1707,7 +1922,7 @@
         <v>968238244</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <f>Hoja2!B33</f>
@@ -1720,10 +1935,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003266019</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1736,7 +1957,7 @@
         <v>968238245</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <f>Hoja2!B34</f>
@@ -1749,10 +1970,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003358197</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1765,7 +1992,7 @@
         <v>968238246</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <f>Hoja2!B35</f>
@@ -1778,10 +2005,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000343483</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1794,7 +2027,7 @@
         <v>968238247</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <f>Hoja2!B36</f>
@@ -1807,10 +2040,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003578768</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1823,7 +2062,7 @@
         <v>968238248</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <f>Hoja2!B37</f>
@@ -1836,10 +2075,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003678971</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1852,7 +2097,7 @@
         <v>968238249</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38">
         <f>Hoja2!B38</f>
@@ -1865,10 +2110,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003773969</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1881,7 +2132,7 @@
         <v>968238250</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <f>Hoja2!B39</f>
@@ -1894,10 +2145,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003882002</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1910,7 +2167,7 @@
         <v>968238251</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40">
         <f>Hoja2!B40</f>
@@ -1923,10 +2180,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003988521</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1939,7 +2202,7 @@
         <v>968238252</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <f>Hoja2!B41</f>
@@ -1952,10 +2215,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004034273</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1968,7 +2237,7 @@
         <v>968238253</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42">
         <f>Hoja2!B42</f>
@@ -1981,10 +2250,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004168827</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1997,7 +2272,7 @@
         <v>968238254</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <f>Hoja2!B43</f>
@@ -2010,10 +2285,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004211456</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2026,7 +2307,7 @@
         <v>968238255</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44">
         <f>Hoja2!B44</f>
@@ -2039,10 +2320,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004321086</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2055,7 +2342,7 @@
         <v>968238256</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45">
         <f>Hoja2!B45</f>
@@ -2068,10 +2355,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004442434</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2084,7 +2377,7 @@
         <v>968238257</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46">
         <f>Hoja2!B46</f>
@@ -2097,10 +2390,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004545410</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2113,7 +2412,7 @@
         <v>968238258</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47">
         <f>Hoja2!B47</f>
@@ -2126,10 +2425,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004677065</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2142,7 +2447,7 @@
         <v>968238259</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48">
         <f>Hoja2!B48</f>
@@ -2155,10 +2460,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004735311</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2171,7 +2482,7 @@
         <v>968238260</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49">
         <f>Hoja2!B49</f>
@@ -2184,10 +2495,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004868122</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2200,7 +2517,7 @@
         <v>968238261</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F50">
         <f>Hoja2!B50</f>
@@ -2213,10 +2530,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004995186</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2229,7 +2552,7 @@
         <v>968238262</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51">
         <f>Hoja2!B51</f>
@@ -2242,10 +2565,16 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005017658</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -2258,7 +2587,7 @@
         <v>968238263</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52">
         <f>Hoja2!B52</f>
@@ -2271,13 +2600,19 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005173400</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="3"/>
@@ -2287,7 +2622,7 @@
         <v>968238264</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53">
         <f>Hoja2!B53</f>
@@ -2300,8 +2635,26 @@
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005258013</v>
       </c>
+      <c r="I53" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Braulio"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Familia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{13788AC9-6D19-49A5-9426-2415D075C294}"/>
@@ -2320,9 +2673,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>8168.3485240182545</v>
       </c>
@@ -2331,7 +2684,7 @@
         <v>8168</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>93449.354664475584</v>
       </c>
@@ -2340,7 +2693,7 @@
         <v>93449</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42061.96796295626</v>
       </c>
@@ -2349,7 +2702,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6724.2476308272408</v>
       </c>
@@ -2358,7 +2711,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>73060.697586128881</v>
       </c>
@@ -2367,7 +2720,7 @@
         <v>73060</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>52561.098482830974</v>
       </c>
@@ -2376,7 +2729,7 @@
         <v>52561</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31054.29950014751</v>
       </c>
@@ -2385,7 +2738,7 @@
         <v>31054</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58366.070119267722</v>
       </c>
@@ -2394,7 +2747,7 @@
         <v>58366</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52835.87950085575</v>
       </c>
@@ -2403,7 +2756,7 @@
         <v>52835</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2707.4937856843339</v>
       </c>
@@ -2412,7 +2765,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>81870.428405890052</v>
       </c>
@@ -2421,7 +2774,7 @@
         <v>81870</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17455.894686556716</v>
       </c>
@@ -2430,7 +2783,7 @@
         <v>17455</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80664.575211607138</v>
       </c>
@@ -2439,7 +2792,7 @@
         <v>80664</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31978.395395672855</v>
       </c>
@@ -2448,7 +2801,7 @@
         <v>31978</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41969.242365545244</v>
       </c>
@@ -2457,7 +2810,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11886.740686911013</v>
       </c>
@@ -2466,7 +2819,7 @@
         <v>11886</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>81637.447549290388</v>
       </c>
@@ -2475,7 +2828,7 @@
         <v>81637</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35508.10675570499</v>
       </c>
@@ -2484,7 +2837,7 @@
         <v>35508</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>93353.088497874152</v>
       </c>
@@ -2493,7 +2846,7 @@
         <v>93353</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67100.091845483868</v>
       </c>
@@ -2502,7 +2855,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>35044.968792871841</v>
       </c>
@@ -2511,7 +2864,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>87483.819411290126</v>
       </c>
@@ -2520,7 +2873,7 @@
         <v>87483</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>55469.550479018966</v>
       </c>
@@ -2529,7 +2882,7 @@
         <v>55469</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27807.356482751631</v>
       </c>
@@ -2538,7 +2891,7 @@
         <v>27807</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>97274.341356017219</v>
       </c>
@@ -2547,7 +2900,7 @@
         <v>97274</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>69659.187541342297</v>
       </c>
@@ -2556,7 +2909,7 @@
         <v>69659</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13240.101312183549</v>
       </c>
@@ -2565,7 +2918,7 @@
         <v>13240</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>49663.07073348554</v>
       </c>
@@ -2574,7 +2927,7 @@
         <v>49663</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6946.0988850038484</v>
       </c>
@@ -2583,7 +2936,7 @@
         <v>6946</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>53321.723095800357</v>
       </c>
@@ -2592,7 +2945,7 @@
         <v>53321</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2682.8072269258428</v>
       </c>
@@ -2601,7 +2954,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50557.223781149143</v>
       </c>
@@ -2610,7 +2963,7 @@
         <v>50557</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66019.869522744513</v>
       </c>
@@ -2619,7 +2972,7 @@
         <v>66019</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>58197.202731915197</v>
       </c>
@@ -2628,7 +2981,7 @@
         <v>58197</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3483.9405402674274</v>
       </c>
@@ -2637,7 +2990,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78768.72806449249</v>
       </c>
@@ -2646,7 +2999,7 @@
         <v>78768</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>78971.006056597151</v>
       </c>
@@ -2655,7 +3008,7 @@
         <v>78971</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>73969.752842252463</v>
       </c>
@@ -2664,7 +3017,7 @@
         <v>73969</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>82002.473041275021</v>
       </c>
@@ -2673,7 +3026,7 @@
         <v>82002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>88521.014906963333</v>
       </c>
@@ -2682,7 +3035,7 @@
         <v>88521</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34273.404224349892</v>
       </c>
@@ -2691,7 +3044,7 @@
         <v>34273</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>68827.420437515684</v>
       </c>
@@ -2700,7 +3053,7 @@
         <v>68827</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11456.863898470559</v>
       </c>
@@ -2709,7 +3062,7 @@
         <v>11456</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21086.94642121709</v>
       </c>
@@ -2718,7 +3071,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42434.157172146646</v>
       </c>
@@ -2727,7 +3080,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45410.843240051632</v>
       </c>
@@ -2736,7 +3089,7 @@
         <v>45410</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>77065.786319969964</v>
       </c>
@@ -2745,7 +3098,7 @@
         <v>77065</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>35311.951335648264</v>
       </c>
@@ -2754,7 +3107,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>68122.090698059008</v>
       </c>
@@ -2763,7 +3116,7 @@
         <v>68122</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>95186.935707224649</v>
       </c>
@@ -2772,7 +3125,7 @@
         <v>95186</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17658.63544284043</v>
       </c>
@@ -2781,7 +3134,7 @@
         <v>17658</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>73400.283152674892</v>
       </c>
@@ -2790,7 +3143,7 @@
         <v>73400</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58013.297615519856</v>
       </c>
@@ -2799,7 +3152,7 @@
         <v>58013</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>87126.20322121105</v>
       </c>
@@ -2808,7 +3161,7 @@
         <v>87126</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>81029.709534846101</v>
       </c>
@@ -2817,7 +3170,7 @@
         <v>81029</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>45168.788882390676</v>
       </c>
@@ -2826,7 +3179,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>42456.005191033604</v>
       </c>
@@ -2835,7 +3188,7 @@
         <v>42456</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7410.3229234455002</v>
       </c>
@@ -2844,7 +3197,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>82829.411503642143</v>
       </c>
@@ -2853,7 +3206,7 @@
         <v>82829</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>75877.983480683586</v>
       </c>
@@ -2862,7 +3215,7 @@
         <v>75877</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>44300.117384276586</v>
       </c>
@@ -2871,7 +3224,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10415.032462143126</v>
       </c>
@@ -2880,7 +3233,7 @@
         <v>10415</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61425.936850676844</v>
       </c>
@@ -2889,7 +3242,7 @@
         <v>61425</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82687.266789440022</v>
       </c>
@@ -2898,7 +3251,7 @@
         <v>82687</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>53817.987462931153</v>
       </c>
@@ -2907,7 +3260,7 @@
         <v>53817</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>48878.523104463413</v>
       </c>
@@ -2916,7 +3269,7 @@
         <v>48878</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>97579.76223590989</v>
       </c>
@@ -2925,7 +3278,7 @@
         <v>97579</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>36006.25854982937</v>
       </c>
@@ -2934,7 +3287,7 @@
         <v>36006</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>43215.9508324216</v>
       </c>
@@ -2943,7 +3296,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>51042.266231453446</v>
       </c>
@@ -2952,7 +3305,7 @@
         <v>51042</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>58601.803163187418</v>
       </c>
@@ -2961,7 +3314,7 @@
         <v>58601</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2690.4289856906294</v>
       </c>
@@ -2970,7 +3323,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>97005.121363360813</v>
       </c>
@@ -2979,7 +3332,7 @@
         <v>97005</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13427.909733494504</v>
       </c>
@@ -2988,7 +3341,7 @@
         <v>13427</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6182.6796464555018</v>
       </c>
@@ -2997,7 +3350,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>90587.794264711178</v>
       </c>
@@ -3006,7 +3359,7 @@
         <v>90587</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>97586.235789263446</v>
       </c>
@@ -3015,7 +3368,7 @@
         <v>97586</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>24886.634720023103</v>
       </c>
@@ -3024,7 +3377,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>52887.569310359395</v>
       </c>
@@ -3033,7 +3386,7 @@
         <v>52887</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>34590.811866865821</v>
       </c>
@@ -3042,7 +3395,7 @@
         <v>34590</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74588.507872948045</v>
       </c>
@@ -3051,7 +3404,7 @@
         <v>74588</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>97325.159893339049</v>
       </c>
@@ -3060,7 +3413,7 @@
         <v>97325</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>77965.223248994429</v>
       </c>
@@ -3069,7 +3422,7 @@
         <v>77965</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>66102.929812011833</v>
       </c>
@@ -3078,7 +3431,7 @@
         <v>66102</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>65782.623508516117</v>
       </c>
@@ -3087,7 +3440,7 @@
         <v>65782</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>23144.45655015279</v>
       </c>
@@ -3096,7 +3449,7 @@
         <v>23144</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>75623.135161035476</v>
       </c>
@@ -3105,7 +3458,7 @@
         <v>75623</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17564.594911488475</v>
       </c>
@@ -3114,7 +3467,7 @@
         <v>17564</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>94888.874314319546</v>
       </c>
@@ -3123,7 +3476,7 @@
         <v>94888</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>51540.25894593721</v>
       </c>
@@ -3132,7 +3485,7 @@
         <v>51540</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14226.594343313836</v>
       </c>
@@ -3141,7 +3494,7 @@
         <v>14226</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>71833.82269655852</v>
       </c>
@@ -3150,7 +3503,7 @@
         <v>71833</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>78013.057277116794</v>
       </c>
@@ -3159,7 +3512,7 @@
         <v>78013</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>77439.767728020277</v>
       </c>
@@ -3168,7 +3521,7 @@
         <v>77439</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4960.5035406993902</v>
       </c>
@@ -3177,7 +3530,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>87984.682006818417</v>
       </c>
@@ -3186,7 +3539,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>80321.569296470392</v>
       </c>
@@ -3195,7 +3548,7 @@
         <v>80321</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96912.665672617091</v>
       </c>
@@ -3204,7 +3557,7 @@
         <v>96912</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14910.917910514332</v>
       </c>
@@ -3213,7 +3566,7 @@
         <v>14910</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14131.036129819329</v>
       </c>
@@ -3222,7 +3575,7 @@
         <v>14131</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>84384.844646975922</v>
       </c>
@@ -3231,7 +3584,7 @@
         <v>84384</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>70442.041604390281</v>
       </c>
@@ -3240,7 +3593,7 @@
         <v>70442</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>22288.263003134824</v>
       </c>
@@ -3249,7 +3602,7 @@
         <v>22288</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>67109.733146048005</v>
       </c>
@@ -3258,7 +3611,7 @@
         <v>67109</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>36935.130324631995</v>
       </c>
@@ -3267,7 +3620,7 @@
         <v>36935</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>54265.428673078721</v>
       </c>
@@ -3276,7 +3629,7 @@
         <v>54265</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7430.5101295809473</v>
       </c>
@@ -3285,7 +3638,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>25310.753281827812</v>
       </c>
@@ -3294,7 +3647,7 @@
         <v>25310</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>30156.858989299973</v>
       </c>
@@ -3303,7 +3656,7 @@
         <v>30156</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>34030.380057736664</v>
       </c>
@@ -3312,7 +3665,7 @@
         <v>34030</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16839.155173732401</v>
       </c>
@@ -3321,7 +3674,7 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>75674.20126657837</v>
       </c>
@@ -3330,7 +3683,7 @@
         <v>75674</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>58625.102814172569</v>
       </c>
@@ -3339,7 +3692,7 @@
         <v>58625</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>93926.965779132268</v>
       </c>
@@ -3348,7 +3701,7 @@
         <v>93926</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>88764.497619739399</v>
       </c>
@@ -3357,7 +3710,7 @@
         <v>88764</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24792.759050075729</v>
       </c>
@@ -3366,7 +3719,7 @@
         <v>24792</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10059.314834122857</v>
       </c>
@@ -3375,7 +3728,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>86624.468310217955</v>
       </c>
@@ -3384,7 +3737,7 @@
         <v>86624</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13908.15808844349</v>
       </c>
@@ -3393,7 +3746,7 @@
         <v>13908</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>50152.946027322752</v>
       </c>
@@ -3402,7 +3755,7 @@
         <v>50152</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11700.283823209335</v>
       </c>
@@ -3411,7 +3764,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>45898.397375675093</v>
       </c>
@@ -3420,7 +3773,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>83131.516901777766</v>
       </c>
@@ -3429,7 +3782,7 @@
         <v>83131</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14127.75341290209</v>
       </c>
@@ -3438,7 +3791,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>80057.111039240466</v>
       </c>
@@ -3447,7 +3800,7 @@
         <v>80057</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>69296.127400885525</v>
       </c>
@@ -3456,7 +3809,7 @@
         <v>69296</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23421.686166829848</v>
       </c>
@@ -3465,7 +3818,7 @@
         <v>23421</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7815.4060207746843</v>
       </c>
@@ -3474,7 +3827,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>74632.255946479781</v>
       </c>
@@ -3483,7 +3836,7 @@
         <v>74632</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9935.5728990786811</v>
       </c>
@@ -3492,7 +3845,7 @@
         <v>9935</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>50400.091548418546</v>
       </c>
@@ -3501,7 +3854,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2075.6327693410294</v>
       </c>
@@ -3510,7 +3863,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>63861.660695589184</v>
       </c>
@@ -3519,7 +3872,7 @@
         <v>63861</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>34243.397646681326</v>
       </c>
@@ -3528,7 +3881,7 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>69249.179075456675</v>
       </c>
@@ -3537,7 +3890,7 @@
         <v>69249</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>80723.059347231654</v>
       </c>
@@ -3546,7 +3899,7 @@
         <v>80723</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>80547.5124360388</v>
       </c>
@@ -3555,7 +3908,7 @@
         <v>80547</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>41246.104020660692</v>
       </c>
@@ -3564,7 +3917,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>58619.069425412781</v>
       </c>
@@ -3573,7 +3926,7 @@
         <v>58619</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>94525.713028868835</v>
       </c>
@@ -3582,7 +3935,7 @@
         <v>94525</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16718.727013399304</v>
       </c>
@@ -3591,7 +3944,7 @@
         <v>16718</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>80809.887586923185</v>
       </c>
@@ -3600,7 +3953,7 @@
         <v>80809</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15034.709451022565</v>
       </c>
@@ -3609,7 +3962,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>63692.752994289294</v>
       </c>
@@ -3618,7 +3971,7 @@
         <v>63692</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>28827.689524382404</v>
       </c>
@@ -3627,7 +3980,7 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>43368.179297381685</v>
       </c>
@@ -3636,7 +3989,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>39198.449992319853</v>
       </c>
@@ -3645,7 +3998,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6854.6273491659094</v>
       </c>
@@ -3654,7 +4007,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>17025.408993917245</v>
       </c>
@@ -3663,7 +4016,7 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1287.1296753693696</v>
       </c>
@@ -3672,7 +4025,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>45561.448648873338</v>
       </c>
@@ -3681,7 +4034,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>30191.84490753747</v>
       </c>
@@ -3690,7 +4043,7 @@
         <v>30191</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>723.65443190238739</v>
       </c>
@@ -3699,7 +4052,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>31725.365197473609</v>
       </c>
@@ -3708,7 +4061,7 @@
         <v>31725</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>90412.273994321949</v>
       </c>
@@ -3717,7 +4070,7 @@
         <v>90412</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>15537.954717696379</v>
       </c>
@@ -3726,7 +4079,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15965.010411784875</v>
       </c>
@@ -3735,7 +4088,7 @@
         <v>15965</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>26650.709793042792</v>
       </c>
@@ -3744,7 +4097,7 @@
         <v>26650</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5348.7686809852612</v>
       </c>
@@ -3753,7 +4106,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>92679.114926423543</v>
       </c>
@@ -3762,7 +4115,7 @@
         <v>92679</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>36036.550215470255</v>
       </c>
@@ -3771,7 +4124,7 @@
         <v>36036</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25918.715552727412</v>
       </c>
@@ -3780,7 +4133,7 @@
         <v>25918</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>36771.430152066554</v>
       </c>
@@ -3789,7 +4142,7 @@
         <v>36771</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>34063.26860984823</v>
       </c>
@@ -3798,7 +4151,7 @@
         <v>34063</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>77110.997318459238</v>
       </c>
@@ -3807,7 +4160,7 @@
         <v>77110</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>49619.076552038896</v>
       </c>
@@ -3816,7 +4169,7 @@
         <v>49619</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8602.3956957278497</v>
       </c>
@@ -3825,7 +4178,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>73901.313529055231</v>
       </c>
@@ -3834,7 +4187,7 @@
         <v>73901</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>33119.201669857823</v>
       </c>
@@ -3843,7 +4196,7 @@
         <v>33119</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>12425.036633837493</v>
       </c>
@@ -3852,7 +4205,7 @@
         <v>12425</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>68275.026412995896</v>
       </c>
@@ -3861,7 +4214,7 @@
         <v>68275</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>71936.333754470572</v>
       </c>
@@ -3870,7 +4223,7 @@
         <v>71936</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>26983.298178496163</v>
       </c>
@@ -3879,7 +4232,7 @@
         <v>26983</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17644.139096527655</v>
       </c>
@@ -3888,7 +4241,7 @@
         <v>17644</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>91428.238696271015</v>
       </c>
@@ -3897,7 +4250,7 @@
         <v>91428</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>97630.113595432544</v>
       </c>
@@ -3906,7 +4259,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>32314.77970899922</v>
       </c>
@@ -3915,7 +4268,7 @@
         <v>32314</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>22826.538446651302</v>
       </c>
@@ -3924,7 +4277,7 @@
         <v>22826</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>36649.81319769226</v>
       </c>
@@ -3933,7 +4286,7 @@
         <v>36649</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>25554.118455385942</v>
       </c>
@@ -3942,7 +4295,7 @@
         <v>25554</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>27950.948397941822</v>
       </c>
@@ -3951,7 +4304,7 @@
         <v>27950</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>46951.960596533128</v>
       </c>
@@ -3960,7 +4313,7 @@
         <v>46951</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>98393.108847915384</v>
       </c>
@@ -3969,7 +4322,7 @@
         <v>98393</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19285.99226999862</v>
       </c>
@@ -3978,7 +4331,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>90056.90103649201</v>
       </c>
@@ -3987,7 +4340,7 @@
         <v>90056</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>58278.447137101517</v>
       </c>
@@ -3996,7 +4349,7 @@
         <v>58278</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>55295.888371070265</v>
       </c>
@@ -4005,7 +4358,7 @@
         <v>55295</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20869.390204355874</v>
       </c>
@@ -4014,7 +4367,7 @@
         <v>20869</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>44110.966332042924</v>
       </c>
@@ -4023,7 +4376,7 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>74275.268667415425</v>
       </c>
@@ -4032,7 +4385,7 @@
         <v>74275</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>23836.502703941333</v>
       </c>
@@ -4041,7 +4394,7 @@
         <v>23836</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>83625.662905051533</v>
       </c>
@@ -4050,7 +4403,7 @@
         <v>83625</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>41800.652907886259</v>
       </c>
@@ -4059,7 +4412,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13720.06253475686</v>
       </c>
@@ -4068,7 +4421,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>34189.616291840422</v>
       </c>
@@ -4077,7 +4430,7 @@
         <v>34189</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>45918.533751532472</v>
       </c>
@@ -4086,7 +4439,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>22319.956434137923</v>
       </c>
@@ -4095,7 +4448,7 @@
         <v>22319</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>79623.773262822142</v>
       </c>
@@ -4104,7 +4457,7 @@
         <v>79623</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>17592.563157581899</v>
       </c>
@@ -4113,7 +4466,7 @@
         <v>17592</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>52233.614548238562</v>
       </c>
@@ -4122,7 +4475,7 @@
         <v>52233</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>23833.036027939757</v>
       </c>
@@ -4131,7 +4484,7 @@
         <v>23833</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10320.315243259947</v>
       </c>
@@ -4140,7 +4493,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2865.9539273261812</v>
       </c>
@@ -4149,7 +4502,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>58655.534068860885</v>
       </c>
@@ -4158,7 +4511,7 @@
         <v>58655</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5577.5282291355306</v>
       </c>
@@ -4167,7 +4520,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>87992.820492776096</v>
       </c>
@@ -4176,7 +4529,7 @@
         <v>87992</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7773.6344232263718</v>
       </c>
@@ -4185,7 +4538,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>99733.451136215022</v>
       </c>
@@ -4194,7 +4547,7 @@
         <v>99733</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>73215.497533033573</v>
       </c>
@@ -4203,7 +4556,7 @@
         <v>73215</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20003.548188428187</v>
       </c>
@@ -4212,7 +4565,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>42074.421487865329</v>
       </c>
@@ -4221,7 +4574,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>49992.65689436144</v>
       </c>
@@ -4230,7 +4583,7 @@
         <v>49992</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28811.186250378607</v>
       </c>
@@ -4239,7 +4592,7 @@
         <v>28811</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>37629.29652922196</v>
       </c>
@@ -4248,7 +4601,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>18597.958689155203</v>
       </c>
@@ -4257,7 +4610,7 @@
         <v>18597</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>74771.743967124465</v>
       </c>
@@ -4266,7 +4619,7 @@
         <v>74771</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>18505.157022629537</v>
       </c>
@@ -4275,7 +4628,7 @@
         <v>18505</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>40837.838489180409</v>
       </c>
@@ -4284,7 +4637,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>36857.810670374689</v>
       </c>
@@ -4293,7 +4646,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>71043.593278018641</v>
       </c>
@@ -4302,7 +4655,7 @@
         <v>71043</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>41147.906864462078</v>
       </c>
@@ -4311,7 +4664,7 @@
         <v>41147</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>91796.858657704506</v>
       </c>
@@ -4320,7 +4673,7 @@
         <v>91796</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>11938.644574370815</v>
       </c>
@@ -4329,7 +4682,7 @@
         <v>11938</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>6003.3101379928567</v>
       </c>
@@ -4338,7 +4691,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>95965.014660441011</v>
       </c>
@@ -4347,7 +4700,7 @@
         <v>95965</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>68490.848299633784</v>
       </c>
@@ -4356,7 +4709,7 @@
         <v>68490</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>90741.745359525172</v>
       </c>
@@ -4365,7 +4718,7 @@
         <v>90741</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>68062.781646417119</v>
       </c>
@@ -4374,7 +4727,7 @@
         <v>68062</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>55836.217319100404</v>
       </c>
@@ -4383,7 +4736,7 @@
         <v>55836</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>59871.156294423388</v>
       </c>
@@ -4392,7 +4745,7 @@
         <v>59871</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>40977.126475243895</v>
       </c>
@@ -4401,7 +4754,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>92523.482789148504</v>
       </c>
@@ -4410,7 +4763,7 @@
         <v>92523</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>51926.606007173745</v>
       </c>
@@ -4419,7 +4772,7 @@
         <v>51926</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>75879.254526608522</v>
       </c>
@@ -4428,7 +4781,7 @@
         <v>75879</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>66565.020178455467</v>
       </c>
@@ -4437,7 +4790,7 @@
         <v>66565</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>88703.913962080507</v>
       </c>
@@ -4446,7 +4799,7 @@
         <v>88703</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>17351.203406346995</v>
       </c>
@@ -4455,7 +4808,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>77762.702272033668</v>
       </c>
@@ -4464,7 +4817,7 @@
         <v>77762</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>23815.453213098281</v>
       </c>
@@ -4473,7 +4826,7 @@
         <v>23815</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>7995.2506402675817</v>
       </c>
@@ -4482,7 +4835,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>85516.319690385761</v>
       </c>
@@ -4491,7 +4844,7 @@
         <v>85516</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>48146.661430983062</v>
       </c>
@@ -4500,7 +4853,7 @@
         <v>48146</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>23621.589310040214</v>
       </c>
@@ -4509,7 +4862,7 @@
         <v>23621</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>12129.127820619213</v>
       </c>
@@ -4518,7 +4871,7 @@
         <v>12129</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>44334.79571943971</v>
       </c>
@@ -4527,7 +4880,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>38688.113542402338</v>
       </c>
@@ -4536,7 +4889,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>37594.625542838112</v>
       </c>
@@ -4545,7 +4898,7 @@
         <v>37594</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>23875.688489806678</v>
       </c>
@@ -4554,7 +4907,7 @@
         <v>23875</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18114.750561363657</v>
       </c>
@@ -4563,7 +4916,7 @@
         <v>18114</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>66649.39552351326</v>
       </c>
@@ -4572,7 +4925,7 @@
         <v>66649</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>60100.229387221603</v>
       </c>
@@ -4581,7 +4934,7 @@
         <v>60100</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>27274.369603890547</v>
       </c>
@@ -4590,7 +4943,7 @@
         <v>27274</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>95584.308704601659</v>
       </c>
@@ -4599,7 +4952,7 @@
         <v>95584</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>50957.273668741502</v>
       </c>
@@ -4608,7 +4961,7 @@
         <v>50957</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>96182.890675666829</v>
       </c>
@@ -4617,7 +4970,7 @@
         <v>96182</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>22314.490397255726</v>
       </c>
@@ -4626,7 +4979,7 @@
         <v>22314</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>56931.606290704374</v>
       </c>
@@ -4635,7 +4988,7 @@
         <v>56931</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>26763.54488862769</v>
       </c>
@@ -4644,7 +4997,7 @@
         <v>26763</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>53172.480528133034</v>
       </c>
@@ -4653,7 +5006,7 @@
         <v>53172</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>18276.100351476933</v>
       </c>
@@ -4662,7 +5015,7 @@
         <v>18276</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>88546.062447151213</v>
       </c>
@@ -4671,7 +5024,7 @@
         <v>88546</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>41890.814592036033</v>
       </c>
@@ -4680,7 +5033,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1015.8693269247232</v>
       </c>
@@ -4689,7 +5042,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>88456.372300393865</v>
       </c>
@@ -4698,7 +5051,7 @@
         <v>88456</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>5899.506621627459</v>
       </c>
@@ -4707,7 +5060,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>41669.910873002671</v>
       </c>
@@ -4716,7 +5069,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6809.2519445362432</v>
       </c>
@@ -4725,7 +5078,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>77530.764231503519</v>
       </c>
@@ -4734,7 +5087,7 @@
         <v>77530</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>77969.917463902966</v>
       </c>
@@ -4743,7 +5096,7 @@
         <v>77969</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>9305.6326264232212</v>
       </c>
@@ -4752,7 +5105,7 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>20191.389690264437</v>
       </c>
@@ -4761,7 +5114,7 @@
         <v>20191</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>25698.182383066247</v>
       </c>
@@ -4770,7 +5123,7 @@
         <v>25698</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>38005.373507335629</v>
       </c>
@@ -4779,7 +5132,7 @@
         <v>38005</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>12720.923371527293</v>
       </c>
@@ -4788,7 +5141,7 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>85789.567744955129</v>
       </c>
@@ -4797,7 +5150,7 @@
         <v>85789</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>83968.936756557843</v>
       </c>
@@ -4806,7 +5159,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>41297.236019242104</v>
       </c>
@@ -4815,7 +5168,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>73460.027936654078</v>
       </c>
@@ -4824,7 +5177,7 @@
         <v>73460</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>55530.250225802811</v>
       </c>
@@ -4833,7 +5186,7 @@
         <v>55530</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>93474.37991250513</v>
       </c>
@@ -4842,7 +5195,7 @@
         <v>93474</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8706.9564363371774</v>
       </c>
@@ -4851,7 +5204,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>71873.417734068396</v>
       </c>
@@ -4860,7 +5213,7 @@
         <v>71873</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>57132.501048461636</v>
       </c>
@@ -4869,7 +5222,7 @@
         <v>57132</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>32395.034137952571</v>
       </c>
@@ -4878,7 +5231,7 @@
         <v>32395</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>49924.6673711533</v>
       </c>
@@ -4887,7 +5240,7 @@
         <v>49924</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>88913.772796400066</v>
       </c>
@@ -4896,7 +5249,7 @@
         <v>88913</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>67901.72473364092</v>
       </c>
@@ -4905,7 +5258,7 @@
         <v>67901</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>92105.732727758324</v>
       </c>
@@ -4914,7 +5267,7 @@
         <v>92105</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>7335.2100433925598</v>
       </c>
@@ -4923,7 +5276,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>93581.517117100753</v>
       </c>
@@ -4932,7 +5285,7 @@
         <v>93581</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>65908.355032312727</v>
       </c>
@@ -4941,7 +5294,7 @@
         <v>65908</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>32978.494497995605</v>
       </c>
@@ -4950,7 +5303,7 @@
         <v>32978</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>19942.376500342129</v>
       </c>
@@ -4959,7 +5312,7 @@
         <v>19942</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>9852.6389863571876</v>
       </c>
@@ -4968,7 +5321,7 @@
         <v>9852</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>63631.541357357368</v>
       </c>
@@ -4977,7 +5330,7 @@
         <v>63631</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>37734.315372340512</v>
       </c>
@@ -4986,7 +5339,7 @@
         <v>37734</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>24072.038686568285</v>
       </c>
@@ -4995,7 +5348,7 @@
         <v>24072</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>76146.190106123555</v>
       </c>
@@ -5004,7 +5357,7 @@
         <v>76146</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>6775.3630394586371</v>
       </c>
@@ -5013,7 +5366,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>36531.791413839928</v>
       </c>
@@ -5036,1806 +5389,1806 @@
       <selection sqref="A1:A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>78558.262248540108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>38120.079273117168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>66419.035097510132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>36897.436302618014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>36460.764584287921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>60213.293167504089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>56948.213590803629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>2824.6128826877602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>78851.507649586798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>36664.128333152759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>32425.960254589048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>86762.408971744735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>38634.421309827369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>44694.012436518096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7426.6793215688294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>24765.741408945672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>65306.474955072634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>95549.257300080091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>11797.409617897692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>70442.134516866179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>16553.522856839052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>84729.907959296659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>43214.072326500507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>17402.968106162509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>2267.5084239924813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>78775.241952876546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>36227.59067163174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>55160.351367313917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>38101.622559571755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>35552.686936037237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>82733.139218919576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>36591.440562676195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>29060.301118521304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>4634.3679680050709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>47844.941201940419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>70936.575244334861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>47670.529391042772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>1970.2755614332102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>74976.678416577153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>59061.586830273824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>99873.260210260458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40346.480059090063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>95093.251872774505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>88073.807392124843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>10285.696772043795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>7520.1182460078235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>8301.9917674718054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>71549.586339113463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>3718.054208969168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>31982.478772186307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>78248.860198566064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>77619.404058259257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>92092.684139384641</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>956.12831882407875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>4147.8649913892496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>31813.541815514069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>95780.161898298684</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>59721.866164567495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>44790.198484137189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>59822.79130976017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>52081.001841738042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>80523.463741624873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>65995.696990797427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>18596.934941463471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>6463.9151347552161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>24032.09283836991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>6417.7618827255146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>78178.992995280612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>821.30490560855526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68322.447830077697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>27622.344923172746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>23714.939728447771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>98620.031301621741</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>75713.715240115373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>70158.929017461502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>57908.510718691345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>90297.991774542112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>20618.545090889384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>67257.893707415642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>61855.113841227372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>12923.542220790485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>92652.804919693954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>52485.143336500951</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>20014.488050089298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>89426.123615589677</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>60657.284885355708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>66553.063391894131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>31033.462138436396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>54720.489796093476</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>24244.874965835272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>77833.979909188565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>61316.394710075903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>40187.680891163269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>96225.781211156151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>29622.543723286297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>97549.794764292586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>96187.802074633044</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>23052.123106557952</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>30369.100896164648</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>10658.772541089911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>65205.983732406101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>72399.141502919767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>7849.5518645068432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>68429.527105745074</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>7330.7945562313344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>75066.525523734075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>10548.636075032602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>77281.388169108381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>41089.06479034682</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>34403.100739087022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>89427.277964015637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>47381.373574633304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>37131.958009671464</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>89175.072855311213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>10630.857146951599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>47218.3815507037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>39818.491020849578</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>35075.932757587965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>48185.762037409666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>93188.003531166803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>59099.371413770961</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>77481.38947655134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>88860.775978866775</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>62826.410406642863</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>83516.980359059919</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>64080.293218419385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>95424.499010749016</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>29091.142313852124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>22364.118008446287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>69567.59502407597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>40425.709825883823</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>11245.537265121753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>78430.916503366971</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>76195.416912140572</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>42787.215708237592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>87303.054939132213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>87376.372898384041</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>9189.3793221451851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>58786.11225825594</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>67029.655816549464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>30777.330649799074</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>12448.490471139461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>97170.225007401939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>91051.664887151535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>1219.8380646126107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>17612.746239822096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>95995.826624788548</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>85526.679708007432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>22381.565694034867</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>28287.978756720677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>55005.647916765185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>69909.625655300493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>76568.601382129142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>18018.983197042005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>36371.550379053027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>94374.547027590146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>82030.092709438453</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>19302.746721448784</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>93279.62195853889</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>16657.376881970398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>69008.115130830425</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>79413.617248026887</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>97089.758114178243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>64520.471641047217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>24382.6660749769</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>7213.5764470186768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>20494.942923253424</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>33535.252914518111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>65986.3839611437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>99353.455080543979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>93775.715302741664</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>38766.299189765799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>36482.621060839992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>42939.766543261772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>719.11641826072344</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>57154.605982288245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>24758.263220263954</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>80732.10688521502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>83787.54982299087</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>42519.791796592297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>20043.496692719396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>3330.9838613992615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>30607.928960011333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>43629.354597202517</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>77582.33994031763</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>75626.577595923882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>57490.939988811886</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>55588.114212167136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>2416.7811845417832</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>81562.385021283611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>7410.6901125338572</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>52733.608815995438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>1105.5243479452415</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>99182.99390440312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>95516.828887970478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>7226.7256290546648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>23445.608761919368</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>31673.272253101935</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>73729.467036582675</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>3921.207554094497</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>80795.429716487764</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>3793.656294501724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>86425.903767013049</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>78901.712340357451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>22653.348746265921</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>21437.188205068614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>17183.838763527627</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>17833.330367486687</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>57440.546250180356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>75560.6333703977</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>70296.579874039773</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>5011.1949766764028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>3960.659364916397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>59701.786377652556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>83559.183932462649</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>71113.589270104101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>83386.45551273071</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>88132.411523106784</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>2745.4438140487646</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>6163.9095547515235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>55934.419053327081</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>13495.123101696905</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>16455.075982129863</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>35369.519501624782</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>50298.14338066677</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>64663.408283869219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>43537.591047773691</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>96431.622323824791</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>34204.659744380784</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>30064.165890020755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>80906.535078649031</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>69813.801015122284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>15931.378402214046</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>16143.492170760343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>95595.808511084586</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>96711.66966095363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>97667.954551012634</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>5754.9058045426982</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>35626.16617165957</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>97439.458903661347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>6263.9712296897133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>698.76040967299377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>13026.22127484796</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>47085.749570309184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>24442.955579762682</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>6718.6253287439768</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>55626.127477617338</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>32342.428673217062</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>70842.040665722801</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>27009.252156986939</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>65841.539836457159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>44285.184927479328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>73031.797794168378</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>42817.920861757229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>95345.821773678064</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>78088.539362062395</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>20384.449517122815</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>17475.140648950626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>82883.642470714098</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>64589.016883326585</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>63944.771202319629</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>70706.509822371212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>75343.586534667513</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>92742.171323688599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>94575.515955817376</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>44851.992615979951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>48275.711875276284</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>35007.98056188503</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>86761.673782457947</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>28040.387464816729</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>38712.123006189489</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>11612.17428074437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>75898.506612019904</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>21836.373873246663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>40383.190873830688</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>92496.693823826368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>16125.718592273752</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>8673.3737047975046</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>33439.546535590925</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>96580.181763415763</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>64499.452680265458</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>71570.225636071409</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>94468.878297486517</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>59408.419873383333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>38886.319284955309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>60119.960481871058</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>3278.6663548669217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>7517.2636636541056</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>2272.033678931673</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>47165.617996755915</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>7714.0938485990682</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>14049.219622256103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>32596.9760035006</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>91844.34635158263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>18468.709956239647</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>68723.518201665051</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>88666.734477637481</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>34922.282741028474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>67943.59415329757</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>40022.490110940467</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>5405.2299493573482</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>50038.240577576711</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>66912.649823850166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>91893.568492044011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>88984.885408216505</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>59936.638771609418</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>28594.910756705249</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>92182.522699167617</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>93377.035222500228</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>37956.978222061858</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>94846.987601795103</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>36165.974964035893</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>53784.173087989519</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>23723.848626279898</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>35184.020068796475</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>59602.236926222999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>44554.20496231578</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>9939.8165028463445</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>30833.604533577796</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>45387.592981800437</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>38334.208754228217</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>8347.6618126845042</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>86120.511249203963</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>13659.127291848083</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>93620.418222865701</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>43082.40001823708</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>29204.436716774839</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>92534.372984333706</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>92208.471351607019</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>42413.080793636145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>37326.837135116963</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>19509.527295082207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>30922.367885515177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>7629.7696310262509</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>1108.1699990932891</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>68354.377805375072</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>17625.017934638243</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>56385.983365880442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>29981.668794020956</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>52309.081229092291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>6819.4003564979512</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>39319.237222178446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>27154.299073035814</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>97114.475288538742</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>65073.630434357532</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>12123.766249216105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>16615.701476384304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>7645.5068585010386</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>18240.047730008137</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>28554.407125331614</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>87683.204002877523</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>39114.882979208734</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>95319.797774436738</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>54950.516297119015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>57797.810239395651</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>35648.069382576643</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>14791.971978738728</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>58784.705756710253</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>54064.312205476672</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>74161.453204294623</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>98599.018338386319</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>6174.856745112811</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>86702.729374597911</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>93474.230898349386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>64408.369743850344</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>58002.001359074842</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>6977.1288565989908</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>81412.594831006922</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>53541.262531670844</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>3146.1016405764708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>90629.724953598852</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>35711.282249293188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>29296.698888294224</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>34415.584645195398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>66820.271734708775</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>21328.232154184479</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>21503.923706081805</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>13550.512929067914</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>45594.357196199395</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>5053.3248223798564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>40620.700507316229</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>29912.376676876007</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>44223.042614164151</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>66828.904093004676</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>28634.473378857729</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>85586.049653920709</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>66101.819005269062</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>91628.026927061917</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>44938.038209089704</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>19048.518392975366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>98268.955836415174</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>81412.418757596432</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>25126.689903226008</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>56020.791814022065</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>38121.152418289319</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>88356.746521541907</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>54230.51686926563</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>76329.433437974032</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>7945.4466570610839</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>28516.813500924854</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>40561.577635887261</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>96359.169043628397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>91355.455164157713</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>3753.9035594990169</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>38078.000987480496</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>26393.037249611563</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>55572.409178564354</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>6270.4505898789175</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>77329.938410868213</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>4853.7896768126029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>84451.483624737593</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>30658.407735704262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>17412.637536633923</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>48174.014339270208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>30869.144564450533</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>23203.11710986208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>47664.377431118999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>89241.870707348688</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>51829.871382963363</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>72955.812015559117</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>93891.678528466073</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>46492.767020112202</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>95737.028381173135</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>66211.242711101353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>88800.523486757214</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>55864.674072402784</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>98080.890396313305</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>95913.767342088162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>84185.389113308964</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>55224.578246802899</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>55162.987966996705</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>88781.418124705029</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>9274.1945419422045</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>46003.78465644399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>89169.7549177404</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>82525.636527848721</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>23113.587936383283</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>36859.557891242388</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>14952.891653340394</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>96508.026273061318</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>20808.457751904374</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>22970.52263386199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>41096.276592261172</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>3892.3330850986317</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>66350.600795571809</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>32260.874952237027</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>52247.686238020273</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>25197.90684541162</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>68695.880910878346</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>77677.324049831383</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>59257.165554094383</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>70790.50916116884</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>39557.778603891828</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>51442.856384552382</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>56558.984621262302</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>16247.115536193136</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>42018.764342529816</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>30047.135158470552</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>78464.130362054857</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>82151.898143501807</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>81378.687708905098</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>67858.557472488013</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>29987.957326693791</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>17757.638795555664</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>97600.854416940347</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>84558.298382090652</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>68011.74532877517</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>75572.999171182251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>39354.643573677116</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>2700.8823088953691</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>86119.402545445249</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>5761.1449139674751</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>67590.286200148199</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>81517.257199762666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>19735.765403744819</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>55768.610295430262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>1850.0063421065693</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>61238.083510567121</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>33092.817266437734</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>96980.226715197277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>87762.542093142984</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>7342.0264687767303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>66199.637642447022</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>35772.166174508915</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>74728.743597001041</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>33395.668871329952</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>87712.507760874374</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>14161.841410025278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>82828.619695688089</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>77871.219097470297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>27505.34558327603</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>83126.594702170827</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>44987.122857024544</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>4645.9882179532897</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>43780.252352903844</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>63940.620832052839</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>35505.039594276153</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>30474.700528272526</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>95691.813922617439</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>6090.5161952104045</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>60001.221414101325</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>93840.346676554822</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>74668.052826472893</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>34670.464343428721</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>92684.039666177036</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>90898.712975472154</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>87726.101814555877</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>43858.063586972276</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>15458.372804300079</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>26608.391158330825</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>94584.086207966742</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>11525.947023385641</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>72708.942774064402</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>61399.044939039151</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>87229.294539890107</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>82398.180209832339</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>31341.719610897766</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>54773.059608040916</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>14786.840688019742</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>34153.228865396588</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>66944.399384420714</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>78239.835496558037</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>84695.994723291064</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>72175.718617623177</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>19207.807951573264</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>17295.40745994994</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>44711.782805171497</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>72825.422947292638</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>61189.429455317433</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>82255.314057179843</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>28078.5047951167</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>47736.893705585346</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>18837.187619819262</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>72472.475966083701</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>94533.683892258981</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>66745.667509155057</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>27989.717187332462</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>65911.235112142036</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>12852.314370803586</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>66087.485839363959</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>62229.720976642522</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
+        <v>7063.2266534864766</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>29085.293786420818</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>99746.433352463355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>94562.114485969039</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>56919.221749890734</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>24012.243457380235</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>40394.941099183881</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>42673.553529361794</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
+        <v>74706.318994079047</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>83784.770246450731</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+        <v>39853.216130302259</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>4768.0479426757347</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
+        <v>13488.706869682876</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>47125.84252261003</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
+        <v>58448.749136200116</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>82948.046295896915</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>24543.815693203862</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>21451.129944866454</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>83638.413421729914</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>67927.732247084801</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
+        <v>4073.7244698482168</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>67449.017852623147</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>27822.395362111052</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>51336.054769044269</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>79012.311325501665</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>98922.012411751391</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>57404.861768553375</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>18749.287988108277</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>5675.5297798805395</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>41239.307924402005</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>22729.960933276427</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>60744.566998569651</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>82866.736177261278</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>52533.841085553926</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>15051.385545403129</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>59364.527762008067</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>12421.726238070585</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>97717.403844202898</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
+        <v>68579.0055509784</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>32801.542528909609</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>42084.700717781954</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>59781.415387863337</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>39060.453083498411</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>137.4524848039793</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>4602.953207012617</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>45979.617331793655</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>19831.861716154897</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>31540.348483764625</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>37949.363409906648</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>70979.676896423043</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>47668.852325612534</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>50871.31049835185</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>17317.842955806907</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>70387.442647539865</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>98155.627250343037</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>24501.387199704761</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>13838.979409774987</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>1591.2543738997642</v>
+        <v>66869.223324232371</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccloz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650DA23D-D619-4E6F-844F-C7BB24A443C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21165CD-B972-4796-9FD3-9026848767AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
   <si>
     <t>invitado</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>Tío Antonio Fernández Marrufo</t>
+  </si>
+  <si>
+    <t>Alexis Maldonado Vásquez</t>
+  </si>
+  <si>
+    <t>BC0000053</t>
   </si>
 </sst>
 </file>
@@ -772,11 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -857,12 +862,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">CONCATENATE(E3,F3)</f>
@@ -892,7 +897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -927,7 +932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -962,7 +967,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1142,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1212,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1487,7 +1492,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1557,7 +1562,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2222,7 +2227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2257,7 +2262,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -2432,7 +2437,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2467,7 +2472,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2607,7 +2612,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -2642,26 +2647,51 @@
         <v>116</v>
       </c>
     </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ref="C54" si="4">CONCATENATE(E54,F54)</f>
+        <v>BC000005387126</v>
+      </c>
+      <c r="D54">
+        <v>968238265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54">
+        <f>Hoja2!B54</f>
+        <v>87126</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" ref="H54" si="5">CONCATENATE(G54,C54)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005387126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>113</v>
+      </c>
+      <c r="J54" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J53" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Braulio"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Familia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{13788AC9-6D19-49A5-9426-2415D075C294}"/>
     <hyperlink ref="G3:G53" r:id="rId2" display="https://bvasquez-code.github.io/AppWedding/?id=" xr:uid="{D11B3EBB-EBFB-4F3F-9B0C-7B65325CA175}"/>
+    <hyperlink ref="G54" r:id="rId3" xr:uid="{2E0D1352-D939-471C-AD35-0E844912A9E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5394,1801 +5424,1801 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>38120.079273117168</v>
+        <v>90736.860033971199</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>36897.436302618014</v>
+        <v>2503.8012780059239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>60213.293167504089</v>
+        <v>83118.351738091122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>2824.6128826877602</v>
+        <v>9337.9864854793432</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>36664.128333152759</v>
+        <v>60575.81080335813</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>86762.408971744735</v>
+        <v>83365.633348564254</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>44694.012436518096</v>
+        <v>62648.281861040952</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>24765.741408945672</v>
+        <v>41470.568991551649</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>95549.257300080091</v>
+        <v>47715.944672102298</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>70442.134516866179</v>
+        <v>775.90278926115138</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>84729.907959296659</v>
+        <v>72258.437013518604</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>17402.968106162509</v>
+        <v>61155.55662353697</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>78775.241952876546</v>
+        <v>36223.096133193489</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>55160.351367313917</v>
+        <v>31751.156397744275</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>35552.686936037237</v>
+        <v>32301.752060134149</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>36591.440562676195</v>
+        <v>3094.3110719305332</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>4634.3679680050709</v>
+        <v>23381.876534606617</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>70936.575244334861</v>
+        <v>91151.537542923295</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>1970.2755614332102</v>
+        <v>20499.243401657553</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>59061.586830273824</v>
+        <v>25511.11942172244</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>40346.480059090063</v>
+        <v>86810.714742376673</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>88073.807392124843</v>
+        <v>33086.421342993111</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>7520.1182460078235</v>
+        <v>31898.126775060264</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>71549.586339113463</v>
+        <v>46251.289426291441</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>31982.478772186307</v>
+        <v>98567.246015143945</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>77619.404058259257</v>
+        <v>75745.680001250643</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>956.12831882407875</v>
+        <v>77879.019956473203</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>31813.541815514069</v>
+        <v>97941.653442177907</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>59721.866164567495</v>
+        <v>64322.26819359287</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>59822.79130976017</v>
+        <v>11928.515757656443</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>80523.463741624873</v>
+        <v>52095.412220635451</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>18596.934941463471</v>
+        <v>43488.166253795527</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>24032.09283836991</v>
+        <v>69733.376332985485</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>78178.992995280612</v>
+        <v>40724.253090965947</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>68322.447830077697</v>
+        <v>73733.550788772292</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>23714.939728447771</v>
+        <v>86049.752397571239</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>75713.715240115373</v>
+        <v>32414.982809795125</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>57908.510718691345</v>
+        <v>93121.815205855193</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>20618.545090889384</v>
+        <v>22342.315567976857</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>61855.113841227372</v>
+        <v>91012.798249258311</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>92652.804919693954</v>
+        <v>8769.7523532735522</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>20014.488050089298</v>
+        <v>35516.003024586462</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>60657.284885355708</v>
+        <v>64276.287733256097</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>31033.462138436396</v>
+        <v>29144.609499746875</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>24244.874965835272</v>
+        <v>88195.892734006586</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>61316.394710075903</v>
+        <v>72187.51388134736</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>96225.781211156151</v>
+        <v>29924.088588850162</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>97549.794764292586</v>
+        <v>94310.872553092078</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>23052.123106557952</v>
+        <v>32506.760631131227</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>10658.772541089911</v>
+        <v>49505.456628064567</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>72399.141502919767</v>
+        <v>82487.117973839981</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>68429.527105745074</v>
+        <v>10923.972248296854</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>75066.525523734075</v>
+        <v>23339.585870572409</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>77281.388169108381</v>
+        <v>14862.765779725429</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>34403.100739087022</v>
+        <v>83332.522216968864</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>47381.373574633304</v>
+        <v>21594.168821377323</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>89175.072855311213</v>
+        <v>77107.558884849874</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>47218.3815507037</v>
+        <v>10301.757356551321</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>35075.932757587965</v>
+        <v>60332.672585823253</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>93188.003531166803</v>
+        <v>15585.755577295156</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>77481.38947655134</v>
+        <v>6455.9564120985624</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>62826.410406642863</v>
+        <v>98901.979418193878</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>64080.293218419385</v>
+        <v>68848.215303188204</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>29091.142313852124</v>
+        <v>83774.754406866981</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>69567.59502407597</v>
+        <v>2897.4399100831215</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>11245.537265121753</v>
+        <v>78438.678425546939</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>76195.416912140572</v>
+        <v>99861.678863374153</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>87303.054939132213</v>
+        <v>6318.6718159558786</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>9189.3793221451851</v>
+        <v>85932.703174499402</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>67029.655816549464</v>
+        <v>34479.52663072975</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>12448.490471139461</v>
+        <v>16464.335890213322</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>91051.664887151535</v>
+        <v>76170.365756500774</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>17612.746239822096</v>
+        <v>35245.469263806648</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>85526.679708007432</v>
+        <v>15074.330284963811</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>28287.978756720677</v>
+        <v>5393.9314205522669</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>69909.625655300493</v>
+        <v>25736.877030210671</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>18018.983197042005</v>
+        <v>89112.12085053316</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>94374.547027590146</v>
+        <v>64914.558864445935</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>19302.746721448784</v>
+        <v>67420.226584212272</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>16657.376881970398</v>
+        <v>14669.918883861377</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>79413.617248026887</v>
+        <v>48390.735861757406</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>64520.471641047217</v>
+        <v>31383.465903492204</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>7213.5764470186768</v>
+        <v>21380.198105787917</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>33535.252914518111</v>
+        <v>74427.696590101317</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>99353.455080543979</v>
+        <v>4009.5391804007563</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>38766.299189765799</v>
+        <v>5601.3396858580418</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>42939.766543261772</v>
+        <v>88073.593668359827</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>57154.605982288245</v>
+        <v>34401.320740336152</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>80732.10688521502</v>
+        <v>71795.369540918808</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>42519.791796592297</v>
+        <v>12199.795050675299</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>3330.9838613992615</v>
+        <v>20193.814578480706</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>43629.354597202517</v>
+        <v>21811.544050686203</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>75626.577595923882</v>
+        <v>36173.637729452603</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>55588.114212167136</v>
+        <v>74894.794649724208</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>81562.385021283611</v>
+        <v>86230.975923387945</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>52733.608815995438</v>
+        <v>27930.6716837163</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>99182.99390440312</v>
+        <v>48886.863804330147</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>7226.7256290546648</v>
+        <v>57209.307107347871</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>31673.272253101935</v>
+        <v>29954.171973717701</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>3921.207554094497</v>
+        <v>79793.409423418343</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>3793.656294501724</v>
+        <v>90316.067698339291</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>78901.712340357451</v>
+        <v>25034.000936731292</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>21437.188205068614</v>
+        <v>28843.090808524696</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>17833.330367486687</v>
+        <v>35237.528769875724</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>75560.6333703977</v>
+        <v>20422.708790197041</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>5011.1949766764028</v>
+        <v>79901.952483807341</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>59701.786377652556</v>
+        <v>46985.98765983757</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>71113.589270104101</v>
+        <v>89141.990021874779</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>88132.411523106784</v>
+        <v>2287.8075046803283</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>6163.9095547515235</v>
+        <v>53637.946481309671</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>13495.123101696905</v>
+        <v>91556.238241418992</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>35369.519501624782</v>
+        <v>2847.1606511998202</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>64663.408283869219</v>
+        <v>25600.711771817209</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>96431.622323824791</v>
+        <v>2170.8783392761056</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>30064.165890020755</v>
+        <v>23172.580568463753</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>69813.801015122284</v>
+        <v>73827.591523284835</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>16143.492170760343</v>
+        <v>23102.134828154609</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>96711.66966095363</v>
+        <v>33541.630201496395</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>5754.9058045426982</v>
+        <v>35601.884466780641</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>97439.458903661347</v>
+        <v>5528.6872369361809</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>698.76040967299377</v>
+        <v>14714.529861269664</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>47085.749570309184</v>
+        <v>21251.048971037912</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>6718.6253287439768</v>
+        <v>90579.216427302832</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>32342.428673217062</v>
+        <v>62547.540757594164</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>27009.252156986939</v>
+        <v>493.53992509139078</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>44285.184927479328</v>
+        <v>37634.676485357973</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>42817.920861757229</v>
+        <v>30259.029954207839</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>78088.539362062395</v>
+        <v>91225.259627760621</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>17475.140648950626</v>
+        <v>17740.510554417564</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>64589.016883326585</v>
+        <v>20278.492139505201</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>70706.509822371212</v>
+        <v>20624.796747132725</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>92742.171323688599</v>
+        <v>23166.437994524404</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>44851.992615979951</v>
+        <v>74676.819068800847</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>35007.98056188503</v>
+        <v>14266.288309148744</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>28040.387464816729</v>
+        <v>85581.104374570408</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>11612.17428074437</v>
+        <v>84135.038064638473</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>21836.373873246663</v>
+        <v>22602.778082316167</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>92496.693823826368</v>
+        <v>52188.393760384773</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>8673.3737047975046</v>
+        <v>71469.431805900007</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>96580.181763415763</v>
+        <v>52820.887272854256</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>71570.225636071409</v>
+        <v>5818.7572850221577</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>59408.419873383333</v>
+        <v>82382.900070252712</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>60119.960481871058</v>
+        <v>77822.120921208101</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>7517.2636636541056</v>
+        <v>77720.740018211422</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>47165.617996755915</v>
+        <v>67330.623984737133</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>14049.219622256103</v>
+        <v>25591.080188875192</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>91844.34635158263</v>
+        <v>56477.826709065768</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>68723.518201665051</v>
+        <v>30485.846102638581</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>34922.282741028474</v>
+        <v>29282.888295383193</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>40022.490110940467</v>
+        <v>95212.534168385639</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>50038.240577576711</v>
+        <v>86910.875828342367</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>91893.568492044011</v>
+        <v>57702.672000187697</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>59936.638771609418</v>
+        <v>6022.2908745765972</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>92182.522699167617</v>
+        <v>53914.97046772029</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>37956.978222061858</v>
+        <v>76007.354464375807</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>36165.974964035893</v>
+        <v>50177.716420648823</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>23723.848626279898</v>
+        <v>8683.8751395375002</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>59602.236926222999</v>
+        <v>31393.062222877856</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>9939.8165028463445</v>
+        <v>27831.320592099572</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>45387.592981800437</v>
+        <v>73028.194082651593</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>8347.6618126845042</v>
+        <v>3772.0854462896746</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>13659.127291848083</v>
+        <v>20975.317552304918</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>43082.40001823708</v>
+        <v>42738.895941626601</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>92534.372984333706</v>
+        <v>74617.684583386697</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>42413.080793636145</v>
+        <v>62996.799073690956</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>19509.527295082207</v>
+        <v>26214.552020151616</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>7629.7696310262509</v>
+        <v>12454.757760697266</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>68354.377805375072</v>
+        <v>28592.467988828619</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>56385.983365880442</v>
+        <v>56801.193137073693</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>52309.081229092291</v>
+        <v>3805.833594751995</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>39319.237222178446</v>
+        <v>75349.638014740442</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>97114.475288538742</v>
+        <v>56927.124301647666</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>12123.766249216105</v>
+        <v>66065.3758292087</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>7645.5068585010386</v>
+        <v>88244.17135242738</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>28554.407125331614</v>
+        <v>9894.7036929901587</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>39114.882979208734</v>
+        <v>59072.014020463444</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>54950.516297119015</v>
+        <v>97691.926073731578</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>35648.069382576643</v>
+        <v>28585.165871896847</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>58784.705756710253</v>
+        <v>49691.544516833586</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>74161.453204294623</v>
+        <v>66452.706803833542</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>6174.856745112811</v>
+        <v>82949.163624176086</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>93474.230898349386</v>
+        <v>74097.428877572485</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>58002.001359074842</v>
+        <v>33205.926709682979</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>81412.594831006922</v>
+        <v>64743.787255370677</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>3146.1016405764708</v>
+        <v>85961.089642749153</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>35711.282249293188</v>
+        <v>22305.940779839417</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>34415.584645195398</v>
+        <v>74324.347323886861</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>21328.232154184479</v>
+        <v>42877.396543667492</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>13550.512929067914</v>
+        <v>25554.212323545533</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>5053.3248223798564</v>
+        <v>13517.569446655953</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>29912.376676876007</v>
+        <v>81323.801653193397</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>66828.904093004676</v>
+        <v>79379.861063278964</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>85586.049653920709</v>
+        <v>91722.389917640437</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>91628.026927061917</v>
+        <v>95224.07559382476</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>19048.518392975366</v>
+        <v>86732.334906064629</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>81412.418757596432</v>
+        <v>86005.974642585934</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>56020.791814022065</v>
+        <v>24880.523421107082</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>88356.746521541907</v>
+        <v>78416.346673341104</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>76329.433437974032</v>
+        <v>80631.669705524357</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>28516.813500924854</v>
+        <v>92630.356228096323</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>96359.169043628397</v>
+        <v>1519.8164219514365</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>3753.9035594990169</v>
+        <v>27530.738498697981</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>26393.037249611563</v>
+        <v>54880.619822162938</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>6270.4505898789175</v>
+        <v>97896.674501906091</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>4853.7896768126029</v>
+        <v>61428.491653964848</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>30658.407735704262</v>
+        <v>75699.809362095577</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>48174.014339270208</v>
+        <v>38539.200212812619</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>23203.11710986208</v>
+        <v>78571.482284541999</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>89241.870707348688</v>
+        <v>56996.227688696388</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>72955.812015559117</v>
+        <v>92875.15265278492</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>46492.767020112202</v>
+        <v>27648.792867251803</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>66211.242711101353</v>
+        <v>45902.267122974074</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>55864.674072402784</v>
+        <v>94158.551129644839</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>95913.767342088162</v>
+        <v>15337.461097818461</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>55224.578246802899</v>
+        <v>55309.110230702783</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>88781.418124705029</v>
+        <v>78603.565108955809</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>46003.78465644399</v>
+        <v>18837.272970604245</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>82525.636527848721</v>
+        <v>69041.247371724981</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>36859.557891242388</v>
+        <v>11851.399601397217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>96508.026273061318</v>
+        <v>18312.165825789572</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>22970.52263386199</v>
+        <v>55503.724607265256</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>3892.3330850986317</v>
+        <v>46419.60249128173</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>32260.874952237027</v>
+        <v>53791.084517675481</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>25197.90684541162</v>
+        <v>76787.422498239161</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>77677.324049831383</v>
+        <v>92033.954445302239</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>70790.50916116884</v>
+        <v>58515.389665960131</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>51442.856384552382</v>
+        <v>35584.16825849696</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>16247.115536193136</v>
+        <v>78200.785174695877</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>30047.135158470552</v>
+        <v>87471.126090596517</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>82151.898143501807</v>
+        <v>35728.988068188868</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>67858.557472488013</v>
+        <v>41413.211378591652</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>17757.638795555664</v>
+        <v>27097.428385603595</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>84558.298382090652</v>
+        <v>54442.126599526076</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>75572.999171182251</v>
+        <v>84075.291154467763</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>2700.8823088953691</v>
+        <v>33448.885960508647</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>5761.1449139674751</v>
+        <v>65702.064160220296</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>81517.257199762666</v>
+        <v>54405.380802787608</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>55768.610295430262</v>
+        <v>96321.972656819911</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>61238.083510567121</v>
+        <v>64477.486160362459</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>96980.226715197277</v>
+        <v>58873.827353960405</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>7342.0264687767303</v>
+        <v>59363.812157249529</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>35772.166174508915</v>
+        <v>73963.273065082627</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>33395.668871329952</v>
+        <v>10078.857389139994</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>14161.841410025278</v>
+        <v>82807.556000062221</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>77871.219097470297</v>
+        <v>465.04584210301789</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>83126.594702170827</v>
+        <v>60910.721585310726</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>4645.9882179532897</v>
+        <v>3998.9972589245635</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>63940.620832052839</v>
+        <v>53161.824777562775</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>30474.700528272526</v>
+        <v>29376.264811522702</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>6090.5161952104045</v>
+        <v>55083.38658417097</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>93840.346676554822</v>
+        <v>38405.900334826591</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>34670.464343428721</v>
+        <v>73478.395974108891</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>90898.712975472154</v>
+        <v>99316.929867325292</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>43858.063586972276</v>
+        <v>38348.157963976046</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>26608.391158330825</v>
+        <v>14624.040600028442</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>11525.947023385641</v>
+        <v>98280.464798336325</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>61399.044939039151</v>
+        <v>41555.783845590391</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>82398.180209832339</v>
+        <v>93960.39172811665</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>54773.059608040916</v>
+        <v>41439.670135745153</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>34153.228865396588</v>
+        <v>85896.37170291254</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>78239.835496558037</v>
+        <v>48878.102718517592</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>72175.718617623177</v>
+        <v>82774.084183067316</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>17295.40745994994</v>
+        <v>27658.091928585014</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>72825.422947292638</v>
+        <v>47645.869029743946</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>82255.314057179843</v>
+        <v>87608.407617581703</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>47736.893705585346</v>
+        <v>3272.6282567145272</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>72472.475966083701</v>
+        <v>19327.792978634428</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>66745.667509155057</v>
+        <v>43449.27428146387</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>65911.235112142036</v>
+        <v>43118.904124179193</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>66087.485839363959</v>
+        <v>49738.052879837356</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>7063.2266534864766</v>
+        <v>46938.976843845972</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>99746.433352463355</v>
+        <v>51817.529564234341</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>56919.221749890734</v>
+        <v>59241.125343561231</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>40394.941099183881</v>
+        <v>67694.445976026138</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>74706.318994079047</v>
+        <v>6458.3379634091334</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>39853.216130302259</v>
+        <v>93382.845951338037</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>13488.706869682876</v>
+        <v>57924.784014930163</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>58448.749136200116</v>
+        <v>99898.434093078977</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>24543.815693203862</v>
+        <v>13365.065441937906</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>83638.413421729914</v>
+        <v>8737.1221529777158</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>4073.7244698482168</v>
+        <v>69915.168766462593</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>27822.395362111052</v>
+        <v>57674.2972747858</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>79012.311325501665</v>
+        <v>9025.7569487288474</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>57404.861768553375</v>
+        <v>13549.129062867949</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>5675.5297798805395</v>
+        <v>98341.688771313711</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>22729.960933276427</v>
+        <v>33136.166796343525</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>82866.736177261278</v>
+        <v>56180.929678484026</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>15051.385545403129</v>
+        <v>90186.318875095734</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>12421.726238070585</v>
+        <v>52279.517106091502</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>68579.0055509784</v>
+        <v>59348.339463492339</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>42084.700717781954</v>
+        <v>156.89174032037511</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>39060.453083498411</v>
+        <v>54776.516719444633</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>4602.953207012617</v>
+        <v>1010.9120718179154</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>19831.861716154897</v>
+        <v>54152.017992882909</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>37949.363409906648</v>
+        <v>44259.778415917259</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>47668.852325612534</v>
+        <v>23586.427946053478</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>17317.842955806907</v>
+        <v>73806.288110769528</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>98155.627250343037</v>
+        <v>11915.139271752905</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>13838.979409774987</v>
+        <v>33923.119042630758</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>66869.223324232371</v>
+        <v>539.45364274181622</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28019"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21165CD-B972-4796-9FD3-9026848767AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0345B8-7030-4240-A292-022964D3A418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="124">
   <si>
     <t>invitado</t>
   </si>
@@ -50,6 +61,18 @@
     <t>aleatorio</t>
   </si>
   <si>
+    <t>link_base</t>
+  </si>
+  <si>
+    <t>link_invitacion</t>
+  </si>
+  <si>
+    <t>dato</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
     <t>Rogger Alberto Tume Samamé</t>
   </si>
   <si>
@@ -59,6 +82,12 @@
     <t>https://bvasquez-code.github.io/AppWedding/?id=</t>
   </si>
   <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Amigos</t>
+  </si>
+  <si>
     <t>Diana Carolina Montenegro Risco</t>
   </si>
   <si>
@@ -122,6 +151,9 @@
     <t>BC0000011</t>
   </si>
   <si>
+    <t>Braulio</t>
+  </si>
+  <si>
     <t>Alex Rodrigo Rodriguez</t>
   </si>
   <si>
@@ -140,9 +172,15 @@
     <t>BC0000014</t>
   </si>
   <si>
+    <t>Tío Antonio Fernández Marrufo</t>
+  </si>
+  <si>
     <t>BC0000015</t>
   </si>
   <si>
+    <t>Familia</t>
+  </si>
+  <si>
     <t>Joel Alfredo Zamora Granados</t>
   </si>
   <si>
@@ -359,44 +397,29 @@
     <t>BC0000052</t>
   </si>
   <si>
-    <t>link_base</t>
-  </si>
-  <si>
-    <t>link_invitacion</t>
-  </si>
-  <si>
-    <t>dato</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t>Braulio</t>
-  </si>
-  <si>
-    <t>Amigos</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Familia</t>
-  </si>
-  <si>
-    <t>Tío Antonio Fernández Marrufo</t>
-  </si>
-  <si>
     <t>Alexis Maldonado Vásquez</t>
   </si>
   <si>
     <t>BC0000053</t>
+  </si>
+  <si>
+    <t>David Llauce Santos</t>
+  </si>
+  <si>
+    <t>BC0000054</t>
+  </si>
+  <si>
+    <t>Emanuel Guivar Rimapa</t>
+  </si>
+  <si>
+    <t>BC0000055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,13 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -795,7 +818,7 @@
     <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,21 +838,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -842,29 +865,29 @@
         <v>968238218</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <f>Hoja2!B1</f>
         <v>8168</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(G2,C2)</f>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000018168</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -877,29 +900,29 @@
         <v>968238218</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <f>Hoja2!B2</f>
         <v>93449</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H53" si="1">CONCATENATE(G3,C3)</f>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000293449</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -912,29 +935,29 @@
         <v>968238218</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <f>Hoja2!B3</f>
         <v>42061</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000342061</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -947,29 +970,29 @@
         <v>968238218</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f>Hoja2!B4</f>
         <v>6724</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000046724</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -982,29 +1005,29 @@
         <v>968238218</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <f>Hoja2!B5</f>
         <v>73060</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000573060</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1017,29 +1040,29 @@
         <v>968238218</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <f>Hoja2!B6</f>
         <v>52561</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000652561</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1052,29 +1075,29 @@
         <v>968238218</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <f>Hoja2!B7</f>
         <v>31054</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000631054</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1087,29 +1110,29 @@
         <v>968238219</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <f>Hoja2!B8</f>
         <v>58366</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000758366</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1122,29 +1145,29 @@
         <v>968238220</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <f>Hoja2!B9</f>
         <v>52835</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000000852835</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1157,29 +1180,29 @@
         <v>968238221</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <f>Hoja2!B10</f>
         <v>2707</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000092707</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1192,29 +1215,29 @@
         <v>968238222</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <f>Hoja2!B11</f>
         <v>81870</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001081870</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1227,29 +1250,29 @@
         <v>968238223</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <f>Hoja2!B12</f>
         <v>17455</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001117455</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1262,29 +1285,29 @@
         <v>968238224</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <f>Hoja2!B13</f>
         <v>80664</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001280664</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1297,29 +1320,29 @@
         <v>968238225</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <f>Hoja2!B14</f>
         <v>31978</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001331978</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1332,29 +1355,29 @@
         <v>968238226</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <f>Hoja2!B15</f>
         <v>41969</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001441969</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1367,29 +1390,29 @@
         <v>968238227</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <f>Hoja2!B16</f>
         <v>11886</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001511886</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1402,29 +1425,29 @@
         <v>968238228</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <f>Hoja2!B17</f>
         <v>81637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001681637</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1437,29 +1460,29 @@
         <v>968238229</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <f>Hoja2!B18</f>
         <v>35508</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001735508</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1472,29 +1495,29 @@
         <v>968238230</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <f>Hoja2!B19</f>
         <v>93353</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001893353</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1507,29 +1530,29 @@
         <v>968238231</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <f>Hoja2!B20</f>
         <v>67100</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000001967100</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1542,29 +1565,29 @@
         <v>968238232</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <f>Hoja2!B21</f>
         <v>35044</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002035044</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1577,29 +1600,29 @@
         <v>968238233</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F23">
         <f>Hoja2!B22</f>
         <v>87483</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002187483</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1612,29 +1635,29 @@
         <v>968238234</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <f>Hoja2!B23</f>
         <v>55469</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002255469</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1647,29 +1670,29 @@
         <v>968238236</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <f>Hoja2!B25</f>
         <v>97274</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002497274</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1682,29 +1705,29 @@
         <v>968238237</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F26">
         <f>Hoja2!B26</f>
         <v>69659</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002569659</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1717,29 +1740,29 @@
         <v>968238238</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <f>Hoja2!B27</f>
         <v>13240</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002613240</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1752,29 +1775,29 @@
         <v>968238239</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <f>Hoja2!B28</f>
         <v>49663</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002749663</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1787,29 +1810,29 @@
         <v>968238240</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <f>Hoja2!B29</f>
         <v>6946</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000286946</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1822,29 +1845,29 @@
         <v>968238241</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <f>Hoja2!B30</f>
         <v>53321</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000002953321</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1857,29 +1880,29 @@
         <v>968238242</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F31">
         <f>Hoja2!B31</f>
         <v>2682</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000302682</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1892,29 +1915,29 @@
         <v>968238243</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <f>Hoja2!B32</f>
         <v>50557</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003150557</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1927,29 +1950,29 @@
         <v>968238244</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <f>Hoja2!B33</f>
         <v>66019</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003266019</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1962,29 +1985,29 @@
         <v>968238245</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F34">
         <f>Hoja2!B34</f>
         <v>58197</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003358197</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1997,29 +2020,29 @@
         <v>968238246</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F35">
         <f>Hoja2!B35</f>
         <v>3483</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000343483</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2032,29 +2055,29 @@
         <v>968238247</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F36">
         <f>Hoja2!B36</f>
         <v>78768</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003578768</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2067,29 +2090,29 @@
         <v>968238248</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F37">
         <f>Hoja2!B37</f>
         <v>78971</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003678971</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2102,29 +2125,29 @@
         <v>968238249</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <f>Hoja2!B38</f>
         <v>73969</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003773969</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2137,29 +2160,29 @@
         <v>968238250</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F39">
         <f>Hoja2!B39</f>
         <v>82002</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003882002</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2172,29 +2195,29 @@
         <v>968238251</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F40">
         <f>Hoja2!B40</f>
         <v>88521</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000003988521</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2207,29 +2230,29 @@
         <v>968238252</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F41">
         <f>Hoja2!B41</f>
         <v>34273</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004034273</v>
       </c>
       <c r="I41" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2242,29 +2265,29 @@
         <v>968238253</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F42">
         <f>Hoja2!B42</f>
         <v>68827</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004168827</v>
       </c>
       <c r="I42" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2277,29 +2300,29 @@
         <v>968238254</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F43">
         <f>Hoja2!B43</f>
         <v>11456</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004211456</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2312,29 +2335,29 @@
         <v>968238255</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F44">
         <f>Hoja2!B44</f>
         <v>21086</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004321086</v>
       </c>
       <c r="I44" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2347,29 +2370,29 @@
         <v>968238256</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F45">
         <f>Hoja2!B45</f>
         <v>42434</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004442434</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2382,29 +2405,29 @@
         <v>968238257</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <f>Hoja2!B46</f>
         <v>45410</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004545410</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2417,29 +2440,29 @@
         <v>968238258</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F47">
         <f>Hoja2!B47</f>
         <v>77065</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004677065</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2452,29 +2475,29 @@
         <v>968238259</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F48">
         <f>Hoja2!B48</f>
         <v>35311</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004735311</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2487,29 +2510,29 @@
         <v>968238260</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F49">
         <f>Hoja2!B49</f>
         <v>68122</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004868122</v>
       </c>
       <c r="I49" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2522,29 +2545,29 @@
         <v>968238261</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F50">
         <f>Hoja2!B50</f>
         <v>95186</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000004995186</v>
       </c>
       <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>112</v>
-      </c>
-      <c r="J50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2557,29 +2580,29 @@
         <v>968238262</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F51">
         <f>Hoja2!B51</f>
         <v>17658</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005017658</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -2592,29 +2615,29 @@
         <v>968238263</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F52">
         <f>Hoja2!B52</f>
         <v>73400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005173400</v>
       </c>
       <c r="I52" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>107</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -2627,27 +2650,27 @@
         <v>968238264</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F53">
         <f>Hoja2!B53</f>
         <v>58013</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005258013</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -2669,29 +2692,101 @@
         <v>87126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" ref="H54" si="5">CONCATENATE(G54,C54)</f>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005387126</v>
       </c>
       <c r="I54" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" ref="C55" si="6">CONCATENATE(E55,F55)</f>
+        <v>BC000005481029</v>
+      </c>
+      <c r="D55">
+        <v>968238266</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55">
+        <f>Hoja2!B55</f>
+        <v>81029</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55" si="7">CONCATENATE(G55,C55)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005481029</v>
+      </c>
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ref="C56" si="8">CONCATENATE(E56,F56)</f>
+        <v>BC000005545168</v>
+      </c>
+      <c r="D56">
+        <v>968238267</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56">
+        <f>Hoja2!B56</f>
+        <v>45168</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ref="H56" si="9">CONCATENATE(G56,C56)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005545168</v>
+      </c>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{13788AC9-6D19-49A5-9426-2415D075C294}"/>
     <hyperlink ref="G3:G53" r:id="rId2" display="https://bvasquez-code.github.io/AppWedding/?id=" xr:uid="{D11B3EBB-EBFB-4F3F-9B0C-7B65325CA175}"/>
     <hyperlink ref="G54" r:id="rId3" xr:uid="{2E0D1352-D939-471C-AD35-0E844912A9E5}"/>
+    <hyperlink ref="G55" r:id="rId4" xr:uid="{0D5BE78C-10A9-43FF-B267-27F08103036D}"/>
+    <hyperlink ref="G56" r:id="rId5" xr:uid="{584BEC43-ACEA-4164-A957-EDA521A25576}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2703,9 +2798,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>8168.3485240182545</v>
       </c>
@@ -2714,7 +2809,7 @@
         <v>8168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>93449.354664475584</v>
       </c>
@@ -2723,7 +2818,7 @@
         <v>93449</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>42061.96796295626</v>
       </c>
@@ -2732,7 +2827,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>6724.2476308272408</v>
       </c>
@@ -2741,7 +2836,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>73060.697586128881</v>
       </c>
@@ -2750,7 +2845,7 @@
         <v>73060</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>52561.098482830974</v>
       </c>
@@ -2759,7 +2854,7 @@
         <v>52561</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>31054.29950014751</v>
       </c>
@@ -2768,7 +2863,7 @@
         <v>31054</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>58366.070119267722</v>
       </c>
@@ -2777,7 +2872,7 @@
         <v>58366</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>52835.87950085575</v>
       </c>
@@ -2786,7 +2881,7 @@
         <v>52835</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2707.4937856843339</v>
       </c>
@@ -2795,7 +2890,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>81870.428405890052</v>
       </c>
@@ -2804,7 +2899,7 @@
         <v>81870</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>17455.894686556716</v>
       </c>
@@ -2813,7 +2908,7 @@
         <v>17455</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>80664.575211607138</v>
       </c>
@@ -2822,7 +2917,7 @@
         <v>80664</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>31978.395395672855</v>
       </c>
@@ -2831,7 +2926,7 @@
         <v>31978</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>41969.242365545244</v>
       </c>
@@ -2840,7 +2935,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>11886.740686911013</v>
       </c>
@@ -2849,7 +2944,7 @@
         <v>11886</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>81637.447549290388</v>
       </c>
@@ -2858,7 +2953,7 @@
         <v>81637</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>35508.10675570499</v>
       </c>
@@ -2867,7 +2962,7 @@
         <v>35508</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>93353.088497874152</v>
       </c>
@@ -2876,7 +2971,7 @@
         <v>93353</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>67100.091845483868</v>
       </c>
@@ -2885,7 +2980,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>35044.968792871841</v>
       </c>
@@ -2894,7 +2989,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>87483.819411290126</v>
       </c>
@@ -2903,7 +2998,7 @@
         <v>87483</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>55469.550479018966</v>
       </c>
@@ -2912,7 +3007,7 @@
         <v>55469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>27807.356482751631</v>
       </c>
@@ -2921,7 +3016,7 @@
         <v>27807</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>97274.341356017219</v>
       </c>
@@ -2930,7 +3025,7 @@
         <v>97274</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>69659.187541342297</v>
       </c>
@@ -2939,7 +3034,7 @@
         <v>69659</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>13240.101312183549</v>
       </c>
@@ -2948,7 +3043,7 @@
         <v>13240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>49663.07073348554</v>
       </c>
@@ -2957,7 +3052,7 @@
         <v>49663</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>6946.0988850038484</v>
       </c>
@@ -2966,7 +3061,7 @@
         <v>6946</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>53321.723095800357</v>
       </c>
@@ -2975,7 +3070,7 @@
         <v>53321</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2682.8072269258428</v>
       </c>
@@ -2984,7 +3079,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>50557.223781149143</v>
       </c>
@@ -2993,7 +3088,7 @@
         <v>50557</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>66019.869522744513</v>
       </c>
@@ -3002,7 +3097,7 @@
         <v>66019</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>58197.202731915197</v>
       </c>
@@ -3011,7 +3106,7 @@
         <v>58197</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>3483.9405402674274</v>
       </c>
@@ -3020,7 +3115,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>78768.72806449249</v>
       </c>
@@ -3029,7 +3124,7 @@
         <v>78768</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>78971.006056597151</v>
       </c>
@@ -3038,7 +3133,7 @@
         <v>78971</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>73969.752842252463</v>
       </c>
@@ -3047,7 +3142,7 @@
         <v>73969</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>82002.473041275021</v>
       </c>
@@ -3056,7 +3151,7 @@
         <v>82002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>88521.014906963333</v>
       </c>
@@ -3065,7 +3160,7 @@
         <v>88521</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>34273.404224349892</v>
       </c>
@@ -3074,7 +3169,7 @@
         <v>34273</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>68827.420437515684</v>
       </c>
@@ -3083,7 +3178,7 @@
         <v>68827</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>11456.863898470559</v>
       </c>
@@ -3092,7 +3187,7 @@
         <v>11456</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>21086.94642121709</v>
       </c>
@@ -3101,7 +3196,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>42434.157172146646</v>
       </c>
@@ -3110,7 +3205,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45410.843240051632</v>
       </c>
@@ -3119,7 +3214,7 @@
         <v>45410</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>77065.786319969964</v>
       </c>
@@ -3128,7 +3223,7 @@
         <v>77065</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>35311.951335648264</v>
       </c>
@@ -3137,7 +3232,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>68122.090698059008</v>
       </c>
@@ -3146,7 +3241,7 @@
         <v>68122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>95186.935707224649</v>
       </c>
@@ -3155,7 +3250,7 @@
         <v>95186</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>17658.63544284043</v>
       </c>
@@ -3164,7 +3259,7 @@
         <v>17658</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>73400.283152674892</v>
       </c>
@@ -3173,7 +3268,7 @@
         <v>73400</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>58013.297615519856</v>
       </c>
@@ -3182,7 +3277,7 @@
         <v>58013</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>87126.20322121105</v>
       </c>
@@ -3191,7 +3286,7 @@
         <v>87126</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>81029.709534846101</v>
       </c>
@@ -3200,7 +3295,7 @@
         <v>81029</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>45168.788882390676</v>
       </c>
@@ -3209,7 +3304,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>42456.005191033604</v>
       </c>
@@ -3218,7 +3313,7 @@
         <v>42456</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>7410.3229234455002</v>
       </c>
@@ -3227,7 +3322,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>82829.411503642143</v>
       </c>
@@ -3236,7 +3331,7 @@
         <v>82829</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>75877.983480683586</v>
       </c>
@@ -3245,7 +3340,7 @@
         <v>75877</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>44300.117384276586</v>
       </c>
@@ -3254,7 +3349,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>10415.032462143126</v>
       </c>
@@ -3263,7 +3358,7 @@
         <v>10415</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>61425.936850676844</v>
       </c>
@@ -3272,7 +3367,7 @@
         <v>61425</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>82687.266789440022</v>
       </c>
@@ -3281,7 +3376,7 @@
         <v>82687</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>53817.987462931153</v>
       </c>
@@ -3290,7 +3385,7 @@
         <v>53817</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>48878.523104463413</v>
       </c>
@@ -3299,7 +3394,7 @@
         <v>48878</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>97579.76223590989</v>
       </c>
@@ -3308,7 +3403,7 @@
         <v>97579</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>36006.25854982937</v>
       </c>
@@ -3317,7 +3412,7 @@
         <v>36006</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>43215.9508324216</v>
       </c>
@@ -3326,7 +3421,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>51042.266231453446</v>
       </c>
@@ -3335,7 +3430,7 @@
         <v>51042</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>58601.803163187418</v>
       </c>
@@ -3344,7 +3439,7 @@
         <v>58601</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>2690.4289856906294</v>
       </c>
@@ -3353,7 +3448,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>97005.121363360813</v>
       </c>
@@ -3362,7 +3457,7 @@
         <v>97005</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>13427.909733494504</v>
       </c>
@@ -3371,7 +3466,7 @@
         <v>13427</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>6182.6796464555018</v>
       </c>
@@ -3380,7 +3475,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>90587.794264711178</v>
       </c>
@@ -3389,7 +3484,7 @@
         <v>90587</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>97586.235789263446</v>
       </c>
@@ -3398,7 +3493,7 @@
         <v>97586</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>24886.634720023103</v>
       </c>
@@ -3407,7 +3502,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>52887.569310359395</v>
       </c>
@@ -3416,7 +3511,7 @@
         <v>52887</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>34590.811866865821</v>
       </c>
@@ -3425,7 +3520,7 @@
         <v>34590</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>74588.507872948045</v>
       </c>
@@ -3434,7 +3529,7 @@
         <v>74588</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>97325.159893339049</v>
       </c>
@@ -3443,7 +3538,7 @@
         <v>97325</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>77965.223248994429</v>
       </c>
@@ -3452,7 +3547,7 @@
         <v>77965</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>66102.929812011833</v>
       </c>
@@ -3461,7 +3556,7 @@
         <v>66102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>65782.623508516117</v>
       </c>
@@ -3470,7 +3565,7 @@
         <v>65782</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>23144.45655015279</v>
       </c>
@@ -3479,7 +3574,7 @@
         <v>23144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>75623.135161035476</v>
       </c>
@@ -3488,7 +3583,7 @@
         <v>75623</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>17564.594911488475</v>
       </c>
@@ -3497,7 +3592,7 @@
         <v>17564</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>94888.874314319546</v>
       </c>
@@ -3506,7 +3601,7 @@
         <v>94888</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>51540.25894593721</v>
       </c>
@@ -3515,7 +3610,7 @@
         <v>51540</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>14226.594343313836</v>
       </c>
@@ -3524,7 +3619,7 @@
         <v>14226</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>71833.82269655852</v>
       </c>
@@ -3533,7 +3628,7 @@
         <v>71833</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>78013.057277116794</v>
       </c>
@@ -3542,7 +3637,7 @@
         <v>78013</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>77439.767728020277</v>
       </c>
@@ -3551,7 +3646,7 @@
         <v>77439</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>4960.5035406993902</v>
       </c>
@@ -3560,7 +3655,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>87984.682006818417</v>
       </c>
@@ -3569,7 +3664,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>80321.569296470392</v>
       </c>
@@ -3578,7 +3673,7 @@
         <v>80321</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>96912.665672617091</v>
       </c>
@@ -3587,7 +3682,7 @@
         <v>96912</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>14910.917910514332</v>
       </c>
@@ -3596,7 +3691,7 @@
         <v>14910</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>14131.036129819329</v>
       </c>
@@ -3605,7 +3700,7 @@
         <v>14131</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>84384.844646975922</v>
       </c>
@@ -3614,7 +3709,7 @@
         <v>84384</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>70442.041604390281</v>
       </c>
@@ -3623,7 +3718,7 @@
         <v>70442</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>22288.263003134824</v>
       </c>
@@ -3632,7 +3727,7 @@
         <v>22288</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>67109.733146048005</v>
       </c>
@@ -3641,7 +3736,7 @@
         <v>67109</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>36935.130324631995</v>
       </c>
@@ -3650,7 +3745,7 @@
         <v>36935</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>54265.428673078721</v>
       </c>
@@ -3659,7 +3754,7 @@
         <v>54265</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>7430.5101295809473</v>
       </c>
@@ -3668,7 +3763,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>25310.753281827812</v>
       </c>
@@ -3677,7 +3772,7 @@
         <v>25310</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>30156.858989299973</v>
       </c>
@@ -3686,7 +3781,7 @@
         <v>30156</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>34030.380057736664</v>
       </c>
@@ -3695,7 +3790,7 @@
         <v>34030</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>16839.155173732401</v>
       </c>
@@ -3704,7 +3799,7 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>75674.20126657837</v>
       </c>
@@ -3713,7 +3808,7 @@
         <v>75674</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>58625.102814172569</v>
       </c>
@@ -3722,7 +3817,7 @@
         <v>58625</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>93926.965779132268</v>
       </c>
@@ -3731,7 +3826,7 @@
         <v>93926</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>88764.497619739399</v>
       </c>
@@ -3740,7 +3835,7 @@
         <v>88764</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>24792.759050075729</v>
       </c>
@@ -3749,7 +3844,7 @@
         <v>24792</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>10059.314834122857</v>
       </c>
@@ -3758,7 +3853,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>86624.468310217955</v>
       </c>
@@ -3767,7 +3862,7 @@
         <v>86624</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>13908.15808844349</v>
       </c>
@@ -3776,7 +3871,7 @@
         <v>13908</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>50152.946027322752</v>
       </c>
@@ -3785,7 +3880,7 @@
         <v>50152</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>11700.283823209335</v>
       </c>
@@ -3794,7 +3889,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>45898.397375675093</v>
       </c>
@@ -3803,7 +3898,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>83131.516901777766</v>
       </c>
@@ -3812,7 +3907,7 @@
         <v>83131</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>14127.75341290209</v>
       </c>
@@ -3821,7 +3916,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>80057.111039240466</v>
       </c>
@@ -3830,7 +3925,7 @@
         <v>80057</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>69296.127400885525</v>
       </c>
@@ -3839,7 +3934,7 @@
         <v>69296</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>23421.686166829848</v>
       </c>
@@ -3848,7 +3943,7 @@
         <v>23421</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>7815.4060207746843</v>
       </c>
@@ -3857,7 +3952,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>74632.255946479781</v>
       </c>
@@ -3866,7 +3961,7 @@
         <v>74632</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>9935.5728990786811</v>
       </c>
@@ -3875,7 +3970,7 @@
         <v>9935</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>50400.091548418546</v>
       </c>
@@ -3884,7 +3979,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2075.6327693410294</v>
       </c>
@@ -3893,7 +3988,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>63861.660695589184</v>
       </c>
@@ -3902,7 +3997,7 @@
         <v>63861</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>34243.397646681326</v>
       </c>
@@ -3911,7 +4006,7 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>69249.179075456675</v>
       </c>
@@ -3920,7 +4015,7 @@
         <v>69249</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>80723.059347231654</v>
       </c>
@@ -3929,7 +4024,7 @@
         <v>80723</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>80547.5124360388</v>
       </c>
@@ -3938,7 +4033,7 @@
         <v>80547</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>41246.104020660692</v>
       </c>
@@ -3947,7 +4042,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>58619.069425412781</v>
       </c>
@@ -3956,7 +4051,7 @@
         <v>58619</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>94525.713028868835</v>
       </c>
@@ -3965,7 +4060,7 @@
         <v>94525</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>16718.727013399304</v>
       </c>
@@ -3974,7 +4069,7 @@
         <v>16718</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>80809.887586923185</v>
       </c>
@@ -3983,7 +4078,7 @@
         <v>80809</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>15034.709451022565</v>
       </c>
@@ -3992,7 +4087,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>63692.752994289294</v>
       </c>
@@ -4001,7 +4096,7 @@
         <v>63692</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>28827.689524382404</v>
       </c>
@@ -4010,7 +4105,7 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>43368.179297381685</v>
       </c>
@@ -4019,7 +4114,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>39198.449992319853</v>
       </c>
@@ -4028,7 +4123,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>6854.6273491659094</v>
       </c>
@@ -4037,7 +4132,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>17025.408993917245</v>
       </c>
@@ -4046,7 +4141,7 @@
         <v>17025</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>1287.1296753693696</v>
       </c>
@@ -4055,7 +4150,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>45561.448648873338</v>
       </c>
@@ -4064,7 +4159,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>30191.84490753747</v>
       </c>
@@ -4073,7 +4168,7 @@
         <v>30191</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>723.65443190238739</v>
       </c>
@@ -4082,7 +4177,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>31725.365197473609</v>
       </c>
@@ -4091,7 +4186,7 @@
         <v>31725</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>90412.273994321949</v>
       </c>
@@ -4100,7 +4195,7 @@
         <v>90412</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>15537.954717696379</v>
       </c>
@@ -4109,7 +4204,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>15965.010411784875</v>
       </c>
@@ -4118,7 +4213,7 @@
         <v>15965</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>26650.709793042792</v>
       </c>
@@ -4127,7 +4222,7 @@
         <v>26650</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>5348.7686809852612</v>
       </c>
@@ -4136,7 +4231,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>92679.114926423543</v>
       </c>
@@ -4145,7 +4240,7 @@
         <v>92679</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>36036.550215470255</v>
       </c>
@@ -4154,7 +4249,7 @@
         <v>36036</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>25918.715552727412</v>
       </c>
@@ -4163,7 +4258,7 @@
         <v>25918</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>36771.430152066554</v>
       </c>
@@ -4172,7 +4267,7 @@
         <v>36771</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>34063.26860984823</v>
       </c>
@@ -4181,7 +4276,7 @@
         <v>34063</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>77110.997318459238</v>
       </c>
@@ -4190,7 +4285,7 @@
         <v>77110</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>49619.076552038896</v>
       </c>
@@ -4199,7 +4294,7 @@
         <v>49619</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>8602.3956957278497</v>
       </c>
@@ -4208,7 +4303,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>73901.313529055231</v>
       </c>
@@ -4217,7 +4312,7 @@
         <v>73901</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>33119.201669857823</v>
       </c>
@@ -4226,7 +4321,7 @@
         <v>33119</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>12425.036633837493</v>
       </c>
@@ -4235,7 +4330,7 @@
         <v>12425</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>68275.026412995896</v>
       </c>
@@ -4244,7 +4339,7 @@
         <v>68275</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>71936.333754470572</v>
       </c>
@@ -4253,7 +4348,7 @@
         <v>71936</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>26983.298178496163</v>
       </c>
@@ -4262,7 +4357,7 @@
         <v>26983</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>17644.139096527655</v>
       </c>
@@ -4271,7 +4366,7 @@
         <v>17644</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>91428.238696271015</v>
       </c>
@@ -4280,7 +4375,7 @@
         <v>91428</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>97630.113595432544</v>
       </c>
@@ -4289,7 +4384,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>32314.77970899922</v>
       </c>
@@ -4298,7 +4393,7 @@
         <v>32314</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>22826.538446651302</v>
       </c>
@@ -4307,7 +4402,7 @@
         <v>22826</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>36649.81319769226</v>
       </c>
@@ -4316,7 +4411,7 @@
         <v>36649</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>25554.118455385942</v>
       </c>
@@ -4325,7 +4420,7 @@
         <v>25554</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>27950.948397941822</v>
       </c>
@@ -4334,7 +4429,7 @@
         <v>27950</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>46951.960596533128</v>
       </c>
@@ -4343,7 +4438,7 @@
         <v>46951</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>98393.108847915384</v>
       </c>
@@ -4352,7 +4447,7 @@
         <v>98393</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>19285.99226999862</v>
       </c>
@@ -4361,7 +4456,7 @@
         <v>19285</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>90056.90103649201</v>
       </c>
@@ -4370,7 +4465,7 @@
         <v>90056</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>58278.447137101517</v>
       </c>
@@ -4379,7 +4474,7 @@
         <v>58278</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>55295.888371070265</v>
       </c>
@@ -4388,7 +4483,7 @@
         <v>55295</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>20869.390204355874</v>
       </c>
@@ -4397,7 +4492,7 @@
         <v>20869</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>44110.966332042924</v>
       </c>
@@ -4406,7 +4501,7 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>74275.268667415425</v>
       </c>
@@ -4415,7 +4510,7 @@
         <v>74275</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>23836.502703941333</v>
       </c>
@@ -4424,7 +4519,7 @@
         <v>23836</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>83625.662905051533</v>
       </c>
@@ -4433,7 +4528,7 @@
         <v>83625</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>41800.652907886259</v>
       </c>
@@ -4442,7 +4537,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>13720.06253475686</v>
       </c>
@@ -4451,7 +4546,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>34189.616291840422</v>
       </c>
@@ -4460,7 +4555,7 @@
         <v>34189</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>45918.533751532472</v>
       </c>
@@ -4469,7 +4564,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>22319.956434137923</v>
       </c>
@@ -4478,7 +4573,7 @@
         <v>22319</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>79623.773262822142</v>
       </c>
@@ -4487,7 +4582,7 @@
         <v>79623</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>17592.563157581899</v>
       </c>
@@ -4496,7 +4591,7 @@
         <v>17592</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>52233.614548238562</v>
       </c>
@@ -4505,7 +4600,7 @@
         <v>52233</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>23833.036027939757</v>
       </c>
@@ -4514,7 +4609,7 @@
         <v>23833</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>10320.315243259947</v>
       </c>
@@ -4523,7 +4618,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>2865.9539273261812</v>
       </c>
@@ -4532,7 +4627,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>58655.534068860885</v>
       </c>
@@ -4541,7 +4636,7 @@
         <v>58655</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>5577.5282291355306</v>
       </c>
@@ -4550,7 +4645,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>87992.820492776096</v>
       </c>
@@ -4559,7 +4654,7 @@
         <v>87992</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>7773.6344232263718</v>
       </c>
@@ -4568,7 +4663,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>99733.451136215022</v>
       </c>
@@ -4577,7 +4672,7 @@
         <v>99733</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>73215.497533033573</v>
       </c>
@@ -4586,7 +4681,7 @@
         <v>73215</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>20003.548188428187</v>
       </c>
@@ -4595,7 +4690,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>42074.421487865329</v>
       </c>
@@ -4604,7 +4699,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>49992.65689436144</v>
       </c>
@@ -4613,7 +4708,7 @@
         <v>49992</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>28811.186250378607</v>
       </c>
@@ -4622,7 +4717,7 @@
         <v>28811</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>37629.29652922196</v>
       </c>
@@ -4631,7 +4726,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>18597.958689155203</v>
       </c>
@@ -4640,7 +4735,7 @@
         <v>18597</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>74771.743967124465</v>
       </c>
@@ -4649,7 +4744,7 @@
         <v>74771</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>18505.157022629537</v>
       </c>
@@ -4658,7 +4753,7 @@
         <v>18505</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>40837.838489180409</v>
       </c>
@@ -4667,7 +4762,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>36857.810670374689</v>
       </c>
@@ -4676,7 +4771,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>71043.593278018641</v>
       </c>
@@ -4685,7 +4780,7 @@
         <v>71043</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>41147.906864462078</v>
       </c>
@@ -4694,7 +4789,7 @@
         <v>41147</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>91796.858657704506</v>
       </c>
@@ -4703,7 +4798,7 @@
         <v>91796</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>11938.644574370815</v>
       </c>
@@ -4712,7 +4807,7 @@
         <v>11938</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>6003.3101379928567</v>
       </c>
@@ -4721,7 +4816,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>95965.014660441011</v>
       </c>
@@ -4730,7 +4825,7 @@
         <v>95965</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>68490.848299633784</v>
       </c>
@@ -4739,7 +4834,7 @@
         <v>68490</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>90741.745359525172</v>
       </c>
@@ -4748,7 +4843,7 @@
         <v>90741</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>68062.781646417119</v>
       </c>
@@ -4757,7 +4852,7 @@
         <v>68062</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>55836.217319100404</v>
       </c>
@@ -4766,7 +4861,7 @@
         <v>55836</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>59871.156294423388</v>
       </c>
@@ -4775,7 +4870,7 @@
         <v>59871</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>40977.126475243895</v>
       </c>
@@ -4784,7 +4879,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>92523.482789148504</v>
       </c>
@@ -4793,7 +4888,7 @@
         <v>92523</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>51926.606007173745</v>
       </c>
@@ -4802,7 +4897,7 @@
         <v>51926</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>75879.254526608522</v>
       </c>
@@ -4811,7 +4906,7 @@
         <v>75879</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>66565.020178455467</v>
       </c>
@@ -4820,7 +4915,7 @@
         <v>66565</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>88703.913962080507</v>
       </c>
@@ -4829,7 +4924,7 @@
         <v>88703</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>17351.203406346995</v>
       </c>
@@ -4838,7 +4933,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>77762.702272033668</v>
       </c>
@@ -4847,7 +4942,7 @@
         <v>77762</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>23815.453213098281</v>
       </c>
@@ -4856,7 +4951,7 @@
         <v>23815</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>7995.2506402675817</v>
       </c>
@@ -4865,7 +4960,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>85516.319690385761</v>
       </c>
@@ -4874,7 +4969,7 @@
         <v>85516</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>48146.661430983062</v>
       </c>
@@ -4883,7 +4978,7 @@
         <v>48146</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>23621.589310040214</v>
       </c>
@@ -4892,7 +4987,7 @@
         <v>23621</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>12129.127820619213</v>
       </c>
@@ -4901,7 +4996,7 @@
         <v>12129</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>44334.79571943971</v>
       </c>
@@ -4910,7 +5005,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>38688.113542402338</v>
       </c>
@@ -4919,7 +5014,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>37594.625542838112</v>
       </c>
@@ -4928,7 +5023,7 @@
         <v>37594</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>23875.688489806678</v>
       </c>
@@ -4937,7 +5032,7 @@
         <v>23875</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>18114.750561363657</v>
       </c>
@@ -4946,7 +5041,7 @@
         <v>18114</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>66649.39552351326</v>
       </c>
@@ -4955,7 +5050,7 @@
         <v>66649</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>60100.229387221603</v>
       </c>
@@ -4964,7 +5059,7 @@
         <v>60100</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>27274.369603890547</v>
       </c>
@@ -4973,7 +5068,7 @@
         <v>27274</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>95584.308704601659</v>
       </c>
@@ -4982,7 +5077,7 @@
         <v>95584</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>50957.273668741502</v>
       </c>
@@ -4991,7 +5086,7 @@
         <v>50957</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>96182.890675666829</v>
       </c>
@@ -5000,7 +5095,7 @@
         <v>96182</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>22314.490397255726</v>
       </c>
@@ -5009,7 +5104,7 @@
         <v>22314</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>56931.606290704374</v>
       </c>
@@ -5018,7 +5113,7 @@
         <v>56931</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2">
       <c r="A258">
         <v>26763.54488862769</v>
       </c>
@@ -5027,7 +5122,7 @@
         <v>26763</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2">
       <c r="A259">
         <v>53172.480528133034</v>
       </c>
@@ -5036,7 +5131,7 @@
         <v>53172</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2">
       <c r="A260">
         <v>18276.100351476933</v>
       </c>
@@ -5045,7 +5140,7 @@
         <v>18276</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2">
       <c r="A261">
         <v>88546.062447151213</v>
       </c>
@@ -5054,7 +5149,7 @@
         <v>88546</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2">
       <c r="A262">
         <v>41890.814592036033</v>
       </c>
@@ -5063,7 +5158,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2">
       <c r="A263">
         <v>1015.8693269247232</v>
       </c>
@@ -5072,7 +5167,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2">
       <c r="A264">
         <v>88456.372300393865</v>
       </c>
@@ -5081,7 +5176,7 @@
         <v>88456</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2">
       <c r="A265">
         <v>5899.506621627459</v>
       </c>
@@ -5090,7 +5185,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2">
       <c r="A266">
         <v>41669.910873002671</v>
       </c>
@@ -5099,7 +5194,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2">
       <c r="A267">
         <v>6809.2519445362432</v>
       </c>
@@ -5108,7 +5203,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268">
         <v>77530.764231503519</v>
       </c>
@@ -5117,7 +5212,7 @@
         <v>77530</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2">
       <c r="A269">
         <v>77969.917463902966</v>
       </c>
@@ -5126,7 +5221,7 @@
         <v>77969</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2">
       <c r="A270">
         <v>9305.6326264232212</v>
       </c>
@@ -5135,7 +5230,7 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2">
       <c r="A271">
         <v>20191.389690264437</v>
       </c>
@@ -5144,7 +5239,7 @@
         <v>20191</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2">
       <c r="A272">
         <v>25698.182383066247</v>
       </c>
@@ -5153,7 +5248,7 @@
         <v>25698</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2">
       <c r="A273">
         <v>38005.373507335629</v>
       </c>
@@ -5162,7 +5257,7 @@
         <v>38005</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2">
       <c r="A274">
         <v>12720.923371527293</v>
       </c>
@@ -5171,7 +5266,7 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2">
       <c r="A275">
         <v>85789.567744955129</v>
       </c>
@@ -5180,7 +5275,7 @@
         <v>85789</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2">
       <c r="A276">
         <v>83968.936756557843</v>
       </c>
@@ -5189,7 +5284,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2">
       <c r="A277">
         <v>41297.236019242104</v>
       </c>
@@ -5198,7 +5293,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2">
       <c r="A278">
         <v>73460.027936654078</v>
       </c>
@@ -5207,7 +5302,7 @@
         <v>73460</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2">
       <c r="A279">
         <v>55530.250225802811</v>
       </c>
@@ -5216,7 +5311,7 @@
         <v>55530</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2">
       <c r="A280">
         <v>93474.37991250513</v>
       </c>
@@ -5225,7 +5320,7 @@
         <v>93474</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2">
       <c r="A281">
         <v>8706.9564363371774</v>
       </c>
@@ -5234,7 +5329,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2">
       <c r="A282">
         <v>71873.417734068396</v>
       </c>
@@ -5243,7 +5338,7 @@
         <v>71873</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2">
       <c r="A283">
         <v>57132.501048461636</v>
       </c>
@@ -5252,7 +5347,7 @@
         <v>57132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2">
       <c r="A284">
         <v>32395.034137952571</v>
       </c>
@@ -5261,7 +5356,7 @@
         <v>32395</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2">
       <c r="A285">
         <v>49924.6673711533</v>
       </c>
@@ -5270,7 +5365,7 @@
         <v>49924</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2">
       <c r="A286">
         <v>88913.772796400066</v>
       </c>
@@ -5279,7 +5374,7 @@
         <v>88913</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2">
       <c r="A287">
         <v>67901.72473364092</v>
       </c>
@@ -5288,7 +5383,7 @@
         <v>67901</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2">
       <c r="A288">
         <v>92105.732727758324</v>
       </c>
@@ -5297,7 +5392,7 @@
         <v>92105</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2">
       <c r="A289">
         <v>7335.2100433925598</v>
       </c>
@@ -5306,7 +5401,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2">
       <c r="A290">
         <v>93581.517117100753</v>
       </c>
@@ -5315,7 +5410,7 @@
         <v>93581</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2">
       <c r="A291">
         <v>65908.355032312727</v>
       </c>
@@ -5324,7 +5419,7 @@
         <v>65908</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2">
       <c r="A292">
         <v>32978.494497995605</v>
       </c>
@@ -5333,7 +5428,7 @@
         <v>32978</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2">
       <c r="A293">
         <v>19942.376500342129</v>
       </c>
@@ -5342,7 +5437,7 @@
         <v>19942</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2">
       <c r="A294">
         <v>9852.6389863571876</v>
       </c>
@@ -5351,7 +5446,7 @@
         <v>9852</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2">
       <c r="A295">
         <v>63631.541357357368</v>
       </c>
@@ -5360,7 +5455,7 @@
         <v>63631</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2">
       <c r="A296">
         <v>37734.315372340512</v>
       </c>
@@ -5369,7 +5464,7 @@
         <v>37734</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2">
       <c r="A297">
         <v>24072.038686568285</v>
       </c>
@@ -5378,7 +5473,7 @@
         <v>24072</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2">
       <c r="A298">
         <v>76146.190106123555</v>
       </c>
@@ -5387,7 +5482,7 @@
         <v>76146</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2">
       <c r="A299">
         <v>6775.3630394586371</v>
       </c>
@@ -5396,7 +5491,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2">
       <c r="A300">
         <v>36531.791413839928</v>
       </c>
@@ -5419,1806 +5514,1806 @@
       <selection sqref="A1:A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>90736.860033971199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30643.423555951289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>2503.8012780059239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90397.159761162082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>83118.351738091122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55548.784380304547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>9337.9864854793432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10174.471854959544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>60575.81080335813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76910.51606109667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>83365.633348564254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72824.239581151749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>62648.281861040952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29064.648077868758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>41470.568991551649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5256.6910224865369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>47715.944672102298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71204.490558005084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>775.90278926115138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95907.731827643322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>72258.437013518604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44689.635957747007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>61155.55662353697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52128.419680711959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>36223.096133193489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29750.956694061526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>31751.156397744275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70697.903485381205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>32301.752060134149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62590.82914769747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>3094.3110719305332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57319.939479423309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>23381.876534606617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57511.229585961257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>91151.537542923295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29716.403393235869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>20499.243401657553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>443.25455311139405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>25511.11942172244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34460.978049927762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>86810.714742376673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10395.507089802502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>33086.421342993111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69476.995959536318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>31898.126775060264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28866.415529744936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>46251.289426291441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78406.167131336973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>98567.246015143945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2095.7932173067074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>75745.680001250643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83262.629875675048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>77879.019956473203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7953.740373774609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>97941.653442177907</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34556.396459113079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>64322.26819359287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36411.1333664786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>11928.515757656443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49165.369480706111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>52095.412220635451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55815.476327511737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>43488.166253795527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9067.7652590682719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>69733.376332985485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60860.177771439929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>40724.253090965947</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5149.2464827812892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>73733.550788772292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84228.509452961516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>86049.752397571239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42340.599847291895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>32414.982809795125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14497.236357064281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>93121.815205855193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72916.44158946375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>22342.315567976857</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29087.871466094006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>91012.798249258311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60885.806197559577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>8769.7523532735522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79179.968686465465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>35516.003024586462</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87298.77718238956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>64276.287733256097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47096.176788469093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>29144.609499746875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27647.094390888673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>88195.892734006586</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51497.064180972775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>72187.51388134736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26892.12567702185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>29924.088588850162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14192.642695295566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>94310.872553092078</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42566.194369361147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>32506.760631131227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51153.111608931504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>49505.456628064567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78213.043119654016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>82487.117973839981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7130.537301697892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>10923.972248296854</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3891.3151700903481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>23339.585870572409</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73881.124171092102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>14862.765779725429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38955.245142446416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>83332.522216968864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14852.442343054607</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>21594.168821377323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95168.217845604362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>77107.558884849874</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51145.79059861241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>10301.757356551321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61963.145093028179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>60332.672585823253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79125.695990158405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>15585.755577295156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34048.997277345661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>6455.9564120985624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39543.729315171149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>98901.979418193878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16278.767074195066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>68848.215303188204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76864.413165495556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>83774.754406866981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49866.327861535741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>2897.4399100831215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62739.233269079821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>78438.678425546939</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73377.623777358196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>99861.678863374153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35059.677896230271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>6318.6718159558786</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56066.441169103244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>85932.703174499402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95995.237489730396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>34479.52663072975</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90090.846196706305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>16464.335890213322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46647.030794339196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>76170.365756500774</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85430.224920768116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>35245.469263806648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58313.290534113548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>15074.330284963811</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16118.69096564712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>5393.9314205522669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95955.601554159977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>25736.877030210671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13092.293347468809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>89112.12085053316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40624.956960015203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>64914.558864445935</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86729.09010404037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>67420.226584212272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86831.240645386089</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>14669.918883861377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68918.156506682499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>48390.735861757406</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23224.043923764926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>31383.465903492204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62572.752993300506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>21380.198105787917</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10109.3036959367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>74427.696590101317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32151.502926157016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>4009.5391804007563</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19365.622466005007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>5601.3396858580418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5160.4212434865458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>88073.593668359827</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72726.050755674398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>34401.320740336152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50615.441014229546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>71795.369540918808</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34512.40696095876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>12199.795050675299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41031.635551745268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>20193.814578480706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20741.062811675059</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>21811.544050686203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44951.969051246357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>36173.637729452603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32105.155241623841</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>74894.794649724208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44811.036728088337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>86230.975923387945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83.683569953274528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>27930.6716837163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82383.619792308906</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>48886.863804330147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58248.838722068111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>57209.307107347871</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95265.017260926805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>29954.171973717701</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65130.734662795396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>79793.409423418343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61888.582511145098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>90316.067698339291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76252.722919900159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>25034.000936731292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25488.455815815258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>28843.090808524696</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69047.255614791575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>35237.528769875724</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64611.974020868809</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>20422.708790197041</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50278.317248005042</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>79901.952483807341</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85734.322118149648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>46985.98765983757</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1262.8971888564377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>89141.990021874779</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49355.38533253604</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>2287.8075046803283</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98518.926660073688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>53637.946481309671</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34471.434260411683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>91556.238241418992</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70524.21088481239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>2847.1606511998202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81641.994280011902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>25600.711771817209</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26950.428663703697</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>2170.8783392761056</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69052.297429223327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>23172.580568463753</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44365.782008448485</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>73827.591523284835</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12999.075803898475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>23102.134828154609</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29993.893220989208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>33541.630201496395</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55293.730124905036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>35601.884466780641</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20818.440077458978</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>5528.6872369361809</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70812.987026472212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>14714.529861269664</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35220.051699584241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>21251.048971037912</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41794.730961785579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>90579.216427302832</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73235.957961419335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>62547.540757594164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78676.888987294195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>493.53992509139078</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35439.010859883427</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>37634.676485357973</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40203.768464250832</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>30259.029954207839</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94883.239096689053</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>91225.259627760621</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66625.504985508931</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>17740.510554417564</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70742.58611470442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>20278.492139505201</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50400.166509941417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>20624.796747132725</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62018.74986805459</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>23166.437994524404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49075.003661351511</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>74676.819068800847</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51414.532311069161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>14266.288309148744</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35829.854968986598</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>85581.104374570408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33875.058506363552</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>84135.038064638473</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76254.32316930189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>22602.778082316167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55308.428747301041</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>52188.393760384773</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97803.560024158593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>71469.431805900007</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26592.931580682798</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>52820.887272854256</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76483.956775466795</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>5818.7572850221577</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39983.452341161981</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>82382.900070252712</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79678.654555134781</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>77822.120921208101</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39595.957284172669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>77720.740018211422</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80882.411089954083</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>67330.623984737133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69577.274417541499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>25591.080188875192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79304.371425744263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>56477.826709065768</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27780.857992367768</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>30485.846102638581</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70116.95866656024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>29282.888295383193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+        <v>91822.571725975373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>95212.534168385639</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84863.744738721027</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>86910.875828342367</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33684.905094870577</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>57702.672000187697</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27525.33277648711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>6022.2908745765972</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69053.723420147624</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>53914.97046772029</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22304.343363529642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>76007.354464375807</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20521.652917020485</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>50177.716420648823</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44094.505125250304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>8683.8751395375002</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67397.903441169299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>31393.062222877856</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46390.995873110573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>27831.320592099572</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92973.755682363597</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>73028.194082651593</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87868.024289744601</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>3772.0854462896746</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64932.422275880795</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>20975.317552304918</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58917.947863027883</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>42738.895941626601</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54226.288152228699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>74617.684583386697</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62937.156800842618</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>62996.799073690956</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48364.458469426165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>26214.552020151616</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99165.355994785394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>12454.757760697266</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94083.376929443839</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>28592.467988828619</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29927.781870402927</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>56801.193137073693</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93988.149729434168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>3805.833594751995</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12234.030622287495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>75349.638014740442</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27054.932859039327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>56927.124301647666</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11038.252482249256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>66065.3758292087</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94079.054230525973</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>88244.17135242738</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96129.816921477861</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>9894.7036929901587</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7195.1896247668619</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>59072.014020463444</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29422.080678077888</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>97691.926073731578</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1462.8505241328526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>28585.165871896847</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61496.951429230561</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>49691.544516833586</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46697.631804708064</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>66452.706803833542</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12317.969914449412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>82949.163624176086</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10307.976231474602</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>74097.428877572485</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7157.1199128924627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>33205.926709682979</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22866.101787653635</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>64743.787255370677</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68099.963929713878</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>85961.089642749153</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15755.953403438227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>22305.940779839417</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5804.8250195717246</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>74324.347323886861</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67037.13720973875</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>42877.396543667492</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87711.361502682412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>25554.212323545533</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46829.048824985621</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>13517.569446655953</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15655.826451877931</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>81323.801653193397</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41537.131394509212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>79379.861063278964</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17508.33843573082</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>91722.389917640437</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55179.608944460379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>95224.07559382476</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21881.509269544818</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>86732.334906064629</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80142.648306829084</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>86005.974642585934</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56988.694384245355</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>24880.523421107082</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33049.287531838178</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>78416.346673341104</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63431.468416090829</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>80631.669705524357</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13436.002375175571</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>92630.356228096323</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54774.755023654965</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>1519.8164219514365</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86621.371328555004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>27530.738498697981</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77505.837399565309</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>54880.619822162938</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78124.25467970928</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>97896.674501906091</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92307.391344205564</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>61428.491653964848</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55877.880394167667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>75699.809362095577</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15769.336546773271</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>38539.200212812619</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45509.741320749861</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>78571.482284541999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64042.367038464086</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>56996.227688696388</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24786.244614526466</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>92875.15265278492</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18938.502764505462</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>27648.792867251803</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74453.95583334002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>45902.267122974074</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96148.987687543951</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>94158.551129644839</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63397.304926696466</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>15337.461097818461</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31684.381322399189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>55309.110230702783</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43095.975437936431</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>78603.565108955809</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2575.6822172764091</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>18837.272970604245</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56575.301912980169</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>69041.247371724981</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13341.837684190661</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>11851.399601397217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18582.228877723515</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>18312.165825789572</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62147.704625847866</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>55503.724607265256</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65259.533378870852</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>46419.60249128173</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99822.878220954735</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>53791.084517675481</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97276.484160719629</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>76787.422498239161</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8849.545915722023</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>92033.954445302239</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17720.599526085178</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>58515.389665960131</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63540.473646692233</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>35584.16825849696</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71477.710926502987</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>78200.785174695877</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12417.978467868874</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>87471.126090596517</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24002.799950148044</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>35728.988068188868</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66392.16972332749</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>41413.211378591652</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21493.391362148173</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>27097.428385603595</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49729.060511851567</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>54442.126599526076</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29498.432257437235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>84075.291154467763</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53233.201272237995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>33448.885960508647</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10281.041132328328</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>65702.064160220296</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47984.277271911888</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>54405.380802787608</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7581.8371507571201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>96321.972656819911</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36082.464481227507</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>64477.486160362459</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59892.805408890395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>58873.827353960405</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55609.443945391293</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>59363.812157249529</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35149.782257696097</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>73963.273065082627</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68046.253659757975</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>10078.857389139994</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95619.719589070839</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>82807.556000062221</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67493.37702987816</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>465.04584210301789</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10972.002540356018</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>60910.721585310726</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58225.354765043492</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>3998.9972589245635</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40725.342463583482</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>53161.824777562775</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96567.503421530637</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>29376.264811522702</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73544.737525018965</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>55083.38658417097</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66076.527536031455</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>38405.900334826591</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66853.77379288977</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>73478.395974108891</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26039.427507628876</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>99316.929867325292</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99965.186414878801</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>38348.157963976046</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65438.805940114056</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>14624.040600028442</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49887.594098341193</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>98280.464798336325</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54561.1577315389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>41555.783845590391</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30408.782438479564</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>93960.39172811665</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21821.145300266697</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>41439.670135745153</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1469.3009534439527</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>85896.37170291254</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12517.482261156954</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>48878.102718517592</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24900.860774128418</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>82774.084183067316</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40106.858363220643</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>27658.091928585014</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69498.884658903349</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>47645.869029743946</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49020.991412543168</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>87608.407617581703</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93552.773332692479</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>3272.6282567145272</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97040.869731544139</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>19327.792978634428</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49725.842641363408</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>43449.27428146387</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80349.672442702053</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>43118.904124179193</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18193.98346543506</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>49738.052879837356</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29772.739550833183</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>46938.976843845972</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20002.24937139541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>51817.529564234341</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40289.297076198847</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>59241.125343561231</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59347.129487303173</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>67694.445976026138</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65070.43576074786</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>6458.3379634091334</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5279.3522201098567</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>93382.845951338037</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77183.362486016733</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>57924.784014930163</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32581.303486321543</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>99898.434093078977</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82133.268538112796</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>13365.065441937906</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44561.328252915533</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>8737.1221529777158</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84711.142799419555</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>69915.168766462593</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12663.171476306145</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>57674.2972747858</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55657.090552691399</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>9025.7569487288474</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49698.881423231578</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>13549.129062867949</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73902.962027177811</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>98341.688771313711</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32662.887359483229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>33136.166796343525</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26667.973363425503</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>56180.929678484026</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83923.629372239855</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>90186.318875095734</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73667.937025188396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>52279.517106091502</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62065.693704372992</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>59348.339463492339</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85019.452833110627</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>156.89174032037511</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16180.475919863567</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>54776.516719444633</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36207.17262426544</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>1010.9120718179154</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96282.542092102667</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>54152.017992882909</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26558.417900933186</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>44259.778415917259</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19952.120393031659</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>23586.427946053478</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97912.721971571314</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>73806.288110769528</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7147.9400990316581</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>11915.139271752905</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21913.62956699172</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>33923.119042630758</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57507.06366667262</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>539.45364274181622</v>
+        <v>89581.638157650072</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0345B8-7030-4240-A292-022964D3A418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C47BE562-B12A-4B83-A410-0F9FFC399094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1835,7 +1835,7 @@
         <v>70</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="2"/>
@@ -1905,7 +1905,7 @@
         <v>74</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="2"/>
@@ -2010,7 +2010,7 @@
         <v>80</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="2"/>
@@ -2045,7 +2045,7 @@
         <v>82</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
@@ -2080,7 +2080,7 @@
         <v>84</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
@@ -2185,7 +2185,7 @@
         <v>90</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="2"/>
@@ -5519,1801 +5519,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>30643.423555951289</v>
+        <v>13682.799039559734</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>90397.159761162082</v>
+        <v>19659.090745006491</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>55548.784380304547</v>
+        <v>93986.817135583988</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>10174.471854959544</v>
+        <v>80272.133933863995</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>76910.51606109667</v>
+        <v>28892.869018681467</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>72824.239581151749</v>
+        <v>18553.99716118049</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>29064.648077868758</v>
+        <v>26975.154252569399</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>5256.6910224865369</v>
+        <v>33667.936271205079</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>71204.490558005084</v>
+        <v>50451.591256843443</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>95907.731827643322</v>
+        <v>71371.063075744431</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>44689.635957747007</v>
+        <v>89918.76624238379</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>52128.419680711959</v>
+        <v>31734.935317461288</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>29750.956694061526</v>
+        <v>29506.556340203617</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>70697.903485381205</v>
+        <v>91252.248979971104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>62590.82914769747</v>
+        <v>22175.357186577006</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>57319.939479423309</v>
+        <v>91765.776535058234</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>57511.229585961257</v>
+        <v>3473.5302400424548</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>29716.403393235869</v>
+        <v>53745.315610137754</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>443.25455311139405</v>
+        <v>61350.623652400383</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>34460.978049927762</v>
+        <v>76979.211133709963</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>10395.507089802502</v>
+        <v>88324.538746281207</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>69476.995959536318</v>
+        <v>21799.090866171922</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>28866.415529744936</v>
+        <v>97519.581588793691</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>78406.167131336973</v>
+        <v>64119.202308331282</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>2095.7932173067074</v>
+        <v>70738.099246866361</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>83262.629875675048</v>
+        <v>36455.547271589319</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>7953.740373774609</v>
+        <v>22205.10736735848</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>34556.396459113079</v>
+        <v>83860.252649799731</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>36411.1333664786</v>
+        <v>50249.480892894462</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>49165.369480706111</v>
+        <v>40840.084244920174</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>55815.476327511737</v>
+        <v>36008.99654510535</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>9067.7652590682719</v>
+        <v>79497.247927795062</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>60860.177771439929</v>
+        <v>2759.2937253271944</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>5149.2464827812892</v>
+        <v>3927.9117040351916</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>84228.509452961516</v>
+        <v>49967.045830411153</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>42340.599847291895</v>
+        <v>60088.457514335692</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>14497.236357064281</v>
+        <v>26053.38139862119</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>72916.44158946375</v>
+        <v>88939.227988511193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>29087.871466094006</v>
+        <v>753.11231982400079</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>60885.806197559577</v>
+        <v>42094.951886731724</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>79179.968686465465</v>
+        <v>75584.486498893893</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>87298.77718238956</v>
+        <v>72163.407251694196</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>47096.176788469093</v>
+        <v>32359.933048456202</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>27647.094390888673</v>
+        <v>27507.908409411841</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>51497.064180972775</v>
+        <v>71371.661412009489</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>26892.12567702185</v>
+        <v>46180.783396944455</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>14192.642695295566</v>
+        <v>81725.856849138276</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>42566.194369361147</v>
+        <v>70758.739179489101</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>51153.111608931504</v>
+        <v>58757.984220861079</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>78213.043119654016</v>
+        <v>19765.083571101284</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>7130.537301697892</v>
+        <v>26219.565727973804</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>3891.3151700903481</v>
+        <v>91834.742787170631</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>73881.124171092102</v>
+        <v>28745.838897897102</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>38955.245142446416</v>
+        <v>52730.921913312857</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>14852.442343054607</v>
+        <v>5738.6671065406736</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>95168.217845604362</v>
+        <v>950.44705730603641</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>51145.79059861241</v>
+        <v>11911.83205335431</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>61963.145093028179</v>
+        <v>7140.9385079208469</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>79125.695990158405</v>
+        <v>69780.43288740587</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>34048.997277345661</v>
+        <v>87728.029021610666</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>39543.729315171149</v>
+        <v>97290.047595102194</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>16278.767074195066</v>
+        <v>88407.291179997439</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>76864.413165495556</v>
+        <v>85765.37436730339</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>49866.327861535741</v>
+        <v>5315.4751725807528</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>62739.233269079821</v>
+        <v>40592.648048104507</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>73377.623777358196</v>
+        <v>31040.94639041397</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>35059.677896230271</v>
+        <v>69997.293279707403</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>56066.441169103244</v>
+        <v>81017.918290477261</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>95995.237489730396</v>
+        <v>31503.929605393423</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>90090.846196706305</v>
+        <v>47289.965672889492</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>46647.030794339196</v>
+        <v>71538.089511708386</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>85430.224920768116</v>
+        <v>21842.399401629242</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>58313.290534113548</v>
+        <v>80938.06388359626</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>16118.69096564712</v>
+        <v>43013.928012971657</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>95955.601554159977</v>
+        <v>52406.838904233402</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>13092.293347468809</v>
+        <v>37199.330986840265</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>40624.956960015203</v>
+        <v>20303.598957230872</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>86729.09010404037</v>
+        <v>81138.755577562566</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>86831.240645386089</v>
+        <v>3929.2126988739074</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>68918.156506682499</v>
+        <v>41701.933327081744</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>23224.043923764926</v>
+        <v>94518.620111096083</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>62572.752993300506</v>
+        <v>43191.387964393754</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>10109.3036959367</v>
+        <v>40494.737984379324</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>32151.502926157016</v>
+        <v>70817.458465566728</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>19365.622466005007</v>
+        <v>74846.759353892427</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>5160.4212434865458</v>
+        <v>38416.986242352868</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>72726.050755674398</v>
+        <v>54157.315970544892</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>50615.441014229546</v>
+        <v>54057.882103664648</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>34512.40696095876</v>
+        <v>66972.15169965291</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>41031.635551745268</v>
+        <v>57324.39340158394</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>20741.062811675059</v>
+        <v>27574.977074087383</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>44951.969051246357</v>
+        <v>29392.860338255923</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>32105.155241623841</v>
+        <v>81189.52757587214</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>44811.036728088337</v>
+        <v>17742.30758306984</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>83.683569953274528</v>
+        <v>6020.1612858380768</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>82383.619792308906</v>
+        <v>69920.270968531244</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>58248.838722068111</v>
+        <v>88526.41623057703</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>95265.017260926805</v>
+        <v>29457.71274393034</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>65130.734662795396</v>
+        <v>35680.948890063992</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>61888.582511145098</v>
+        <v>76258.507851427188</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>76252.722919900159</v>
+        <v>35537.649061315802</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>25488.455815815258</v>
+        <v>47168.218755852897</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>69047.255614791575</v>
+        <v>53962.928800971553</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>64611.974020868809</v>
+        <v>3633.4286539876803</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>50278.317248005042</v>
+        <v>78410.085627084816</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>85734.322118149648</v>
+        <v>66294.981537597327</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>1262.8971888564377</v>
+        <v>78847.936617757106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>49355.38533253604</v>
+        <v>75850.557660318969</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>98518.926660073688</v>
+        <v>28082.409141057473</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>34471.434260411683</v>
+        <v>38015.467032275628</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>70524.21088481239</v>
+        <v>59548.99541791503</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>81641.994280011902</v>
+        <v>22968.232667136836</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>26950.428663703697</v>
+        <v>85545.013917887249</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>69052.297429223327</v>
+        <v>20710.815496432489</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>44365.782008448485</v>
+        <v>99148.747382989837</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>12999.075803898475</v>
+        <v>92213.018816585318</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>29993.893220989208</v>
+        <v>53670.613080912808</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>55293.730124905036</v>
+        <v>66672.06584145088</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>20818.440077458978</v>
+        <v>7809.6901321705991</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>70812.987026472212</v>
+        <v>86156.120522716694</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>35220.051699584241</v>
+        <v>37382.707513417001</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>41794.730961785579</v>
+        <v>55192.693113520741</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>73235.957961419335</v>
+        <v>9069.800887288171</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>78676.888987294195</v>
+        <v>87113.707085722519</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>35439.010859883427</v>
+        <v>12838.459944687829</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>40203.768464250832</v>
+        <v>52183.105810520094</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>94883.239096689053</v>
+        <v>35340.188988548718</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>66625.504985508931</v>
+        <v>3377.9413803364801</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>70742.58611470442</v>
+        <v>34846.847788503313</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>50400.166509941417</v>
+        <v>60632.334314611828</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>62018.74986805459</v>
+        <v>98568.556501261846</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>49075.003661351511</v>
+        <v>34357.162490935392</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>51414.532311069161</v>
+        <v>79227.580762125915</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>35829.854968986598</v>
+        <v>73849.598523690103</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>33875.058506363552</v>
+        <v>16413.921089268879</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>76254.32316930189</v>
+        <v>43531.184837792578</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>55308.428747301041</v>
+        <v>75304.608147693347</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>97803.560024158593</v>
+        <v>68419.384669717125</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>26592.931580682798</v>
+        <v>84950.699355614037</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>76483.956775466795</v>
+        <v>15600.411232961442</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>39983.452341161981</v>
+        <v>62125.368976165417</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>79678.654555134781</v>
+        <v>7942.8123459608032</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>39595.957284172669</v>
+        <v>7369.3228728507584</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>80882.411089954083</v>
+        <v>31719.980972750571</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>69577.274417541499</v>
+        <v>14215.273222874048</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>79304.371425744263</v>
+        <v>40713.371417157097</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>27780.857992367768</v>
+        <v>48258.987865072755</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>70116.95866656024</v>
+        <v>44100.910467680929</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>91822.571725975373</v>
+        <v>5204.2307181730312</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>84863.744738721027</v>
+        <v>79237.491502626581</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>33684.905094870577</v>
+        <v>79056.412548399065</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>27525.33277648711</v>
+        <v>51864.961454805656</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>69053.723420147624</v>
+        <v>37165.279004996046</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>22304.343363529642</v>
+        <v>76751.813489962602</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>20521.652917020485</v>
+        <v>89507.055639633996</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>44094.505125250304</v>
+        <v>61770.94727685205</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>67397.903441169299</v>
+        <v>11726.976672622703</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>46390.995873110573</v>
+        <v>83232.255758822343</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>92973.755682363597</v>
+        <v>61662.608822553026</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>87868.024289744601</v>
+        <v>95671.023911277836</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>64932.422275880795</v>
+        <v>73046.792923918998</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>58917.947863027883</v>
+        <v>7267.0364720905818</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>54226.288152228699</v>
+        <v>60178.633873208775</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>62937.156800842618</v>
+        <v>56638.738428990313</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>48364.458469426165</v>
+        <v>28084.236798151218</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>99165.355994785394</v>
+        <v>48444.703830553168</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>94083.376929443839</v>
+        <v>73320.875041221894</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>29927.781870402927</v>
+        <v>83922.304254147268</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>93988.149729434168</v>
+        <v>55589.952596212242</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>12234.030622287495</v>
+        <v>50692.706679900533</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>27054.932859039327</v>
+        <v>9631.847392181935</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>11038.252482249256</v>
+        <v>79353.581029031455</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>94079.054230525973</v>
+        <v>52122.009442134768</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>96129.816921477861</v>
+        <v>56187.92180885125</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>7195.1896247668619</v>
+        <v>2089.959196885849</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>29422.080678077888</v>
+        <v>95389.38541955773</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>1462.8505241328526</v>
+        <v>58470.37209570314</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>61496.951429230561</v>
+        <v>18451.120882318985</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>46697.631804708064</v>
+        <v>58612.630826965215</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>12317.969914449412</v>
+        <v>54752.365616843505</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>10307.976231474602</v>
+        <v>46752.655787978169</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>7157.1199128924627</v>
+        <v>37606.606921175902</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>22866.101787653635</v>
+        <v>48844.672511842145</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>68099.963929713878</v>
+        <v>5432.5394338064934</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>15755.953403438227</v>
+        <v>35058.7841314424</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>5804.8250195717246</v>
+        <v>62776.857952372498</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>67037.13720973875</v>
+        <v>13685.332941798901</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>87711.361502682412</v>
+        <v>72227.490849318347</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>46829.048824985621</v>
+        <v>34264.151694865366</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>15655.826451877931</v>
+        <v>38105.332627796219</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>41537.131394509212</v>
+        <v>26833.880869844874</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>17508.33843573082</v>
+        <v>95851.281916517954</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>55179.608944460379</v>
+        <v>38807.642984061473</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>21881.509269544818</v>
+        <v>33336.845097442936</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>80142.648306829084</v>
+        <v>60859.085218756838</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>56988.694384245355</v>
+        <v>58354.096894648836</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>33049.287531838178</v>
+        <v>49034.384445865689</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>63431.468416090829</v>
+        <v>3360.2764867452506</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>13436.002375175571</v>
+        <v>80467.732419259803</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>54774.755023654965</v>
+        <v>73487.664007610205</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>86621.371328555004</v>
+        <v>5051.8167791279493</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>77505.837399565309</v>
+        <v>385.33360808373772</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>78124.25467970928</v>
+        <v>59980.994703071236</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>92307.391344205564</v>
+        <v>1688.1710593562693</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>55877.880394167667</v>
+        <v>65707.603765540873</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>15769.336546773271</v>
+        <v>75905.286076674529</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>45509.741320749861</v>
+        <v>81260.646458959789</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>64042.367038464086</v>
+        <v>73304.432020311389</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>24786.244614526466</v>
+        <v>29373.899217415612</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>18938.502764505462</v>
+        <v>56966.479245019109</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>74453.95583334002</v>
+        <v>50987.483317472885</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>96148.987687543951</v>
+        <v>82623.172428227117</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>63397.304926696466</v>
+        <v>26444.85679751436</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>31684.381322399189</v>
+        <v>52787.048040839079</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>43095.975437936431</v>
+        <v>47654.286923431609</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>2575.6822172764091</v>
+        <v>98595.12411504217</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>56575.301912980169</v>
+        <v>17156.514197755234</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>13341.837684190661</v>
+        <v>9152.4296705960733</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>18582.228877723515</v>
+        <v>65255.802765234206</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>62147.704625847866</v>
+        <v>96354.778046770414</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>65259.533378870852</v>
+        <v>59249.179722130531</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>99822.878220954735</v>
+        <v>21370.083968602226</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>97276.484160719629</v>
+        <v>78676.312312613401</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>8849.545915722023</v>
+        <v>89286.429510582006</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>17720.599526085178</v>
+        <v>34615.477141364994</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>63540.473646692233</v>
+        <v>16679.026490216209</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>71477.710926502987</v>
+        <v>50497.789743846944</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>12417.978467868874</v>
+        <v>53366.146034822028</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>24002.799950148044</v>
+        <v>86549.677169790477</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>66392.16972332749</v>
+        <v>20006.343709345696</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>21493.391362148173</v>
+        <v>98984.399771611366</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>49729.060511851567</v>
+        <v>33165.597389519717</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>29498.432257437235</v>
+        <v>54724.616939175372</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>53233.201272237995</v>
+        <v>47654.901763261601</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>10281.041132328328</v>
+        <v>33423.088040994146</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>47984.277271911888</v>
+        <v>83137.498244628761</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>7581.8371507571201</v>
+        <v>43470.598354332615</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>36082.464481227507</v>
+        <v>12893.039430092456</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>59892.805408890395</v>
+        <v>88427.053168002982</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>55609.443945391293</v>
+        <v>82316.207058647662</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>35149.782257696097</v>
+        <v>22613.945127992996</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>68046.253659757975</v>
+        <v>38133.238326279636</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>95619.719589070839</v>
+        <v>79319.038837566535</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>67493.37702987816</v>
+        <v>74910.310132751736</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>10972.002540356018</v>
+        <v>24050.255268719477</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>58225.354765043492</v>
+        <v>1617.6055014815338</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>40725.342463583482</v>
+        <v>87359.990838512778</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>96567.503421530637</v>
+        <v>67609.084512008994</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>73544.737525018965</v>
+        <v>26462.544471814108</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>66076.527536031455</v>
+        <v>44276.532437347036</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>66853.77379288977</v>
+        <v>88442.679036457528</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>26039.427507628876</v>
+        <v>52535.378024197533</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>99965.186414878801</v>
+        <v>45987.907023695327</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>65438.805940114056</v>
+        <v>74995.83034111734</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>49887.594098341193</v>
+        <v>28473.603209547226</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>54561.1577315389</v>
+        <v>80107.848721080649</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>30408.782438479564</v>
+        <v>39736.548539306394</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>21821.145300266697</v>
+        <v>56906.507348024585</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>1469.3009534439527</v>
+        <v>6408.3116889001149</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>12517.482261156954</v>
+        <v>67442.149460735018</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>24900.860774128418</v>
+        <v>76069.653445924851</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>40106.858363220643</v>
+        <v>48112.878737704676</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>69498.884658903349</v>
+        <v>47351.864192922789</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>49020.991412543168</v>
+        <v>45357.296485974162</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>93552.773332692479</v>
+        <v>99579.207390555079</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>97040.869731544139</v>
+        <v>4748.9672088190773</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>49725.842641363408</v>
+        <v>49431.476267678139</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>80349.672442702053</v>
+        <v>87541.395362036972</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>18193.98346543506</v>
+        <v>92663.864261300681</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>29772.739550833183</v>
+        <v>60840.966756889335</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>20002.24937139541</v>
+        <v>51611.811095036086</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>40289.297076198847</v>
+        <v>11183.80288854931</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>59347.129487303173</v>
+        <v>40003.729507898002</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>65070.43576074786</v>
+        <v>23815.856486384891</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>5279.3522201098567</v>
+        <v>46240.061698571364</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>77183.362486016733</v>
+        <v>43955.764056781911</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>32581.303486321543</v>
+        <v>22872.790715171308</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>82133.268538112796</v>
+        <v>25024.090099314501</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>44561.328252915533</v>
+        <v>98113.137179101424</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>84711.142799419555</v>
+        <v>25306.59423193823</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>12663.171476306145</v>
+        <v>62660.393379537039</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>55657.090552691399</v>
+        <v>93817.102966642735</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>49698.881423231578</v>
+        <v>24126.111639855208</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>73902.962027177811</v>
+        <v>3382.3169266835262</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>32662.887359483229</v>
+        <v>11552.199695407062</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>26667.973363425503</v>
+        <v>67462.572811496386</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>83923.629372239855</v>
+        <v>26012.000675545467</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>73667.937025188396</v>
+        <v>58123.144007574359</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>62065.693704372992</v>
+        <v>70100.459902961447</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>85019.452833110627</v>
+        <v>26321.199615074009</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>16180.475919863567</v>
+        <v>97764.328663769818</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>36207.17262426544</v>
+        <v>14639.783434049592</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>96282.542092102667</v>
+        <v>43947.96714713268</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>26558.417900933186</v>
+        <v>27116.131034737624</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>19952.120393031659</v>
+        <v>43614.182602651119</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>97912.721971571314</v>
+        <v>48712.038562860384</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>7147.9400990316581</v>
+        <v>7217.2356474121789</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>21913.62956699172</v>
+        <v>75038.673879274516</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>57507.06366667262</v>
+        <v>50487.719195000711</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>89581.638157650072</v>
+        <v>87298.918154109328</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C47BE562-B12A-4B83-A410-0F9FFC399094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350F8882-EA00-4DA9-8BB5-AF500F2FEDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1555,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
@@ -1835,7 +1835,7 @@
         <v>70</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="2"/>
@@ -5519,1801 +5519,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>13682.799039559734</v>
+        <v>21115.554414910865</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>19659.090745006491</v>
+        <v>22514.582923385162</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>93986.817135583988</v>
+        <v>74399.269445892656</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>80272.133933863995</v>
+        <v>78515.276898167373</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>28892.869018681467</v>
+        <v>77391.563775532806</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>18553.99716118049</v>
+        <v>91443.753091155668</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>26975.154252569399</v>
+        <v>25349.066452612478</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>33667.936271205079</v>
+        <v>17157.067216419553</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>50451.591256843443</v>
+        <v>77600.459418489569</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>71371.063075744431</v>
+        <v>73557.512981725115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>89918.76624238379</v>
+        <v>6252.7004731963489</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>31734.935317461288</v>
+        <v>92722.024700761875</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>29506.556340203617</v>
+        <v>15258.75031105468</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>91252.248979971104</v>
+        <v>9230.8703068469604</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>22175.357186577006</v>
+        <v>96676.972342598048</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>91765.776535058234</v>
+        <v>22965.159643125076</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>3473.5302400424548</v>
+        <v>10445.034623320049</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>53745.315610137754</v>
+        <v>99660.303590231182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>61350.623652400383</v>
+        <v>53595.558207767201</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>76979.211133709963</v>
+        <v>44389.836071636848</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>88324.538746281207</v>
+        <v>12644.952415606669</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>21799.090866171922</v>
+        <v>39605.180047616392</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>97519.581588793691</v>
+        <v>98493.433831027694</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>64119.202308331282</v>
+        <v>70534.866109582043</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>70738.099246866361</v>
+        <v>74708.368481646874</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>36455.547271589319</v>
+        <v>84558.916440584391</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>22205.10736735848</v>
+        <v>5885.6180681898795</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>83860.252649799731</v>
+        <v>70047.750295533202</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>50249.480892894462</v>
+        <v>4488.6616306845099</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>40840.084244920174</v>
+        <v>11393.434203898878</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>36008.99654510535</v>
+        <v>64451.815744012696</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>79497.247927795062</v>
+        <v>79632.528825461646</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>2759.2937253271944</v>
+        <v>52528.662706146177</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>3927.9117040351916</v>
+        <v>66781.314740797825</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>49967.045830411153</v>
+        <v>64801.43026364562</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>60088.457514335692</v>
+        <v>38320.337831034747</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>26053.38139862119</v>
+        <v>91777.984762481428</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>88939.227988511193</v>
+        <v>5442.931448801547</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>753.11231982400079</v>
+        <v>21924.160142591354</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>42094.951886731724</v>
+        <v>66594.144444345016</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>75584.486498893893</v>
+        <v>56461.968284601091</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>72163.407251694196</v>
+        <v>11994.62924679463</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>32359.933048456202</v>
+        <v>22999.172053284656</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>27507.908409411841</v>
+        <v>35091.576183708697</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>71371.661412009489</v>
+        <v>11892.220387242025</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>46180.783396944455</v>
+        <v>17954.016866272716</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>81725.856849138276</v>
+        <v>19385.066650194927</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>70758.739179489101</v>
+        <v>3340.3089056936788</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>58757.984220861079</v>
+        <v>24928.739518060862</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>19765.083571101284</v>
+        <v>93907.649428615274</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>26219.565727973804</v>
+        <v>56253.450074198474</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>91834.742787170631</v>
+        <v>47328.779004261014</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>28745.838897897102</v>
+        <v>14029.928643825751</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>52730.921913312857</v>
+        <v>75739.34370457867</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>5738.6671065406736</v>
+        <v>72862.841575161758</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>950.44705730603641</v>
+        <v>70683.42335323905</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>11911.83205335431</v>
+        <v>36913.739184451057</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>7140.9385079208469</v>
+        <v>27966.831106030819</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>69780.43288740587</v>
+        <v>6932.3087299021372</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>87728.029021610666</v>
+        <v>62915.906651122546</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>97290.047595102194</v>
+        <v>88588.666697631328</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>88407.291179997439</v>
+        <v>37345.489219038798</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>85765.37436730339</v>
+        <v>31593.624302280175</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>5315.4751725807528</v>
+        <v>18973.703618220228</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>40592.648048104507</v>
+        <v>60106.811043329966</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>31040.94639041397</v>
+        <v>40265.690163120162</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>69997.293279707403</v>
+        <v>40947.444534098722</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>81017.918290477261</v>
+        <v>41190.179926859746</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>31503.929605393423</v>
+        <v>48866.437083633173</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>47289.965672889492</v>
+        <v>39383.022187626651</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>71538.089511708386</v>
+        <v>48446.848762560156</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>21842.399401629242</v>
+        <v>71775.850167201846</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>80938.06388359626</v>
+        <v>43302.891363860566</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>43013.928012971657</v>
+        <v>26566.547504356164</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>52406.838904233402</v>
+        <v>51045.102827713439</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>37199.330986840265</v>
+        <v>21568.207197213109</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>20303.598957230872</v>
+        <v>6973.6048820452033</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>81138.755577562566</v>
+        <v>42740.284961475569</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>3929.2126988739074</v>
+        <v>23924.513871697971</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>41701.933327081744</v>
+        <v>54124.261162798874</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>94518.620111096083</v>
+        <v>77389.718901411266</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>43191.387964393754</v>
+        <v>48776.346552849871</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>40494.737984379324</v>
+        <v>78838.764909384307</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>70817.458465566728</v>
+        <v>73612.033610421044</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>74846.759353892427</v>
+        <v>40799.803557942469</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>38416.986242352868</v>
+        <v>12947.143873029143</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>54157.315970544892</v>
+        <v>68939.172118342423</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>54057.882103664648</v>
+        <v>42306.877321950786</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>66972.15169965291</v>
+        <v>36138.928585665395</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>57324.39340158394</v>
+        <v>75275.757561693608</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>27574.977074087383</v>
+        <v>50612.780503090406</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>29392.860338255923</v>
+        <v>71803.407877149075</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>81189.52757587214</v>
+        <v>93073.134735240601</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>17742.30758306984</v>
+        <v>49560.884366767597</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>6020.1612858380768</v>
+        <v>98763.084339496869</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>69920.270968531244</v>
+        <v>16899.482326905534</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>88526.41623057703</v>
+        <v>93942.596257140976</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>29457.71274393034</v>
+        <v>43791.404103808571</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>35680.948890063992</v>
+        <v>94759.74231450395</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>76258.507851427188</v>
+        <v>55194.287625679128</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>35537.649061315802</v>
+        <v>71316.372089892044</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>47168.218755852897</v>
+        <v>31210.016088051219</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>53962.928800971553</v>
+        <v>9965.1800505371812</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>3633.4286539876803</v>
+        <v>57394.873482671203</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>78410.085627084816</v>
+        <v>12826.899191746854</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>66294.981537597327</v>
+        <v>95949.028178942826</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>78847.936617757106</v>
+        <v>69077.056427514981</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>75850.557660318969</v>
+        <v>98988.558232464682</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>28082.409141057473</v>
+        <v>92551.181388824683</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>38015.467032275628</v>
+        <v>69438.762436300036</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>59548.99541791503</v>
+        <v>36626.115158463224</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>22968.232667136836</v>
+        <v>3764.1165506240413</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>85545.013917887249</v>
+        <v>21504.030400408079</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>20710.815496432489</v>
+        <v>24360.920783357185</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>99148.747382989837</v>
+        <v>56722.550120540152</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>92213.018816585318</v>
+        <v>27470.972431465023</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>53670.613080912808</v>
+        <v>18947.338227888198</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>66672.06584145088</v>
+        <v>93862.672759088688</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>7809.6901321705991</v>
+        <v>16822.837208555509</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>86156.120522716694</v>
+        <v>49825.385737922436</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>37382.707513417001</v>
+        <v>25524.241302244012</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>55192.693113520741</v>
+        <v>30068.563522871184</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>9069.800887288171</v>
+        <v>63661.861467692892</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>87113.707085722519</v>
+        <v>8174.9510335789146</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>12838.459944687829</v>
+        <v>94503.818621440223</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>52183.105810520094</v>
+        <v>19758.707204091632</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>35340.188988548718</v>
+        <v>85905.986615174406</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>3377.9413803364801</v>
+        <v>43717.06682598636</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>34846.847788503313</v>
+        <v>26282.357914702847</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>60632.334314611828</v>
+        <v>12025.030302085916</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>98568.556501261846</v>
+        <v>57729.921488016524</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>34357.162490935392</v>
+        <v>8206.3494494194929</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>79227.580762125915</v>
+        <v>91244.4615560495</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>73849.598523690103</v>
+        <v>12827.228949427748</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>16413.921089268879</v>
+        <v>36488.648700891114</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>43531.184837792578</v>
+        <v>70080.549450978549</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>75304.608147693347</v>
+        <v>59497.762766156018</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>68419.384669717125</v>
+        <v>38.362545679437865</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>84950.699355614037</v>
+        <v>80872.065655258979</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>15600.411232961442</v>
+        <v>64259.334099800501</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>62125.368976165417</v>
+        <v>47841.784201190276</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>7942.8123459608032</v>
+        <v>67712.367898062061</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>7369.3228728507584</v>
+        <v>6556.9139230675974</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>31719.980972750571</v>
+        <v>28137.038915400415</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>14215.273222874048</v>
+        <v>30700.925222714624</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>40713.371417157097</v>
+        <v>56659.787003566045</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>48258.987865072755</v>
+        <v>49020.810065647434</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>44100.910467680929</v>
+        <v>20823.903722709423</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>5204.2307181730312</v>
+        <v>76013.261848848415</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>79237.491502626581</v>
+        <v>45459.591833270308</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>79056.412548399065</v>
+        <v>13672.882546139497</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>51864.961454805656</v>
+        <v>77647.218217923539</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>37165.279004996046</v>
+        <v>26149.965493819825</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>76751.813489962602</v>
+        <v>52489.53666263607</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>89507.055639633996</v>
+        <v>66505.237700434212</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>61770.94727685205</v>
+        <v>24707.32499776176</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>11726.976672622703</v>
+        <v>45648.647599880875</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>83232.255758822343</v>
+        <v>33295.20661185935</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>61662.608822553026</v>
+        <v>89663.322760120893</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>95671.023911277836</v>
+        <v>55973.023117157849</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>73046.792923918998</v>
+        <v>98746.968529351652</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>7267.0364720905818</v>
+        <v>35837.800660641027</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>60178.633873208775</v>
+        <v>27252.977499757159</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>56638.738428990313</v>
+        <v>68682.860087967289</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>28084.236798151218</v>
+        <v>61267.308155056446</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>48444.703830553168</v>
+        <v>99581.618628022887</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>73320.875041221894</v>
+        <v>67797.71975502788</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>83922.304254147268</v>
+        <v>81853.070513824307</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>55589.952596212242</v>
+        <v>6575.5211481844381</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>50692.706679900533</v>
+        <v>24446.513961864512</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>9631.847392181935</v>
+        <v>70242.362030858276</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>79353.581029031455</v>
+        <v>31282.225125149111</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>52122.009442134768</v>
+        <v>19513.791729790275</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>56187.92180885125</v>
+        <v>77738.413170795713</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>2089.959196885849</v>
+        <v>8967.778866671817</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>95389.38541955773</v>
+        <v>31545.841661317099</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>58470.37209570314</v>
+        <v>60088.977904430853</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>18451.120882318985</v>
+        <v>52259.642047573449</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>58612.630826965215</v>
+        <v>18564.865820639709</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>54752.365616843505</v>
+        <v>64664.074216301357</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>46752.655787978169</v>
+        <v>34681.345164692953</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>37606.606921175902</v>
+        <v>58648.71663350294</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>48844.672511842145</v>
+        <v>28867.145751783995</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>5432.5394338064934</v>
+        <v>78325.788879707543</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>35058.7841314424</v>
+        <v>96743.128553580391</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>62776.857952372498</v>
+        <v>86316.075744256043</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>13685.332941798901</v>
+        <v>33330.870158429861</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>72227.490849318347</v>
+        <v>46137.239891547419</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>34264.151694865366</v>
+        <v>31743.51969756186</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>38105.332627796219</v>
+        <v>82746.196997300198</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>26833.880869844874</v>
+        <v>78495.995754448886</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>95851.281916517954</v>
+        <v>73005.340268338681</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>38807.642984061473</v>
+        <v>75345.542104970751</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>33336.845097442936</v>
+        <v>39249.874469062452</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>60859.085218756838</v>
+        <v>89966.912325679819</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>58354.096894648836</v>
+        <v>3376.5762295924319</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>49034.384445865689</v>
+        <v>73144.451976245749</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>3360.2764867452506</v>
+        <v>4958.3704817021789</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>80467.732419259803</v>
+        <v>85806.608454258778</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>73487.664007610205</v>
+        <v>17680.358421097786</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>5051.8167791279493</v>
+        <v>40831.659363039988</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>385.33360808373772</v>
+        <v>14775.912696976857</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>59980.994703071236</v>
+        <v>34149.134742870025</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>1688.1710593562693</v>
+        <v>84184.044697565332</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>65707.603765540873</v>
+        <v>93661.828777944756</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>75905.286076674529</v>
+        <v>89388.610572548816</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>81260.646458959789</v>
+        <v>78354.484880809978</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>73304.432020311389</v>
+        <v>99653.992828128568</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>29373.899217415612</v>
+        <v>2257.1082280840483</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>56966.479245019109</v>
+        <v>15147.394006294302</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>50987.483317472885</v>
+        <v>65924.067258491079</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>82623.172428227117</v>
+        <v>5859.3557944751519</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>26444.85679751436</v>
+        <v>261.40736520290363</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>52787.048040839079</v>
+        <v>67709.129112104783</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>47654.286923431609</v>
+        <v>97298.112105353997</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>98595.12411504217</v>
+        <v>25358.972303868697</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>17156.514197755234</v>
+        <v>61207.323603188372</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>9152.4296705960733</v>
+        <v>57304.075181652617</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>65255.802765234206</v>
+        <v>3671.8766166937035</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>96354.778046770414</v>
+        <v>30239.493376497627</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>59249.179722130531</v>
+        <v>41571.929558432697</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>21370.083968602226</v>
+        <v>3490.998577910831</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>78676.312312613401</v>
+        <v>89691.996283505956</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>89286.429510582006</v>
+        <v>24611.702303119397</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>34615.477141364994</v>
+        <v>83615.863481158041</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>16679.026490216209</v>
+        <v>13481.146792684118</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>50497.789743846944</v>
+        <v>80875.22622377993</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>53366.146034822028</v>
+        <v>92559.198950512888</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>86549.677169790477</v>
+        <v>96571.902201903838</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>20006.343709345696</v>
+        <v>38709.182314232028</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>98984.399771611366</v>
+        <v>97101.106151352462</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>33165.597389519717</v>
+        <v>58337.658147045993</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>54724.616939175372</v>
+        <v>35720.65927485811</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>47654.901763261601</v>
+        <v>8121.7005276163263</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>33423.088040994146</v>
+        <v>33571.41069830428</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>83137.498244628761</v>
+        <v>84340.445201169321</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>43470.598354332615</v>
+        <v>75940.440352331934</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>12893.039430092456</v>
+        <v>10118.930734242271</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>88427.053168002982</v>
+        <v>34561.31456512458</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>82316.207058647662</v>
+        <v>36212.473735746222</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>22613.945127992996</v>
+        <v>53559.039892553592</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>38133.238326279636</v>
+        <v>44263.038814464853</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>79319.038837566535</v>
+        <v>54263.205090146672</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>74910.310132751736</v>
+        <v>14205.495022503479</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>24050.255268719477</v>
+        <v>43057.400732355774</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>1617.6055014815338</v>
+        <v>79155.817510515088</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>87359.990838512778</v>
+        <v>60683.855738145619</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>67609.084512008994</v>
+        <v>36898.696448510549</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>26462.544471814108</v>
+        <v>36901.81698841574</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>44276.532437347036</v>
+        <v>51571.446944990574</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>88442.679036457528</v>
+        <v>35289.204041780111</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>52535.378024197533</v>
+        <v>12991.775588648257</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>45987.907023695327</v>
+        <v>89123.5328193819</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>74995.83034111734</v>
+        <v>16547.32211931924</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>28473.603209547226</v>
+        <v>41069.03801878322</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>80107.848721080649</v>
+        <v>8555.4914115092979</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>39736.548539306394</v>
+        <v>84462.771529981866</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>56906.507348024585</v>
+        <v>9974.4136271220814</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>6408.3116889001149</v>
+        <v>7217.9511617173948</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>67442.149460735018</v>
+        <v>53671.158401411813</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>76069.653445924851</v>
+        <v>65456.55877743286</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>48112.878737704676</v>
+        <v>44928.566117604452</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>47351.864192922789</v>
+        <v>56355.959384536705</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>45357.296485974162</v>
+        <v>81170.623693118512</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>99579.207390555079</v>
+        <v>66431.697029422619</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>4748.9672088190773</v>
+        <v>83004.538233523519</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>49431.476267678139</v>
+        <v>83639.905454769803</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>87541.395362036972</v>
+        <v>52939.87955149584</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>92663.864261300681</v>
+        <v>54927.661473924883</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>60840.966756889335</v>
+        <v>11591.425930573207</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>51611.811095036086</v>
+        <v>85415.617430155646</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>11183.80288854931</v>
+        <v>95314.655924899955</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>40003.729507898002</v>
+        <v>91799.408972512465</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>23815.856486384891</v>
+        <v>75457.036470974286</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>46240.061698571364</v>
+        <v>17345.705634154398</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>43955.764056781911</v>
+        <v>47078.808871971552</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>22872.790715171308</v>
+        <v>60345.942748475303</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>25024.090099314501</v>
+        <v>44896.954984834825</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>98113.137179101424</v>
+        <v>8529.6541573298127</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>25306.59423193823</v>
+        <v>33718.995051538899</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>62660.393379537039</v>
+        <v>6762.6261257017759</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>93817.102966642735</v>
+        <v>22162.089235778159</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>24126.111639855208</v>
+        <v>99128.253687683071</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>3382.3169266835262</v>
+        <v>29345.899064927482</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>11552.199695407062</v>
+        <v>83233.243475209005</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>67462.572811496386</v>
+        <v>4266.6521870284414</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>26012.000675545467</v>
+        <v>95335.674661009311</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>58123.144007574359</v>
+        <v>46533.744244364985</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>70100.459902961447</v>
+        <v>34018.323470126103</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>26321.199615074009</v>
+        <v>48289.477673358393</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>97764.328663769818</v>
+        <v>40721.700952672159</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>14639.783434049592</v>
+        <v>80438.176705415448</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>43947.96714713268</v>
+        <v>19695.361843806026</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>27116.131034737624</v>
+        <v>8930.9467732711764</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>43614.182602651119</v>
+        <v>5194.3167075609645</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>48712.038562860384</v>
+        <v>20265.805054445194</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>7217.2356474121789</v>
+        <v>93190.890775508611</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>75038.673879274516</v>
+        <v>63846.954966670768</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>50487.719195000711</v>
+        <v>91797.546231310916</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>87298.918154109328</v>
+        <v>29201.46733428257</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350F8882-EA00-4DA9-8BB5-AF500F2FEDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB157F33-1F95-48F2-8E7F-D702EC303941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
   <si>
     <t>invitado</t>
   </si>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t>BC0000055</t>
+  </si>
+  <si>
+    <t>Wendy Kathleen Lozano</t>
+  </si>
+  <si>
+    <t>BC0000056</t>
+  </si>
+  <si>
+    <t>Jean Guevara Pozo</t>
+  </si>
+  <si>
+    <t>BC0000057</t>
   </si>
 </sst>
 </file>
@@ -801,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1345,7 +1357,7 @@
         <v>41</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="2"/>
@@ -2772,6 +2784,76 @@
         <v>36</v>
       </c>
       <c r="J56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" ref="C57" si="10">CONCATENATE(E57,F57)</f>
+        <v>BC000005642456</v>
+      </c>
+      <c r="D57">
+        <v>968238268</v>
+      </c>
+      <c r="E57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57">
+        <f>Hoja2!B57</f>
+        <v>42456</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" ref="H57" si="11">CONCATENATE(G57,C57)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005642456</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ref="C58" si="12">CONCATENATE(E58,F58)</f>
+        <v>BC00000577410</v>
+      </c>
+      <c r="D58">
+        <v>968238269</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58">
+        <f>Hoja2!B58</f>
+        <v>7410</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" ref="H58" si="13">CONCATENATE(G58,C58)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC00000577410</v>
+      </c>
+      <c r="I58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2784,9 +2866,11 @@
     <hyperlink ref="G54" r:id="rId3" xr:uid="{2E0D1352-D939-471C-AD35-0E844912A9E5}"/>
     <hyperlink ref="G55" r:id="rId4" xr:uid="{0D5BE78C-10A9-43FF-B267-27F08103036D}"/>
     <hyperlink ref="G56" r:id="rId5" xr:uid="{584BEC43-ACEA-4164-A957-EDA521A25576}"/>
+    <hyperlink ref="G57" r:id="rId6" xr:uid="{8657F787-11A6-4934-AF7C-53EE8CBF9C77}"/>
+    <hyperlink ref="G58" r:id="rId7" xr:uid="{1C08DE60-2F05-4EBF-9729-6BBCE42EEB8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5519,1801 +5603,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>21115.554414910865</v>
+        <v>71741.23772595331</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>22514.582923385162</v>
+        <v>14881.501202227199</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>74399.269445892656</v>
+        <v>22493.425363614762</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>78515.276898167373</v>
+        <v>88475.376463408815</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>77391.563775532806</v>
+        <v>30622.409269179461</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>91443.753091155668</v>
+        <v>7177.8005388250294</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>25349.066452612478</v>
+        <v>88170.262171114548</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>17157.067216419553</v>
+        <v>29865.519174513756</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>77600.459418489569</v>
+        <v>81603.793702655268</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>73557.512981725115</v>
+        <v>83842.926907580608</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>6252.7004731963489</v>
+        <v>30864.85071119569</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>92722.024700761875</v>
+        <v>97911.155037846693</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>15258.75031105468</v>
+        <v>29017.541813797976</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>9230.8703068469604</v>
+        <v>72946.783644585361</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>96676.972342598048</v>
+        <v>17841.328897016272</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>22965.159643125076</v>
+        <v>31824.467352569209</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>10445.034623320049</v>
+        <v>23826.328790551288</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>99660.303590231182</v>
+        <v>25627.569790776171</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>53595.558207767201</v>
+        <v>90413.2626217871</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>44389.836071636848</v>
+        <v>59514.752357283221</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>12644.952415606669</v>
+        <v>55575.805426229264</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>39605.180047616392</v>
+        <v>31256.969013004964</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>98493.433831027694</v>
+        <v>46185.991265801182</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>70534.866109582043</v>
+        <v>83541.523549227466</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>74708.368481646874</v>
+        <v>74198.268468786264</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>84558.916440584391</v>
+        <v>25441.379337538448</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>5885.6180681898795</v>
+        <v>17290.914145047311</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>70047.750295533202</v>
+        <v>48781.593238792288</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>4488.6616306845099</v>
+        <v>81201.533402292582</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>11393.434203898878</v>
+        <v>221.17169210963405</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>64451.815744012696</v>
+        <v>10079.206485423609</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>79632.528825461646</v>
+        <v>6529.6598210338507</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>52528.662706146177</v>
+        <v>95107.466322624867</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>66781.314740797825</v>
+        <v>82002.647290730121</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>64801.43026364562</v>
+        <v>24412.952143580602</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>38320.337831034747</v>
+        <v>50541.080198149488</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>91777.984762481428</v>
+        <v>8567.9674284720895</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>5442.931448801547</v>
+        <v>28763.687129247828</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>21924.160142591354</v>
+        <v>6082.1702707816175</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>66594.144444345016</v>
+        <v>53373.947407076696</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>56461.968284601091</v>
+        <v>56048.677153633245</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>11994.62924679463</v>
+        <v>12704.562704801536</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>22999.172053284656</v>
+        <v>25720.259565103344</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>35091.576183708697</v>
+        <v>79230.226195417054</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>11892.220387242025</v>
+        <v>68212.124348627985</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>17954.016866272716</v>
+        <v>28904.057702774931</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>19385.066650194927</v>
+        <v>11597.346093094919</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>3340.3089056936788</v>
+        <v>25750.874456660746</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>24928.739518060862</v>
+        <v>55217.702755124177</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>93907.649428615274</v>
+        <v>57820.522381657756</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>56253.450074198474</v>
+        <v>76463.048144883433</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>47328.779004261014</v>
+        <v>39074.354360900645</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>14029.928643825751</v>
+        <v>90923.812472382619</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>75739.34370457867</v>
+        <v>49302.306467944967</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>72862.841575161758</v>
+        <v>1508.1933954906201</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>70683.42335323905</v>
+        <v>10347.176904081589</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>36913.739184451057</v>
+        <v>73210.953725977204</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>27966.831106030819</v>
+        <v>61789.994215491592</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>6932.3087299021372</v>
+        <v>72101.008866385499</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>62915.906651122546</v>
+        <v>25076.004344804871</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>88588.666697631328</v>
+        <v>38738.708291627569</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>37345.489219038798</v>
+        <v>7913.8927410355773</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>31593.624302280175</v>
+        <v>48543.102068420005</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>18973.703618220228</v>
+        <v>66907.983966386993</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>60106.811043329966</v>
+        <v>7094.567206684399</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>40265.690163120162</v>
+        <v>36402.770340185096</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>40947.444534098722</v>
+        <v>11464.981793992001</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>41190.179926859746</v>
+        <v>1364.8042568687902</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>48866.437083633173</v>
+        <v>48272.19718603044</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>39383.022187626651</v>
+        <v>54332.427733943965</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>48446.848762560156</v>
+        <v>32376.224921814188</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>71775.850167201846</v>
+        <v>92320.357745146015</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>43302.891363860566</v>
+        <v>28313.405524234138</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>26566.547504356164</v>
+        <v>91897.274077552531</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>51045.102827713439</v>
+        <v>80470.009701306903</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>21568.207197213109</v>
+        <v>76130.651851727525</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>6973.6048820452033</v>
+        <v>86303.98488801028</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>42740.284961475569</v>
+        <v>89455.483141838034</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>23924.513871697971</v>
+        <v>11944.709663842301</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>54124.261162798874</v>
+        <v>23796.815462957689</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>77389.718901411266</v>
+        <v>58089.064028547058</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>48776.346552849871</v>
+        <v>96972.467669758189</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>78838.764909384307</v>
+        <v>17959.543370578245</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>73612.033610421044</v>
+        <v>9937.6591219923375</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>40799.803557942469</v>
+        <v>30061.213251090379</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>12947.143873029143</v>
+        <v>72993.13124339249</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>68939.172118342423</v>
+        <v>94325.062674881949</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>42306.877321950786</v>
+        <v>67864.9860918841</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>36138.928585665395</v>
+        <v>79178.810710767648</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>75275.757561693608</v>
+        <v>93928.340311844426</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>50612.780503090406</v>
+        <v>23236.02594907751</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>71803.407877149075</v>
+        <v>79487.637954320337</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>93073.134735240601</v>
+        <v>41549.03067150533</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>49560.884366767597</v>
+        <v>19562.541252177267</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>98763.084339496869</v>
+        <v>60627.933306892337</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>16899.482326905534</v>
+        <v>1473.8680761244627</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>93942.596257140976</v>
+        <v>21046.637394101908</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>43791.404103808571</v>
+        <v>7099.4060698422845</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>94759.74231450395</v>
+        <v>89250.443852426717</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>55194.287625679128</v>
+        <v>97925.36958653995</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>71316.372089892044</v>
+        <v>98392.918412157975</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>31210.016088051219</v>
+        <v>67588.303179665731</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>9965.1800505371812</v>
+        <v>88939.658245579762</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>57394.873482671203</v>
+        <v>99013.758367054979</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>12826.899191746854</v>
+        <v>79089.140189515281</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>95949.028178942826</v>
+        <v>94730.335786198819</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>69077.056427514981</v>
+        <v>92276.332580158953</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>98988.558232464682</v>
+        <v>77935.364278613662</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>92551.181388824683</v>
+        <v>37343.089284809917</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>69438.762436300036</v>
+        <v>26458.622691147993</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>36626.115158463224</v>
+        <v>53582.893887236634</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>3764.1165506240413</v>
+        <v>16042.370927888205</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>21504.030400408079</v>
+        <v>92593.664665314252</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>24360.920783357185</v>
+        <v>8257.5064156369608</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>56722.550120540152</v>
+        <v>17053.595929974163</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>27470.972431465023</v>
+        <v>7022.7146415789866</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>18947.338227888198</v>
+        <v>73470.751839067962</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>93862.672759088688</v>
+        <v>34792.236088046055</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>16822.837208555509</v>
+        <v>99031.645398565684</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>49825.385737922436</v>
+        <v>9810.712643214647</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>25524.241302244012</v>
+        <v>8926.9406709021496</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>30068.563522871184</v>
+        <v>12178.073787912303</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>63661.861467692892</v>
+        <v>43751.577057268441</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>8174.9510335789146</v>
+        <v>31736.823334612251</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>94503.818621440223</v>
+        <v>52035.634750333746</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>19758.707204091632</v>
+        <v>91903.224387564958</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>85905.986615174406</v>
+        <v>56580.044448828026</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>43717.06682598636</v>
+        <v>9195.2783273175792</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>26282.357914702847</v>
+        <v>27553.425761152517</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>12025.030302085916</v>
+        <v>42774.669358258754</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>57729.921488016524</v>
+        <v>37350.330310942394</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>8206.3494494194929</v>
+        <v>39657.918893346177</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>91244.4615560495</v>
+        <v>44490.440814203248</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>12827.228949427748</v>
+        <v>86580.663352869713</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>36488.648700891114</v>
+        <v>58894.391790914735</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>70080.549450978549</v>
+        <v>84353.185785053443</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>59497.762766156018</v>
+        <v>81536.999545829065</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>38.362545679437865</v>
+        <v>28010.8183171649</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>80872.065655258979</v>
+        <v>16429.453150534468</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>64259.334099800501</v>
+        <v>65424.395049231374</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>47841.784201190276</v>
+        <v>65571.832624254166</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>67712.367898062061</v>
+        <v>9702.9795237185681</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>6556.9139230675974</v>
+        <v>85659.749829078108</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>28137.038915400415</v>
+        <v>86805.088708865878</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>30700.925222714624</v>
+        <v>8700.3765372241196</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>56659.787003566045</v>
+        <v>23218.502232074588</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>49020.810065647434</v>
+        <v>34718.247366604061</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>20823.903722709423</v>
+        <v>52293.637021352777</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>76013.261848848415</v>
+        <v>75098.781673347708</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>45459.591833270308</v>
+        <v>24075.71231565937</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>13672.882546139497</v>
+        <v>75314.914438790933</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>77647.218217923539</v>
+        <v>22034.294274683354</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>26149.965493819825</v>
+        <v>51644.119036161872</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>52489.53666263607</v>
+        <v>61056.769781504161</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>66505.237700434212</v>
+        <v>88652.351030308811</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>24707.32499776176</v>
+        <v>54703.261695054418</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>45648.647599880875</v>
+        <v>9221.8906858324008</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>33295.20661185935</v>
+        <v>74126.81278911003</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>89663.322760120893</v>
+        <v>16844.050538990297</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>55973.023117157849</v>
+        <v>35746.528821177337</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>98746.968529351652</v>
+        <v>58988.158393219615</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>35837.800660641027</v>
+        <v>67198.815129007198</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>27252.977499757159</v>
+        <v>71582.005494194862</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>68682.860087967289</v>
+        <v>39897.844719385153</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>61267.308155056446</v>
+        <v>51604.921586854471</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>99581.618628022887</v>
+        <v>79816.766472566029</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>67797.71975502788</v>
+        <v>97934.343287331372</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>81853.070513824307</v>
+        <v>66757.501478080085</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>6575.5211481844381</v>
+        <v>10493.258161710339</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>24446.513961864512</v>
+        <v>67342.062854148055</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>70242.362030858276</v>
+        <v>82848.839176489535</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>31282.225125149111</v>
+        <v>50793.992428620615</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>19513.791729790275</v>
+        <v>81519.593190017928</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>77738.413170795713</v>
+        <v>63972.376049016711</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>8967.778866671817</v>
+        <v>88616.390535707294</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>31545.841661317099</v>
+        <v>67315.28519767434</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>60088.977904430853</v>
+        <v>4103.5094886271218</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>52259.642047573449</v>
+        <v>2380.0650527048829</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>18564.865820639709</v>
+        <v>38121.924066461201</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>64664.074216301357</v>
+        <v>43176.9996722098</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>34681.345164692953</v>
+        <v>25769.176674264305</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>58648.71663350294</v>
+        <v>7335.6746698031602</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>28867.145751783995</v>
+        <v>45499.529696825157</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>78325.788879707543</v>
+        <v>15653.771709611674</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>96743.128553580391</v>
+        <v>60954.58066010895</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>86316.075744256043</v>
+        <v>734.15607011427801</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>33330.870158429861</v>
+        <v>63114.266392199279</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>46137.239891547419</v>
+        <v>48527.539329938285</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>31743.51969756186</v>
+        <v>95386.729875438119</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>82746.196997300198</v>
+        <v>38084.014728703318</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>78495.995754448886</v>
+        <v>59589.34904174471</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>73005.340268338681</v>
+        <v>98546.228476268065</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>75345.542104970751</v>
+        <v>20935.975487743275</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>39249.874469062452</v>
+        <v>50017.140066965825</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>89966.912325679819</v>
+        <v>97551.708173145758</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>3376.5762295924319</v>
+        <v>11958.308541806351</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>73144.451976245749</v>
+        <v>56244.764110175136</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>4958.3704817021789</v>
+        <v>19700.969281234004</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>85806.608454258778</v>
+        <v>5025.6044620949906</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>17680.358421097786</v>
+        <v>11086.722210153932</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>40831.659363039988</v>
+        <v>66047.273102292253</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>14775.912696976857</v>
+        <v>3620.0996657054343</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>34149.134742870025</v>
+        <v>1923.3403266088023</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>84184.044697565332</v>
+        <v>63488.297765530835</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>93661.828777944756</v>
+        <v>44137.852710773914</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>89388.610572548816</v>
+        <v>45474.744382868339</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>78354.484880809978</v>
+        <v>63745.240123092051</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>99653.992828128568</v>
+        <v>68350.714631734663</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>2257.1082280840483</v>
+        <v>67650.780998644463</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>15147.394006294302</v>
+        <v>1959.7963561381105</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>65924.067258491079</v>
+        <v>97265.728780913836</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>5859.3557944751519</v>
+        <v>2439.9266523525198</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>261.40736520290363</v>
+        <v>63793.865386589423</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>67709.129112104783</v>
+        <v>68539.300007279162</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>97298.112105353997</v>
+        <v>17281.419500794316</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>25358.972303868697</v>
+        <v>65763.177320356655</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>61207.323603188372</v>
+        <v>35946.066108614417</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>57304.075181652617</v>
+        <v>47101.899565318992</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>3671.8766166937035</v>
+        <v>29096.763755637257</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>30239.493376497627</v>
+        <v>36241.662909902792</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>41571.929558432697</v>
+        <v>34732.700923461038</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>3490.998577910831</v>
+        <v>54674.107965328534</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>89691.996283505956</v>
+        <v>51249.5151210728</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>24611.702303119397</v>
+        <v>90102.874100783796</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>83615.863481158041</v>
+        <v>54830.525966583766</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>13481.146792684118</v>
+        <v>62986.194332108593</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>80875.22622377993</v>
+        <v>7767.928247709011</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>92559.198950512888</v>
+        <v>37509.123884046247</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>96571.902201903838</v>
+        <v>61657.52815558212</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>38709.182314232028</v>
+        <v>68243.89222954365</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>97101.106151352462</v>
+        <v>13434.56032730319</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>58337.658147045993</v>
+        <v>8274.5465079101068</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>35720.65927485811</v>
+        <v>3358.8272131814369</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>8121.7005276163263</v>
+        <v>76978.654909308942</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>33571.41069830428</v>
+        <v>62433.9505527578</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>84340.445201169321</v>
+        <v>98725.077046591716</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>75940.440352331934</v>
+        <v>46675.876111154837</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>10118.930734242271</v>
+        <v>11266.3219088735</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>34561.31456512458</v>
+        <v>41735.914524011787</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>36212.473735746222</v>
+        <v>18715.043281882859</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>53559.039892553592</v>
+        <v>25429.046907868757</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>44263.038814464853</v>
+        <v>63765.074879700936</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>54263.205090146672</v>
+        <v>57353.532653767594</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>14205.495022503479</v>
+        <v>757.81335414603075</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>43057.400732355774</v>
+        <v>41400.061583075942</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>79155.817510515088</v>
+        <v>44485.100330726214</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>60683.855738145619</v>
+        <v>70920.300565776299</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>36898.696448510549</v>
+        <v>21672.71986381102</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>36901.81698841574</v>
+        <v>10197.606303068575</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>51571.446944990574</v>
+        <v>82650.971805824389</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>35289.204041780111</v>
+        <v>83529.518048952901</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>12991.775588648257</v>
+        <v>15045.110640456838</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>89123.5328193819</v>
+        <v>47950.846625333819</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>16547.32211931924</v>
+        <v>46076.368057254316</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>41069.03801878322</v>
+        <v>53381.160999906475</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>8555.4914115092979</v>
+        <v>69622.55761738462</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>84462.771529981866</v>
+        <v>18784.154233165762</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>9974.4136271220814</v>
+        <v>96741.995118532286</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>7217.9511617173948</v>
+        <v>98535.675509457593</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>53671.158401411813</v>
+        <v>48682.222690884904</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>65456.55877743286</v>
+        <v>40297.712012329823</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>44928.566117604452</v>
+        <v>86017.099115268429</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>56355.959384536705</v>
+        <v>44606.020570639863</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>81170.623693118512</v>
+        <v>97467.905086392333</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>66431.697029422619</v>
+        <v>13227.916677128747</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>83004.538233523519</v>
+        <v>83038.236862080055</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>83639.905454769803</v>
+        <v>49976.19947934767</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>52939.87955149584</v>
+        <v>19684.966798104986</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>54927.661473924883</v>
+        <v>8661.905390399028</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>11591.425930573207</v>
+        <v>35701.18017063498</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>85415.617430155646</v>
+        <v>47472.987404747837</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>95314.655924899955</v>
+        <v>32255.751295888713</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>91799.408972512465</v>
+        <v>97658.854143488497</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>75457.036470974286</v>
+        <v>89875.736951181199</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>17345.705634154398</v>
+        <v>59122.035543339283</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>47078.808871971552</v>
+        <v>13825.13217620025</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>60345.942748475303</v>
+        <v>21897.126454775851</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>44896.954984834825</v>
+        <v>33162.604894269709</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>8529.6541573298127</v>
+        <v>97968.416531413357</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>33718.995051538899</v>
+        <v>61127.539216885249</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>6762.6261257017759</v>
+        <v>65517.445162430267</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>22162.089235778159</v>
+        <v>76115.82526581861</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>99128.253687683071</v>
+        <v>89362.909544647904</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>29345.899064927482</v>
+        <v>58334.904438976584</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>83233.243475209005</v>
+        <v>69503.923333146638</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>4266.6521870284414</v>
+        <v>31928.559314384041</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>95335.674661009311</v>
+        <v>20316.89672576814</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>46533.744244364985</v>
+        <v>36266.002662147534</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>34018.323470126103</v>
+        <v>4723.8926591864129</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>48289.477673358393</v>
+        <v>15495.029756743139</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>40721.700952672159</v>
+        <v>35423.16542957705</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>80438.176705415448</v>
+        <v>4878.4739908829924</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>19695.361843806026</v>
+        <v>52867.894279928529</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>8930.9467732711764</v>
+        <v>9349.2344994448704</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>5194.3167075609645</v>
+        <v>38338.300450137707</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>20265.805054445194</v>
+        <v>49531.190099136256</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>93190.890775508611</v>
+        <v>26354.853082844766</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>63846.954966670768</v>
+        <v>99547.932201216958</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>91797.546231310916</v>
+        <v>96166.442220876532</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>29201.46733428257</v>
+        <v>9261.518775145827</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB157F33-1F95-48F2-8E7F-D702EC303941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C978710-A622-43FF-B284-CE54C983201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -2827,7 +2827,7 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ref="C58" si="12">CONCATENATE(E58,F58)</f>
@@ -2878,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DCEF5-9B3A-473F-9084-F55B2DB8432F}">
   <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5603,1801 +5603,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>71741.23772595331</v>
+        <v>67356.975723760988</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>14881.501202227199</v>
+        <v>47374.161983781385</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>22493.425363614762</v>
+        <v>75103.345405774191</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>88475.376463408815</v>
+        <v>81219.607031941137</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>30622.409269179461</v>
+        <v>43232.876861075478</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>7177.8005388250294</v>
+        <v>1481.5797677116716</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>88170.262171114548</v>
+        <v>42344.838839721378</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>29865.519174513756</v>
+        <v>25960.306132315993</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>81603.793702655268</v>
+        <v>52633.123700791359</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>83842.926907580608</v>
+        <v>37441.897813170857</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>30864.85071119569</v>
+        <v>18194.306325970767</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>97911.155037846693</v>
+        <v>75169.527897840351</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>29017.541813797976</v>
+        <v>92149.558286103973</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>72946.783644585361</v>
+        <v>88036.447269773649</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>17841.328897016272</v>
+        <v>89065.711836273636</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>31824.467352569209</v>
+        <v>31834.002344002056</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>23826.328790551288</v>
+        <v>7832.7763287026173</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>25627.569790776171</v>
+        <v>5686.4491168995164</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>90413.2626217871</v>
+        <v>92495.892687600819</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>59514.752357283221</v>
+        <v>76882.838325981313</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>55575.805426229264</v>
+        <v>75972.762724028784</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>31256.969013004964</v>
+        <v>13880.718201716669</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>46185.991265801182</v>
+        <v>95638.027135296594</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>83541.523549227466</v>
+        <v>89682.772810470749</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>74198.268468786264</v>
+        <v>37463.820550041419</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>25441.379337538448</v>
+        <v>20595.554929217829</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>17290.914145047311</v>
+        <v>12019.47959297538</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>48781.593238792288</v>
+        <v>77483.156387871757</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>81201.533402292582</v>
+        <v>12175.661512834678</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>221.17169210963405</v>
+        <v>60502.569972482364</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>10079.206485423609</v>
+        <v>48751.772499861625</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>6529.6598210338507</v>
+        <v>77508.221420760092</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>95107.466322624867</v>
+        <v>53299.05061726764</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>82002.647290730121</v>
+        <v>49771.250207807338</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>24412.952143580602</v>
+        <v>46081.141404562397</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>50541.080198149488</v>
+        <v>4442.7078891961401</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>8567.9674284720895</v>
+        <v>96758.665751316003</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>28763.687129247828</v>
+        <v>96253.096495731981</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>6082.1702707816175</v>
+        <v>25652.494107438593</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>53373.947407076696</v>
+        <v>27927.888092920028</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>56048.677153633245</v>
+        <v>23522.780943684142</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>12704.562704801536</v>
+        <v>93705.007245748959</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>25720.259565103344</v>
+        <v>85127.86966454667</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>79230.226195417054</v>
+        <v>61937.760943831046</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>68212.124348627985</v>
+        <v>82369.12277210399</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>28904.057702774931</v>
+        <v>85849.775453860726</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>11597.346093094919</v>
+        <v>17887.941804814833</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>25750.874456660746</v>
+        <v>84555.653241764987</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>55217.702755124177</v>
+        <v>56126.408262963698</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>57820.522381657756</v>
+        <v>19620.365833975196</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>76463.048144883433</v>
+        <v>62288.030002379091</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>39074.354360900645</v>
+        <v>43105.909551849894</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>90923.812472382619</v>
+        <v>33954.742876265889</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>49302.306467944967</v>
+        <v>72944.18204741941</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>1508.1933954906201</v>
+        <v>80878.951454784037</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>10347.176904081589</v>
+        <v>10294.798053520683</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>73210.953725977204</v>
+        <v>87931.3277903095</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>61789.994215491592</v>
+        <v>58183.267041212537</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>72101.008866385499</v>
+        <v>91118.678271023571</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>25076.004344804871</v>
+        <v>15186.650179677219</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>38738.708291627569</v>
+        <v>60529.680612603566</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>7913.8927410355773</v>
+        <v>29169.54659700234</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>48543.102068420005</v>
+        <v>14013.655825399119</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>66907.983966386993</v>
+        <v>18723.009234322606</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>7094.567206684399</v>
+        <v>50759.007940599768</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>36402.770340185096</v>
+        <v>25734.485555725194</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>11464.981793992001</v>
+        <v>39692.614801203272</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>1364.8042568687902</v>
+        <v>65104.586957997679</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>48272.19718603044</v>
+        <v>60690.509027885419</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>54332.427733943965</v>
+        <v>43668.183343124212</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>32376.224921814188</v>
+        <v>47396.930449836327</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>92320.357745146015</v>
+        <v>49058.878042110133</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>28313.405524234138</v>
+        <v>73686.512880760405</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>91897.274077552531</v>
+        <v>14978.492954151812</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>80470.009701306903</v>
+        <v>39291.977469426274</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>76130.651851727525</v>
+        <v>49781.33260246861</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>86303.98488801028</v>
+        <v>14180.526703412566</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>89455.483141838034</v>
+        <v>22080.334656606694</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>11944.709663842301</v>
+        <v>26539.933159687822</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>23796.815462957689</v>
+        <v>52978.131119126279</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>58089.064028547058</v>
+        <v>27387.04099514323</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>96972.467669758189</v>
+        <v>40121.151702433723</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>17959.543370578245</v>
+        <v>35446.827945199853</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>9937.6591219923375</v>
+        <v>45658.485703601538</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>30061.213251090379</v>
+        <v>30078.774147953558</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>72993.13124339249</v>
+        <v>98582.358784233205</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>94325.062674881949</v>
+        <v>85172.368659696673</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>67864.9860918841</v>
+        <v>40608.735639742263</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>79178.810710767648</v>
+        <v>71084.447473234832</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>93928.340311844426</v>
+        <v>73936.529437536839</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>23236.02594907751</v>
+        <v>28970.687236076454</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>79487.637954320337</v>
+        <v>65209.141642371782</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>41549.03067150533</v>
+        <v>5710.8304289709695</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>19562.541252177267</v>
+        <v>12905.460474518926</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>60627.933306892337</v>
+        <v>10456.953271951108</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>1473.8680761244627</v>
+        <v>68489.046345278315</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>21046.637394101908</v>
+        <v>61967.294493413705</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>7099.4060698422845</v>
+        <v>59821.760994600518</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>89250.443852426717</v>
+        <v>6324.7185667619669</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>97925.36958653995</v>
+        <v>98902.833025506887</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>98392.918412157975</v>
+        <v>90710.665233456704</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>67588.303179665731</v>
+        <v>38223.347920010019</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>88939.658245579762</v>
+        <v>89738.19824088506</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>99013.758367054979</v>
+        <v>93501.819924912343</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>79089.140189515281</v>
+        <v>68029.762587165154</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>94730.335786198819</v>
+        <v>48860.006999814352</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>92276.332580158953</v>
+        <v>25604.865214397509</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>77935.364278613662</v>
+        <v>91239.121326911947</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>37343.089284809917</v>
+        <v>34789.771380036393</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>26458.622691147993</v>
+        <v>99687.983517161323</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>53582.893887236634</v>
+        <v>12170.147440766954</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>16042.370927888205</v>
+        <v>45796.024235044584</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>92593.664665314252</v>
+        <v>36307.339574555408</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>8257.5064156369608</v>
+        <v>60569.661450250678</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>17053.595929974163</v>
+        <v>15091.331325283298</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>7022.7146415789866</v>
+        <v>22936.975925913906</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>73470.751839067962</v>
+        <v>9711.8475330653328</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>34792.236088046055</v>
+        <v>56955.366119787621</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>99031.645398565684</v>
+        <v>68973.798531325214</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>9810.712643214647</v>
+        <v>67308.705686933041</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>8926.9406709021496</v>
+        <v>32094.252439366977</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>12178.073787912303</v>
+        <v>7582.8349367439878</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>43751.577057268441</v>
+        <v>32337.063801575096</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>31736.823334612251</v>
+        <v>20567.210029994108</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>52035.634750333746</v>
+        <v>28447.803536786465</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>91903.224387564958</v>
+        <v>91811.960755213164</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>56580.044448828026</v>
+        <v>50904.191698055736</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>9195.2783273175792</v>
+        <v>76146.159675049203</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>27553.425761152517</v>
+        <v>90852.542326220937</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>42774.669358258754</v>
+        <v>22489.297441823051</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>37350.330310942394</v>
+        <v>13452.916759383992</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>39657.918893346177</v>
+        <v>8583.4407762945375</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>44490.440814203248</v>
+        <v>36931.000938856108</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>86580.663352869713</v>
+        <v>63850.943773257641</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>58894.391790914735</v>
+        <v>37103.142766201643</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>84353.185785053443</v>
+        <v>23608.76946683148</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>81536.999545829065</v>
+        <v>3708.2414358505675</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>28010.8183171649</v>
+        <v>11935.650983304957</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>16429.453150534468</v>
+        <v>67855.155706978927</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>65424.395049231374</v>
+        <v>68291.020875658141</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>65571.832624254166</v>
+        <v>58343.954254796685</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>9702.9795237185681</v>
+        <v>6000.7360877354258</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>85659.749829078108</v>
+        <v>46867.661191403218</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>86805.088708865878</v>
+        <v>89107.633575962216</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>8700.3765372241196</v>
+        <v>38499.269674332427</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>23218.502232074588</v>
+        <v>74836.373077103126</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>34718.247366604061</v>
+        <v>86030.085769047553</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>52293.637021352777</v>
+        <v>4011.0064217924401</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>75098.781673347708</v>
+        <v>93012.543365768302</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>24075.71231565937</v>
+        <v>60823.136290418777</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>75314.914438790933</v>
+        <v>82437.502677716708</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>22034.294274683354</v>
+        <v>16217.511942935758</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>51644.119036161872</v>
+        <v>87727.349281870687</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>61056.769781504161</v>
+        <v>72998.724866570774</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>88652.351030308811</v>
+        <v>78879.731307259033</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>54703.261695054418</v>
+        <v>50967.073627693891</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>9221.8906858324008</v>
+        <v>37924.566951853645</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>74126.81278911003</v>
+        <v>69469.85543287461</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>16844.050538990297</v>
+        <v>42990.119535759361</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>35746.528821177337</v>
+        <v>43832.414214254364</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>58988.158393219615</v>
+        <v>79654.360581741712</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>67198.815129007198</v>
+        <v>89272.149300619567</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>71582.005494194862</v>
+        <v>5956.8740493228916</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>39897.844719385153</v>
+        <v>8952.9665403914041</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>51604.921586854471</v>
+        <v>83500.761517362727</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>79816.766472566029</v>
+        <v>90343.623396241048</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>97934.343287331372</v>
+        <v>11854.581628334327</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>66757.501478080085</v>
+        <v>5748.9630577407743</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>10493.258161710339</v>
+        <v>48566.429495802811</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>67342.062854148055</v>
+        <v>92280.402823545635</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>82848.839176489535</v>
+        <v>99929.914254563206</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>50793.992428620615</v>
+        <v>32144.965273729631</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>81519.593190017928</v>
+        <v>92245.652119999271</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>63972.376049016711</v>
+        <v>11532.745169745185</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>88616.390535707294</v>
+        <v>41999.849742875092</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>67315.28519767434</v>
+        <v>80385.17396565435</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>4103.5094886271218</v>
+        <v>4534.2864107472233</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>2380.0650527048829</v>
+        <v>25573.249968316537</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>38121.924066461201</v>
+        <v>24645.648710567959</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>43176.9996722098</v>
+        <v>14751.773110879729</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>25769.176674264305</v>
+        <v>30412.261703947774</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>7335.6746698031602</v>
+        <v>2336.4026679645654</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>45499.529696825157</v>
+        <v>85459.644275698782</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>15653.771709611674</v>
+        <v>88900.530906194763</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>60954.58066010895</v>
+        <v>26785.011598847275</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>734.15607011427801</v>
+        <v>9788.2708351128549</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>63114.266392199279</v>
+        <v>87033.112594996011</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>48527.539329938285</v>
+        <v>84978.489806079655</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>95386.729875438119</v>
+        <v>84819.520527889938</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>38084.014728703318</v>
+        <v>93252.865654494337</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>59589.34904174471</v>
+        <v>99637.852151822488</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>98546.228476268065</v>
+        <v>105.62592845750896</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>20935.975487743275</v>
+        <v>83097.480015663808</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>50017.140066965825</v>
+        <v>63478.869723281961</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>97551.708173145758</v>
+        <v>91411.558753449368</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>11958.308541806351</v>
+        <v>58265.985829322686</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>56244.764110175136</v>
+        <v>44454.08802356221</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>19700.969281234004</v>
+        <v>41946.346269839771</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>5025.6044620949906</v>
+        <v>61176.562829104667</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>11086.722210153932</v>
+        <v>51592.449097703131</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>66047.273102292253</v>
+        <v>15324.990748804534</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>3620.0996657054343</v>
+        <v>58397.192559835268</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>1923.3403266088023</v>
+        <v>52968.697251081685</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>63488.297765530835</v>
+        <v>26752.671344846014</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>44137.852710773914</v>
+        <v>11734.58701759923</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>45474.744382868339</v>
+        <v>39450.645800798804</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>63745.240123092051</v>
+        <v>77607.422001848987</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>68350.714631734663</v>
+        <v>29367.041106833614</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>67650.780998644463</v>
+        <v>36104.634754550505</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>1959.7963561381105</v>
+        <v>30062.38884541388</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>97265.728780913836</v>
+        <v>31837.580930690878</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>2439.9266523525198</v>
+        <v>17848.055576667644</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>63793.865386589423</v>
+        <v>85162.057663426618</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>68539.300007279162</v>
+        <v>9643.1276547923935</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>17281.419500794316</v>
+        <v>75589.769596375816</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>65763.177320356655</v>
+        <v>56811.077883809012</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>35946.066108614417</v>
+        <v>50614.433449238582</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>47101.899565318992</v>
+        <v>65065.583438836547</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>29096.763755637257</v>
+        <v>7695.089222232732</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>36241.662909902792</v>
+        <v>33928.607480596751</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>34732.700923461038</v>
+        <v>97707.97687803625</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>54674.107965328534</v>
+        <v>53923.992458912981</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>51249.5151210728</v>
+        <v>4025.7109731228757</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>90102.874100783796</v>
+        <v>50011.873771848557</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>54830.525966583766</v>
+        <v>17533.332041392525</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>62986.194332108593</v>
+        <v>93416.139537430339</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>7767.928247709011</v>
+        <v>91764.527397134254</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>37509.123884046247</v>
+        <v>69341.733636279183</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>61657.52815558212</v>
+        <v>86508.065551809981</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>68243.89222954365</v>
+        <v>8211.1910711531236</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>13434.56032730319</v>
+        <v>41796.558817462646</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>8274.5465079101068</v>
+        <v>94183.11202970428</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>3358.8272131814369</v>
+        <v>3490.0734996006431</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>76978.654909308942</v>
+        <v>87598.939707584024</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>62433.9505527578</v>
+        <v>70239.619122635981</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>98725.077046591716</v>
+        <v>96494.399513822835</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>46675.876111154837</v>
+        <v>52511.673564734054</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>11266.3219088735</v>
+        <v>76962.63786951128</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>41735.914524011787</v>
+        <v>8663.0059717505264</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>18715.043281882859</v>
+        <v>9531.6649553723437</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>25429.046907868757</v>
+        <v>30816.747212048489</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>63765.074879700936</v>
+        <v>91964.471744482886</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>57353.532653767594</v>
+        <v>89245.675727864917</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>757.81335414603075</v>
+        <v>80018.534875854297</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>41400.061583075942</v>
+        <v>18791.972834653727</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>44485.100330726214</v>
+        <v>52867.410551768611</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>70920.300565776299</v>
+        <v>30388.513186431344</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>21672.71986381102</v>
+        <v>2048.2841104502049</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>10197.606303068575</v>
+        <v>92153.807554212035</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>82650.971805824389</v>
+        <v>38599.021449410677</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>83529.518048952901</v>
+        <v>11145.497728744802</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>15045.110640456838</v>
+        <v>52641.529650071869</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>47950.846625333819</v>
+        <v>85082.434543869182</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>46076.368057254316</v>
+        <v>44381.573756827376</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>53381.160999906475</v>
+        <v>44350.08274682879</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>69622.55761738462</v>
+        <v>87889.507644203899</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>18784.154233165762</v>
+        <v>98360.942868837781</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>96741.995118532286</v>
+        <v>76894.347362226676</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>98535.675509457593</v>
+        <v>41518.29417671261</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>48682.222690884904</v>
+        <v>26983.241576499695</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>40297.712012329823</v>
+        <v>82133.362081510262</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>86017.099115268429</v>
+        <v>9257.711444712435</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>44606.020570639863</v>
+        <v>52234.850312235925</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>97467.905086392333</v>
+        <v>77274.994924321902</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>13227.916677128747</v>
+        <v>64743.423391575292</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>83038.236862080055</v>
+        <v>79693.345756993876</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>49976.19947934767</v>
+        <v>44863.520785957277</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>19684.966798104986</v>
+        <v>18577.715274434737</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>8661.905390399028</v>
+        <v>93551.378860878016</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>35701.18017063498</v>
+        <v>49415.188068823627</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>47472.987404747837</v>
+        <v>67688.232345362485</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>32255.751295888713</v>
+        <v>90103.297350923123</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>97658.854143488497</v>
+        <v>73726.470060893917</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>89875.736951181199</v>
+        <v>26255.413034583875</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>59122.035543339283</v>
+        <v>13710.146385780297</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>13825.13217620025</v>
+        <v>63961.803548152195</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>21897.126454775851</v>
+        <v>59099.106728565544</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>33162.604894269709</v>
+        <v>65289.641728515424</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>97968.416531413357</v>
+        <v>50067.199867522482</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>61127.539216885249</v>
+        <v>58251.72562666169</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>65517.445162430267</v>
+        <v>74403.367264397471</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>76115.82526581861</v>
+        <v>65714.518781463339</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>89362.909544647904</v>
+        <v>68013.844066396385</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>58334.904438976584</v>
+        <v>75419.618615009837</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>69503.923333146638</v>
+        <v>36257.075570839392</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>31928.559314384041</v>
+        <v>75108.110083775493</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>20316.89672576814</v>
+        <v>55589.590924797893</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>36266.002662147534</v>
+        <v>54171.858614819699</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>4723.8926591864129</v>
+        <v>42024.99345692691</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>15495.029756743139</v>
+        <v>81692.632821362349</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>35423.16542957705</v>
+        <v>95115.357892446977</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>4878.4739908829924</v>
+        <v>64440.437716505337</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>52867.894279928529</v>
+        <v>61058.735764826553</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>9349.2344994448704</v>
+        <v>23403.942509645192</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>38338.300450137707</v>
+        <v>33537.749215847944</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>49531.190099136256</v>
+        <v>99530.689690956002</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>26354.853082844766</v>
+        <v>64939.244580684695</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>99547.932201216958</v>
+        <v>13943.666059738191</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>96166.442220876532</v>
+        <v>23902.953614569589</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>9261.518775145827</v>
+        <v>88212.858384941472</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C978710-A622-43FF-B284-CE54C983201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{073C7B01-61A4-40A0-B6C3-3F7F0533244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="132">
   <si>
     <t>invitado</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>BC0000057</t>
+  </si>
+  <si>
+    <t>Christian Jesus Ayasta Vidaurre</t>
+  </si>
+  <si>
+    <t>BC0000058</t>
+  </si>
+  <si>
+    <t>Mavila del Rosario Fernandez Irigoyen</t>
+  </si>
+  <si>
+    <t>BC0000059</t>
   </si>
 </sst>
 </file>
@@ -813,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2162,7 +2174,7 @@
         <v>88</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
@@ -2857,8 +2869,78 @@
         <v>14</v>
       </c>
     </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ref="C59" si="14">CONCATENATE(E59,F59)</f>
+        <v>BC000005882829</v>
+      </c>
+      <c r="D59">
+        <v>968238270</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59">
+        <f>Hoja2!B59</f>
+        <v>82829</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" ref="H59" si="15">CONCATENATE(G59,C59)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005882829</v>
+      </c>
+      <c r="I59" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ref="C60" si="16">CONCATENATE(E60,F60)</f>
+        <v>BC000005975877</v>
+      </c>
+      <c r="D60">
+        <v>968238271</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60">
+        <f>Hoja2!B60</f>
+        <v>75877</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" ref="H60" si="17">CONCATENATE(G60,C60)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000005975877</v>
+      </c>
+      <c r="I60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{13788AC9-6D19-49A5-9426-2415D075C294}"/>
@@ -2868,9 +2950,11 @@
     <hyperlink ref="G56" r:id="rId5" xr:uid="{584BEC43-ACEA-4164-A957-EDA521A25576}"/>
     <hyperlink ref="G57" r:id="rId6" xr:uid="{8657F787-11A6-4934-AF7C-53EE8CBF9C77}"/>
     <hyperlink ref="G58" r:id="rId7" xr:uid="{1C08DE60-2F05-4EBF-9729-6BBCE42EEB8E}"/>
+    <hyperlink ref="G59" r:id="rId8" xr:uid="{E8E5DF5A-BD83-41C6-A0D4-F60E9E4A8E7C}"/>
+    <hyperlink ref="G60" r:id="rId9" xr:uid="{7E79577C-6EF6-4147-8ADD-CAA43C1568B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -5603,1801 +5687,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>67356.975723760988</v>
+        <v>98003.206420883478</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>47374.161983781385</v>
+        <v>29939.51699287365</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>75103.345405774191</v>
+        <v>59203.024993428378</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>81219.607031941137</v>
+        <v>49302.288593338126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>43232.876861075478</v>
+        <v>51636.596299553064</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>1481.5797677116716</v>
+        <v>74033.05152156543</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>42344.838839721378</v>
+        <v>76713.204435526015</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>25960.306132315993</v>
+        <v>1933.1422290441158</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>52633.123700791359</v>
+        <v>55674.708539526175</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>37441.897813170857</v>
+        <v>89705.362105003078</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>18194.306325970767</v>
+        <v>44106.547957223163</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>75169.527897840351</v>
+        <v>78052.77489009987</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>92149.558286103973</v>
+        <v>54144.566114533423</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>88036.447269773649</v>
+        <v>60420.600823206958</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>89065.711836273636</v>
+        <v>67490.273101170955</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>31834.002344002056</v>
+        <v>98173.536736877068</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>7832.7763287026173</v>
+        <v>3639.6126226614811</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>5686.4491168995164</v>
+        <v>56283.646425505583</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>92495.892687600819</v>
+        <v>43522.267465829311</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>76882.838325981313</v>
+        <v>27331.391941851634</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>75972.762724028784</v>
+        <v>6435.6559271001815</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>13880.718201716669</v>
+        <v>22796.196724210593</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>95638.027135296594</v>
+        <v>74917.351444192289</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>89682.772810470749</v>
+        <v>90561.61120002091</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>37463.820550041419</v>
+        <v>33561.800942265741</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>20595.554929217829</v>
+        <v>61329.845460787081</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>12019.47959297538</v>
+        <v>2672.9378841507723</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>77483.156387871757</v>
+        <v>84885.051990851949</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>12175.661512834678</v>
+        <v>60000.175379619504</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>60502.569972482364</v>
+        <v>38235.812595584794</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>48751.772499861625</v>
+        <v>1030.4680236774998</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>77508.221420760092</v>
+        <v>47698.662193820732</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>53299.05061726764</v>
+        <v>19351.6931490221</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>49771.250207807338</v>
+        <v>28431.136623769027</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>46081.141404562397</v>
+        <v>93507.894802365918</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>4442.7078891961401</v>
+        <v>47346.190716492252</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>96758.665751316003</v>
+        <v>70600.86911185793</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>96253.096495731981</v>
+        <v>2854.6561508910881</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>25652.494107438593</v>
+        <v>73403.057397907047</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>27927.888092920028</v>
+        <v>99754.552084648501</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>23522.780943684142</v>
+        <v>32311.660500688133</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>93705.007245748959</v>
+        <v>66999.818243001559</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>85127.86966454667</v>
+        <v>17035.871483530995</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>61937.760943831046</v>
+        <v>12759.065879091635</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>82369.12277210399</v>
+        <v>84613.899689991726</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>85849.775453860726</v>
+        <v>73263.42498685894</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>17887.941804814833</v>
+        <v>57507.582322038754</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>84555.653241764987</v>
+        <v>96020.520331682812</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>56126.408262963698</v>
+        <v>86571.535060304101</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>19620.365833975196</v>
+        <v>49052.052099383473</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>62288.030002379091</v>
+        <v>95050.737708547196</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>43105.909551849894</v>
+        <v>21239.808631258005</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>33954.742876265889</v>
+        <v>19018.022325323171</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>72944.18204741941</v>
+        <v>30639.353590506846</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>80878.951454784037</v>
+        <v>54358.652400781873</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>10294.798053520683</v>
+        <v>71252.101381974426</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>87931.3277903095</v>
+        <v>20275.256002592891</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>58183.267041212537</v>
+        <v>22428.388976203194</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>91118.678271023571</v>
+        <v>63753.524715646869</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>15186.650179677219</v>
+        <v>37371.428974242415</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>60529.680612603566</v>
+        <v>98349.383316067484</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>29169.54659700234</v>
+        <v>20537.522708343757</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>14013.655825399119</v>
+        <v>83021.432339526116</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>18723.009234322606</v>
+        <v>33078.532884235814</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>50759.007940599768</v>
+        <v>60726.208229472526</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>25734.485555725194</v>
+        <v>69625.22282232967</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>39692.614801203272</v>
+        <v>23154.055264536677</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>65104.586957997679</v>
+        <v>2455.2221099423787</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>60690.509027885419</v>
+        <v>87765.003839511905</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>43668.183343124212</v>
+        <v>96639.51100347293</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>47396.930449836327</v>
+        <v>20154.354479715585</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>49058.878042110133</v>
+        <v>52184.543604907129</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>73686.512880760405</v>
+        <v>14041.66752523126</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>14978.492954151812</v>
+        <v>22178.626856612795</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>39291.977469426274</v>
+        <v>52116.569453750264</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>49781.33260246861</v>
+        <v>27851.868992504704</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>14180.526703412566</v>
+        <v>55984.910438000035</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>22080.334656606694</v>
+        <v>86311.783137788705</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>26539.933159687822</v>
+        <v>2954.5644118530222</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>52978.131119126279</v>
+        <v>69189.182518420566</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>27387.04099514323</v>
+        <v>29813.013119624189</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>40121.151702433723</v>
+        <v>75909.147439681357</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>35446.827945199853</v>
+        <v>63832.827096295776</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>45658.485703601538</v>
+        <v>27474.883071677825</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>30078.774147953558</v>
+        <v>20787.938666108075</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>98582.358784233205</v>
+        <v>87329.05446437026</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>85172.368659696673</v>
+        <v>30204.911883710971</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>40608.735639742263</v>
+        <v>27539.261809112224</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>71084.447473234832</v>
+        <v>74235.077679530033</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>73936.529437536839</v>
+        <v>44116.348143226351</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>28970.687236076454</v>
+        <v>79502.499535356692</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>65209.141642371782</v>
+        <v>22460.875406703828</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>5710.8304289709695</v>
+        <v>50376.904488943372</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>12905.460474518926</v>
+        <v>82510.258347001567</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>10456.953271951108</v>
+        <v>72266.347951189324</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>68489.046345278315</v>
+        <v>35107.912614894645</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>61967.294493413705</v>
+        <v>65815.572110212859</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>59821.760994600518</v>
+        <v>83908.959288819169</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>6324.7185667619669</v>
+        <v>271.84889715206049</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>98902.833025506887</v>
+        <v>97702.451041752793</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>90710.665233456704</v>
+        <v>60449.074264530624</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>38223.347920010019</v>
+        <v>45908.685684913384</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>89738.19824088506</v>
+        <v>32961.721679987255</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>93501.819924912343</v>
+        <v>49026.458165576725</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>68029.762587165154</v>
+        <v>31574.217348610666</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>48860.006999814352</v>
+        <v>97838.352262815402</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>25604.865214397509</v>
+        <v>92511.078070143631</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>91239.121326911947</v>
+        <v>30845.392144527006</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>34789.771380036393</v>
+        <v>87230.250504386524</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>99687.983517161323</v>
+        <v>53518.60419131961</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>12170.147440766954</v>
+        <v>84257.706629123655</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>45796.024235044584</v>
+        <v>74526.521964321044</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>36307.339574555408</v>
+        <v>82383.381706496759</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>60569.661450250678</v>
+        <v>54067.195816473744</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>15091.331325283298</v>
+        <v>74126.837409513362</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>22936.975925913906</v>
+        <v>23012.890935549458</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>9711.8475330653328</v>
+        <v>83228.155192769133</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>56955.366119787621</v>
+        <v>7416.2016140598143</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>68973.798531325214</v>
+        <v>51521.158052260827</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>67308.705686933041</v>
+        <v>43370.008706701621</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>32094.252439366977</v>
+        <v>61190.577063102406</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>7582.8349367439878</v>
+        <v>75801.954004439831</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>32337.063801575096</v>
+        <v>69385.84263564866</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>20567.210029994108</v>
+        <v>93665.447514830419</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>28447.803536786465</v>
+        <v>66130.90588690943</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>91811.960755213164</v>
+        <v>90199.355820322075</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>50904.191698055736</v>
+        <v>79916.803495199289</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>76146.159675049203</v>
+        <v>89840.394734867936</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>90852.542326220937</v>
+        <v>2543.1292356725698</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>22489.297441823051</v>
+        <v>4885.5624960317036</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>13452.916759383992</v>
+        <v>82363.379770252213</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>8583.4407762945375</v>
+        <v>95348.94941944092</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>36931.000938856108</v>
+        <v>14725.875358044526</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>63850.943773257641</v>
+        <v>52850.693663737395</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>37103.142766201643</v>
+        <v>22503.913012311496</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>23608.76946683148</v>
+        <v>43802.832452422736</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>3708.2414358505675</v>
+        <v>5554.3934118923999</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>11935.650983304957</v>
+        <v>37387.093742297031</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>67855.155706978927</v>
+        <v>67551.66183064424</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>68291.020875658141</v>
+        <v>11070.63898837235</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>58343.954254796685</v>
+        <v>5833.7681507091511</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>6000.7360877354258</v>
+        <v>79054.921882195849</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>46867.661191403218</v>
+        <v>49772.076471119406</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>89107.633575962216</v>
+        <v>35822.046033555496</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>38499.269674332427</v>
+        <v>97881.14906368361</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>74836.373077103126</v>
+        <v>62652.847810555788</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>86030.085769047553</v>
+        <v>26198.484883406982</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>4011.0064217924401</v>
+        <v>92813.353145755987</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>93012.543365768302</v>
+        <v>37018.375235050458</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>60823.136290418777</v>
+        <v>77430.464547904863</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>82437.502677716708</v>
+        <v>97403.574224030352</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>16217.511942935758</v>
+        <v>68912.675250131666</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>87727.349281870687</v>
+        <v>82556.263532910729</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>72998.724866570774</v>
+        <v>65751.983518839916</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>78879.731307259033</v>
+        <v>41764.639321080853</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>50967.073627693891</v>
+        <v>71117.100264818582</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>37924.566951853645</v>
+        <v>50285.673839367082</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>69469.85543287461</v>
+        <v>51216.436846448807</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>42990.119535759361</v>
+        <v>88977.671592623417</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>43832.414214254364</v>
+        <v>72092.312378029426</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>79654.360581741712</v>
+        <v>82384.8010507422</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>89272.149300619567</v>
+        <v>48442.395056301626</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>5956.8740493228916</v>
+        <v>75073.136020824546</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>8952.9665403914041</v>
+        <v>53933.794515620648</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>83500.761517362727</v>
+        <v>22544.657908806919</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>90343.623396241048</v>
+        <v>32905.761494661157</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>11854.581628334327</v>
+        <v>96532.114734207687</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>5748.9630577407743</v>
+        <v>83476.849319658169</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>48566.429495802811</v>
+        <v>94550.390442502758</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>92280.402823545635</v>
+        <v>7410.6469002756412</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>99929.914254563206</v>
+        <v>39438.945110365443</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>32144.965273729631</v>
+        <v>21283.188558786125</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>92245.652119999271</v>
+        <v>49181.13380618333</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>11532.745169745185</v>
+        <v>14102.375830603363</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>41999.849742875092</v>
+        <v>98747.693267915718</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>80385.17396565435</v>
+        <v>13565.427680829467</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>4534.2864107472233</v>
+        <v>88811.208631858157</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>25573.249968316537</v>
+        <v>3090.9910834719722</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>24645.648710567959</v>
+        <v>58157.116690774637</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>14751.773110879729</v>
+        <v>48144.210627131237</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>30412.261703947774</v>
+        <v>90744.237334117832</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>2336.4026679645654</v>
+        <v>26011.931106385113</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>85459.644275698782</v>
+        <v>5947.0724133969807</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>88900.530906194763</v>
+        <v>68904.061815990979</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>26785.011598847275</v>
+        <v>87948.357709024087</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>9788.2708351128549</v>
+        <v>1752.3959527184109</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>87033.112594996011</v>
+        <v>33846.465599456096</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>84978.489806079655</v>
+        <v>31463.758237202244</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>84819.520527889938</v>
+        <v>30572.218050698099</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>93252.865654494337</v>
+        <v>82198.43383987507</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>99637.852151822488</v>
+        <v>6394.0679137065581</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>105.62592845750896</v>
+        <v>22746.103360573965</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>83097.480015663808</v>
+        <v>24219.152447944882</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>63478.869723281961</v>
+        <v>26386.306377091318</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>91411.558753449368</v>
+        <v>60434.724933950965</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>58265.985829322686</v>
+        <v>61513.348024763123</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>44454.08802356221</v>
+        <v>39254.171581111194</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>41946.346269839771</v>
+        <v>31134.013561414842</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>61176.562829104667</v>
+        <v>33740.227380598961</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>51592.449097703131</v>
+        <v>75047.71530229639</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>15324.990748804534</v>
+        <v>68512.842176148741</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>58397.192559835268</v>
+        <v>86265.201008673481</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>52968.697251081685</v>
+        <v>29019.825663289623</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>26752.671344846014</v>
+        <v>5351.3868073946423</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>11734.58701759923</v>
+        <v>43971.665431957917</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>39450.645800798804</v>
+        <v>27515.706830760202</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>77607.422001848987</v>
+        <v>8905.1318516056417</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>29367.041106833614</v>
+        <v>98006.918734142921</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>36104.634754550505</v>
+        <v>99279.72760665213</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>30062.38884541388</v>
+        <v>80995.569949885481</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>31837.580930690878</v>
+        <v>72619.246646537256</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>17848.055576667644</v>
+        <v>57170.414899593168</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>85162.057663426618</v>
+        <v>21547.068302347827</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>9643.1276547923935</v>
+        <v>52774.94055398654</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>75589.769596375816</v>
+        <v>45998.848743603696</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>56811.077883809012</v>
+        <v>6095.0284927338116</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>50614.433449238582</v>
+        <v>783.94900703034898</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>65065.583438836547</v>
+        <v>5270.5868493807984</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>7695.089222232732</v>
+        <v>62933.120268494044</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>33928.607480596751</v>
+        <v>94302.610419323915</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>97707.97687803625</v>
+        <v>13769.663442225477</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>53923.992458912981</v>
+        <v>50431.598388540318</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>4025.7109731228757</v>
+        <v>73011.23761237321</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>50011.873771848557</v>
+        <v>16337.418810163428</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>17533.332041392525</v>
+        <v>66828.284345412976</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>93416.139537430339</v>
+        <v>50966.304380839945</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>91764.527397134254</v>
+        <v>59087.992273594406</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>69341.733636279183</v>
+        <v>67400.948332291795</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>86508.065551809981</v>
+        <v>89282.136503103044</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>8211.1910711531236</v>
+        <v>55035.965534030329</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>41796.558817462646</v>
+        <v>99707.1579093787</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>94183.11202970428</v>
+        <v>9719.3309295899635</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>3490.0734996006431</v>
+        <v>8511.7910829195625</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>87598.939707584024</v>
+        <v>97245.469249642774</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>70239.619122635981</v>
+        <v>11103.419716330409</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>96494.399513822835</v>
+        <v>70282.695092234775</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>52511.673564734054</v>
+        <v>71017.657839686304</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>76962.63786951128</v>
+        <v>94241.869846655725</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>8663.0059717505264</v>
+        <v>60016.947570209581</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>9531.6649553723437</v>
+        <v>41478.226287300677</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>30816.747212048489</v>
+        <v>40511.10247210622</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>91964.471744482886</v>
+        <v>8083.137912544802</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>89245.675727864917</v>
+        <v>85265.119867296162</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>80018.534875854297</v>
+        <v>56219.106600315317</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>18791.972834653727</v>
+        <v>74040.603188615874</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>52867.410551768611</v>
+        <v>54340.190720811464</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>30388.513186431344</v>
+        <v>63537.811628509829</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>2048.2841104502049</v>
+        <v>3407.8220472835374</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>92153.807554212035</v>
+        <v>59200.416833097588</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>38599.021449410677</v>
+        <v>43025.696484550601</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>11145.497728744802</v>
+        <v>47941.213195409015</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>52641.529650071869</v>
+        <v>3874.9482214522568</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>85082.434543869182</v>
+        <v>80660.599316636595</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>44381.573756827376</v>
+        <v>10416.998596738948</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>44350.08274682879</v>
+        <v>66658.12264485273</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>87889.507644203899</v>
+        <v>56605.796147391775</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>98360.942868837781</v>
+        <v>32630.971411279519</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>76894.347362226676</v>
+        <v>68247.612758049363</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>41518.29417671261</v>
+        <v>65562.569438009188</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>26983.241576499695</v>
+        <v>31455.673882205447</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>82133.362081510262</v>
+        <v>54619.14201690218</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>9257.711444712435</v>
+        <v>73970.436338239204</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>52234.850312235925</v>
+        <v>92496.830092254109</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>77274.994924321902</v>
+        <v>863.89822505780205</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>64743.423391575292</v>
+        <v>64352.039201449188</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>79693.345756993876</v>
+        <v>28370.032757582831</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>44863.520785957277</v>
+        <v>51964.634697120702</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>18577.715274434737</v>
+        <v>35577.652485666258</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>93551.378860878016</v>
+        <v>55695.781332452185</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>49415.188068823627</v>
+        <v>1724.6021675153765</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>67688.232345362485</v>
+        <v>38437.675649866673</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>90103.297350923123</v>
+        <v>17118.59307184962</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>73726.470060893917</v>
+        <v>68598.604988563558</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>26255.413034583875</v>
+        <v>6430.4508533697626</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>13710.146385780297</v>
+        <v>68676.998141302</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>63961.803548152195</v>
+        <v>57671.650892835947</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>59099.106728565544</v>
+        <v>95855.086943716291</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>65289.641728515424</v>
+        <v>89765.008728994959</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>50067.199867522482</v>
+        <v>65878.157877179328</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>58251.72562666169</v>
+        <v>62327.503512596828</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>74403.367264397471</v>
+        <v>6083.0941852347605</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>65714.518781463339</v>
+        <v>14135.434751617282</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>68013.844066396385</v>
+        <v>44968.308290774206</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>75419.618615009837</v>
+        <v>34555.597614797087</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>36257.075570839392</v>
+        <v>37106.225817260296</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>75108.110083775493</v>
+        <v>89121.853039162437</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>55589.590924797893</v>
+        <v>16067.81138349267</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>54171.858614819699</v>
+        <v>18168.382141652539</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>42024.99345692691</v>
+        <v>74319.89281068604</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>81692.632821362349</v>
+        <v>59913.13802855034</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>95115.357892446977</v>
+        <v>85778.418958644819</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>64440.437716505337</v>
+        <v>38430.209276919923</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>61058.735764826553</v>
+        <v>51559.102833544421</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>23403.942509645192</v>
+        <v>39172.95493527341</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>33537.749215847944</v>
+        <v>93920.853263464247</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>99530.689690956002</v>
+        <v>55588.164005816107</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>64939.244580684695</v>
+        <v>11282.672527684344</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>13943.666059738191</v>
+        <v>60649.346981968098</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>23902.953614569589</v>
+        <v>51602.871843310371</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>88212.858384941472</v>
+        <v>42959.17509614442</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{073C7B01-61A4-40A0-B6C3-3F7F0533244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78576262-4A9E-4FCC-A155-DA599D649A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
     <t>BC0000032</t>
   </si>
   <si>
-    <t>Deysi Rodríguez Vásquez</t>
+    <t>Daisy Nora Ramirez Vasquez</t>
   </si>
   <si>
     <t>BC0000033</t>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5687,1801 +5687,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>98003.206420883478</v>
+        <v>51906.488880815792</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>29939.51699287365</v>
+        <v>14600.546463545994</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>59203.024993428378</v>
+        <v>85601.682001853405</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>49302.288593338126</v>
+        <v>81547.317543451616</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>51636.596299553064</v>
+        <v>18662.091980099794</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>74033.05152156543</v>
+        <v>15018.038477162465</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>76713.204435526015</v>
+        <v>84533.364704640699</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>1933.1422290441158</v>
+        <v>75990.355002432276</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>55674.708539526175</v>
+        <v>10453.711071063155</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>89705.362105003078</v>
+        <v>4881.1221061678234</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>44106.547957223163</v>
+        <v>22576.827761837514</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>78052.77489009987</v>
+        <v>75682.42015781613</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>54144.566114533423</v>
+        <v>62098.142415279566</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>60420.600823206958</v>
+        <v>79126.599188031134</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>67490.273101170955</v>
+        <v>13134.276190075245</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>98173.536736877068</v>
+        <v>81988.107826880499</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>3639.6126226614811</v>
+        <v>82693.740636398928</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>56283.646425505583</v>
+        <v>29736.80398973927</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>43522.267465829311</v>
+        <v>45648.401096770816</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>27331.391941851634</v>
+        <v>30831.737688289541</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>6435.6559271001815</v>
+        <v>88098.342325780992</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>22796.196724210593</v>
+        <v>79069.749529753288</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>74917.351444192289</v>
+        <v>80415.62229043158</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>90561.61120002091</v>
+        <v>23443.601535799975</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>33561.800942265741</v>
+        <v>34161.60152862384</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>61329.845460787081</v>
+        <v>13322.92574456122</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>2672.9378841507723</v>
+        <v>87898.875419854216</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>84885.051990851949</v>
+        <v>91280.781818103351</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>60000.175379619504</v>
+        <v>52378.888637196542</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>38235.812595584794</v>
+        <v>30512.277796444199</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>1030.4680236774998</v>
+        <v>27046.913384039784</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>47698.662193820732</v>
+        <v>34298.877764996039</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>19351.6931490221</v>
+        <v>18151.241583319756</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>28431.136623769027</v>
+        <v>51363.153113016022</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>93507.894802365918</v>
+        <v>6326.282902540881</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>47346.190716492252</v>
+        <v>33139.826614777521</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>70600.86911185793</v>
+        <v>22531.318743302621</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>2854.6561508910881</v>
+        <v>21705.297270654479</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>73403.057397907047</v>
+        <v>28082.613305280389</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>99754.552084648501</v>
+        <v>94558.726988376293</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>32311.660500688133</v>
+        <v>31384.362862058424</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>66999.818243001559</v>
+        <v>8814.6233066906279</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>17035.871483530995</v>
+        <v>46812.544619126325</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>12759.065879091635</v>
+        <v>84691.554864889258</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>84613.899689991726</v>
+        <v>92177.690288193859</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>73263.42498685894</v>
+        <v>75089.217114597457</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>57507.582322038754</v>
+        <v>89049.892551011159</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>96020.520331682812</v>
+        <v>92577.1044545638</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>86571.535060304101</v>
+        <v>46115.969388893529</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>49052.052099383473</v>
+        <v>5793.4973549606857</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>95050.737708547196</v>
+        <v>92324.135214834067</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>21239.808631258005</v>
+        <v>71903.961099807566</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>19018.022325323171</v>
+        <v>31247.132424581847</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>30639.353590506846</v>
+        <v>7140.9989546675542</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>54358.652400781873</v>
+        <v>16245.037851760968</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>71252.101381974426</v>
+        <v>75999.851270430532</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>20275.256002592891</v>
+        <v>74570.749666775926</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>22428.388976203194</v>
+        <v>27180.38478262732</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>63753.524715646869</v>
+        <v>39447.099908533222</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>37371.428974242415</v>
+        <v>71837.274693184518</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>98349.383316067484</v>
+        <v>47588.935158121392</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>20537.522708343757</v>
+        <v>89202.125817068139</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>83021.432339526116</v>
+        <v>74201.899809436087</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>33078.532884235814</v>
+        <v>62982.283687052288</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>60726.208229472526</v>
+        <v>19759.336595891342</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>69625.22282232967</v>
+        <v>5023.5979277603592</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>23154.055264536677</v>
+        <v>88270.677611084277</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>2455.2221099423787</v>
+        <v>21900.4416724765</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>87765.003839511905</v>
+        <v>73449.32772596633</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>96639.51100347293</v>
+        <v>66024.297007920337</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>20154.354479715585</v>
+        <v>38832.628573907066</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>52184.543604907129</v>
+        <v>50700.523357190599</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>14041.66752523126</v>
+        <v>10394.071548601192</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>22178.626856612795</v>
+        <v>13335.79721860929</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>52116.569453750264</v>
+        <v>75414.723481866444</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>27851.868992504704</v>
+        <v>46193.820237065629</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>55984.910438000035</v>
+        <v>21080.368228587566</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>86311.783137788705</v>
+        <v>47143.131610089207</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>2954.5644118530222</v>
+        <v>32089.722411809296</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>69189.182518420566</v>
+        <v>36667.085621055798</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>29813.013119624189</v>
+        <v>29638.075165932121</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>75909.147439681357</v>
+        <v>12363.653026935584</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>63832.827096295776</v>
+        <v>61802.617095306232</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>27474.883071677825</v>
+        <v>59383.51438151289</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>20787.938666108075</v>
+        <v>74497.261264475892</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>87329.05446437026</v>
+        <v>62906.795623027909</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>30204.911883710971</v>
+        <v>25557.431501618845</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>27539.261809112224</v>
+        <v>27578.698180971594</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>74235.077679530033</v>
+        <v>91547.665800367424</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>44116.348143226351</v>
+        <v>31733.300267124931</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>79502.499535356692</v>
+        <v>2887.2809292019297</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>22460.875406703828</v>
+        <v>46739.075727364332</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>50376.904488943372</v>
+        <v>47125.945962573409</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>82510.258347001567</v>
+        <v>59613.650966973371</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>72266.347951189324</v>
+        <v>23857.624134916143</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>35107.912614894645</v>
+        <v>27320.871243781075</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>65815.572110212859</v>
+        <v>97354.248400160577</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>83908.959288819169</v>
+        <v>30655.617000834001</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>271.84889715206049</v>
+        <v>69260.682475114561</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>97702.451041752793</v>
+        <v>89358.458745210912</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>60449.074264530624</v>
+        <v>63038.027579167385</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>45908.685684913384</v>
+        <v>73071.292721691789</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>32961.721679987255</v>
+        <v>97771.213704433074</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>49026.458165576725</v>
+        <v>70609.839756684945</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>31574.217348610666</v>
+        <v>16784.702230494309</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>97838.352262815402</v>
+        <v>59508.684711116068</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>92511.078070143631</v>
+        <v>34658.718931502575</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>30845.392144527006</v>
+        <v>60085.549080842604</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>87230.250504386524</v>
+        <v>31146.871632589533</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>53518.60419131961</v>
+        <v>74706.534529908822</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>84257.706629123655</v>
+        <v>42277.015222192851</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>74526.521964321044</v>
+        <v>92641.059359553721</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>82383.381706496759</v>
+        <v>35755.632759023705</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>54067.195816473744</v>
+        <v>27989.336078878991</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>74126.837409513362</v>
+        <v>27093.912451937751</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>23012.890935549458</v>
+        <v>23603.742633264279</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>83228.155192769133</v>
+        <v>34717.172983650489</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>7416.2016140598143</v>
+        <v>11338.703275437179</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>51521.158052260827</v>
+        <v>84995.951187386148</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>43370.008706701621</v>
+        <v>11961.359666909033</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>61190.577063102406</v>
+        <v>41121.453981453749</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>75801.954004439831</v>
+        <v>70915.946469160772</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>69385.84263564866</v>
+        <v>81563.16528214654</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>93665.447514830419</v>
+        <v>20169.033695483442</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>66130.90588690943</v>
+        <v>19819.672376202514</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>90199.355820322075</v>
+        <v>48467.622325935823</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>79916.803495199289</v>
+        <v>35975.148880275454</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>89840.394734867936</v>
+        <v>45038.540944818218</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>2543.1292356725698</v>
+        <v>32274.432609184467</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>4885.5624960317036</v>
+        <v>71460.696929300713</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>82363.379770252213</v>
+        <v>47592.230158171202</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>95348.94941944092</v>
+        <v>10098.752136715328</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>14725.875358044526</v>
+        <v>9515.0130039749474</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>52850.693663737395</v>
+        <v>15116.483226579092</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>22503.913012311496</v>
+        <v>28119.716741436485</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>43802.832452422736</v>
+        <v>22690.903060116441</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>5554.3934118923999</v>
+        <v>1947.8959759569036</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>37387.093742297031</v>
+        <v>59283.559536037908</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>67551.66183064424</v>
+        <v>40030.999514745847</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>11070.63898837235</v>
+        <v>40135.41394428529</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>5833.7681507091511</v>
+        <v>77740.784776182205</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>79054.921882195849</v>
+        <v>85062.503135255072</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>49772.076471119406</v>
+        <v>59363.801262082328</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>35822.046033555496</v>
+        <v>49317.720229008621</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>97881.14906368361</v>
+        <v>36867.137868865961</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>62652.847810555788</v>
+        <v>60554.027357192805</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>26198.484883406982</v>
+        <v>60099.163677235221</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>92813.353145755987</v>
+        <v>52993.505354111083</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>37018.375235050458</v>
+        <v>37127.249025474608</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>77430.464547904863</v>
+        <v>20281.066705347461</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>97403.574224030352</v>
+        <v>93212.159632973722</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>68912.675250131666</v>
+        <v>52091.650934552999</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>82556.263532910729</v>
+        <v>1744.4788106253827</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>65751.983518839916</v>
+        <v>31861.306436417246</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>41764.639321080853</v>
+        <v>32056.927456000951</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>71117.100264818582</v>
+        <v>85189.159308275746</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>50285.673839367082</v>
+        <v>88439.630685685028</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>51216.436846448807</v>
+        <v>15571.543108148046</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>88977.671592623417</v>
+        <v>71758.327533975607</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>72092.312378029426</v>
+        <v>4548.4610797014266</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>82384.8010507422</v>
+        <v>25593.292857250428</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>48442.395056301626</v>
+        <v>44757.71334618995</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>75073.136020824546</v>
+        <v>12355.697151684908</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>53933.794515620648</v>
+        <v>29143.902688326052</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>22544.657908806919</v>
+        <v>47104.567896375396</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>32905.761494661157</v>
+        <v>87768.035005414509</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>96532.114734207687</v>
+        <v>37191.772185299233</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>83476.849319658169</v>
+        <v>52081.530561456282</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>94550.390442502758</v>
+        <v>26112.872870479008</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>7410.6469002756412</v>
+        <v>95694.182932231823</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>39438.945110365443</v>
+        <v>38686.937770711171</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>21283.188558786125</v>
+        <v>99524.01069405803</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>49181.13380618333</v>
+        <v>10374.220203409657</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>14102.375830603363</v>
+        <v>65374.581853674783</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>98747.693267915718</v>
+        <v>82471.00296064846</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>13565.427680829467</v>
+        <v>41266.671787064261</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>88811.208631858157</v>
+        <v>95117.946604726822</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>3090.9910834719722</v>
+        <v>53860.620590102037</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>58157.116690774637</v>
+        <v>60632.26210553453</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>48144.210627131237</v>
+        <v>52114.923344199349</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>90744.237334117832</v>
+        <v>36370.161466917118</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>26011.931106385113</v>
+        <v>83461.577155299587</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>5947.0724133969807</v>
+        <v>15573.794978998578</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>68904.061815990979</v>
+        <v>41651.353741527884</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>87948.357709024087</v>
+        <v>7374.6031808186954</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>1752.3959527184109</v>
+        <v>53923.246956103343</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>33846.465599456096</v>
+        <v>74645.807946216402</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>31463.758237202244</v>
+        <v>98765.137763113511</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>30572.218050698099</v>
+        <v>47781.29195254873</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>82198.43383987507</v>
+        <v>16146.14577966682</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>6394.0679137065581</v>
+        <v>33892.284385592982</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>22746.103360573965</v>
+        <v>4866.8138053417078</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>24219.152447944882</v>
+        <v>93812.389425264293</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>26386.306377091318</v>
+        <v>40473.843280874957</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>60434.724933950965</v>
+        <v>45508.347912013211</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>61513.348024763123</v>
+        <v>88926.168216246442</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>39254.171581111194</v>
+        <v>27543.834652965128</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>31134.013561414842</v>
+        <v>83018.699797347188</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>33740.227380598961</v>
+        <v>69030.796280207724</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>75047.71530229639</v>
+        <v>8747.8954644991445</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>68512.842176148741</v>
+        <v>21371.533750014747</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>86265.201008673481</v>
+        <v>21295.941696017129</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>29019.825663289623</v>
+        <v>24659.417746234802</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>5351.3868073946423</v>
+        <v>43093.671448195761</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>43971.665431957917</v>
+        <v>88120.271139716235</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>27515.706830760202</v>
+        <v>67424.93693497809</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>8905.1318516056417</v>
+        <v>61821.987353355842</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>98006.918734142921</v>
+        <v>7564.5262380511276</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>99279.72760665213</v>
+        <v>98821.469230371324</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>80995.569949885481</v>
+        <v>57041.972148772693</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>72619.246646537256</v>
+        <v>99846.967660823677</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>57170.414899593168</v>
+        <v>81283.517518576482</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>21547.068302347827</v>
+        <v>44894.206336468756</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>52774.94055398654</v>
+        <v>13831.31293244454</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>45998.848743603696</v>
+        <v>82373.895036309477</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>6095.0284927338116</v>
+        <v>3449.5932341941484</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>783.94900703034898</v>
+        <v>98833.409730649262</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>5270.5868493807984</v>
+        <v>45166.64378330257</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>62933.120268494044</v>
+        <v>66854.350343202474</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>94302.610419323915</v>
+        <v>25115.541652570893</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>13769.663442225477</v>
+        <v>42081.109151212571</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>50431.598388540318</v>
+        <v>74366.244453380743</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>73011.23761237321</v>
+        <v>90788.29790639109</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>16337.418810163428</v>
+        <v>80184.557704207284</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>66828.284345412976</v>
+        <v>26370.992774296021</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>50966.304380839945</v>
+        <v>15288.934351005955</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>59087.992273594406</v>
+        <v>38062.567842745855</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>67400.948332291795</v>
+        <v>52701.332375954276</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>89282.136503103044</v>
+        <v>74315.623574975165</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>55035.965534030329</v>
+        <v>3274.148463019977</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>99707.1579093787</v>
+        <v>56114.0486722571</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>9719.3309295899635</v>
+        <v>92823.252242840317</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>8511.7910829195625</v>
+        <v>87344.640742160453</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>97245.469249642774</v>
+        <v>49891.773695444754</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>11103.419716330409</v>
+        <v>55004.614031923746</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>70282.695092234775</v>
+        <v>1144.5812547203338</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>71017.657839686304</v>
+        <v>88260.594313048729</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>94241.869846655725</v>
+        <v>58329.525983837448</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>60016.947570209581</v>
+        <v>30062.102877693174</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>41478.226287300677</v>
+        <v>46835.173125487818</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>40511.10247210622</v>
+        <v>31443.338107743137</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>8083.137912544802</v>
+        <v>76273.649897558716</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>85265.119867296162</v>
+        <v>67485.031207166685</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>56219.106600315317</v>
+        <v>50448.504050462536</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>74040.603188615874</v>
+        <v>78889.080566569421</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>54340.190720811464</v>
+        <v>88264.230111877347</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>63537.811628509829</v>
+        <v>94265.480567292383</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>3407.8220472835374</v>
+        <v>84592.351540940901</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>59200.416833097588</v>
+        <v>94510.592983100592</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>43025.696484550601</v>
+        <v>2263.9313460199542</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>47941.213195409015</v>
+        <v>58279.061209213476</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>3874.9482214522568</v>
+        <v>66411.77786080855</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>80660.599316636595</v>
+        <v>50790.641420776657</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>10416.998596738948</v>
+        <v>47434.294228852355</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>66658.12264485273</v>
+        <v>72619.523042830217</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>56605.796147391775</v>
+        <v>62127.913175509289</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>32630.971411279519</v>
+        <v>87546.000853813908</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>68247.612758049363</v>
+        <v>21628.169714807267</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>65562.569438009188</v>
+        <v>7661.289758644818</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>31455.673882205447</v>
+        <v>80376.132007350403</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>54619.14201690218</v>
+        <v>49119.243829983796</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>73970.436338239204</v>
+        <v>62565.766621205177</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>92496.830092254109</v>
+        <v>32645.468408949764</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>863.89822505780205</v>
+        <v>29527.887313225408</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>64352.039201449188</v>
+        <v>37855.119366929292</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>28370.032757582831</v>
+        <v>20157.731024740344</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>51964.634697120702</v>
+        <v>53383.598154193132</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>35577.652485666258</v>
+        <v>44292.885815233341</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>55695.781332452185</v>
+        <v>75687.386324179402</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>1724.6021675153765</v>
+        <v>7296.8279052664457</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>38437.675649866673</v>
+        <v>78601.46607767079</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>17118.59307184962</v>
+        <v>12661.960764177116</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>68598.604988563558</v>
+        <v>77363.312422157178</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>6430.4508533697626</v>
+        <v>61671.83062234828</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>68676.998141302</v>
+        <v>20394.390434520115</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>57671.650892835947</v>
+        <v>63718.267382029568</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>95855.086943716291</v>
+        <v>21124.627175533784</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>89765.008728994959</v>
+        <v>29691.429854227692</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>65878.157877179328</v>
+        <v>55780.692122471068</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>62327.503512596828</v>
+        <v>83235.757526520698</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>6083.0941852347605</v>
+        <v>27432.05677732492</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>14135.434751617282</v>
+        <v>44926.705480911653</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>44968.308290774206</v>
+        <v>73757.963393410959</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>34555.597614797087</v>
+        <v>44376.240533009513</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>37106.225817260296</v>
+        <v>74844.270489113114</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>89121.853039162437</v>
+        <v>11667.567375848676</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>16067.81138349267</v>
+        <v>54988.804978767177</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>18168.382141652539</v>
+        <v>22721.771159191638</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>74319.89281068604</v>
+        <v>16393.90934291438</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>59913.13802855034</v>
+        <v>1643.0797805726095</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>85778.418958644819</v>
+        <v>32715.013909009005</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>38430.209276919923</v>
+        <v>70696.334537307397</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>51559.102833544421</v>
+        <v>45992.742624846083</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>39172.95493527341</v>
+        <v>80025.748370964095</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>93920.853263464247</v>
+        <v>16536.174184590203</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>55588.164005816107</v>
+        <v>93006.332033772997</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>11282.672527684344</v>
+        <v>31846.59277236327</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>60649.346981968098</v>
+        <v>8818.722297507109</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>51602.871843310371</v>
+        <v>25305.685140810696</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>42959.17509614442</v>
+        <v>38720.707318238812</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78576262-4A9E-4FCC-A155-DA599D649A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{730EFA14-9EAB-45DB-95A9-A0A1D98A14F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <t>BC0000037</t>
   </si>
   <si>
-    <t>Tía Rosa Irigorin</t>
+    <t>Madrina Rosa Irigoyen</t>
   </si>
   <si>
     <t>BC0000038</t>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5687,1801 +5687,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>51906.488880815792</v>
+        <v>85067.404826532613</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>14600.546463545994</v>
+        <v>14678.606395003402</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>85601.682001853405</v>
+        <v>64134.512733769843</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>81547.317543451616</v>
+        <v>5816.9362648954784</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>18662.091980099794</v>
+        <v>71737.599512563742</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>15018.038477162465</v>
+        <v>33370.338328514168</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>84533.364704640699</v>
+        <v>90408.106400002696</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>75990.355002432276</v>
+        <v>90384.479038732738</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>10453.711071063155</v>
+        <v>42416.342413601778</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>4881.1221061678234</v>
+        <v>48150.95543227328</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>22576.827761837514</v>
+        <v>11461.023066338616</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>75682.42015781613</v>
+        <v>76813.102073948045</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>62098.142415279566</v>
+        <v>49138.635167716908</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>79126.599188031134</v>
+        <v>85012.16050646911</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>13134.276190075245</v>
+        <v>57366.020797394282</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>81988.107826880499</v>
+        <v>88428.02894183404</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>82693.740636398928</v>
+        <v>21734.95560118397</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>29736.80398973927</v>
+        <v>82175.876938671412</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>45648.401096770816</v>
+        <v>69005.413474072484</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>30831.737688289541</v>
+        <v>98127.185099524344</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>88098.342325780992</v>
+        <v>60207.171370550837</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>79069.749529753288</v>
+        <v>43929.708741002469</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>80415.62229043158</v>
+        <v>2375.5660559233947</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>23443.601535799975</v>
+        <v>97256.886328543376</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>34161.60152862384</v>
+        <v>10040.510278040059</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>13322.92574456122</v>
+        <v>48433.180896317339</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>87898.875419854216</v>
+        <v>797.51444921930533</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>91280.781818103351</v>
+        <v>59186.047358832097</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>52378.888637196542</v>
+        <v>18994.90681398892</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>30512.277796444199</v>
+        <v>84734.412437589301</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>27046.913384039784</v>
+        <v>76899.370714312448</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>34298.877764996039</v>
+        <v>33856.007867930806</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>18151.241583319756</v>
+        <v>93226.409729905266</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>51363.153113016022</v>
+        <v>73141.228919935224</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>6326.282902540881</v>
+        <v>33734.406240586897</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>33139.826614777521</v>
+        <v>13320.295398719072</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>22531.318743302621</v>
+        <v>55276.884274228709</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>21705.297270654479</v>
+        <v>1448.2581832727992</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>28082.613305280389</v>
+        <v>91358.720380199738</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>94558.726988376293</v>
+        <v>85739.575159019354</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>31384.362862058424</v>
+        <v>52490.329751902573</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>8814.6233066906279</v>
+        <v>43879.463030116764</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>46812.544619126325</v>
+        <v>92699.308312428693</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>84691.554864889258</v>
+        <v>9514.7688656819446</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>92177.690288193859</v>
+        <v>18601.835913852261</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>75089.217114597457</v>
+        <v>4362.6096085089048</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>89049.892551011159</v>
+        <v>74186.618233141286</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>92577.1044545638</v>
+        <v>44641.578558258712</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>46115.969388893529</v>
+        <v>77529.734609824969</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>5793.4973549606857</v>
+        <v>96686.389876169225</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>92324.135214834067</v>
+        <v>19483.676945575935</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>71903.961099807566</v>
+        <v>14458.000445741014</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>31247.132424581847</v>
+        <v>72959.661500398259</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>7140.9989546675542</v>
+        <v>268.75920192019896</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>16245.037851760968</v>
+        <v>60866.21135202438</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>75999.851270430532</v>
+        <v>27542.319249625736</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>74570.749666775926</v>
+        <v>46831.756035629078</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>27180.38478262732</v>
+        <v>24591.635843079395</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>39447.099908533222</v>
+        <v>46591.298376183957</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>71837.274693184518</v>
+        <v>26276.407927544977</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>47588.935158121392</v>
+        <v>14331.844020736262</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>89202.125817068139</v>
+        <v>61018.235746686711</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>74201.899809436087</v>
+        <v>27226.347251868454</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>62982.283687052288</v>
+        <v>30367.01849994955</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>19759.336595891342</v>
+        <v>56205.168615184666</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>5023.5979277603592</v>
+        <v>38197.322418233729</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>88270.677611084277</v>
+        <v>46281.485629846451</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>21900.4416724765</v>
+        <v>26757.065145953031</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>73449.32772596633</v>
+        <v>203.18652671560412</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>66024.297007920337</v>
+        <v>82420.581119541937</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>38832.628573907066</v>
+        <v>4766.0091280741553</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>50700.523357190599</v>
+        <v>75570.254283306131</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>10394.071548601192</v>
+        <v>73781.707249535888</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>13335.79721860929</v>
+        <v>20320.961688111151</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>75414.723481866444</v>
+        <v>43932.59608186558</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>46193.820237065629</v>
+        <v>91107.596910041349</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>21080.368228587566</v>
+        <v>19583.895867136402</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>47143.131610089207</v>
+        <v>52957.318740064089</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>32089.722411809296</v>
+        <v>11384.443251334309</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>36667.085621055798</v>
+        <v>81202.237574899584</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>29638.075165932121</v>
+        <v>40825.408043554526</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>12363.653026935584</v>
+        <v>81741.511300356433</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>61802.617095306232</v>
+        <v>35255.535882748016</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>59383.51438151289</v>
+        <v>90771.003187537674</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>74497.261264475892</v>
+        <v>14647.829874072439</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>62906.795623027909</v>
+        <v>33784.148839080022</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>25557.431501618845</v>
+        <v>29162.682617395007</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>27578.698180971594</v>
+        <v>86094.095302848757</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>91547.665800367424</v>
+        <v>28106.074568292337</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>31733.300267124931</v>
+        <v>7556.5402526204025</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>2887.2809292019297</v>
+        <v>66.153476405506069</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>46739.075727364332</v>
+        <v>15742.833130322919</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>47125.945962573409</v>
+        <v>77290.527952374294</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>59613.650966973371</v>
+        <v>9787.7983772177595</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>23857.624134916143</v>
+        <v>92703.547405107223</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>27320.871243781075</v>
+        <v>87662.623112473564</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>97354.248400160577</v>
+        <v>44391.735873738144</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>30655.617000834001</v>
+        <v>5039.0680809934474</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>69260.682475114561</v>
+        <v>53318.106065557382</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>89358.458745210912</v>
+        <v>23232.067700702621</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>63038.027579167385</v>
+        <v>96478.481916241086</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>73071.292721691789</v>
+        <v>74674.93594243018</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>97771.213704433074</v>
+        <v>87664.317293009459</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>70609.839756684945</v>
+        <v>61567.158636473017</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>16784.702230494309</v>
+        <v>83650.382199690532</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>59508.684711116068</v>
+        <v>76393.247753923803</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>34658.718931502575</v>
+        <v>99963.294810257357</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>60085.549080842604</v>
+        <v>32726.46772360487</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>31146.871632589533</v>
+        <v>6068.3400562081542</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>74706.534529908822</v>
+        <v>32328.521627496022</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>42277.015222192851</v>
+        <v>4361.3937635520124</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>92641.059359553721</v>
+        <v>65455.839228814206</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>35755.632759023705</v>
+        <v>61301.279611415172</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>27989.336078878991</v>
+        <v>13334.175014844308</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>27093.912451937751</v>
+        <v>34801.924745351665</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>23603.742633264279</v>
+        <v>7051.2029223660729</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>34717.172983650489</v>
+        <v>59926.88852639035</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>11338.703275437179</v>
+        <v>95814.740656685855</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>84995.951187386148</v>
+        <v>50731.091553082893</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>11961.359666909033</v>
+        <v>97435.013296705263</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>41121.453981453749</v>
+        <v>58201.579172537742</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>70915.946469160772</v>
+        <v>77343.452057993054</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>81563.16528214654</v>
+        <v>62718.022975781663</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>20169.033695483442</v>
+        <v>34778.924791033918</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>19819.672376202514</v>
+        <v>37256.815437776182</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>48467.622325935823</v>
+        <v>82379.410965469695</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>35975.148880275454</v>
+        <v>69803.127822208</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>45038.540944818218</v>
+        <v>19170.936424110772</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>32274.432609184467</v>
+        <v>55725.666049161271</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>71460.696929300713</v>
+        <v>46327.765562278211</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>47592.230158171202</v>
+        <v>39977.693824353431</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>10098.752136715328</v>
+        <v>97647.297498804313</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>9515.0130039749474</v>
+        <v>90964.550412592187</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>15116.483226579092</v>
+        <v>55914.297086804763</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>28119.716741436485</v>
+        <v>6567.5197984324532</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>22690.903060116441</v>
+        <v>52919.75432352112</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>1947.8959759569036</v>
+        <v>50005.429240654732</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>59283.559536037908</v>
+        <v>1927.6157809046902</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>40030.999514745847</v>
+        <v>28204.598082144461</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>40135.41394428529</v>
+        <v>79639.035843274323</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>77740.784776182205</v>
+        <v>95590.7438042172</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>85062.503135255072</v>
+        <v>66742.386791713565</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>59363.801262082328</v>
+        <v>735.18909471282927</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>49317.720229008621</v>
+        <v>52869.137843202843</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>36867.137868865961</v>
+        <v>16323.243463830406</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>60554.027357192805</v>
+        <v>38333.916528711597</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>60099.163677235221</v>
+        <v>25009.663137959549</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>52993.505354111083</v>
+        <v>7968.9904353341335</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>37127.249025474608</v>
+        <v>84056.389617010092</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>20281.066705347461</v>
+        <v>36259.762869130376</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>93212.159632973722</v>
+        <v>15101.85785527277</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>52091.650934552999</v>
+        <v>7074.2821012208187</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>1744.4788106253827</v>
+        <v>31176.433574168972</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>31861.306436417246</v>
+        <v>4849.7669723396421</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>32056.927456000951</v>
+        <v>44705.170299102239</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>85189.159308275746</v>
+        <v>31854.872950544323</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>88439.630685685028</v>
+        <v>75316.501090324877</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>15571.543108148046</v>
+        <v>47305.766229381443</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>71758.327533975607</v>
+        <v>10454.42187794985</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>4548.4610797014266</v>
+        <v>55490.240350410539</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>25593.292857250428</v>
+        <v>47942.365764463531</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>44757.71334618995</v>
+        <v>40387.265110563894</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>12355.697151684908</v>
+        <v>5544.0660143567857</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>29143.902688326052</v>
+        <v>7470.7917753313759</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>47104.567896375396</v>
+        <v>88212.627120002013</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>87768.035005414509</v>
+        <v>23794.90750555804</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>37191.772185299233</v>
+        <v>27180.973807199571</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>52081.530561456282</v>
+        <v>61718.612861184876</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>26112.872870479008</v>
+        <v>89434.151644814207</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>95694.182932231823</v>
+        <v>20671.319510272911</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>38686.937770711171</v>
+        <v>16406.925775960048</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>99524.01069405803</v>
+        <v>87468.033124493944</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>10374.220203409657</v>
+        <v>29926.269076568336</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>65374.581853674783</v>
+        <v>3698.6189420991632</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>82471.00296064846</v>
+        <v>19271.20854157205</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>41266.671787064261</v>
+        <v>60066.722240309078</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>95117.946604726822</v>
+        <v>45891.346615661307</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>53860.620590102037</v>
+        <v>88925.310905461345</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>60632.26210553453</v>
+        <v>63373.391128333453</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>52114.923344199349</v>
+        <v>92929.151226786373</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>36370.161466917118</v>
+        <v>71146.098907269377</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>83461.577155299587</v>
+        <v>747.28337854874644</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>15573.794978998578</v>
+        <v>96446.116684465247</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>41651.353741527884</v>
+        <v>41076.53946797036</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>7374.6031808186954</v>
+        <v>72840.470809168357</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>53923.246956103343</v>
+        <v>3862.931596819963</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>74645.807946216402</v>
+        <v>14013.208095579943</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>98765.137763113511</v>
+        <v>29500.999551620833</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>47781.29195254873</v>
+        <v>47472.101521049612</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>16146.14577966682</v>
+        <v>91384.526960225703</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>33892.284385592982</v>
+        <v>30812.750659734545</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>4866.8138053417078</v>
+        <v>31275.106651841645</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>93812.389425264293</v>
+        <v>57165.084858418282</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>40473.843280874957</v>
+        <v>74216.011635493705</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>45508.347912013211</v>
+        <v>31184.651549288588</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>88926.168216246442</v>
+        <v>60026.949312723664</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>27543.834652965128</v>
+        <v>15806.791050357006</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>83018.699797347188</v>
+        <v>74452.985589602598</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>69030.796280207724</v>
+        <v>10655.565072444984</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>8747.8954644991445</v>
+        <v>86756.032205295152</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>21371.533750014747</v>
+        <v>74879.118875465007</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>21295.941696017129</v>
+        <v>53811.874768664944</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>24659.417746234802</v>
+        <v>20009.958689077823</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>43093.671448195761</v>
+        <v>68626.121507534859</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>88120.271139716235</v>
+        <v>27137.505238233538</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>67424.93693497809</v>
+        <v>98675.162026735459</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>61821.987353355842</v>
+        <v>93221.573016730981</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>7564.5262380511276</v>
+        <v>39038.08400745671</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>98821.469230371324</v>
+        <v>84891.442700318483</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>57041.972148772693</v>
+        <v>38112.747533240086</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>99846.967660823677</v>
+        <v>85217.15391882768</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>81283.517518576482</v>
+        <v>69955.191832856668</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>44894.206336468756</v>
+        <v>32272.233421035835</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>13831.31293244454</v>
+        <v>86734.241529661813</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>82373.895036309477</v>
+        <v>13929.297633674087</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>3449.5932341941484</v>
+        <v>52004.930069606635</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>98833.409730649262</v>
+        <v>79315.672045696629</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>45166.64378330257</v>
+        <v>76534.678944423766</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>66854.350343202474</v>
+        <v>60328.067794234441</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>25115.541652570893</v>
+        <v>54569.420184724047</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>42081.109151212571</v>
+        <v>96594.332743641295</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>74366.244453380743</v>
+        <v>62806.781723527383</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>90788.29790639109</v>
+        <v>17607.875565014554</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>80184.557704207284</v>
+        <v>82126.121118034978</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>26370.992774296021</v>
+        <v>52467.188828277336</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>15288.934351005955</v>
+        <v>47223.126485468456</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>38062.567842745855</v>
+        <v>18537.557503741566</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>52701.332375954276</v>
+        <v>9458.4447752564811</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>74315.623574975165</v>
+        <v>88470.184056297847</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>3274.148463019977</v>
+        <v>47331.424894504838</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>56114.0486722571</v>
+        <v>72122.327278959478</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>92823.252242840317</v>
+        <v>82832.999785003019</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>87344.640742160453</v>
+        <v>21589.153571911003</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>49891.773695444754</v>
+        <v>52756.01047567647</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>55004.614031923746</v>
+        <v>20929.760033220136</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>1144.5812547203338</v>
+        <v>95968.911984120758</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>88260.594313048729</v>
+        <v>16.573202267800013</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>58329.525983837448</v>
+        <v>35148.931337254697</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>30062.102877693174</v>
+        <v>16692.728146544567</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>46835.173125487818</v>
+        <v>16767.443478913901</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>31443.338107743137</v>
+        <v>56391.084336897366</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>76273.649897558716</v>
+        <v>35555.692916778062</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>67485.031207166685</v>
+        <v>72168.067923657887</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>50448.504050462536</v>
+        <v>79698.584547461243</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>78889.080566569421</v>
+        <v>43688.529392388409</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>88264.230111877347</v>
+        <v>95326.558968462952</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>94265.480567292383</v>
+        <v>91856.748068464265</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>84592.351540940901</v>
+        <v>49544.888338574303</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>94510.592983100592</v>
+        <v>61662.930984360057</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>2263.9313460199542</v>
+        <v>85780.382218902596</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>58279.061209213476</v>
+        <v>44368.481815914471</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>66411.77786080855</v>
+        <v>15413.787415075119</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>50790.641420776657</v>
+        <v>3866.128725021445</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>47434.294228852355</v>
+        <v>93833.641652970546</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>72619.523042830217</v>
+        <v>86556.453896077073</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>62127.913175509289</v>
+        <v>21281.696601951484</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>87546.000853813908</v>
+        <v>60393.585341113132</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>21628.169714807267</v>
+        <v>9631.4710727985585</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>7661.289758644818</v>
+        <v>81436.0523498564</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>80376.132007350403</v>
+        <v>64810.277921736102</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>49119.243829983796</v>
+        <v>80796.855761485611</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>62565.766621205177</v>
+        <v>81699.501218464939</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>32645.468408949764</v>
+        <v>67628.696598891926</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>29527.887313225408</v>
+        <v>92481.565309964877</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>37855.119366929292</v>
+        <v>20660.375560039134</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>20157.731024740344</v>
+        <v>26563.017690734512</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>53383.598154193132</v>
+        <v>55687.209935687744</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>44292.885815233341</v>
+        <v>3758.7324053926509</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>75687.386324179402</v>
+        <v>49850.179184218658</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>7296.8279052664457</v>
+        <v>82743.568572223405</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>78601.46607767079</v>
+        <v>75489.632172439771</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>12661.960764177116</v>
+        <v>99742.498359389938</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>77363.312422157178</v>
+        <v>53846.024022825848</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>61671.83062234828</v>
+        <v>63890.940661931294</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>20394.390434520115</v>
+        <v>88367.534719464558</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>63718.267382029568</v>
+        <v>20940.266673113139</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>21124.627175533784</v>
+        <v>7889.9701348819071</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>29691.429854227692</v>
+        <v>1562.0479445477952</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>55780.692122471068</v>
+        <v>15768.973018908406</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>83235.757526520698</v>
+        <v>73734.695119454336</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>27432.05677732492</v>
+        <v>27764.513541795422</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>44926.705480911653</v>
+        <v>27513.671107487124</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>73757.963393410959</v>
+        <v>85398.26286365783</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>44376.240533009513</v>
+        <v>70004.184749920751</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>74844.270489113114</v>
+        <v>70162.178060022517</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>11667.567375848676</v>
+        <v>36993.252620979678</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>54988.804978767177</v>
+        <v>80316.152332030397</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>22721.771159191638</v>
+        <v>79151.537106832053</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>16393.90934291438</v>
+        <v>80695.892563418776</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>1643.0797805726095</v>
+        <v>60141.984108483441</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>32715.013909009005</v>
+        <v>35278.419403375796</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>70696.334537307397</v>
+        <v>2415.4843877974731</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>45992.742624846083</v>
+        <v>1121.7805640474699</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>80025.748370964095</v>
+        <v>89029.145256212738</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>16536.174184590203</v>
+        <v>37036.700113074716</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>93006.332033772997</v>
+        <v>66203.165796158908</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>31846.59277236327</v>
+        <v>95394.28627016356</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>8818.722297507109</v>
+        <v>33774.564724181888</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>25305.685140810696</v>
+        <v>25625.270628414208</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>38720.707318238812</v>
+        <v>75395.000477534733</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{730EFA14-9EAB-45DB-95A9-A0A1D98A14F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F548CC4-E234-4E25-895D-72260AF8716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1579,7 +1579,7 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
@@ -5687,1801 +5687,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>85067.404826532613</v>
+        <v>84208.956645873055</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>14678.606395003402</v>
+        <v>50986.947352530864</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>64134.512733769843</v>
+        <v>84629.334623701609</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>5816.9362648954784</v>
+        <v>19275.457187361</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>71737.599512563742</v>
+        <v>17696.855727133876</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>33370.338328514168</v>
+        <v>23341.408671992391</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>90408.106400002696</v>
+        <v>1699.5578726298531</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>90384.479038732738</v>
+        <v>2597.1470153588139</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>42416.342413601778</v>
+        <v>47532.709547856408</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>48150.95543227328</v>
+        <v>70423.64986561719</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>11461.023066338616</v>
+        <v>30986.0095834684</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>76813.102073948045</v>
+        <v>41338.594062972843</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>49138.635167716908</v>
+        <v>42088.877198061062</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>85012.16050646911</v>
+        <v>89364.142163608602</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>57366.020797394282</v>
+        <v>7118.0587363347204</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>88428.02894183404</v>
+        <v>30166.701562449427</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>21734.95560118397</v>
+        <v>39719.179103044597</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>82175.876938671412</v>
+        <v>51120.963959207445</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>69005.413474072484</v>
+        <v>92494.798190714151</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>98127.185099524344</v>
+        <v>5179.5504467952669</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>60207.171370550837</v>
+        <v>17207.734031780885</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>43929.708741002469</v>
+        <v>88606.611281961494</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>2375.5660559233947</v>
+        <v>9344.2142692488178</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>97256.886328543376</v>
+        <v>14152.442445745928</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>10040.510278040059</v>
+        <v>99711.29251532926</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>48433.180896317339</v>
+        <v>73727.269133069945</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>797.51444921930533</v>
+        <v>37350.88745708733</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>59186.047358832097</v>
+        <v>54655.980520347999</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>18994.90681398892</v>
+        <v>32581.086629410784</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>84734.412437589301</v>
+        <v>16432.91433359775</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>76899.370714312448</v>
+        <v>78892.606894747674</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>33856.007867930806</v>
+        <v>73627.0680999545</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>93226.409729905266</v>
+        <v>80316.935986938683</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>73141.228919935224</v>
+        <v>44858.965736042221</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>33734.406240586897</v>
+        <v>74451.51071703466</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>13320.295398719072</v>
+        <v>67529.529280206014</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>55276.884274228709</v>
+        <v>38916.161996245137</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>1448.2581832727992</v>
+        <v>19961.511221934947</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>91358.720380199738</v>
+        <v>34982.788317087136</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>85739.575159019354</v>
+        <v>82019.046843809556</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>52490.329751902573</v>
+        <v>96476.383333333739</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>43879.463030116764</v>
+        <v>10093.71063202722</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>92699.308312428693</v>
+        <v>176.92120099749297</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>9514.7688656819446</v>
+        <v>56144.942894405416</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>18601.835913852261</v>
+        <v>31711.159282302982</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>4362.6096085089048</v>
+        <v>78948.184704901752</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>74186.618233141286</v>
+        <v>93821.655700851392</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>44641.578558258712</v>
+        <v>39430.304095077714</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>77529.734609824969</v>
+        <v>87699.079899135002</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>96686.389876169225</v>
+        <v>61392.650606514529</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>19483.676945575935</v>
+        <v>58556.265069936861</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>14458.000445741014</v>
+        <v>69570.919795981768</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>72959.661500398259</v>
+        <v>40430.797560672538</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>268.75920192019896</v>
+        <v>81177.873153826775</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>60866.21135202438</v>
+        <v>59868.96836652037</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>27542.319249625736</v>
+        <v>46452.858041727464</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>46831.756035629078</v>
+        <v>89397.292191645145</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>24591.635843079395</v>
+        <v>94992.177330717619</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>46591.298376183957</v>
+        <v>55054.560597884039</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>26276.407927544977</v>
+        <v>88921.926093243965</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>14331.844020736262</v>
+        <v>44363.718011392149</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>61018.235746686711</v>
+        <v>59786.652358657047</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>27226.347251868454</v>
+        <v>24330.374247567586</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>30367.01849994955</v>
+        <v>11264.86922514045</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>56205.168615184666</v>
+        <v>74819.819775926226</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>38197.322418233729</v>
+        <v>63934.638880433478</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>46281.485629846451</v>
+        <v>71030.746886217326</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>26757.065145953031</v>
+        <v>74000.35700303028</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>203.18652671560412</v>
+        <v>17031.337052348448</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>82420.581119541937</v>
+        <v>49090.693581744803</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>4766.0091280741553</v>
+        <v>54675.312339107586</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>75570.254283306131</v>
+        <v>72237.700257668097</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>73781.707249535888</v>
+        <v>39941.651522883534</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>20320.961688111151</v>
+        <v>68765.861364807206</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>43932.59608186558</v>
+        <v>82405.77124164626</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>91107.596910041349</v>
+        <v>11600.182447917618</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>19583.895867136402</v>
+        <v>53048.97739110954</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>52957.318740064089</v>
+        <v>77085.549879146158</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>11384.443251334309</v>
+        <v>68213.211908673184</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>81202.237574899584</v>
+        <v>15119.964008049281</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>40825.408043554526</v>
+        <v>50012.686978439073</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>81741.511300356433</v>
+        <v>82626.864645440306</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>35255.535882748016</v>
+        <v>63451.636003884902</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>90771.003187537674</v>
+        <v>36055.852908668705</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>14647.829874072439</v>
+        <v>2460.5855927611442</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>33784.148839080022</v>
+        <v>80415.347628113916</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>29162.682617395007</v>
+        <v>11772.394546130648</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>86094.095302848757</v>
+        <v>42448.217145928815</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>28106.074568292337</v>
+        <v>97576.224700752791</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>7556.5402526204025</v>
+        <v>481.99135863878917</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>66.153476405506069</v>
+        <v>62608.11495630243</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>15742.833130322919</v>
+        <v>80078.87206954672</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>77290.527952374294</v>
+        <v>2320.3340304578492</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>9787.7983772177595</v>
+        <v>9331.5855427294919</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>92703.547405107223</v>
+        <v>86378.121367882704</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>87662.623112473564</v>
+        <v>49152.657708971128</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>44391.735873738144</v>
+        <v>37630.591894306534</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>5039.0680809934474</v>
+        <v>28036.15668846705</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>53318.106065557382</v>
+        <v>40549.397381040988</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>23232.067700702621</v>
+        <v>56162.104207728495</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>96478.481916241086</v>
+        <v>51712.393588423954</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>74674.93594243018</v>
+        <v>27554.984845216535</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>87664.317293009459</v>
+        <v>16304.544763115724</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>61567.158636473017</v>
+        <v>76223.80652330369</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>83650.382199690532</v>
+        <v>78920.855228687898</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>76393.247753923803</v>
+        <v>95621.273784097109</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>99963.294810257357</v>
+        <v>86231.620523272883</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>32726.46772360487</v>
+        <v>53231.358920369312</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>6068.3400562081542</v>
+        <v>2045.1771312373746</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>32328.521627496022</v>
+        <v>9072.9642598091123</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>4361.3937635520124</v>
+        <v>74036.257080452589</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>65455.839228814206</v>
+        <v>83939.834476014963</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>61301.279611415172</v>
+        <v>27268.691651076027</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>13334.175014844308</v>
+        <v>10324.997824973914</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>34801.924745351665</v>
+        <v>4422.9994743968718</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>7051.2029223660729</v>
+        <v>17211.447490210918</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>59926.88852639035</v>
+        <v>9575.5853105762853</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>95814.740656685855</v>
+        <v>41297.200755934718</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>50731.091553082893</v>
+        <v>21938.794673466065</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>97435.013296705263</v>
+        <v>64512.661923582367</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>58201.579172537742</v>
+        <v>81267.670046405998</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>77343.452057993054</v>
+        <v>70860.702548137866</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>62718.022975781663</v>
+        <v>62501.159458842267</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>34778.924791033918</v>
+        <v>15037.497867922666</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>37256.815437776182</v>
+        <v>36293.052018068884</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>82379.410965469695</v>
+        <v>69903.071637641449</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>69803.127822208</v>
+        <v>49666.592553284761</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>19170.936424110772</v>
+        <v>32614.684041576682</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>55725.666049161271</v>
+        <v>66293.295774396305</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>46327.765562278211</v>
+        <v>66162.888092017383</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>39977.693824353431</v>
+        <v>45148.636179173031</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>97647.297498804313</v>
+        <v>15266.295910948746</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>90964.550412592187</v>
+        <v>31139.272007911877</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>55914.297086804763</v>
+        <v>67151.449974181902</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>6567.5197984324532</v>
+        <v>47154.837376763295</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>52919.75432352112</v>
+        <v>86070.371865434659</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>50005.429240654732</v>
+        <v>43682.614804276229</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>1927.6157809046902</v>
+        <v>21016.161542663569</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>28204.598082144461</v>
+        <v>75498.535994255682</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>79639.035843274323</v>
+        <v>51404.570532892059</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>95590.7438042172</v>
+        <v>89050.81271668119</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>66742.386791713565</v>
+        <v>67488.168568757683</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>735.18909471282927</v>
+        <v>89558.699239565292</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>52869.137843202843</v>
+        <v>95298.795312545699</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>16323.243463830406</v>
+        <v>9732.4713036106787</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>38333.916528711597</v>
+        <v>87237.009723266499</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>25009.663137959549</v>
+        <v>59168.661407638603</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>7968.9904353341335</v>
+        <v>43039.530302699568</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>84056.389617010092</v>
+        <v>79678.554011783635</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>36259.762869130376</v>
+        <v>17870.163243747895</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>15101.85785527277</v>
+        <v>12447.304595924668</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>7074.2821012208187</v>
+        <v>7184.7135010221109</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>31176.433574168972</v>
+        <v>68439.876534111652</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>4849.7669723396421</v>
+        <v>82538.882934192181</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>44705.170299102239</v>
+        <v>18717.365132402909</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>31854.872950544323</v>
+        <v>79969.169872029437</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>75316.501090324877</v>
+        <v>56378.872040170965</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>47305.766229381443</v>
+        <v>70992.57571310857</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>10454.42187794985</v>
+        <v>27851.612024592308</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>55490.240350410539</v>
+        <v>53947.699237174806</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>47942.365764463531</v>
+        <v>28964.982974279475</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>40387.265110563894</v>
+        <v>21482.216843800663</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>5544.0660143567857</v>
+        <v>50962.397536936813</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>7470.7917753313759</v>
+        <v>82611.926297132377</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>88212.627120002013</v>
+        <v>92686.980205600295</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>23794.90750555804</v>
+        <v>30074.926650978363</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>27180.973807199571</v>
+        <v>4882.9086597315327</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>61718.612861184876</v>
+        <v>86509.281525267419</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>89434.151644814207</v>
+        <v>37383.726409128147</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>20671.319510272911</v>
+        <v>2942.9978542576673</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>16406.925775960048</v>
+        <v>30193.435384266577</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>87468.033124493944</v>
+        <v>36667.422745639888</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>29926.269076568336</v>
+        <v>77845.92929874979</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>3698.6189420991632</v>
+        <v>87942.4217182578</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>19271.20854157205</v>
+        <v>63141.123819487053</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>60066.722240309078</v>
+        <v>21721.283310525254</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>45891.346615661307</v>
+        <v>99701.661338452046</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>88925.310905461345</v>
+        <v>17477.495330454829</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>63373.391128333453</v>
+        <v>4011.3474755028246</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>92929.151226786373</v>
+        <v>27814.597541648058</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>71146.098907269377</v>
+        <v>16699.706171206253</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>747.28337854874644</v>
+        <v>74382.949529422418</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>96446.116684465247</v>
+        <v>36879.249353793661</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>41076.53946797036</v>
+        <v>74962.031097281011</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>72840.470809168357</v>
+        <v>85743.653259493469</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>3862.931596819963</v>
+        <v>31029.376157078892</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>14013.208095579943</v>
+        <v>85194.904815057569</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>29500.999551620833</v>
+        <v>42150.956449704987</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>47472.101521049612</v>
+        <v>1740.0579901070801</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>91384.526960225703</v>
+        <v>6098.8542052247021</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>30812.750659734545</v>
+        <v>21470.227598139256</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>31275.106651841645</v>
+        <v>40989.151767850293</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>57165.084858418282</v>
+        <v>176.10438376216564</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>74216.011635493705</v>
+        <v>6420.5895932019976</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>31184.651549288588</v>
+        <v>41250.039360963572</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>60026.949312723664</v>
+        <v>90634.663203817385</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>15806.791050357006</v>
+        <v>58614.475782308858</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>74452.985589602598</v>
+        <v>1368.3264986697695</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>10655.565072444984</v>
+        <v>91012.015107653962</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>86756.032205295152</v>
+        <v>97020.200951321167</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>74879.118875465007</v>
+        <v>85167.36680262335</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>53811.874768664944</v>
+        <v>96046.105080830894</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>20009.958689077823</v>
+        <v>90333.819892648418</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>68626.121507534859</v>
+        <v>68821.284563339679</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>27137.505238233538</v>
+        <v>84553.875591786127</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>98675.162026735459</v>
+        <v>48144.038669304231</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>93221.573016730981</v>
+        <v>90844.543671428328</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>39038.08400745671</v>
+        <v>62683.116185713494</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>84891.442700318483</v>
+        <v>35686.258703866733</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>38112.747533240086</v>
+        <v>29037.914534187035</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>85217.15391882768</v>
+        <v>64963.999696454768</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>69955.191832856668</v>
+        <v>84606.274261084109</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>32272.233421035835</v>
+        <v>19410.518859963198</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>86734.241529661813</v>
+        <v>26649.586092842816</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>13929.297633674087</v>
+        <v>22078.448962728304</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>52004.930069606635</v>
+        <v>84844.854155104476</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>79315.672045696629</v>
+        <v>763.76491855404402</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>76534.678944423766</v>
+        <v>60262.792484342106</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>60328.067794234441</v>
+        <v>71732.066626012107</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>54569.420184724047</v>
+        <v>39433.476173782234</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>96594.332743641295</v>
+        <v>76137.269324290508</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>62806.781723527383</v>
+        <v>51884.0901058651</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>17607.875565014554</v>
+        <v>31907.061793577195</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>82126.121118034978</v>
+        <v>28076.671559311108</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>52467.188828277336</v>
+        <v>15789.797209537248</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>47223.126485468456</v>
+        <v>68131.494944102582</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>18537.557503741566</v>
+        <v>763.6907575782725</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>9458.4447752564811</v>
+        <v>7888.1544757284928</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>88470.184056297847</v>
+        <v>73672.570755353445</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>47331.424894504838</v>
+        <v>62171.432598831154</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>72122.327278959478</v>
+        <v>84211.518851253713</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>82832.999785003019</v>
+        <v>65328.714002608882</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>21589.153571911003</v>
+        <v>3867.0671636046204</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>52756.01047567647</v>
+        <v>69178.972950123381</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>20929.760033220136</v>
+        <v>50436.284484142947</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>95968.911984120758</v>
+        <v>40282.218034429039</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>16.573202267800013</v>
+        <v>86710.764934342063</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>35148.931337254697</v>
+        <v>13432.323814026393</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>16692.728146544567</v>
+        <v>34546.512104557347</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>16767.443478913901</v>
+        <v>9601.5836669240525</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>56391.084336897366</v>
+        <v>16738.313394010616</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>35555.692916778062</v>
+        <v>54323.189305189742</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>72168.067923657887</v>
+        <v>98325.928422416167</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>79698.584547461243</v>
+        <v>60853.411878183404</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>43688.529392388409</v>
+        <v>76017.663387174151</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>95326.558968462952</v>
+        <v>64973.780087603096</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>91856.748068464265</v>
+        <v>23716.372322380586</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>49544.888338574303</v>
+        <v>37327.481394360439</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>61662.930984360057</v>
+        <v>22433.291740263638</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>85780.382218902596</v>
+        <v>5987.9882478896088</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>44368.481815914471</v>
+        <v>39559.000585105387</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>15413.787415075119</v>
+        <v>78633.700692755985</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>3866.128725021445</v>
+        <v>66947.746034398908</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>93833.641652970546</v>
+        <v>63480.457873130101</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>86556.453896077073</v>
+        <v>94036.069226305946</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>21281.696601951484</v>
+        <v>62508.996912085538</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>60393.585341113132</v>
+        <v>89187.627939623795</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>9631.4710727985585</v>
+        <v>13756.953432363451</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>81436.0523498564</v>
+        <v>83680.712071859016</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>64810.277921736102</v>
+        <v>84236.948481181797</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>80796.855761485611</v>
+        <v>85309.508158153869</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>81699.501218464939</v>
+        <v>7328.0047371361625</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>67628.696598891926</v>
+        <v>73330.473767952324</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>92481.565309964877</v>
+        <v>6273.978802939173</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>20660.375560039134</v>
+        <v>96945.166155090643</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>26563.017690734512</v>
+        <v>92402.384154504718</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>55687.209935687744</v>
+        <v>11256.693195859647</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>3758.7324053926509</v>
+        <v>11079.008476915242</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>49850.179184218658</v>
+        <v>21773.098529029765</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>82743.568572223405</v>
+        <v>49858.75012766444</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>75489.632172439771</v>
+        <v>48375.749167827838</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>99742.498359389938</v>
+        <v>88669.287874204325</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>53846.024022825848</v>
+        <v>50836.091668648354</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>63890.940661931294</v>
+        <v>67258.375016361606</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>88367.534719464558</v>
+        <v>92214.763542711225</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>20940.266673113139</v>
+        <v>62502.648762993987</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>7889.9701348819071</v>
+        <v>94159.21281648177</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>1562.0479445477952</v>
+        <v>71458.730988963478</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>15768.973018908406</v>
+        <v>14823.296418601905</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>73734.695119454336</v>
+        <v>76040.951983712133</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>27764.513541795422</v>
+        <v>37459.698902645985</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>27513.671107487124</v>
+        <v>38995.406799986624</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>85398.26286365783</v>
+        <v>3512.8965759536391</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>70004.184749920751</v>
+        <v>81057.685713154307</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>70162.178060022517</v>
+        <v>3682.6714299021955</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>36993.252620979678</v>
+        <v>41593.139642767128</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>80316.152332030397</v>
+        <v>15494.580866874163</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>79151.537106832053</v>
+        <v>89573.639269336709</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>80695.892563418776</v>
+        <v>93889.697676374533</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>60141.984108483441</v>
+        <v>13126.210350801581</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>35278.419403375796</v>
+        <v>88153.237653919292</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>2415.4843877974731</v>
+        <v>61690.470378372884</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>1121.7805640474699</v>
+        <v>84290.067217088959</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>89029.145256212738</v>
+        <v>93052.748280472821</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>37036.700113074716</v>
+        <v>59927.751446311639</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>66203.165796158908</v>
+        <v>97651.093698223878</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>95394.28627016356</v>
+        <v>14002.869817917841</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>33774.564724181888</v>
+        <v>35378.172289947193</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>25625.270628414208</v>
+        <v>14602.733904076249</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>75395.000477534733</v>
+        <v>33793.566708878818</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F548CC4-E234-4E25-895D-72260AF8716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C13426-2298-4326-BAAD-DCA8369154F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1404,7 +1404,7 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
@@ -5687,1801 +5687,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>84208.956645873055</v>
+        <v>52778.04679642406</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>50986.947352530864</v>
+        <v>42268.402124089218</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>84629.334623701609</v>
+        <v>36854.431787760521</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>19275.457187361</v>
+        <v>29811.426659238048</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>17696.855727133876</v>
+        <v>66350.519350105315</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>23341.408671992391</v>
+        <v>78085.870900227179</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>1699.5578726298531</v>
+        <v>47230.417314134043</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>2597.1470153588139</v>
+        <v>30887.946926527187</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>47532.709547856408</v>
+        <v>77012.06274927262</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>70423.64986561719</v>
+        <v>62855.512269047722</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>30986.0095834684</v>
+        <v>86007.604750191676</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>41338.594062972843</v>
+        <v>18345.637152952298</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>42088.877198061062</v>
+        <v>9759.3790577588316</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>89364.142163608602</v>
+        <v>17411.418112063337</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>7118.0587363347204</v>
+        <v>86265.765002772139</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>30166.701562449427</v>
+        <v>26093.366511682281</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>39719.179103044597</v>
+        <v>7175.3813699130251</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>51120.963959207445</v>
+        <v>12637.865904343982</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>92494.798190714151</v>
+        <v>57110.907961083023</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>5179.5504467952669</v>
+        <v>89423.836454027129</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>17207.734031780885</v>
+        <v>23078.487066689911</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>88606.611281961494</v>
+        <v>19258.244338546338</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>9344.2142692488178</v>
+        <v>13023.762773557313</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>14152.442445745928</v>
+        <v>84896.998852596065</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>99711.29251532926</v>
+        <v>60979.474631951794</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>73727.269133069945</v>
+        <v>15056.280827093593</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>37350.88745708733</v>
+        <v>27861.155532337976</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>54655.980520347999</v>
+        <v>70525.239621838613</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>32581.086629410784</v>
+        <v>43725.887586600729</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>16432.91433359775</v>
+        <v>66554.976222084733</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>78892.606894747674</v>
+        <v>84358.259579310194</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>73627.0680999545</v>
+        <v>84729.452202244167</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>80316.935986938683</v>
+        <v>21648.557217533926</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>44858.965736042221</v>
+        <v>28983.503002898491</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>74451.51071703466</v>
+        <v>59443.440440557439</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>67529.529280206014</v>
+        <v>3999.3380915075427</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>38916.161996245137</v>
+        <v>45104.496979089548</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>19961.511221934947</v>
+        <v>1877.4047275775806</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>34982.788317087136</v>
+        <v>51093.567686541086</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>82019.046843809556</v>
+        <v>43429.985985992425</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>96476.383333333739</v>
+        <v>16624.547282229407</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>10093.71063202722</v>
+        <v>41656.356239949142</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>176.92120099749297</v>
+        <v>75969.275229549748</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>56144.942894405416</v>
+        <v>10138.330212750991</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>31711.159282302982</v>
+        <v>15464.005241189605</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>78948.184704901752</v>
+        <v>91183.583582408013</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>93821.655700851392</v>
+        <v>28915.728439429287</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>39430.304095077714</v>
+        <v>50967.207442621424</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>87699.079899135002</v>
+        <v>42579.082622281749</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>61392.650606514529</v>
+        <v>21972.179094243373</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>58556.265069936861</v>
+        <v>53943.298114950703</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>69570.919795981768</v>
+        <v>17185.012190280446</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>40430.797560672538</v>
+        <v>30574.871935309235</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>81177.873153826775</v>
+        <v>12667.83416293431</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>59868.96836652037</v>
+        <v>12886.318315459012</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>46452.858041727464</v>
+        <v>45141.857090086603</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>89397.292191645145</v>
+        <v>59015.600125380231</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>94992.177330717619</v>
+        <v>59956.939707997837</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>55054.560597884039</v>
+        <v>36296.663141139783</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>88921.926093243965</v>
+        <v>3197.7068619083338</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>44363.718011392149</v>
+        <v>15094.703157417676</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>59786.652358657047</v>
+        <v>78654.528873783798</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>24330.374247567586</v>
+        <v>72460.50564604174</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>11264.86922514045</v>
+        <v>98803.204849017449</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>74819.819775926226</v>
+        <v>73030.826543973773</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>63934.638880433478</v>
+        <v>39338.491683744673</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>71030.746886217326</v>
+        <v>50748.485318311796</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>74000.35700303028</v>
+        <v>31450.455095645291</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>17031.337052348448</v>
+        <v>30424.590124705363</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>49090.693581744803</v>
+        <v>82640.962989060557</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>54675.312339107586</v>
+        <v>13540.245801324412</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>72237.700257668097</v>
+        <v>64128.239153354152</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>39941.651522883534</v>
+        <v>13107.883252283726</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>68765.861364807206</v>
+        <v>91132.38220809355</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>82405.77124164626</v>
+        <v>5509.330425727665</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>11600.182447917618</v>
+        <v>55182.140158877846</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>53048.97739110954</v>
+        <v>77095.754944082815</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>77085.549879146158</v>
+        <v>98637.347241744399</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>68213.211908673184</v>
+        <v>9890.8323779688835</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>15119.964008049281</v>
+        <v>19084.144327077047</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>50012.686978439073</v>
+        <v>48528.445361563885</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>82626.864645440306</v>
+        <v>818.35945739727742</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>63451.636003884902</v>
+        <v>87518.30890305544</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>36055.852908668705</v>
+        <v>76623.354804885865</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>2460.5855927611442</v>
+        <v>59413.258013409257</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>80415.347628113916</v>
+        <v>55698.201113208183</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>11772.394546130648</v>
+        <v>1024.0563427966865</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>42448.217145928815</v>
+        <v>97484.869343043334</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>97576.224700752791</v>
+        <v>24042.821319607188</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>481.99135863878917</v>
+        <v>78534.520765720459</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>62608.11495630243</v>
+        <v>80211.410618367736</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>80078.87206954672</v>
+        <v>40882.533488119741</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>2320.3340304578492</v>
+        <v>42677.552408989475</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>9331.5855427294919</v>
+        <v>96071.75201577945</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>86378.121367882704</v>
+        <v>62429.80443731889</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>49152.657708971128</v>
+        <v>38340.055917425809</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>37630.591894306534</v>
+        <v>23378.684757515111</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>28036.15668846705</v>
+        <v>57979.238236095385</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>40549.397381040988</v>
+        <v>16821.84554517865</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>56162.104207728495</v>
+        <v>89855.645560845383</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>51712.393588423954</v>
+        <v>85004.504028343959</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>27554.984845216535</v>
+        <v>34017.724949908908</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>16304.544763115724</v>
+        <v>75331.011399516065</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>76223.80652330369</v>
+        <v>33239.564857938363</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>78920.855228687898</v>
+        <v>51978.964457060494</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>95621.273784097109</v>
+        <v>17905.45455297875</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>86231.620523272883</v>
+        <v>11961.354839002524</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>53231.358920369312</v>
+        <v>7347.743871908363</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>2045.1771312373746</v>
+        <v>44271.358254937601</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>9072.9642598091123</v>
+        <v>1974.663701374868</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>74036.257080452589</v>
+        <v>38503.683638363604</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>83939.834476014963</v>
+        <v>21723.246768260105</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>27268.691651076027</v>
+        <v>1618.7581317463673</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>10324.997824973914</v>
+        <v>78093.073996584732</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>4422.9994743968718</v>
+        <v>95964.425093200844</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>17211.447490210918</v>
+        <v>42003.504785490688</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>9575.5853105762853</v>
+        <v>7517.7054978881388</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>41297.200755934718</v>
+        <v>12738.826891033717</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>21938.794673466065</v>
+        <v>46085.340372144281</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>64512.661923582367</v>
+        <v>18323.499868107017</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>81267.670046405998</v>
+        <v>94085.713260087083</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>70860.702548137866</v>
+        <v>50551.732157720886</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>62501.159458842267</v>
+        <v>33507.531999300176</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>15037.497867922666</v>
+        <v>94138.553717182454</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>36293.052018068884</v>
+        <v>18919.532109076299</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>69903.071637641449</v>
+        <v>11516.295198034753</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>49666.592553284761</v>
+        <v>28323.248868688799</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>32614.684041576682</v>
+        <v>43510.192701509986</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>66293.295774396305</v>
+        <v>8465.3011911172034</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>66162.888092017383</v>
+        <v>52064.667412482115</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>45148.636179173031</v>
+        <v>52455.847677036945</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>15266.295910948746</v>
+        <v>44272.956288188281</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>31139.272007911877</v>
+        <v>11418.28215901427</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>67151.449974181902</v>
+        <v>37782.549328905887</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>47154.837376763295</v>
+        <v>17089.466848630764</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>86070.371865434659</v>
+        <v>16177.341830809655</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>43682.614804276229</v>
+        <v>41364.031100227869</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>21016.161542663569</v>
+        <v>17286.981734738783</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>75498.535994255682</v>
+        <v>97381.839207038065</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>51404.570532892059</v>
+        <v>38680.607481302985</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>89050.81271668119</v>
+        <v>53630.189325701824</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>67488.168568757683</v>
+        <v>14953.771622015254</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>89558.699239565292</v>
+        <v>4415.4787029870631</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>95298.795312545699</v>
+        <v>84344.169838031055</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>9732.4713036106787</v>
+        <v>29971.336468465102</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>87237.009723266499</v>
+        <v>84542.964111694804</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>59168.661407638603</v>
+        <v>39944.735978129895</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>43039.530302699568</v>
+        <v>25552.508349811898</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>79678.554011783635</v>
+        <v>82224.158952339014</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>17870.163243747895</v>
+        <v>78583.551602515217</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>12447.304595924668</v>
+        <v>29599.448256830798</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>7184.7135010221109</v>
+        <v>34999.804922310585</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>68439.876534111652</v>
+        <v>25316.484514616321</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>82538.882934192181</v>
+        <v>10367.738904720203</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>18717.365132402909</v>
+        <v>74332.914321197168</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>79969.169872029437</v>
+        <v>4688.8063611138396</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>56378.872040170965</v>
+        <v>48233.099319444118</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>70992.57571310857</v>
+        <v>76495.924275305282</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>27851.612024592308</v>
+        <v>34413.88023308081</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>53947.699237174806</v>
+        <v>46690.76375026349</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>28964.982974279475</v>
+        <v>51759.200319317577</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>21482.216843800663</v>
+        <v>4445.3877344071134</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>50962.397536936813</v>
+        <v>24809.728030676491</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>82611.926297132377</v>
+        <v>84441.486689647165</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>92686.980205600295</v>
+        <v>19912.626621714924</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>30074.926650978363</v>
+        <v>61667.351545083671</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>4882.9086597315327</v>
+        <v>5299.9211689745198</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>86509.281525267419</v>
+        <v>46794.804388608536</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>37383.726409128147</v>
+        <v>71567.793984117452</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>2942.9978542576673</v>
+        <v>49855.95237927034</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>30193.435384266577</v>
+        <v>37053.110476013884</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>36667.422745639888</v>
+        <v>36392.756085236746</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>77845.92929874979</v>
+        <v>27360.805995945637</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>87942.4217182578</v>
+        <v>13188.357333885759</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>63141.123819487053</v>
+        <v>96541.755280452518</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>21721.283310525254</v>
+        <v>2986.5460564748146</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>99701.661338452046</v>
+        <v>24935.770057991602</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>17477.495330454829</v>
+        <v>69027.129685540349</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>4011.3474755028246</v>
+        <v>18717.321932701703</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>27814.597541648058</v>
+        <v>21088.638024591131</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>16699.706171206253</v>
+        <v>86573.24849842269</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>74382.949529422418</v>
+        <v>39159.034462872754</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>36879.249353793661</v>
+        <v>37788.391463397609</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>74962.031097281011</v>
+        <v>51638.352816229919</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>85743.653259493469</v>
+        <v>24914.109749764812</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>31029.376157078892</v>
+        <v>26272.535999919011</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>85194.904815057569</v>
+        <v>62917.539361040588</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>42150.956449704987</v>
+        <v>51767.129165156897</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>1740.0579901070801</v>
+        <v>59859.997012869128</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>6098.8542052247021</v>
+        <v>33732.789533526178</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>21470.227598139256</v>
+        <v>45517.902780018179</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>40989.151767850293</v>
+        <v>56631.616487862913</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>176.10438376216564</v>
+        <v>58803.309337609702</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>6420.5895932019976</v>
+        <v>11843.236332694973</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>41250.039360963572</v>
+        <v>83240.363902412792</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>90634.663203817385</v>
+        <v>78616.480363471579</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>58614.475782308858</v>
+        <v>49988.483143888763</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>1368.3264986697695</v>
+        <v>86977.403911938411</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>91012.015107653962</v>
+        <v>61553.123266506285</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>97020.200951321167</v>
+        <v>32789.22291390063</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>85167.36680262335</v>
+        <v>69738.152864276737</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>96046.105080830894</v>
+        <v>94542.392859897023</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>90333.819892648418</v>
+        <v>4711.6791410931282</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>68821.284563339679</v>
+        <v>53836.791476804843</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>84553.875591786127</v>
+        <v>28296.651762472768</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>48144.038669304231</v>
+        <v>58281.047255955767</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>90844.543671428328</v>
+        <v>156.27930500394794</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>62683.116185713494</v>
+        <v>19620.615305693012</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>35686.258703866733</v>
+        <v>17934.681161168119</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>29037.914534187035</v>
+        <v>77747.332559842936</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>64963.999696454768</v>
+        <v>32289.872157086196</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>84606.274261084109</v>
+        <v>29708.259373696623</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>19410.518859963198</v>
+        <v>15033.399113554557</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>26649.586092842816</v>
+        <v>45106.954088868159</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>22078.448962728304</v>
+        <v>89113.876587999286</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>84844.854155104476</v>
+        <v>27389.51142563756</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>763.76491855404402</v>
+        <v>98279.115278458092</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>60262.792484342106</v>
+        <v>65996.24825915767</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>71732.066626012107</v>
+        <v>92800.067695301201</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>39433.476173782234</v>
+        <v>70331.248314831813</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>76137.269324290508</v>
+        <v>22492.598882985927</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>51884.0901058651</v>
+        <v>37077.453730594782</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>31907.061793577195</v>
+        <v>52303.470265659002</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>28076.671559311108</v>
+        <v>25503.039595048183</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>15789.797209537248</v>
+        <v>18255.026545666387</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>68131.494944102582</v>
+        <v>3719.4385396552066</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>763.6907575782725</v>
+        <v>71857.74618083892</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>7888.1544757284928</v>
+        <v>9655.9109409150242</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>73672.570755353445</v>
+        <v>43491.940139648344</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>62171.432598831154</v>
+        <v>14648.367691832353</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>84211.518851253713</v>
+        <v>70168.77584622115</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>65328.714002608882</v>
+        <v>96852.146734615904</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>3867.0671636046204</v>
+        <v>38660.238433385864</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>69178.972950123381</v>
+        <v>9396.4689550014573</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>50436.284484142947</v>
+        <v>72653.466510304686</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>40282.218034429039</v>
+        <v>91700.726226180501</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>86710.764934342063</v>
+        <v>74790.839173567147</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>13432.323814026393</v>
+        <v>64009.892226196083</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>34546.512104557347</v>
+        <v>18091.300694832935</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>9601.5836669240525</v>
+        <v>98641.306614566609</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>16738.313394010616</v>
+        <v>60242.479578782979</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>54323.189305189742</v>
+        <v>42594.247417495986</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>98325.928422416167</v>
+        <v>91120.915094891592</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>60853.411878183404</v>
+        <v>58374.095363116496</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>76017.663387174151</v>
+        <v>8489.127762712822</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>64973.780087603096</v>
+        <v>70483.267645815868</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>23716.372322380586</v>
+        <v>7382.2503404383679</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>37327.481394360439</v>
+        <v>6217.1011895286729</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>22433.291740263638</v>
+        <v>45489.584617840948</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>5987.9882478896088</v>
+        <v>98014.326357829268</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>39559.000585105387</v>
+        <v>44219.130908942585</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>78633.700692755985</v>
+        <v>598.15000967868843</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>66947.746034398908</v>
+        <v>96796.77317435744</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>63480.457873130101</v>
+        <v>49504.642075836426</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>94036.069226305946</v>
+        <v>85546.157066818821</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>62508.996912085538</v>
+        <v>45232.731781087517</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>89187.627939623795</v>
+        <v>70193.363155896805</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>13756.953432363451</v>
+        <v>92361.124566630766</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>83680.712071859016</v>
+        <v>27688.638285012712</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>84236.948481181797</v>
+        <v>51671.511670440872</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>85309.508158153869</v>
+        <v>10627.193353283703</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>7328.0047371361625</v>
+        <v>83743.244834762925</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>73330.473767952324</v>
+        <v>23787.346061242421</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>6273.978802939173</v>
+        <v>89943.363154810344</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>96945.166155090643</v>
+        <v>69653.140576188773</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>92402.384154504718</v>
+        <v>95710.069625101009</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>11256.693195859647</v>
+        <v>48055.36881234961</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>11079.008476915242</v>
+        <v>8997.6906783448831</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>21773.098529029765</v>
+        <v>19529.577948190425</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>49858.75012766444</v>
+        <v>92397.879596086728</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>48375.749167827838</v>
+        <v>7502.2934245825845</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>88669.287874204325</v>
+        <v>14180.114042077696</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>50836.091668648354</v>
+        <v>12975.475349940347</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>67258.375016361606</v>
+        <v>95261.946770584254</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>92214.763542711225</v>
+        <v>37261.692307231977</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>62502.648762993987</v>
+        <v>35535.113241465231</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>94159.21281648177</v>
+        <v>23234.304384604577</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>71458.730988963478</v>
+        <v>8173.9058192935472</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>14823.296418601905</v>
+        <v>9070.064894223151</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>76040.951983712133</v>
+        <v>56112.33740229017</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>37459.698902645985</v>
+        <v>96115.46579139783</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>38995.406799986624</v>
+        <v>97324.10840020192</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>3512.8965759536391</v>
+        <v>99958.38749612846</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>81057.685713154307</v>
+        <v>73289.015047581765</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>3682.6714299021955</v>
+        <v>71654.956744930416</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>41593.139642767128</v>
+        <v>67468.824371807219</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>15494.580866874163</v>
+        <v>23279.77198752993</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>89573.639269336709</v>
+        <v>97548.342050367835</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>93889.697676374533</v>
+        <v>21458.369327103501</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>13126.210350801581</v>
+        <v>11934.732495889866</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>88153.237653919292</v>
+        <v>94146.79677351538</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>61690.470378372884</v>
+        <v>78474.570495262073</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>84290.067217088959</v>
+        <v>77857.328606626907</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>93052.748280472821</v>
+        <v>15589.833863786916</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>59927.751446311639</v>
+        <v>80006.391929196296</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>97651.093698223878</v>
+        <v>15447.380958575985</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>14002.869817917841</v>
+        <v>40008.739390509407</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>35378.172289947193</v>
+        <v>17120.367105242152</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>14602.733904076249</v>
+        <v>66495.762785068451</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>33793.566708878818</v>
+        <v>33648.262695690733</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C13426-2298-4326-BAAD-DCA8369154F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF37E7D-EE9B-4A3D-AD95-D8E23616471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="134">
   <si>
     <t>invitado</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>BC0000059</t>
+  </si>
+  <si>
+    <t>Karina Altamirano Gonzales</t>
+  </si>
+  <si>
+    <t>BC0000060</t>
   </si>
 </sst>
 </file>
@@ -825,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2939,6 +2945,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ref="C61" si="18">CONCATENATE(E61,F61)</f>
+        <v>BC000006044300</v>
+      </c>
+      <c r="D61">
+        <v>968238272</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61">
+        <f>Hoja2!B61</f>
+        <v>44300</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" ref="H61" si="19">CONCATENATE(G61,C61)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000006044300</v>
+      </c>
+      <c r="I61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2952,9 +2993,10 @@
     <hyperlink ref="G58" r:id="rId7" xr:uid="{1C08DE60-2F05-4EBF-9729-6BBCE42EEB8E}"/>
     <hyperlink ref="G59" r:id="rId8" xr:uid="{E8E5DF5A-BD83-41C6-A0D4-F60E9E4A8E7C}"/>
     <hyperlink ref="G60" r:id="rId9" xr:uid="{7E79577C-6EF6-4147-8ADD-CAA43C1568B0}"/>
+    <hyperlink ref="G61" r:id="rId10" xr:uid="{D6085AE8-AD19-4176-9046-080BB6F63E97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -5687,1801 +5729,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>52778.04679642406</v>
+        <v>23762.775885489518</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>42268.402124089218</v>
+        <v>85562.368421791951</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>36854.431787760521</v>
+        <v>1555.36391708887</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>29811.426659238048</v>
+        <v>14919.735001759926</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>66350.519350105315</v>
+        <v>81269.301862069697</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>78085.870900227179</v>
+        <v>85373.612136930096</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>47230.417314134043</v>
+        <v>4113.4359900185882</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>30887.946926527187</v>
+        <v>49776.364896016079</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>77012.06274927262</v>
+        <v>87109.617352486064</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>62855.512269047722</v>
+        <v>43120.012173828945</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>86007.604750191676</v>
+        <v>37195.155699922288</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>18345.637152952298</v>
+        <v>83344.958136466244</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>9759.3790577588316</v>
+        <v>81916.496946473286</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>17411.418112063337</v>
+        <v>72544.10245145543</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>86265.765002772139</v>
+        <v>48245.556068945159</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>26093.366511682281</v>
+        <v>62241.593004814174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>7175.3813699130251</v>
+        <v>17473.206697265643</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>12637.865904343982</v>
+        <v>77399.414054874011</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>57110.907961083023</v>
+        <v>9209.7807779920167</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>89423.836454027129</v>
+        <v>53549.326607981588</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>23078.487066689911</v>
+        <v>1514.3890670996973</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>19258.244338546338</v>
+        <v>69882.692309905207</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>13023.762773557313</v>
+        <v>12512.877865482507</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>84896.998852596065</v>
+        <v>49444.514844482001</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>60979.474631951794</v>
+        <v>60180.004322410321</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>15056.280827093593</v>
+        <v>8129.2139884443613</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>27861.155532337976</v>
+        <v>14026.366061620132</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>70525.239621838613</v>
+        <v>79940.091921460771</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>43725.887586600729</v>
+        <v>83773.562091667904</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>66554.976222084733</v>
+        <v>52274.862666113208</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>84358.259579310194</v>
+        <v>85650.226677632483</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>84729.452202244167</v>
+        <v>12231.852439481527</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>21648.557217533926</v>
+        <v>71616.869148189435</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>28983.503002898491</v>
+        <v>83367.614786722988</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>59443.440440557439</v>
+        <v>90774.975858755191</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>3999.3380915075427</v>
+        <v>60068.682127626402</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>45104.496979089548</v>
+        <v>32231.752590640128</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>1877.4047275775806</v>
+        <v>27350.796687072852</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>51093.567686541086</v>
+        <v>56178.814508681295</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>43429.985985992425</v>
+        <v>17946.775689191007</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>16624.547282229407</v>
+        <v>86550.680146894068</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>41656.356239949142</v>
+        <v>23371.748573898942</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>75969.275229549748</v>
+        <v>6900.0881419622792</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>10138.330212750991</v>
+        <v>98438.987965151231</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>15464.005241189605</v>
+        <v>19584.692218429856</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>91183.583582408013</v>
+        <v>29281.026268124799</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>28915.728439429287</v>
+        <v>81712.005596741452</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>50967.207442621424</v>
+        <v>82004.777748061548</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>42579.082622281749</v>
+        <v>285.52374274133376</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>21972.179094243373</v>
+        <v>80514.844513116041</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>53943.298114950703</v>
+        <v>34510.317202935817</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>17185.012190280446</v>
+        <v>65403.026010204914</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>30574.871935309235</v>
+        <v>47989.772785801688</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>12667.83416293431</v>
+        <v>54883.557667783854</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>12886.318315459012</v>
+        <v>24463.39245889262</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>45141.857090086603</v>
+        <v>98351.368454878408</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>59015.600125380231</v>
+        <v>51034.843781766227</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>59956.939707997837</v>
+        <v>33078.052263477264</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>36296.663141139783</v>
+        <v>37243.343858897249</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>3197.7068619083338</v>
+        <v>42396.834058416855</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>15094.703157417676</v>
+        <v>45778.469855942494</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>78654.528873783798</v>
+        <v>22622.88753424192</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>72460.50564604174</v>
+        <v>60218.124458299106</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>98803.204849017449</v>
+        <v>72120.962689890774</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>73030.826543973773</v>
+        <v>62202.838081121678</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>39338.491683744673</v>
+        <v>5011.7883177351105</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>50748.485318311796</v>
+        <v>84193.835871779869</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>31450.455095645291</v>
+        <v>89161.213565273749</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>30424.590124705363</v>
+        <v>61597.997255415183</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>82640.962989060557</v>
+        <v>60514.48709383994</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>13540.245801324412</v>
+        <v>66838.469292929673</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>64128.239153354152</v>
+        <v>94825.845772372399</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>13107.883252283726</v>
+        <v>83563.608030365853</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>91132.38220809355</v>
+        <v>79707.374193624419</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>5509.330425727665</v>
+        <v>44816.520364373493</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>55182.140158877846</v>
+        <v>19787.917317644089</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>77095.754944082815</v>
+        <v>86860.346525992398</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>98637.347241744399</v>
+        <v>7406.0362570150028</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>9890.8323779688835</v>
+        <v>67258.099484247985</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>19084.144327077047</v>
+        <v>19940.67819872556</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>48528.445361563885</v>
+        <v>7714.3805689605551</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>818.35945739727742</v>
+        <v>1548.3742835022517</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>87518.30890305544</v>
+        <v>63047.062263660613</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>76623.354804885865</v>
+        <v>57583.319866728765</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>59413.258013409257</v>
+        <v>25636.626720101176</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>55698.201113208183</v>
+        <v>27230.690337867436</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>1024.0563427966865</v>
+        <v>35329.787389506164</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>97484.869343043334</v>
+        <v>96582.486755819118</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>24042.821319607188</v>
+        <v>54769.161773121254</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>78534.520765720459</v>
+        <v>71599.128972448205</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>80211.410618367736</v>
+        <v>70728.437473433311</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>40882.533488119741</v>
+        <v>6040.7148388862515</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>42677.552408989475</v>
+        <v>83396.897704371877</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>96071.75201577945</v>
+        <v>24362.738444156883</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>62429.80443731889</v>
+        <v>74351.029081698172</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>38340.055917425809</v>
+        <v>25486.819238628301</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>23378.684757515111</v>
+        <v>25511.231108086053</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>57979.238236095385</v>
+        <v>54685.764065591982</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>16821.84554517865</v>
+        <v>48293.438123325839</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>89855.645560845383</v>
+        <v>74745.052507320215</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>85004.504028343959</v>
+        <v>75906.330776320072</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>34017.724949908908</v>
+        <v>24300.910105137642</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>75331.011399516065</v>
+        <v>99591.94485247659</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>33239.564857938363</v>
+        <v>70434.000608582704</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>51978.964457060494</v>
+        <v>51433.531036597255</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>17905.45455297875</v>
+        <v>74481.173558892435</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>11961.354839002524</v>
+        <v>48876.145734645892</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>7347.743871908363</v>
+        <v>71241.430319973209</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>44271.358254937601</v>
+        <v>2874.5778375275477</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>1974.663701374868</v>
+        <v>39773.14730728521</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>38503.683638363604</v>
+        <v>39768.214914281998</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>21723.246768260105</v>
+        <v>74753.727715983827</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>1618.7581317463673</v>
+        <v>62536.796619170855</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>78093.073996584732</v>
+        <v>94884.962015393627</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>95964.425093200844</v>
+        <v>28786.31087624899</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>42003.504785490688</v>
+        <v>58589.446770320988</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>7517.7054978881388</v>
+        <v>67062.139231929279</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>12738.826891033717</v>
+        <v>21177.100158352856</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>46085.340372144281</v>
+        <v>18103.591898715677</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>18323.499868107017</v>
+        <v>54809.648786970021</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>94085.713260087083</v>
+        <v>51874.986168305062</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>50551.732157720886</v>
+        <v>4812.3051463622942</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>33507.531999300176</v>
+        <v>373.86943628053837</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>94138.553717182454</v>
+        <v>53590.512425929395</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>18919.532109076299</v>
+        <v>41126.620684124602</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>11516.295198034753</v>
+        <v>49967.798926930518</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>28323.248868688799</v>
+        <v>25876.244899377143</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>43510.192701509986</v>
+        <v>36133.581214444435</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>8465.3011911172034</v>
+        <v>49873.143421257628</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>52064.667412482115</v>
+        <v>60302.750395393792</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>52455.847677036945</v>
+        <v>7695.9573429585816</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>44272.956288188281</v>
+        <v>44550.023508455437</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>11418.28215901427</v>
+        <v>96603.503690625163</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>37782.549328905887</v>
+        <v>12968.742056199701</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>17089.466848630764</v>
+        <v>71863.921733757452</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>16177.341830809655</v>
+        <v>76623.500135806855</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>41364.031100227869</v>
+        <v>85486.713964735434</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>17286.981734738783</v>
+        <v>9196.8241605386629</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>97381.839207038065</v>
+        <v>20767.564577303387</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>38680.607481302985</v>
+        <v>53093.655072953858</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>53630.189325701824</v>
+        <v>40556.606292774944</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>14953.771622015254</v>
+        <v>13697.036590891754</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>4415.4787029870631</v>
+        <v>21507.664855584862</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>84344.169838031055</v>
+        <v>74707.371475407519</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>29971.336468465102</v>
+        <v>20200.387104787886</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>84542.964111694804</v>
+        <v>38389.962165066507</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>39944.735978129895</v>
+        <v>72874.970027540025</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>25552.508349811898</v>
+        <v>92409.433429463679</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>82224.158952339014</v>
+        <v>87459.750590025113</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>78583.551602515217</v>
+        <v>64166.397892656976</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>29599.448256830798</v>
+        <v>31541.408249801992</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>34999.804922310585</v>
+        <v>58651.81271729849</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>25316.484514616321</v>
+        <v>72220.485870571298</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>10367.738904720203</v>
+        <v>93591.956893373368</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>74332.914321197168</v>
+        <v>61481.448282826634</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>4688.8063611138396</v>
+        <v>92609.437967569014</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>48233.099319444118</v>
+        <v>32890.279451975555</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>76495.924275305282</v>
+        <v>87283.002723791782</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>34413.88023308081</v>
+        <v>86151.906269444837</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>46690.76375026349</v>
+        <v>28477.864199589818</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>51759.200319317577</v>
+        <v>89583.769756540059</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>4445.3877344071134</v>
+        <v>55340.872207003034</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>24809.728030676491</v>
+        <v>16002.960546621725</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>84441.486689647165</v>
+        <v>92525.129075524383</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>19912.626621714924</v>
+        <v>5438.4452602968759</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>61667.351545083671</v>
+        <v>51256.849212885027</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>5299.9211689745198</v>
+        <v>94583.754601149078</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>46794.804388608536</v>
+        <v>22776.738249044549</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>71567.793984117452</v>
+        <v>43092.606205815711</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>49855.95237927034</v>
+        <v>60263.337280606698</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>37053.110476013884</v>
+        <v>85900.887913231782</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>36392.756085236746</v>
+        <v>62994.888765236123</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>27360.805995945637</v>
+        <v>61902.248758577407</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>13188.357333885759</v>
+        <v>9883.4346371268311</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>96541.755280452518</v>
+        <v>85846.743065920644</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>2986.5460564748146</v>
+        <v>49980.0934350362</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>24935.770057991602</v>
+        <v>4356.0117148421114</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>69027.129685540349</v>
+        <v>75855.477215214662</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>18717.321932701703</v>
+        <v>76896.515219393681</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>21088.638024591131</v>
+        <v>8946.6908045144573</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>86573.24849842269</v>
+        <v>23113.771034686757</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>39159.034462872754</v>
+        <v>88477.700029956191</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>37788.391463397609</v>
+        <v>6398.1067734230182</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>51638.352816229919</v>
+        <v>4601.0701622560264</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>24914.109749764812</v>
+        <v>89923.953898012216</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>26272.535999919011</v>
+        <v>12983.686711599707</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>62917.539361040588</v>
+        <v>75781.601520151075</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>51767.129165156897</v>
+        <v>3021.2764848807415</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>59859.997012869128</v>
+        <v>81822.968694041192</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>33732.789533526178</v>
+        <v>89684.273371997711</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>45517.902780018179</v>
+        <v>79316.98375647144</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>56631.616487862913</v>
+        <v>44497.710615896634</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>58803.309337609702</v>
+        <v>2980.6494762889879</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>11843.236332694973</v>
+        <v>12083.363354043629</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>83240.363902412792</v>
+        <v>49045.075272587521</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>78616.480363471579</v>
+        <v>98137.985427236577</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>49988.483143888763</v>
+        <v>75754.0341636175</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>86977.403911938411</v>
+        <v>41774.957254783454</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>61553.123266506285</v>
+        <v>46977.545265156754</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>32789.22291390063</v>
+        <v>38187.965398813947</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>69738.152864276737</v>
+        <v>39680.92469686336</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>94542.392859897023</v>
+        <v>29659.242876973589</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>4711.6791410931282</v>
+        <v>46118.783701005108</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>53836.791476804843</v>
+        <v>92555.663755051311</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>28296.651762472768</v>
+        <v>40086.141610395185</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>58281.047255955767</v>
+        <v>86752.268197636746</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>156.27930500394794</v>
+        <v>78430.686861620299</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>19620.615305693012</v>
+        <v>90248.136199847067</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>17934.681161168119</v>
+        <v>54454.941956314738</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>77747.332559842936</v>
+        <v>34884.868167226676</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>32289.872157086196</v>
+        <v>59725.682241492432</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>29708.259373696623</v>
+        <v>94192.84652991344</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>15033.399113554557</v>
+        <v>79014.191711972497</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>45106.954088868159</v>
+        <v>76331.985251478705</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>89113.876587999286</v>
+        <v>66602.007959066003</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>27389.51142563756</v>
+        <v>91836.828251356172</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>98279.115278458092</v>
+        <v>13571.246099444123</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>65996.24825915767</v>
+        <v>2363.531315315015</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>92800.067695301201</v>
+        <v>95945.021784408964</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>70331.248314831813</v>
+        <v>39134.434526571436</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>22492.598882985927</v>
+        <v>25703.13155399332</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>37077.453730594782</v>
+        <v>54672.462694627058</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>52303.470265659002</v>
+        <v>84964.947232444756</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>25503.039595048183</v>
+        <v>571.59372350064075</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>18255.026545666387</v>
+        <v>98526.331807917246</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>3719.4385396552066</v>
+        <v>73374.470024621798</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>71857.74618083892</v>
+        <v>20525.729358891385</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>9655.9109409150242</v>
+        <v>48004.495571533669</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>43491.940139648344</v>
+        <v>88994.487159969285</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>14648.367691832353</v>
+        <v>51804.457585305827</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>70168.77584622115</v>
+        <v>83342.186647523369</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>96852.146734615904</v>
+        <v>64097.901269060596</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>38660.238433385864</v>
+        <v>76153.229999065603</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>9396.4689550014573</v>
+        <v>94186.138727046302</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>72653.466510304686</v>
+        <v>54346.570956336203</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>91700.726226180501</v>
+        <v>39761.415176657465</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>74790.839173567147</v>
+        <v>74217.244850070114</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>64009.892226196083</v>
+        <v>41272.411263498798</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>18091.300694832935</v>
+        <v>28473.226816118302</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>98641.306614566609</v>
+        <v>53678.101606218057</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>60242.479578782979</v>
+        <v>63617.885943542598</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>42594.247417495986</v>
+        <v>7132.4136686958473</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>91120.915094891592</v>
+        <v>86381.533634828127</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>58374.095363116496</v>
+        <v>39544.914957751607</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>8489.127762712822</v>
+        <v>95336.422265699744</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>70483.267645815868</v>
+        <v>6602.1728815356282</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>7382.2503404383679</v>
+        <v>44951.51528852238</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>6217.1011895286729</v>
+        <v>6970.5525913967722</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>45489.584617840948</v>
+        <v>41156.973593874303</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>98014.326357829268</v>
+        <v>69137.328662142245</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>44219.130908942585</v>
+        <v>70194.469564775995</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>598.15000967868843</v>
+        <v>80886.944568909908</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>96796.77317435744</v>
+        <v>4685.809718110645</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>49504.642075836426</v>
+        <v>88396.367422722702</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>85546.157066818821</v>
+        <v>80617.598706013858</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>45232.731781087517</v>
+        <v>92013.991781264704</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>70193.363155896805</v>
+        <v>34814.992217489795</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>92361.124566630766</v>
+        <v>28097.385175128766</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>27688.638285012712</v>
+        <v>22589.804452658846</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>51671.511670440872</v>
+        <v>8003.9267387630671</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>10627.193353283703</v>
+        <v>85431.506960941348</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>83743.244834762925</v>
+        <v>75508.005758443382</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>23787.346061242421</v>
+        <v>14481.367033972114</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>89943.363154810344</v>
+        <v>85389.153578363912</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>69653.140576188773</v>
+        <v>79856.935646079131</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>95710.069625101009</v>
+        <v>54004.088518956072</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>48055.36881234961</v>
+        <v>70303.100109530133</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>8997.6906783448831</v>
+        <v>18340.859484634919</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>19529.577948190425</v>
+        <v>64671.886578125515</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>92397.879596086728</v>
+        <v>93436.334670170341</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>7502.2934245825845</v>
+        <v>65501.793511033349</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>14180.114042077696</v>
+        <v>70829.847146899876</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>12975.475349940347</v>
+        <v>58894.097453632909</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>95261.946770584254</v>
+        <v>83271.295878935314</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>37261.692307231977</v>
+        <v>40037.115516413745</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>35535.113241465231</v>
+        <v>88014.087011357726</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>23234.304384604577</v>
+        <v>85601.407136190741</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>8173.9058192935472</v>
+        <v>71542.35573852199</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>9070.064894223151</v>
+        <v>84397.463937611727</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>56112.33740229017</v>
+        <v>16357.583194433346</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>96115.46579139783</v>
+        <v>4814.6727233591037</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>97324.10840020192</v>
+        <v>95630.84066112338</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>99958.38749612846</v>
+        <v>91995.919564788346</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>73289.015047581765</v>
+        <v>33949.666348822735</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>71654.956744930416</v>
+        <v>86179.869146725367</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>67468.824371807219</v>
+        <v>70228.983650035108</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>23279.77198752993</v>
+        <v>49754.894864872098</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>97548.342050367835</v>
+        <v>23460.432086413784</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>21458.369327103501</v>
+        <v>84523.948422995178</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>11934.732495889866</v>
+        <v>80153.255715943596</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>94146.79677351538</v>
+        <v>63822.681763306318</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>78474.570495262073</v>
+        <v>19369.125881710315</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>77857.328606626907</v>
+        <v>5413.5057739180929</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>15589.833863786916</v>
+        <v>24042.548940684661</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>80006.391929196296</v>
+        <v>34339.234338081849</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>15447.380958575985</v>
+        <v>11160.058858912169</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>40008.739390509407</v>
+        <v>20161.795299936726</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>17120.367105242152</v>
+        <v>21487.609872025172</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>66495.762785068451</v>
+        <v>4756.5695985060001</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>33648.262695690733</v>
+        <v>34784.457750445566</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/BD_INVITADOS.xlsx
+++ b/src/assets/data/BD_INVITADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claudia Documentos\CYB\proyectos\angular\AppWedding\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF37E7D-EE9B-4A3D-AD95-D8E23616471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5711DF1A-B574-40FA-BF6B-CD94FE3F0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>invitado</t>
   </si>
@@ -443,6 +443,24 @@
   </si>
   <si>
     <t>BC0000060</t>
+  </si>
+  <si>
+    <t>Marco Antonio Fernandez Barboza</t>
+  </si>
+  <si>
+    <t>BC0000061</t>
+  </si>
+  <si>
+    <t>Lyly Romina Fernandez Barboza</t>
+  </si>
+  <si>
+    <t>BC0000062</t>
+  </si>
+  <si>
+    <t>Mavila Yesenia Fernandez Barboza</t>
+  </si>
+  <si>
+    <t>BC0000063</t>
   </si>
 </sst>
 </file>
@@ -831,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2953,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ref="C61" si="18">CONCATENATE(E61,F61)</f>
+        <f t="shared" ref="C61:C62" si="18">CONCATENATE(E61,F61)</f>
         <v>BC000006044300</v>
       </c>
       <c r="D61">
@@ -2970,13 +2988,118 @@
         <v>12</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61" si="19">CONCATENATE(G61,C61)</f>
+        <f t="shared" ref="H61:H62" si="19">CONCATENATE(G61,C61)</f>
         <v>https://bvasquez-code.github.io/AppWedding/?id=BC000006044300</v>
       </c>
       <c r="I61" t="s">
         <v>36</v>
       </c>
       <c r="J61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="18"/>
+        <v>BC000006110415</v>
+      </c>
+      <c r="D62">
+        <v>968238273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62">
+        <f>Hoja2!B62</f>
+        <v>10415</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="19"/>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000006110415</v>
+      </c>
+      <c r="I62" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" ref="C63:C64" si="20">CONCATENATE(E63,F63)</f>
+        <v>BC000006261425</v>
+      </c>
+      <c r="D63">
+        <v>968238274</v>
+      </c>
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63">
+        <f>Hoja2!B63</f>
+        <v>61425</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" ref="H63:H64" si="21">CONCATENATE(G63,C63)</f>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000006261425</v>
+      </c>
+      <c r="I63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="20"/>
+        <v>BC000006382687</v>
+      </c>
+      <c r="D64">
+        <v>968238275</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64">
+        <f>Hoja2!B64</f>
+        <v>82687</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="21"/>
+        <v>https://bvasquez-code.github.io/AppWedding/?id=BC000006382687</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2994,9 +3117,13 @@
     <hyperlink ref="G59" r:id="rId8" xr:uid="{E8E5DF5A-BD83-41C6-A0D4-F60E9E4A8E7C}"/>
     <hyperlink ref="G60" r:id="rId9" xr:uid="{7E79577C-6EF6-4147-8ADD-CAA43C1568B0}"/>
     <hyperlink ref="G61" r:id="rId10" xr:uid="{D6085AE8-AD19-4176-9046-080BB6F63E97}"/>
+    <hyperlink ref="G62" r:id="rId11" xr:uid="{53CA40E2-B834-4047-9A4F-07DF18F0EA8D}"/>
+    <hyperlink ref="G64" r:id="rId12" xr:uid="{8988C9C0-0A7A-489A-B45E-8848CF69343E}"/>
+    <hyperlink ref="G63" r:id="rId13" xr:uid="{E6DF134E-C693-4EE7-B86F-D64F94589410}"/>
+    <hyperlink ref="G64" r:id="rId14" xr:uid="{843126AE-3780-43F8-8F5E-AF20EE8FF32E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5729,1801 +5856,1801 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">RAND()*100000</f>
-        <v>23762.775885489518</v>
+        <v>56693.028327795182</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()*100000</f>
-        <v>85562.368421791951</v>
+        <v>96933.958859940845</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>1555.36391708887</v>
+        <v>29783.252155305585</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>14919.735001759926</v>
+        <v>15639.905486014572</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>81269.301862069697</v>
+        <v>72879.003952455867</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>85373.612136930096</v>
+        <v>9816.1808730444882</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>4113.4359900185882</v>
+        <v>12876.83131340145</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>49776.364896016079</v>
+        <v>46652.30331411834</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>87109.617352486064</v>
+        <v>17403.019531403887</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>43120.012173828945</v>
+        <v>56417.578684572021</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>37195.155699922288</v>
+        <v>50283.440904430856</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>83344.958136466244</v>
+        <v>73015.464733939443</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>81916.496946473286</v>
+        <v>72315.456158886533</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>72544.10245145543</v>
+        <v>2100.8057815362081</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>48245.556068945159</v>
+        <v>96106.824295366532</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>62241.593004814174</v>
+        <v>55658.4355727722</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>17473.206697265643</v>
+        <v>3679.5030190140965</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>77399.414054874011</v>
+        <v>34701.015544074413</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f ca="1">RAND()*100000</f>
-        <v>9209.7807779920167</v>
+        <v>50491.267483226722</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>53549.326607981588</v>
+        <v>37298.922850269679</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>1514.3890670996973</v>
+        <v>12276.818267545974</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>69882.692309905207</v>
+        <v>54159.355153896002</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>12512.877865482507</v>
+        <v>52331.782792911741</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>49444.514844482001</v>
+        <v>17763.730318651949</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>60180.004322410321</v>
+        <v>20714.896740541801</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>8129.2139884443613</v>
+        <v>49999.542205790938</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>14026.366061620132</v>
+        <v>41233.42516576971</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>79940.091921460771</v>
+        <v>11315.8677898198</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>83773.562091667904</v>
+        <v>39059.048706929869</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>52274.862666113208</v>
+        <v>9721.6261614477935</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>85650.226677632483</v>
+        <v>12699.191271746568</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>12231.852439481527</v>
+        <v>80693.030452416089</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>71616.869148189435</v>
+        <v>90746.619170819729</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>83367.614786722988</v>
+        <v>29383.772920546548</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>90774.975858755191</v>
+        <v>53521.799653954215</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>60068.682127626402</v>
+        <v>30637.391588218608</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>32231.752590640128</v>
+        <v>51578.752319888408</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>27350.796687072852</v>
+        <v>82306.574638927079</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>56178.814508681295</v>
+        <v>55730.831652952438</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>17946.775689191007</v>
+        <v>74375.036799215086</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>86550.680146894068</v>
+        <v>96396.559634064237</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>23371.748573898942</v>
+        <v>94131.569963068745</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>6900.0881419622792</v>
+        <v>2099.6609717676697</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>98438.987965151231</v>
+        <v>61006.480128646777</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>19584.692218429856</v>
+        <v>70084.47429296498</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>29281.026268124799</v>
+        <v>90947.87248573071</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>81712.005596741452</v>
+        <v>96049.8266890503</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>82004.777748061548</v>
+        <v>14364.685876241245</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>285.52374274133376</v>
+        <v>29849.534797852662</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>80514.844513116041</v>
+        <v>71198.753145375638</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>34510.317202935817</v>
+        <v>129.38272545445218</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>65403.026010204914</v>
+        <v>46998.089912148454</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>47989.772785801688</v>
+        <v>40830.816515521365</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>54883.557667783854</v>
+        <v>94523.417059350366</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>24463.39245889262</v>
+        <v>63564.423542581397</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>98351.368454878408</v>
+        <v>80140.755364530138</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>51034.843781766227</v>
+        <v>42034.796363760943</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>33078.052263477264</v>
+        <v>78493.790432303897</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>37243.343858897249</v>
+        <v>19188.767650709306</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>42396.834058416855</v>
+        <v>82519.332185453357</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>45778.469855942494</v>
+        <v>70695.691717334485</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>22622.88753424192</v>
+        <v>32178.104585106048</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>60218.124458299106</v>
+        <v>33664.969472599274</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>72120.962689890774</v>
+        <v>64233.539907602164</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>62202.838081121678</v>
+        <v>8931.6102746055385</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()*100000</f>
-        <v>5011.7883177351105</v>
+        <v>86184.969543427243</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>84193.835871779869</v>
+        <v>15809.887183622985</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>89161.213565273749</v>
+        <v>67188.403082868303</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>61597.997255415183</v>
+        <v>97670.54622079953</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>60514.48709383994</v>
+        <v>70057.888077221083</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>66838.469292929673</v>
+        <v>82915.630236072495</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>94825.845772372399</v>
+        <v>2350.4657038213918</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>83563.608030365853</v>
+        <v>86241.863492894103</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>79707.374193624419</v>
+        <v>16734.261342593949</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>44816.520364373493</v>
+        <v>47288.319521176672</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>19787.917317644089</v>
+        <v>34681.739939602208</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>86860.346525992398</v>
+        <v>53544.383442732709</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>7406.0362570150028</v>
+        <v>86444.197528884411</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>67258.099484247985</v>
+        <v>62668.331330790294</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>19940.67819872556</v>
+        <v>30976.667777743583</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>7714.3805689605551</v>
+        <v>13365.105000791655</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>1548.3742835022517</v>
+        <v>62847.209784213766</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>63047.062263660613</v>
+        <v>64766.972113461918</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>57583.319866728765</v>
+        <v>99385.043009097557</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>25636.626720101176</v>
+        <v>24179.601330763366</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>27230.690337867436</v>
+        <v>84328.388648445005</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>35329.787389506164</v>
+        <v>24927.878476712052</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>96582.486755819118</v>
+        <v>3104.8276435636344</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>54769.161773121254</v>
+        <v>85570.863274360483</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>71599.128972448205</v>
+        <v>98344.003767708637</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>70728.437473433311</v>
+        <v>2875.0925258041125</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>6040.7148388862515</v>
+        <v>55806.155794194543</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>83396.897704371877</v>
+        <v>57006.179482361396</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>24362.738444156883</v>
+        <v>85195.275397785241</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>74351.029081698172</v>
+        <v>77452.990215667087</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>25486.819238628301</v>
+        <v>86900.546703865504</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>25511.231108086053</v>
+        <v>1016.4969243281696</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>54685.764065591982</v>
+        <v>19570.32859686928</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>48293.438123325839</v>
+        <v>44520.617110192048</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>74745.052507320215</v>
+        <v>94034.569325711651</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>75906.330776320072</v>
+        <v>67143.280480517817</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>24300.910105137642</v>
+        <v>14537.942538389425</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>99591.94485247659</v>
+        <v>60154.527990988725</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>70434.000608582704</v>
+        <v>98569.301583961438</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>51433.531036597255</v>
+        <v>5824.1761876812288</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>74481.173558892435</v>
+        <v>48171.655577759295</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>48876.145734645892</v>
+        <v>94840.503327622209</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>71241.430319973209</v>
+        <v>30565.165158281026</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>2874.5778375275477</v>
+        <v>21696.192394214519</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>39773.14730728521</v>
+        <v>63377.587728662831</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>39768.214914281998</v>
+        <v>40541.83389125923</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>74753.727715983827</v>
+        <v>70439.37633859145</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>62536.796619170855</v>
+        <v>30931.430268619741</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>94884.962015393627</v>
+        <v>97193.925668932119</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>28786.31087624899</v>
+        <v>97127.512994646138</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>58589.446770320988</v>
+        <v>50010.894538014538</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>67062.139231929279</v>
+        <v>81621.758979817198</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>21177.100158352856</v>
+        <v>30995.702859997276</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>18103.591898715677</v>
+        <v>62289.688408193666</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>54809.648786970021</v>
+        <v>27064.67872219639</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>51874.986168305062</v>
+        <v>73098.292556244473</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>4812.3051463622942</v>
+        <v>40560.111859708668</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>373.86943628053837</v>
+        <v>38604.473052597932</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>53590.512425929395</v>
+        <v>76244.452514830933</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>41126.620684124602</v>
+        <v>89284.583988145896</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>49967.798926930518</v>
+        <v>62275.071404995673</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>25876.244899377143</v>
+        <v>83138.117929271975</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>36133.581214444435</v>
+        <v>4331.0540780149513</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>49873.143421257628</v>
+        <v>69644.641777205092</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()*100000</f>
-        <v>60302.750395393792</v>
+        <v>25949.08459848223</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>7695.9573429585816</v>
+        <v>48179.118856480753</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>44550.023508455437</v>
+        <v>12573.750247613558</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>96603.503690625163</v>
+        <v>33263.515473833118</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>12968.742056199701</v>
+        <v>9741.7235850954403</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>71863.921733757452</v>
+        <v>49500.175124789537</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>76623.500135806855</v>
+        <v>467.80876597382058</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>85486.713964735434</v>
+        <v>67962.330249025457</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>9196.8241605386629</v>
+        <v>58156.311259642709</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>20767.564577303387</v>
+        <v>72192.094842113889</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>53093.655072953858</v>
+        <v>52660.161801894777</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>40556.606292774944</v>
+        <v>33052.834007310426</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>13697.036590891754</v>
+        <v>83051.417266437915</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>21507.664855584862</v>
+        <v>51487.550765243759</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>74707.371475407519</v>
+        <v>39191.456851354444</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>20200.387104787886</v>
+        <v>68800.267647299755</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>38389.962165066507</v>
+        <v>6600.3884360942848</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>72874.970027540025</v>
+        <v>40006.879720447243</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>92409.433429463679</v>
+        <v>95617.390100321092</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>87459.750590025113</v>
+        <v>44158.778372000692</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>64166.397892656976</v>
+        <v>95058.288421855046</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>31541.408249801992</v>
+        <v>17771.969400563936</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>58651.81271729849</v>
+        <v>76504.598787671101</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>72220.485870571298</v>
+        <v>78176.664659142931</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>93591.956893373368</v>
+        <v>92542.17214219259</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>61481.448282826634</v>
+        <v>69235.959600257644</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>92609.437967569014</v>
+        <v>18381.467940397568</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>32890.279451975555</v>
+        <v>85805.0690313011</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>87283.002723791782</v>
+        <v>10624.012731157085</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>86151.906269444837</v>
+        <v>9032.4242683420325</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>28477.864199589818</v>
+        <v>33764.028215368824</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>89583.769756540059</v>
+        <v>40935.276544061126</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>55340.872207003034</v>
+        <v>79450.719435197941</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>16002.960546621725</v>
+        <v>61611.798179132296</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>92525.129075524383</v>
+        <v>24018.152591383845</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>5438.4452602968759</v>
+        <v>71393.250217170193</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>51256.849212885027</v>
+        <v>1832.054180635201</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>94583.754601149078</v>
+        <v>93051.513438975511</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>22776.738249044549</v>
+        <v>11682.136835027834</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>43092.606205815711</v>
+        <v>77490.814139361755</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>60263.337280606698</v>
+        <v>57679.931420812412</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>85900.887913231782</v>
+        <v>38223.692120673601</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>62994.888765236123</v>
+        <v>3299.8278518536426</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>61902.248758577407</v>
+        <v>31028.666246120938</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>9883.4346371268311</v>
+        <v>54256.470543713156</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>85846.743065920644</v>
+        <v>66689.182782969787</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>49980.0934350362</v>
+        <v>33344.201103018808</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>4356.0117148421114</v>
+        <v>35415.022298921969</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>75855.477215214662</v>
+        <v>50667.74383900666</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>76896.515219393681</v>
+        <v>76630.413958743186</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>8946.6908045144573</v>
+        <v>26984.915530693776</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>23113.771034686757</v>
+        <v>60601.119746843957</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>88477.700029956191</v>
+        <v>36350.201798190807</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>6398.1067734230182</v>
+        <v>84699.813798656833</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>4601.0701622560264</v>
+        <v>94621.378668408594</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>89923.953898012216</v>
+        <v>60973.432750178501</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>12983.686711599707</v>
+        <v>71247.484097857625</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>75781.601520151075</v>
+        <v>62225.107619030263</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>3021.2764848807415</v>
+        <v>83425.315630866826</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>81822.968694041192</v>
+        <v>37318.595877863314</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>89684.273371997711</v>
+        <v>51716.064632471025</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>79316.98375647144</v>
+        <v>38627.383512473942</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>44497.710615896634</v>
+        <v>26740.60327855765</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>2980.6494762889879</v>
+        <v>89512.411831032616</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()*100000</f>
-        <v>12083.363354043629</v>
+        <v>45960.514143604625</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>49045.075272587521</v>
+        <v>35514.064498636581</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>98137.985427236577</v>
+        <v>40465.296340072979</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>75754.0341636175</v>
+        <v>13991.336955448896</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>41774.957254783454</v>
+        <v>26881.606679365399</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>46977.545265156754</v>
+        <v>38535.960809503304</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>38187.965398813947</v>
+        <v>81416.784232207778</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>39680.92469686336</v>
+        <v>22566.01170973913</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>29659.242876973589</v>
+        <v>78824.723536430232</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>46118.783701005108</v>
+        <v>3023.4531036890776</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>92555.663755051311</v>
+        <v>24414.631168144551</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>40086.141610395185</v>
+        <v>27145.979117462924</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>86752.268197636746</v>
+        <v>18273.389911930248</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>78430.686861620299</v>
+        <v>5578.8316805666091</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>90248.136199847067</v>
+        <v>36982.342967789431</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>54454.941956314738</v>
+        <v>28572.761662181212</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>34884.868167226676</v>
+        <v>11840.009504152793</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>59725.682241492432</v>
+        <v>84237.571619156748</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>94192.84652991344</v>
+        <v>41770.958510871169</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>79014.191711972497</v>
+        <v>87628.692349672579</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>76331.985251478705</v>
+        <v>75312.445945686733</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>66602.007959066003</v>
+        <v>72469.301476151304</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>91836.828251356172</v>
+        <v>34862.187741981463</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>13571.246099444123</v>
+        <v>29020.842116021529</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>2363.531315315015</v>
+        <v>75964.169869975085</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>95945.021784408964</v>
+        <v>20322.967443154415</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>39134.434526571436</v>
+        <v>89349.404804427482</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>25703.13155399332</v>
+        <v>37038.66404681807</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>54672.462694627058</v>
+        <v>78070.346916119714</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>84964.947232444756</v>
+        <v>47358.029047375741</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>571.59372350064075</v>
+        <v>91008.260179235818</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>98526.331807917246</v>
+        <v>34248.440875490218</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>73374.470024621798</v>
+        <v>10391.322549545401</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>20525.729358891385</v>
+        <v>42749.627284016293</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>48004.495571533669</v>
+        <v>96650.110866667703</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>88994.487159969285</v>
+        <v>8327.767311707179</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>51804.457585305827</v>
+        <v>5781.1773768037474</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>83342.186647523369</v>
+        <v>56904.203721400358</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>64097.901269060596</v>
+        <v>31620.426030182436</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>76153.229999065603</v>
+        <v>94595.453189895779</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>94186.138727046302</v>
+        <v>51646.094319921176</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>54346.570956336203</v>
+        <v>1768.1663188027774</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>39761.415176657465</v>
+        <v>78182.611156409956</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>74217.244850070114</v>
+        <v>99107.82458367759</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>41272.411263498798</v>
+        <v>16701.102356757347</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>28473.226816118302</v>
+        <v>39565.727645574312</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>53678.101606218057</v>
+        <v>68793.574687185872</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>63617.885943542598</v>
+        <v>74843.116358003404</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>7132.4136686958473</v>
+        <v>15366.027291934537</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>86381.533634828127</v>
+        <v>52394.672163811272</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>39544.914957751607</v>
+        <v>18291.312478934229</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>95336.422265699744</v>
+        <v>58214.513571275093</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>6602.1728815356282</v>
+        <v>69399.707790619927</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>44951.51528852238</v>
+        <v>36017.455928683383</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>6970.5525913967722</v>
+        <v>70603.515212142171</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>41156.973593874303</v>
+        <v>83301.670827587528</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>69137.328662142245</v>
+        <v>45464.633406604269</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>70194.469564775995</v>
+        <v>15676.500701470164</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>80886.944568909908</v>
+        <v>7651.5012221169409</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>4685.809718110645</v>
+        <v>65397.391347183373</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>88396.367422722702</v>
+        <v>8531.8709007869747</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>80617.598706013858</v>
+        <v>72731.049191595404</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>92013.991781264704</v>
+        <v>64874.600947967352</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>34814.992217489795</v>
+        <v>15.901810169416386</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
         <f t="shared" ref="A258:A300" ca="1" si="4">RAND()*100000</f>
-        <v>28097.385175128766</v>
+        <v>10228.309508498123</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>22589.804452658846</v>
+        <v>24046.794999486065</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>8003.9267387630671</v>
+        <v>28483.625607337613</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>85431.506960941348</v>
+        <v>95204.519168153463</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>75508.005758443382</v>
+        <v>69320.856995725611</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>14481.367033972114</v>
+        <v>44602.21128073553</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>85389.153578363912</v>
+        <v>79853.902242130265</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>79856.935646079131</v>
+        <v>72422.298605584714</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>54004.088518956072</v>
+        <v>17096.775239440078</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>70303.100109530133</v>
+        <v>29929.896297315041</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>18340.859484634919</v>
+        <v>70043.668884075669</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>64671.886578125515</v>
+        <v>17930.230288650197</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>93436.334670170341</v>
+        <v>60054.78516299653</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>65501.793511033349</v>
+        <v>71699.901905679522</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>70829.847146899876</v>
+        <v>30170.808449772147</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>58894.097453632909</v>
+        <v>14397.100696723397</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>83271.295878935314</v>
+        <v>71992.817062586328</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>40037.115516413745</v>
+        <v>91457.762100406355</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>88014.087011357726</v>
+        <v>71204.748462512274</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>85601.407136190741</v>
+        <v>45730.297720649083</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>71542.35573852199</v>
+        <v>18499.706973085518</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>84397.463937611727</v>
+        <v>10389.546592684195</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>16357.583194433346</v>
+        <v>81377.008333926322</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>4814.6727233591037</v>
+        <v>90536.97944717131</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>95630.84066112338</v>
+        <v>67819.672959943447</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>91995.919564788346</v>
+        <v>92036.07287266913</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>33949.666348822735</v>
+        <v>90669.473174285115</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>86179.869146725367</v>
+        <v>64540.086198993784</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>70228.983650035108</v>
+        <v>73315.389432455006</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>49754.894864872098</v>
+        <v>94645.400258642854</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>23460.432086413784</v>
+        <v>63536.155901395905</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>84523.948422995178</v>
+        <v>79912.684502529082</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>80153.255715943596</v>
+        <v>8286.1683182109409</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>63822.681763306318</v>
+        <v>80670.439811768738</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>19369.125881710315</v>
+        <v>46737.69612177994</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>5413.5057739180929</v>
+        <v>70055.198335036461</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>24042.548940684661</v>
+        <v>79820.626930112368</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>34339.234338081849</v>
+        <v>6226.3033051919938</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>11160.058858912169</v>
+        <v>90676.871915279684</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>20161.795299936726</v>
+        <v>46780.617784303766</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>21487.609872025172</v>
+        <v>17451.705751560832</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>4756.5695985060001</v>
+        <v>21577.285602024287</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>34784.457750445566</v>
+        <v>40675.788733122361</v>
       </c>
     </row>
   </sheetData>
